--- a/Documentation Hermès/PROJ-JournalTravail-GoupeA.xlsx
+++ b/Documentation Hermès/PROJ-JournalTravail-GoupeA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Temp\ETML-ES\SIG2\Gerber\ProjetAPI\GitHub\PROJ\Documentation Hermès\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emix\Documents\GitHub\PROJ\Documentation Hermès\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06235305-8E98-4E50-A44A-034EB48D5C70}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916431ED-3710-4C52-94B5-B27C433F0417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4665" yWindow="2655" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12780" yWindow="2250" windowWidth="21600" windowHeight="11930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maxime" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="NbPerWeek">[1]Donnees!$C$12</definedName>
     <definedName name="NbQuartPer">[1]Donnees!$C$13</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="45">
   <si>
     <t>Semaine</t>
   </si>
@@ -140,6 +140,42 @@
   </si>
   <si>
     <t>Relécture des différents documents et modification de certains points avant le rendu</t>
+  </si>
+  <si>
+    <t>Fin de Sprint / présentations</t>
+  </si>
+  <si>
+    <t>Présentations des documents de la phase d'initialisation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revue des modifications nécessaires </t>
+  </si>
+  <si>
+    <t>Modification du WBS, des variantes, ajout d'un WBS des variantes, modification des objectif du système. En groupe</t>
+  </si>
+  <si>
+    <t>Use case</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revue de l'objectif des use case et lecture des explications pour l'écriture des use cases </t>
+  </si>
+  <si>
+    <t>Rédaction des use case Recherche des films</t>
+  </si>
+  <si>
+    <t>use case</t>
+  </si>
+  <si>
+    <t>cours</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cours et explication pour la suite du sprint et mise au point </t>
+  </si>
+  <si>
+    <t>Cours et explication pour la suite, informations sur le prototype et les livrables</t>
+  </si>
+  <si>
+    <t>Use case Fitre de film et achat de film</t>
   </si>
 </sst>
 </file>
@@ -548,9 +584,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -585,6 +618,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -917,20 +953,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J371"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K37" sqref="K37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.26953125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -944,7 +980,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -955,25 +991,25 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+    </row>
+    <row r="4" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="28"/>
       <c r="C4" s="18"/>
       <c r="D4" s="26" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="19"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="2:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7">
@@ -983,29 +1019,29 @@
         <v>11</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="20"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="21">
@@ -1015,13 +1051,13 @@
         <v>15</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="10">
@@ -1032,8 +1068,8 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35" t="s">
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="10">
@@ -1042,7 +1078,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="28"/>
       <c r="C10" s="18"/>
       <c r="D10" s="26" t="s">
@@ -1050,32 +1086,32 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+    <row r="11" spans="2:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="B11" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="33" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="10">
         <v>0.5</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="35" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
+    <row r="13" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="10">
@@ -1086,7 +1122,7 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="28"/>
       <c r="C14" s="18"/>
       <c r="D14" s="26" t="s">
@@ -1094,31 +1130,31 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="22"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="28"/>
       <c r="C19" s="18"/>
       <c r="D19" s="26" t="s">
@@ -1126,8 +1162,8 @@
       </c>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+    <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="B20" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="10">
@@ -1138,13 +1174,13 @@
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="28"/>
       <c r="C22" s="18"/>
       <c r="D22" s="26" t="s">
@@ -1152,25 +1188,25 @@
       </c>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="28"/>
       <c r="C26" s="18"/>
       <c r="D26" s="29" t="s">
@@ -1178,8 +1214,8 @@
       </c>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="10">
@@ -1190,8 +1226,8 @@
       </c>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
+    <row r="28" spans="2:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="B28" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="10">
@@ -1202,13 +1238,13 @@
       </c>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="28"/>
       <c r="C30" s="18"/>
       <c r="D30" s="29" t="s">
@@ -1216,8 +1252,8 @@
       </c>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
+    <row r="31" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="B31" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="10">
@@ -1228,19 +1264,19 @@
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
@@ -1251,13 +1287,13 @@
       <c r="D34" s="15"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="27"/>
       <c r="E35" s="17"/>
     </row>
-    <row r="36" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1307,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
@@ -1283,7 +1319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="28"/>
       <c r="C38" s="18"/>
       <c r="D38" s="26" t="s">
@@ -1291,8 +1327,8 @@
       </c>
       <c r="E38" s="19"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="34" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="10">
@@ -1301,8 +1337,8 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="35" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="10">
@@ -1313,13 +1349,13 @@
       </c>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="28"/>
       <c r="C42" s="18" t="str">
         <f>(SUM(C43:C45)/4)&amp;" h"</f>
@@ -1330,25 +1366,25 @@
       </c>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="22"/>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="22"/>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="28"/>
       <c r="C46" s="18" t="str">
         <f>(SUM(C47:C48)/4)&amp;" h"</f>
@@ -1359,19 +1395,19 @@
       </c>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" s="9"/>
       <c r="C47" s="10"/>
       <c r="D47" s="22"/>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="28"/>
       <c r="C49" s="18" t="str">
         <f>(SUM(C50:C52)/4)&amp;" h"</f>
@@ -1382,25 +1418,25 @@
       </c>
       <c r="E49" s="19"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
       <c r="D50" s="11"/>
       <c r="E50" s="12"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
     </row>
-    <row r="53" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B53" s="28"/>
       <c r="C53" s="18" t="str">
         <f>(SUM(C54:C65)/4)&amp;" h"</f>
@@ -1411,25 +1447,25 @@
       </c>
       <c r="E53" s="19"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
     </row>
-    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B57" s="28"/>
       <c r="C57" s="18"/>
       <c r="D57" s="29" t="s">
@@ -1437,25 +1473,25 @@
       </c>
       <c r="E57" s="19"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="34"/>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B58" s="33"/>
       <c r="C58" s="10"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="34"/>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B59" s="33"/>
       <c r="C59" s="10"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
     </row>
-    <row r="61" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B61" s="28"/>
       <c r="C61" s="18"/>
       <c r="D61" s="29" t="s">
@@ -1463,31 +1499,31 @@
       </c>
       <c r="E61" s="19"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="34"/>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B62" s="33"/>
       <c r="C62" s="10"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
     </row>
-    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
     </row>
-    <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B66" s="14" t="s">
         <v>4</v>
       </c>
@@ -1498,7 +1534,7 @@
       <c r="D66" s="15"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
@@ -1512,7 +1548,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
@@ -1524,7 +1560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B69" s="28"/>
       <c r="C69" s="18" t="str">
         <f>(SUM(C70:C71)/4)&amp;" h"</f>
@@ -1535,19 +1571,19 @@
       </c>
       <c r="E69" s="19"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="9"/>
       <c r="C70" s="10"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B71" s="9"/>
       <c r="C71" s="10"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B72" s="28"/>
       <c r="C72" s="18" t="str">
         <f>(SUM(C73:C75)/4)&amp;" h"</f>
@@ -1558,25 +1594,25 @@
       </c>
       <c r="E72" s="19"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" s="9"/>
       <c r="C73" s="10"/>
       <c r="D73" s="22"/>
       <c r="E73" s="11"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" s="9"/>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
       <c r="D75" s="22"/>
       <c r="E75" s="11"/>
     </row>
-    <row r="76" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B76" s="28"/>
       <c r="C76" s="18" t="str">
         <f>(SUM(C77:C78)/4)&amp;" h"</f>
@@ -1587,19 +1623,19 @@
       </c>
       <c r="E76" s="19"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="9"/>
       <c r="C77" s="10"/>
       <c r="D77" s="22"/>
       <c r="E77" s="11"/>
     </row>
-    <row r="78" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
     </row>
-    <row r="79" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B79" s="28"/>
       <c r="C79" s="18" t="str">
         <f>(SUM(C80:C82)/4)&amp;" h"</f>
@@ -1610,25 +1646,25 @@
       </c>
       <c r="E79" s="19"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" s="9"/>
       <c r="C80" s="10"/>
       <c r="D80" s="11"/>
       <c r="E80" s="12"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
     </row>
-    <row r="82" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
     </row>
-    <row r="83" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B83" s="28"/>
       <c r="C83" s="18" t="str">
         <f>(SUM(C84:C96)/4)&amp;" h"</f>
@@ -1639,25 +1675,25 @@
       </c>
       <c r="E83" s="19"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="9"/>
       <c r="C84" s="10"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="9"/>
       <c r="C85" s="10"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
     </row>
-    <row r="86" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B86" s="9"/>
       <c r="C86" s="10"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
     </row>
-    <row r="87" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B87" s="28"/>
       <c r="C87" s="18"/>
       <c r="D87" s="29" t="s">
@@ -1665,25 +1701,25 @@
       </c>
       <c r="E87" s="19"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="34"/>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B88" s="33"/>
       <c r="C88" s="10"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="34"/>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B89" s="33"/>
       <c r="C89" s="10"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
     </row>
-    <row r="90" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B90" s="9"/>
       <c r="C90" s="10"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B91" s="28"/>
       <c r="C91" s="18"/>
       <c r="D91" s="29" t="s">
@@ -1691,37 +1727,37 @@
       </c>
       <c r="E91" s="19"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="34"/>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B92" s="33"/>
       <c r="C92" s="10"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" s="9"/>
       <c r="C93" s="10"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B94" s="9"/>
       <c r="C94" s="10"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
     </row>
-    <row r="95" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B95" s="9"/>
       <c r="C95" s="10"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
     </row>
-    <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B96" s="9"/>
       <c r="C96" s="10"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
     </row>
-    <row r="97" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B97" s="14" t="s">
         <v>4</v>
       </c>
@@ -1732,7 +1768,7 @@
       <c r="D97" s="15"/>
       <c r="E97" s="16"/>
     </row>
-    <row r="98" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
@@ -1746,7 +1782,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B99" s="4" t="s">
         <v>2</v>
       </c>
@@ -1758,7 +1794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="28"/>
       <c r="C100" s="18" t="str">
         <f>(SUM(C101:C102)/4)&amp;" h"</f>
@@ -1769,19 +1805,19 @@
       </c>
       <c r="E100" s="19"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B101" s="9"/>
       <c r="C101" s="10"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B102" s="9"/>
       <c r="C102" s="10"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
     </row>
-    <row r="103" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B103" s="28"/>
       <c r="C103" s="18" t="str">
         <f>(SUM(C104:C106)/4)&amp;" h"</f>
@@ -1792,25 +1828,25 @@
       </c>
       <c r="E103" s="19"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B104" s="9"/>
       <c r="C104" s="10"/>
       <c r="D104" s="22"/>
       <c r="E104" s="11"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B105" s="9"/>
       <c r="C105" s="10"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
     </row>
-    <row r="106" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B106" s="9"/>
       <c r="C106" s="10"/>
       <c r="D106" s="22"/>
       <c r="E106" s="11"/>
     </row>
-    <row r="107" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B107" s="28"/>
       <c r="C107" s="18" t="str">
         <f>(SUM(C108:C109)/4)&amp;" h"</f>
@@ -1821,19 +1857,19 @@
       </c>
       <c r="E107" s="19"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B108" s="9"/>
       <c r="C108" s="10"/>
       <c r="D108" s="22"/>
       <c r="E108" s="11"/>
     </row>
-    <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B109" s="9"/>
       <c r="C109" s="10"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
     </row>
-    <row r="110" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B110" s="28"/>
       <c r="C110" s="18" t="str">
         <f>(SUM(C111:C113)/4)&amp;" h"</f>
@@ -1844,25 +1880,25 @@
       </c>
       <c r="E110" s="19"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B111" s="9"/>
       <c r="C111" s="10"/>
       <c r="D111" s="11"/>
       <c r="E111" s="12"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B112" s="9"/>
       <c r="C112" s="10"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
     </row>
-    <row r="113" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B113" s="9"/>
       <c r="C113" s="10"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
     </row>
-    <row r="114" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B114" s="28"/>
       <c r="C114" s="18" t="str">
         <f>(SUM(C115:C128)/4)&amp;" h"</f>
@@ -1873,25 +1909,25 @@
       </c>
       <c r="E114" s="19"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B115" s="9"/>
       <c r="C115" s="10"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B116" s="9"/>
       <c r="C116" s="10"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
     </row>
-    <row r="117" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B117" s="9"/>
       <c r="C117" s="10"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
     </row>
-    <row r="118" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B118" s="28"/>
       <c r="C118" s="18"/>
       <c r="D118" s="29" t="s">
@@ -1899,25 +1935,25 @@
       </c>
       <c r="E118" s="19"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="34"/>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B119" s="33"/>
       <c r="C119" s="10"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="34"/>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B120" s="33"/>
       <c r="C120" s="10"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
     </row>
-    <row r="121" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B121" s="9"/>
       <c r="C121" s="10"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
     </row>
-    <row r="122" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B122" s="28"/>
       <c r="C122" s="18"/>
       <c r="D122" s="29" t="s">
@@ -1925,43 +1961,43 @@
       </c>
       <c r="E122" s="19"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="34"/>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B123" s="33"/>
       <c r="C123" s="10"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B124" s="9"/>
       <c r="C124" s="10"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B125" s="9"/>
       <c r="C125" s="10"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B126" s="9"/>
       <c r="C126" s="10"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B127" s="9"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
-    </row>
-    <row r="128" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="36"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="38"/>
+    </row>
+    <row r="128" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B128" s="9"/>
       <c r="C128" s="10"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38"/>
-    </row>
-    <row r="129" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+    </row>
+    <row r="129" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B129" s="14" t="s">
         <v>4</v>
       </c>
@@ -1972,7 +2008,7 @@
       <c r="D129" s="15"/>
       <c r="E129" s="16"/>
     </row>
-    <row r="130" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="1" t="s">
         <v>0</v>
       </c>
@@ -1986,7 +2022,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B131" s="4" t="s">
         <v>2</v>
       </c>
@@ -1998,7 +2034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B132" s="28"/>
       <c r="C132" s="18" t="str">
         <f>(SUM(C133:C134)/4)&amp;" h"</f>
@@ -2009,19 +2045,19 @@
       </c>
       <c r="E132" s="19"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B133" s="9"/>
       <c r="C133" s="10"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
-    <row r="134" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B134" s="9"/>
       <c r="C134" s="10"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
     </row>
-    <row r="135" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B135" s="28"/>
       <c r="C135" s="18" t="str">
         <f>(SUM(C136:C138)/4)&amp;" h"</f>
@@ -2032,25 +2068,25 @@
       </c>
       <c r="E135" s="19"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B136" s="9"/>
       <c r="C136" s="10"/>
       <c r="D136" s="22"/>
       <c r="E136" s="11"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B137" s="9"/>
       <c r="C137" s="10"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
     </row>
-    <row r="138" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B138" s="9"/>
       <c r="C138" s="10"/>
       <c r="D138" s="22"/>
       <c r="E138" s="11"/>
     </row>
-    <row r="139" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B139" s="28"/>
       <c r="C139" s="18" t="str">
         <f>(SUM(C140:C141)/4)&amp;" h"</f>
@@ -2061,19 +2097,19 @@
       </c>
       <c r="E139" s="19"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B140" s="9"/>
       <c r="C140" s="10"/>
       <c r="D140" s="22"/>
       <c r="E140" s="11"/>
     </row>
-    <row r="141" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B141" s="9"/>
       <c r="C141" s="10"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
     </row>
-    <row r="142" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B142" s="28"/>
       <c r="C142" s="18" t="str">
         <f>(SUM(C143:C145)/4)&amp;" h"</f>
@@ -2084,25 +2120,25 @@
       </c>
       <c r="E142" s="19"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B143" s="9"/>
       <c r="C143" s="10"/>
       <c r="D143" s="11"/>
       <c r="E143" s="12"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B144" s="9"/>
       <c r="C144" s="10"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
     </row>
-    <row r="145" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B145" s="9"/>
       <c r="C145" s="10"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
     </row>
-    <row r="146" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B146" s="28"/>
       <c r="C146" s="18" t="str">
         <f>(SUM(C147:C150)/4)&amp;" h"</f>
@@ -2113,31 +2149,31 @@
       </c>
       <c r="E146" s="19"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B147" s="9"/>
       <c r="C147" s="10"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B148" s="9"/>
       <c r="C148" s="10"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B149" s="9"/>
       <c r="C149" s="10"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
     </row>
-    <row r="150" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B150" s="9"/>
       <c r="C150" s="10"/>
       <c r="D150" s="13"/>
       <c r="E150" s="13"/>
     </row>
-    <row r="151" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B151" s="14" t="s">
         <v>4</v>
       </c>
@@ -2148,7 +2184,7 @@
       <c r="D151" s="15"/>
       <c r="E151" s="16"/>
     </row>
-    <row r="152" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B152" s="1" t="s">
         <v>0</v>
       </c>
@@ -2162,7 +2198,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B153" s="4" t="s">
         <v>2</v>
       </c>
@@ -2174,7 +2210,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B154" s="28"/>
       <c r="C154" s="18" t="str">
         <f>(SUM(C155:C156)/4)&amp;" h"</f>
@@ -2185,19 +2221,19 @@
       </c>
       <c r="E154" s="19"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B155" s="9"/>
       <c r="C155" s="10"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
     </row>
-    <row r="156" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B156" s="9"/>
       <c r="C156" s="10"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
     </row>
-    <row r="157" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="28"/>
       <c r="C157" s="18" t="str">
         <f>(SUM(C158:C160)/4)&amp;" h"</f>
@@ -2208,25 +2244,25 @@
       </c>
       <c r="E157" s="19"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B158" s="9"/>
       <c r="C158" s="10"/>
       <c r="D158" s="22"/>
       <c r="E158" s="11"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B159" s="9"/>
       <c r="C159" s="10"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
     </row>
-    <row r="160" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B160" s="9"/>
       <c r="C160" s="10"/>
       <c r="D160" s="22"/>
       <c r="E160" s="11"/>
     </row>
-    <row r="161" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B161" s="28"/>
       <c r="C161" s="18" t="str">
         <f>(SUM(C162:C163)/4)&amp;" h"</f>
@@ -2237,19 +2273,19 @@
       </c>
       <c r="E161" s="19"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B162" s="9"/>
       <c r="C162" s="10"/>
       <c r="D162" s="22"/>
       <c r="E162" s="11"/>
     </row>
-    <row r="163" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B163" s="9"/>
       <c r="C163" s="10"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
     </row>
-    <row r="164" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B164" s="28"/>
       <c r="C164" s="18" t="str">
         <f>(SUM(C165:C167)/4)&amp;" h"</f>
@@ -2260,25 +2296,25 @@
       </c>
       <c r="E164" s="19"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B165" s="9"/>
       <c r="C165" s="10"/>
       <c r="D165" s="11"/>
       <c r="E165" s="12"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B166" s="9"/>
       <c r="C166" s="10"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
     </row>
-    <row r="167" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B167" s="9"/>
       <c r="C167" s="10"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
     </row>
-    <row r="168" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B168" s="28"/>
       <c r="C168" s="18" t="str">
         <f>(SUM(C169:C172)/4)&amp;" h"</f>
@@ -2289,31 +2325,31 @@
       </c>
       <c r="E168" s="19"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B169" s="9"/>
       <c r="C169" s="10"/>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B170" s="9"/>
       <c r="C170" s="10"/>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B171" s="9"/>
       <c r="C171" s="10"/>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
     </row>
-    <row r="172" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B172" s="9"/>
       <c r="C172" s="10"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
     </row>
-    <row r="173" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B173" s="14" t="s">
         <v>4</v>
       </c>
@@ -2324,7 +2360,7 @@
       <c r="D173" s="15"/>
       <c r="E173" s="16"/>
     </row>
-    <row r="174" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B174" s="1" t="s">
         <v>0</v>
       </c>
@@ -2338,7 +2374,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="175" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B175" s="4" t="s">
         <v>2</v>
       </c>
@@ -2350,7 +2386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B176" s="28"/>
       <c r="C176" s="18" t="str">
         <f>(SUM(C177:C178)/4)&amp;" h"</f>
@@ -2361,19 +2397,19 @@
       </c>
       <c r="E176" s="19"/>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B177" s="9"/>
       <c r="C177" s="10"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
     </row>
-    <row r="178" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="9"/>
       <c r="C178" s="10"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
     </row>
-    <row r="179" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B179" s="28"/>
       <c r="C179" s="18" t="str">
         <f>(SUM(C180:C182)/4)&amp;" h"</f>
@@ -2384,25 +2420,25 @@
       </c>
       <c r="E179" s="19"/>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B180" s="9"/>
       <c r="C180" s="10"/>
       <c r="D180" s="22"/>
       <c r="E180" s="11"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B181" s="9"/>
       <c r="C181" s="10"/>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
     </row>
-    <row r="182" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B182" s="9"/>
       <c r="C182" s="10"/>
       <c r="D182" s="22"/>
       <c r="E182" s="11"/>
     </row>
-    <row r="183" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B183" s="28"/>
       <c r="C183" s="18" t="str">
         <f>(SUM(C184:C185)/4)&amp;" h"</f>
@@ -2413,19 +2449,19 @@
       </c>
       <c r="E183" s="19"/>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B184" s="9"/>
       <c r="C184" s="10"/>
       <c r="D184" s="22"/>
       <c r="E184" s="11"/>
     </row>
-    <row r="185" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B185" s="9"/>
       <c r="C185" s="10"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
     </row>
-    <row r="186" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B186" s="28"/>
       <c r="C186" s="18" t="str">
         <f>(SUM(C187:C189)/4)&amp;" h"</f>
@@ -2436,25 +2472,25 @@
       </c>
       <c r="E186" s="19"/>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B187" s="9"/>
       <c r="C187" s="10"/>
       <c r="D187" s="11"/>
       <c r="E187" s="12"/>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B188" s="9"/>
       <c r="C188" s="10"/>
       <c r="D188" s="12"/>
       <c r="E188" s="12"/>
     </row>
-    <row r="189" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B189" s="9"/>
       <c r="C189" s="10"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
     </row>
-    <row r="190" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B190" s="28"/>
       <c r="C190" s="18" t="str">
         <f>(SUM(C191:C194)/4)&amp;" h"</f>
@@ -2465,31 +2501,31 @@
       </c>
       <c r="E190" s="19"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B191" s="9"/>
       <c r="C191" s="10"/>
       <c r="D191" s="12"/>
       <c r="E191" s="12"/>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B192" s="9"/>
       <c r="C192" s="10"/>
       <c r="D192" s="12"/>
       <c r="E192" s="12"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B193" s="9"/>
       <c r="C193" s="10"/>
       <c r="D193" s="12"/>
       <c r="E193" s="12"/>
     </row>
-    <row r="194" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B194" s="9"/>
       <c r="C194" s="10"/>
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
     </row>
-    <row r="195" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B195" s="14" t="s">
         <v>4</v>
       </c>
@@ -2500,7 +2536,7 @@
       <c r="D195" s="15"/>
       <c r="E195" s="16"/>
     </row>
-    <row r="196" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B196" s="1" t="s">
         <v>0</v>
       </c>
@@ -2514,7 +2550,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="197" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B197" s="4" t="s">
         <v>2</v>
       </c>
@@ -2526,7 +2562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B198" s="28"/>
       <c r="C198" s="18" t="str">
         <f>(SUM(C199:C200)/4)&amp;" h"</f>
@@ -2537,19 +2573,19 @@
       </c>
       <c r="E198" s="19"/>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B199" s="9"/>
       <c r="C199" s="10"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
     </row>
-    <row r="200" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B200" s="9"/>
       <c r="C200" s="10"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
     </row>
-    <row r="201" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B201" s="28"/>
       <c r="C201" s="18" t="str">
         <f>(SUM(C202:C204)/4)&amp;" h"</f>
@@ -2560,25 +2596,25 @@
       </c>
       <c r="E201" s="19"/>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B202" s="9"/>
       <c r="C202" s="10"/>
       <c r="D202" s="22"/>
       <c r="E202" s="11"/>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B203" s="9"/>
       <c r="C203" s="10"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
     </row>
-    <row r="204" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B204" s="9"/>
       <c r="C204" s="10"/>
       <c r="D204" s="22"/>
       <c r="E204" s="11"/>
     </row>
-    <row r="205" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B205" s="28"/>
       <c r="C205" s="18" t="str">
         <f>(SUM(C206:C207)/4)&amp;" h"</f>
@@ -2589,19 +2625,19 @@
       </c>
       <c r="E205" s="19"/>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B206" s="9"/>
       <c r="C206" s="10"/>
       <c r="D206" s="22"/>
       <c r="E206" s="11"/>
     </row>
-    <row r="207" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B207" s="9"/>
       <c r="C207" s="10"/>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
     </row>
-    <row r="208" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B208" s="28"/>
       <c r="C208" s="18" t="str">
         <f>(SUM(C209:C211)/4)&amp;" h"</f>
@@ -2612,25 +2648,25 @@
       </c>
       <c r="E208" s="19"/>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B209" s="9"/>
       <c r="C209" s="10"/>
       <c r="D209" s="11"/>
       <c r="E209" s="12"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B210" s="9"/>
       <c r="C210" s="10"/>
       <c r="D210" s="12"/>
       <c r="E210" s="12"/>
     </row>
-    <row r="211" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B211" s="9"/>
       <c r="C211" s="10"/>
       <c r="D211" s="12"/>
       <c r="E211" s="12"/>
     </row>
-    <row r="212" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B212" s="28"/>
       <c r="C212" s="18" t="str">
         <f>(SUM(C213:C216)/4)&amp;" h"</f>
@@ -2641,31 +2677,31 @@
       </c>
       <c r="E212" s="19"/>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B213" s="9"/>
       <c r="C213" s="10"/>
       <c r="D213" s="12"/>
       <c r="E213" s="12"/>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B214" s="9"/>
       <c r="C214" s="10"/>
       <c r="D214" s="12"/>
       <c r="E214" s="12"/>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B215" s="9"/>
       <c r="C215" s="10"/>
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
     </row>
-    <row r="216" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B216" s="9"/>
       <c r="C216" s="10"/>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
     </row>
-    <row r="217" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B217" s="14" t="s">
         <v>4</v>
       </c>
@@ -2676,7 +2712,7 @@
       <c r="D217" s="15"/>
       <c r="E217" s="16"/>
     </row>
-    <row r="218" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B218" s="1" t="s">
         <v>0</v>
       </c>
@@ -2690,7 +2726,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="219" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B219" s="4" t="s">
         <v>2</v>
       </c>
@@ -2702,7 +2738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B220" s="28"/>
       <c r="C220" s="18" t="str">
         <f>(SUM(C221:C222)/4)&amp;" h"</f>
@@ -2713,19 +2749,19 @@
       </c>
       <c r="E220" s="19"/>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B221" s="9"/>
       <c r="C221" s="10"/>
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
     </row>
-    <row r="222" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B222" s="9"/>
       <c r="C222" s="10"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
     </row>
-    <row r="223" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B223" s="28"/>
       <c r="C223" s="18" t="str">
         <f>(SUM(C224:C226)/4)&amp;" h"</f>
@@ -2736,25 +2772,25 @@
       </c>
       <c r="E223" s="19"/>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B224" s="9"/>
       <c r="C224" s="10"/>
       <c r="D224" s="22"/>
       <c r="E224" s="11"/>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B225" s="9"/>
       <c r="C225" s="10"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11"/>
     </row>
-    <row r="226" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B226" s="9"/>
       <c r="C226" s="10"/>
       <c r="D226" s="22"/>
       <c r="E226" s="11"/>
     </row>
-    <row r="227" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B227" s="28"/>
       <c r="C227" s="18" t="str">
         <f>(SUM(C228:C229)/4)&amp;" h"</f>
@@ -2765,19 +2801,19 @@
       </c>
       <c r="E227" s="19"/>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B228" s="9"/>
       <c r="C228" s="10"/>
       <c r="D228" s="22"/>
       <c r="E228" s="11"/>
     </row>
-    <row r="229" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B229" s="9"/>
       <c r="C229" s="10"/>
       <c r="D229" s="11"/>
       <c r="E229" s="11"/>
     </row>
-    <row r="230" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B230" s="28"/>
       <c r="C230" s="18" t="str">
         <f>(SUM(C231:C233)/4)&amp;" h"</f>
@@ -2788,25 +2824,25 @@
       </c>
       <c r="E230" s="19"/>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B231" s="9"/>
       <c r="C231" s="10"/>
       <c r="D231" s="11"/>
       <c r="E231" s="12"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B232" s="9"/>
       <c r="C232" s="10"/>
       <c r="D232" s="12"/>
       <c r="E232" s="12"/>
     </row>
-    <row r="233" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B233" s="9"/>
       <c r="C233" s="10"/>
       <c r="D233" s="12"/>
       <c r="E233" s="12"/>
     </row>
-    <row r="234" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B234" s="28"/>
       <c r="C234" s="18" t="str">
         <f>(SUM(C235:C238)/4)&amp;" h"</f>
@@ -2817,31 +2853,31 @@
       </c>
       <c r="E234" s="19"/>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B235" s="9"/>
       <c r="C235" s="10"/>
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B236" s="9"/>
       <c r="C236" s="10"/>
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B237" s="9"/>
       <c r="C237" s="10"/>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
     </row>
-    <row r="238" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B238" s="9"/>
       <c r="C238" s="10"/>
       <c r="D238" s="13"/>
       <c r="E238" s="13"/>
     </row>
-    <row r="239" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B239" s="14" t="s">
         <v>4</v>
       </c>
@@ -2852,7 +2888,7 @@
       <c r="D239" s="15"/>
       <c r="E239" s="16"/>
     </row>
-    <row r="240" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B240" s="1" t="s">
         <v>0</v>
       </c>
@@ -2864,7 +2900,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="241" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B241" s="4" t="s">
         <v>2</v>
       </c>
@@ -2876,7 +2912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B242" s="28"/>
       <c r="C242" s="18" t="str">
         <f>(SUM(C243:C244)/4)&amp;" h"</f>
@@ -2887,19 +2923,19 @@
       </c>
       <c r="E242" s="19"/>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B243" s="9"/>
       <c r="C243" s="10"/>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
     </row>
-    <row r="244" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B244" s="9"/>
       <c r="C244" s="10"/>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
     </row>
-    <row r="245" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B245" s="28"/>
       <c r="C245" s="18" t="str">
         <f>(SUM(C246:C248)/4)&amp;" h"</f>
@@ -2910,25 +2946,25 @@
       </c>
       <c r="E245" s="19"/>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B246" s="9"/>
       <c r="C246" s="10"/>
       <c r="D246" s="22"/>
       <c r="E246" s="11"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B247" s="9"/>
       <c r="C247" s="10"/>
       <c r="D247" s="11"/>
       <c r="E247" s="11"/>
     </row>
-    <row r="248" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B248" s="9"/>
       <c r="C248" s="10"/>
       <c r="D248" s="22"/>
       <c r="E248" s="11"/>
     </row>
-    <row r="249" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B249" s="28"/>
       <c r="C249" s="18" t="str">
         <f>(SUM(C250:C251)/4)&amp;" h"</f>
@@ -2939,19 +2975,19 @@
       </c>
       <c r="E249" s="19"/>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B250" s="9"/>
       <c r="C250" s="10"/>
       <c r="D250" s="22"/>
       <c r="E250" s="11"/>
     </row>
-    <row r="251" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B251" s="9"/>
       <c r="C251" s="10"/>
       <c r="D251" s="11"/>
       <c r="E251" s="11"/>
     </row>
-    <row r="252" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B252" s="28"/>
       <c r="C252" s="18" t="str">
         <f>(SUM(C253:C255)/4)&amp;" h"</f>
@@ -2962,25 +2998,25 @@
       </c>
       <c r="E252" s="19"/>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B253" s="9"/>
       <c r="C253" s="10"/>
       <c r="D253" s="11"/>
       <c r="E253" s="12"/>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B254" s="9"/>
       <c r="C254" s="10"/>
       <c r="D254" s="12"/>
       <c r="E254" s="12"/>
     </row>
-    <row r="255" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B255" s="9"/>
       <c r="C255" s="10"/>
       <c r="D255" s="12"/>
       <c r="E255" s="12"/>
     </row>
-    <row r="256" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B256" s="28"/>
       <c r="C256" s="18" t="str">
         <f>(SUM(C257:C260)/4)&amp;" h"</f>
@@ -2991,31 +3027,31 @@
       </c>
       <c r="E256" s="19"/>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B257" s="9"/>
       <c r="C257" s="10"/>
       <c r="D257" s="12"/>
       <c r="E257" s="12"/>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B258" s="9"/>
       <c r="C258" s="10"/>
       <c r="D258" s="12"/>
       <c r="E258" s="12"/>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B259" s="9"/>
       <c r="C259" s="10"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
     </row>
-    <row r="260" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B260" s="9"/>
       <c r="C260" s="10"/>
       <c r="D260" s="13"/>
       <c r="E260" s="13"/>
     </row>
-    <row r="261" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B261" s="14" t="s">
         <v>4</v>
       </c>
@@ -3026,7 +3062,7 @@
       <c r="D261" s="15"/>
       <c r="E261" s="16"/>
     </row>
-    <row r="262" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B262" s="1" t="s">
         <v>0</v>
       </c>
@@ -3040,7 +3076,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="263" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B263" s="4" t="s">
         <v>2</v>
       </c>
@@ -3052,7 +3088,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B264" s="28"/>
       <c r="C264" s="18" t="str">
         <f>(SUM(C265:C266)/4)&amp;" h"</f>
@@ -3063,19 +3099,19 @@
       </c>
       <c r="E264" s="19"/>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B265" s="9"/>
       <c r="C265" s="10"/>
       <c r="D265" s="8"/>
       <c r="E265" s="8"/>
     </row>
-    <row r="266" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B266" s="9"/>
       <c r="C266" s="10"/>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
     </row>
-    <row r="267" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B267" s="28"/>
       <c r="C267" s="18" t="str">
         <f>(SUM(C268:C270)/4)&amp;" h"</f>
@@ -3086,25 +3122,25 @@
       </c>
       <c r="E267" s="19"/>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B268" s="9"/>
       <c r="C268" s="10"/>
       <c r="D268" s="22"/>
       <c r="E268" s="11"/>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B269" s="9"/>
       <c r="C269" s="10"/>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
     </row>
-    <row r="270" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B270" s="9"/>
       <c r="C270" s="10"/>
       <c r="D270" s="22"/>
       <c r="E270" s="11"/>
     </row>
-    <row r="271" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B271" s="28"/>
       <c r="C271" s="18" t="str">
         <f>(SUM(C272:C273)/4)&amp;" h"</f>
@@ -3115,19 +3151,19 @@
       </c>
       <c r="E271" s="19"/>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B272" s="9"/>
       <c r="C272" s="10"/>
       <c r="D272" s="22"/>
       <c r="E272" s="11"/>
     </row>
-    <row r="273" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B273" s="9"/>
       <c r="C273" s="10"/>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
     </row>
-    <row r="274" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B274" s="28"/>
       <c r="C274" s="18" t="str">
         <f>(SUM(C275:C277)/4)&amp;" h"</f>
@@ -3138,25 +3174,25 @@
       </c>
       <c r="E274" s="19"/>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B275" s="9"/>
       <c r="C275" s="10"/>
       <c r="D275" s="11"/>
       <c r="E275" s="12"/>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B276" s="9"/>
       <c r="C276" s="10"/>
       <c r="D276" s="12"/>
       <c r="E276" s="12"/>
     </row>
-    <row r="277" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B277" s="9"/>
       <c r="C277" s="10"/>
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
     </row>
-    <row r="278" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B278" s="28"/>
       <c r="C278" s="18" t="str">
         <f>(SUM(C279:C282)/4)&amp;" h"</f>
@@ -3167,31 +3203,31 @@
       </c>
       <c r="E278" s="19"/>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B279" s="9"/>
       <c r="C279" s="10"/>
       <c r="D279" s="12"/>
       <c r="E279" s="12"/>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B280" s="9"/>
       <c r="C280" s="10"/>
       <c r="D280" s="12"/>
       <c r="E280" s="12"/>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B281" s="9"/>
       <c r="C281" s="10"/>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
     </row>
-    <row r="282" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B282" s="9"/>
       <c r="C282" s="10"/>
       <c r="D282" s="13"/>
       <c r="E282" s="13"/>
     </row>
-    <row r="283" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B283" s="14" t="s">
         <v>4</v>
       </c>
@@ -3202,7 +3238,7 @@
       <c r="D283" s="15"/>
       <c r="E283" s="16"/>
     </row>
-    <row r="284" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B284" s="1" t="s">
         <v>0</v>
       </c>
@@ -3216,7 +3252,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="285" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B285" s="4" t="s">
         <v>2</v>
       </c>
@@ -3228,7 +3264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B286" s="28"/>
       <c r="C286" s="18" t="str">
         <f>(SUM(C287:C288)/4)&amp;" h"</f>
@@ -3239,19 +3275,19 @@
       </c>
       <c r="E286" s="19"/>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B287" s="9"/>
       <c r="C287" s="10"/>
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
     </row>
-    <row r="288" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B288" s="9"/>
       <c r="C288" s="10"/>
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
     </row>
-    <row r="289" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B289" s="28"/>
       <c r="C289" s="18" t="str">
         <f>(SUM(C290:C292)/4)&amp;" h"</f>
@@ -3262,25 +3298,25 @@
       </c>
       <c r="E289" s="19"/>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B290" s="9"/>
       <c r="C290" s="10"/>
       <c r="D290" s="22"/>
       <c r="E290" s="11"/>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B291" s="9"/>
       <c r="C291" s="10"/>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
     </row>
-    <row r="292" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B292" s="9"/>
       <c r="C292" s="10"/>
       <c r="D292" s="22"/>
       <c r="E292" s="11"/>
     </row>
-    <row r="293" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B293" s="28"/>
       <c r="C293" s="18" t="str">
         <f>(SUM(C294:C295)/4)&amp;" h"</f>
@@ -3291,19 +3327,19 @@
       </c>
       <c r="E293" s="19"/>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B294" s="9"/>
       <c r="C294" s="10"/>
       <c r="D294" s="22"/>
       <c r="E294" s="11"/>
     </row>
-    <row r="295" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B295" s="9"/>
       <c r="C295" s="10"/>
       <c r="D295" s="11"/>
       <c r="E295" s="11"/>
     </row>
-    <row r="296" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B296" s="28"/>
       <c r="C296" s="18" t="str">
         <f>(SUM(C297:C299)/4)&amp;" h"</f>
@@ -3314,25 +3350,25 @@
       </c>
       <c r="E296" s="19"/>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B297" s="9"/>
       <c r="C297" s="10"/>
       <c r="D297" s="11"/>
       <c r="E297" s="12"/>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B298" s="9"/>
       <c r="C298" s="10"/>
       <c r="D298" s="12"/>
       <c r="E298" s="12"/>
     </row>
-    <row r="299" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B299" s="9"/>
       <c r="C299" s="10"/>
       <c r="D299" s="12"/>
       <c r="E299" s="12"/>
     </row>
-    <row r="300" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B300" s="28"/>
       <c r="C300" s="18" t="str">
         <f>(SUM(C301:C304)/4)&amp;" h"</f>
@@ -3343,31 +3379,31 @@
       </c>
       <c r="E300" s="19"/>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B301" s="9"/>
       <c r="C301" s="10"/>
       <c r="D301" s="12"/>
       <c r="E301" s="12"/>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B302" s="9"/>
       <c r="C302" s="10"/>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B303" s="9"/>
       <c r="C303" s="10"/>
       <c r="D303" s="12"/>
       <c r="E303" s="12"/>
     </row>
-    <row r="304" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B304" s="9"/>
       <c r="C304" s="10"/>
       <c r="D304" s="13"/>
       <c r="E304" s="13"/>
     </row>
-    <row r="305" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B305" s="14" t="s">
         <v>4</v>
       </c>
@@ -3378,7 +3414,7 @@
       <c r="D305" s="15"/>
       <c r="E305" s="16"/>
     </row>
-    <row r="306" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B306" s="1" t="s">
         <v>0</v>
       </c>
@@ -3392,7 +3428,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="307" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B307" s="4" t="s">
         <v>2</v>
       </c>
@@ -3404,7 +3440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B308" s="28"/>
       <c r="C308" s="18" t="str">
         <f>(SUM(C309:C310)/4)&amp;" h"</f>
@@ -3415,19 +3451,19 @@
       </c>
       <c r="E308" s="19"/>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B309" s="9"/>
       <c r="C309" s="10"/>
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
     </row>
-    <row r="310" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B310" s="9"/>
       <c r="C310" s="10"/>
       <c r="D310" s="11"/>
       <c r="E310" s="11"/>
     </row>
-    <row r="311" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B311" s="28"/>
       <c r="C311" s="18" t="str">
         <f>(SUM(C312:C314)/4)&amp;" h"</f>
@@ -3438,25 +3474,25 @@
       </c>
       <c r="E311" s="19"/>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B312" s="9"/>
       <c r="C312" s="10"/>
       <c r="D312" s="22"/>
       <c r="E312" s="11"/>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B313" s="9"/>
       <c r="C313" s="10"/>
       <c r="D313" s="11"/>
       <c r="E313" s="11"/>
     </row>
-    <row r="314" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B314" s="9"/>
       <c r="C314" s="10"/>
       <c r="D314" s="22"/>
       <c r="E314" s="11"/>
     </row>
-    <row r="315" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B315" s="28"/>
       <c r="C315" s="18" t="str">
         <f>(SUM(C316:C317)/4)&amp;" h"</f>
@@ -3467,19 +3503,19 @@
       </c>
       <c r="E315" s="19"/>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B316" s="9"/>
       <c r="C316" s="10"/>
       <c r="D316" s="22"/>
       <c r="E316" s="11"/>
     </row>
-    <row r="317" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B317" s="9"/>
       <c r="C317" s="10"/>
       <c r="D317" s="11"/>
       <c r="E317" s="11"/>
     </row>
-    <row r="318" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B318" s="28"/>
       <c r="C318" s="18" t="str">
         <f>(SUM(C319:C321)/4)&amp;" h"</f>
@@ -3490,25 +3526,25 @@
       </c>
       <c r="E318" s="19"/>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B319" s="9"/>
       <c r="C319" s="10"/>
       <c r="D319" s="11"/>
       <c r="E319" s="12"/>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B320" s="9"/>
       <c r="C320" s="10"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
     </row>
-    <row r="321" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B321" s="9"/>
       <c r="C321" s="10"/>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
     </row>
-    <row r="322" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B322" s="28"/>
       <c r="C322" s="18" t="str">
         <f>(SUM(C323:C326)/4)&amp;" h"</f>
@@ -3519,31 +3555,31 @@
       </c>
       <c r="E322" s="19"/>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B323" s="9"/>
       <c r="C323" s="10"/>
       <c r="D323" s="12"/>
       <c r="E323" s="12"/>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B324" s="9"/>
       <c r="C324" s="10"/>
       <c r="D324" s="12"/>
       <c r="E324" s="12"/>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B325" s="9"/>
       <c r="C325" s="10"/>
       <c r="D325" s="12"/>
       <c r="E325" s="12"/>
     </row>
-    <row r="326" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B326" s="9"/>
       <c r="C326" s="10"/>
       <c r="D326" s="13"/>
       <c r="E326" s="13"/>
     </row>
-    <row r="327" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B327" s="14" t="s">
         <v>4</v>
       </c>
@@ -3554,7 +3590,7 @@
       <c r="D327" s="15"/>
       <c r="E327" s="16"/>
     </row>
-    <row r="328" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B328" s="1" t="s">
         <v>0</v>
       </c>
@@ -3568,7 +3604,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B329" s="4" t="s">
         <v>2</v>
       </c>
@@ -3580,7 +3616,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B330" s="28"/>
       <c r="C330" s="18" t="str">
         <f>(SUM(C331:C332)/4)&amp;" h"</f>
@@ -3591,19 +3627,19 @@
       </c>
       <c r="E330" s="19"/>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B331" s="9"/>
       <c r="C331" s="10"/>
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
     </row>
-    <row r="332" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B332" s="9"/>
       <c r="C332" s="10"/>
       <c r="D332" s="11"/>
       <c r="E332" s="11"/>
     </row>
-    <row r="333" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B333" s="28"/>
       <c r="C333" s="18" t="str">
         <f>(SUM(C334:C336)/4)&amp;" h"</f>
@@ -3614,25 +3650,25 @@
       </c>
       <c r="E333" s="19"/>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B334" s="9"/>
       <c r="C334" s="10"/>
       <c r="D334" s="22"/>
       <c r="E334" s="11"/>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B335" s="9"/>
       <c r="C335" s="10"/>
       <c r="D335" s="11"/>
       <c r="E335" s="11"/>
     </row>
-    <row r="336" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B336" s="9"/>
       <c r="C336" s="10"/>
       <c r="D336" s="22"/>
       <c r="E336" s="11"/>
     </row>
-    <row r="337" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B337" s="28"/>
       <c r="C337" s="18" t="str">
         <f>(SUM(C338:C339)/4)&amp;" h"</f>
@@ -3643,19 +3679,19 @@
       </c>
       <c r="E337" s="19"/>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B338" s="9"/>
       <c r="C338" s="10"/>
       <c r="D338" s="22"/>
       <c r="E338" s="11"/>
     </row>
-    <row r="339" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B339" s="9"/>
       <c r="C339" s="10"/>
       <c r="D339" s="11"/>
       <c r="E339" s="11"/>
     </row>
-    <row r="340" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B340" s="28"/>
       <c r="C340" s="18" t="str">
         <f>(SUM(C341:C343)/4)&amp;" h"</f>
@@ -3666,25 +3702,25 @@
       </c>
       <c r="E340" s="19"/>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B341" s="9"/>
       <c r="C341" s="10"/>
       <c r="D341" s="11"/>
       <c r="E341" s="12"/>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B342" s="9"/>
       <c r="C342" s="10"/>
       <c r="D342" s="12"/>
       <c r="E342" s="12"/>
     </row>
-    <row r="343" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B343" s="9"/>
       <c r="C343" s="10"/>
       <c r="D343" s="12"/>
       <c r="E343" s="12"/>
     </row>
-    <row r="344" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B344" s="28"/>
       <c r="C344" s="18" t="str">
         <f>(SUM(C345:C348)/4)&amp;" h"</f>
@@ -3695,31 +3731,31 @@
       </c>
       <c r="E344" s="19"/>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B345" s="9"/>
       <c r="C345" s="10"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B346" s="9"/>
       <c r="C346" s="10"/>
       <c r="D346" s="12"/>
       <c r="E346" s="12"/>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B347" s="9"/>
       <c r="C347" s="10"/>
       <c r="D347" s="12"/>
       <c r="E347" s="12"/>
     </row>
-    <row r="348" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B348" s="9"/>
       <c r="C348" s="10"/>
       <c r="D348" s="13"/>
       <c r="E348" s="13"/>
     </row>
-    <row r="349" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B349" s="14" t="s">
         <v>4</v>
       </c>
@@ -3730,7 +3766,7 @@
       <c r="D349" s="15"/>
       <c r="E349" s="16"/>
     </row>
-    <row r="350" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B350" s="1" t="s">
         <v>0</v>
       </c>
@@ -3744,7 +3780,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="351" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B351" s="4" t="s">
         <v>2</v>
       </c>
@@ -3756,7 +3792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B352" s="28"/>
       <c r="C352" s="18" t="str">
         <f>(SUM(C353:C354)/4)&amp;" h"</f>
@@ -3767,19 +3803,19 @@
       </c>
       <c r="E352" s="19"/>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B353" s="9"/>
       <c r="C353" s="10"/>
       <c r="D353" s="8"/>
       <c r="E353" s="8"/>
     </row>
-    <row r="354" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B354" s="9"/>
       <c r="C354" s="10"/>
       <c r="D354" s="11"/>
       <c r="E354" s="11"/>
     </row>
-    <row r="355" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B355" s="28"/>
       <c r="C355" s="18" t="str">
         <f>(SUM(C356:C358)/4)&amp;" h"</f>
@@ -3790,25 +3826,25 @@
       </c>
       <c r="E355" s="19"/>
     </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B356" s="9"/>
       <c r="C356" s="10"/>
       <c r="D356" s="22"/>
       <c r="E356" s="11"/>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B357" s="9"/>
       <c r="C357" s="10"/>
       <c r="D357" s="11"/>
       <c r="E357" s="11"/>
     </row>
-    <row r="358" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B358" s="9"/>
       <c r="C358" s="10"/>
       <c r="D358" s="22"/>
       <c r="E358" s="11"/>
     </row>
-    <row r="359" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B359" s="28"/>
       <c r="C359" s="18" t="str">
         <f>(SUM(C360:C361)/4)&amp;" h"</f>
@@ -3819,19 +3855,19 @@
       </c>
       <c r="E359" s="19"/>
     </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B360" s="9"/>
       <c r="C360" s="10"/>
       <c r="D360" s="22"/>
       <c r="E360" s="11"/>
     </row>
-    <row r="361" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B361" s="9"/>
       <c r="C361" s="10"/>
       <c r="D361" s="11"/>
       <c r="E361" s="11"/>
     </row>
-    <row r="362" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B362" s="28"/>
       <c r="C362" s="18" t="str">
         <f>(SUM(C363:C365)/4)&amp;" h"</f>
@@ -3842,25 +3878,25 @@
       </c>
       <c r="E362" s="19"/>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B363" s="9"/>
       <c r="C363" s="10"/>
       <c r="D363" s="11"/>
       <c r="E363" s="12"/>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B364" s="9"/>
       <c r="C364" s="10"/>
       <c r="D364" s="12"/>
       <c r="E364" s="12"/>
     </row>
-    <row r="365" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B365" s="9"/>
       <c r="C365" s="10"/>
       <c r="D365" s="12"/>
       <c r="E365" s="12"/>
     </row>
-    <row r="366" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B366" s="28"/>
       <c r="C366" s="18" t="str">
         <f>(SUM(C367:C370)/4)&amp;" h"</f>
@@ -3871,31 +3907,31 @@
       </c>
       <c r="E366" s="19"/>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B367" s="9"/>
       <c r="C367" s="10"/>
       <c r="D367" s="12"/>
       <c r="E367" s="12"/>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B368" s="9"/>
       <c r="C368" s="10"/>
       <c r="D368" s="12"/>
       <c r="E368" s="12"/>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B369" s="9"/>
       <c r="C369" s="10"/>
       <c r="D369" s="12"/>
       <c r="E369" s="12"/>
     </row>
-    <row r="370" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B370" s="9"/>
       <c r="C370" s="10"/>
       <c r="D370" s="13"/>
       <c r="E370" s="13"/>
     </row>
-    <row r="371" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B371" s="14" t="s">
         <v>4</v>
       </c>
@@ -3923,20 +3959,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B31092-303D-4AAC-9350-B5A6115F269D}">
   <dimension ref="B1:J371"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.26953125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3950,7 +3986,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -3961,25 +3997,25 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+    </row>
+    <row r="4" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="28"/>
       <c r="C4" s="18"/>
       <c r="D4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="19"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="2:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7">
@@ -3989,29 +4025,29 @@
         <v>11</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="20"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="21">
@@ -4021,13 +4057,13 @@
         <v>15</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="10">
@@ -4038,8 +4074,8 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35" t="s">
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="10">
@@ -4048,7 +4084,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="28"/>
       <c r="C10" s="18"/>
       <c r="D10" s="29" t="s">
@@ -4056,32 +4092,32 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+    <row r="11" spans="2:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="B11" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="33" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="10">
         <v>0.5</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="35" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
+    <row r="13" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="10">
@@ -4092,7 +4128,7 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="28"/>
       <c r="C14" s="18"/>
       <c r="D14" s="29" t="s">
@@ -4100,31 +4136,31 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="22"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="28"/>
       <c r="C19" s="18"/>
       <c r="D19" s="29" t="s">
@@ -4132,8 +4168,8 @@
       </c>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+    <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="B20" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="10">
@@ -4144,13 +4180,13 @@
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="28"/>
       <c r="C22" s="18"/>
       <c r="D22" s="29" t="s">
@@ -4158,25 +4194,25 @@
       </c>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="28"/>
       <c r="C26" s="18"/>
       <c r="D26" s="29" t="s">
@@ -4184,8 +4220,8 @@
       </c>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="10">
@@ -4196,8 +4232,8 @@
       </c>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
+    <row r="28" spans="2:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="B28" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="10">
@@ -4208,13 +4244,13 @@
       </c>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="28"/>
       <c r="C30" s="18"/>
       <c r="D30" s="29" t="s">
@@ -4222,8 +4258,8 @@
       </c>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
+    <row r="31" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="B31" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="10">
@@ -4234,19 +4270,19 @@
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
@@ -4257,13 +4293,13 @@
       <c r="D34" s="15"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="27"/>
       <c r="E35" s="17"/>
     </row>
-    <row r="36" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -4277,7 +4313,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
@@ -4289,7 +4325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="28"/>
       <c r="C38" s="18" t="str">
         <f>(SUM(C39:C41)/4)&amp;" h"</f>
@@ -4300,8 +4336,8 @@
       </c>
       <c r="E38" s="19"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="34" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="10">
@@ -4310,8 +4346,8 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="35" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="10">
@@ -4322,65 +4358,81 @@
       </c>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="28"/>
       <c r="C42" s="18" t="str">
         <f>(SUM(C43:C45)/4)&amp;" h"</f>
-        <v>0 h</v>
+        <v>1 h</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="22"/>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B43" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
+      <c r="C44" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="22"/>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="28"/>
       <c r="C46" s="18" t="str">
         <f>(SUM(C47:C48)/4)&amp;" h"</f>
-        <v>0 h</v>
+        <v>1 h</v>
       </c>
       <c r="D46" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="22"/>
+    <row r="47" spans="2:5" ht="26.5" x14ac:dyDescent="0.35">
+      <c r="B47" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="10">
+        <v>4</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="28"/>
       <c r="C49" s="18" t="str">
         <f>(SUM(C50:C52)/4)&amp;" h"</f>
@@ -4391,54 +4443,60 @@
       </c>
       <c r="E49" s="19"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
       <c r="D50" s="11"/>
       <c r="E50" s="12"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
     </row>
-    <row r="53" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B53" s="28"/>
       <c r="C53" s="18" t="str">
         <f>(SUM(C54:C65)/4)&amp;" h"</f>
-        <v>0 h</v>
+        <v>0,25 h</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="19"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="12"/>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B54" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="10">
+        <v>1</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="E54" s="12"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
     </row>
-    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B57" s="28"/>
       <c r="C57" s="18"/>
       <c r="D57" s="29" t="s">
@@ -4446,25 +4504,25 @@
       </c>
       <c r="E57" s="19"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="34"/>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B58" s="33"/>
       <c r="C58" s="10"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="34"/>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B59" s="33"/>
       <c r="C59" s="10"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
     </row>
-    <row r="61" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B61" s="28"/>
       <c r="C61" s="18"/>
       <c r="D61" s="29" t="s">
@@ -4472,42 +4530,42 @@
       </c>
       <c r="E61" s="19"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="34"/>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B62" s="33"/>
       <c r="C62" s="10"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
     </row>
-    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
     </row>
-    <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B66" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="14">
         <f>SUM(C39:C41,C43:C45,C47:C48,C50:C52,C54:C56,C58:C60,C62:C65)</f>
-        <v>2.5</v>
+        <v>11.5</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
@@ -4521,7 +4579,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
@@ -4533,59 +4591,83 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B69" s="28"/>
       <c r="C69" s="18" t="str">
         <f>(SUM(C70:C71)/4)&amp;" h"</f>
-        <v>0 h</v>
+        <v>1 h</v>
       </c>
       <c r="D69" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="19"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B70" s="9"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="8"/>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B70" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="10">
+        <v>3</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="9"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="11"/>
+    <row r="71" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B71" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71" s="10">
+        <v>1</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B72" s="28"/>
       <c r="C72" s="18" t="str">
         <f>(SUM(C73:C75)/4)&amp;" h"</f>
-        <v>0 h</v>
+        <v>1 h</v>
       </c>
       <c r="D72" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E72" s="19"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="9"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="22"/>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B73" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C73" s="10">
+        <v>3</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>43</v>
+      </c>
       <c r="E73" s="11"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="9"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="11"/>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B74" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74" s="10">
+        <v>1</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
       <c r="D75" s="22"/>
       <c r="E75" s="11"/>
     </row>
-    <row r="76" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B76" s="28"/>
       <c r="C76" s="18" t="str">
         <f>(SUM(C77:C78)/4)&amp;" h"</f>
@@ -4596,19 +4678,19 @@
       </c>
       <c r="E76" s="19"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="9"/>
       <c r="C77" s="10"/>
       <c r="D77" s="22"/>
       <c r="E77" s="11"/>
     </row>
-    <row r="78" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
     </row>
-    <row r="79" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B79" s="28"/>
       <c r="C79" s="18" t="str">
         <f>(SUM(C80:C82)/4)&amp;" h"</f>
@@ -4619,25 +4701,25 @@
       </c>
       <c r="E79" s="19"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" s="9"/>
       <c r="C80" s="10"/>
       <c r="D80" s="11"/>
       <c r="E80" s="12"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
     </row>
-    <row r="82" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
     </row>
-    <row r="83" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B83" s="28"/>
       <c r="C83" s="18" t="str">
         <f>(SUM(C84:C96)/4)&amp;" h"</f>
@@ -4648,25 +4730,25 @@
       </c>
       <c r="E83" s="19"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="9"/>
       <c r="C84" s="10"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="9"/>
       <c r="C85" s="10"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
     </row>
-    <row r="86" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B86" s="9"/>
       <c r="C86" s="10"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
     </row>
-    <row r="87" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B87" s="28"/>
       <c r="C87" s="18"/>
       <c r="D87" s="29" t="s">
@@ -4674,25 +4756,25 @@
       </c>
       <c r="E87" s="19"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="34"/>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B88" s="33"/>
       <c r="C88" s="10"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="34"/>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B89" s="33"/>
       <c r="C89" s="10"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
     </row>
-    <row r="90" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B90" s="9"/>
       <c r="C90" s="10"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B91" s="28"/>
       <c r="C91" s="18"/>
       <c r="D91" s="29" t="s">
@@ -4700,48 +4782,48 @@
       </c>
       <c r="E91" s="19"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="34"/>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B92" s="33"/>
       <c r="C92" s="10"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" s="9"/>
       <c r="C93" s="10"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B94" s="9"/>
       <c r="C94" s="10"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
     </row>
-    <row r="95" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B95" s="9"/>
       <c r="C95" s="10"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
     </row>
-    <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B96" s="9"/>
       <c r="C96" s="10"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
     </row>
-    <row r="97" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B97" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C97" s="14">
         <f>SUM(C70:C71,C73:C75,C77:C78,C80:C82,C84:C86,C88:C90,C92:C96)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="16"/>
     </row>
-    <row r="98" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
@@ -4755,7 +4837,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B99" s="4" t="s">
         <v>2</v>
       </c>
@@ -4767,7 +4849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="28"/>
       <c r="C100" s="18" t="str">
         <f>(SUM(C101:C102)/4)&amp;" h"</f>
@@ -4778,19 +4860,19 @@
       </c>
       <c r="E100" s="19"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B101" s="9"/>
       <c r="C101" s="10"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B102" s="9"/>
       <c r="C102" s="10"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
     </row>
-    <row r="103" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B103" s="28"/>
       <c r="C103" s="18" t="str">
         <f>(SUM(C104:C106)/4)&amp;" h"</f>
@@ -4801,25 +4883,25 @@
       </c>
       <c r="E103" s="19"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B104" s="9"/>
       <c r="C104" s="10"/>
       <c r="D104" s="22"/>
       <c r="E104" s="11"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B105" s="9"/>
       <c r="C105" s="10"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
     </row>
-    <row r="106" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B106" s="9"/>
       <c r="C106" s="10"/>
       <c r="D106" s="22"/>
       <c r="E106" s="11"/>
     </row>
-    <row r="107" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B107" s="28"/>
       <c r="C107" s="18" t="str">
         <f>(SUM(C108:C109)/4)&amp;" h"</f>
@@ -4830,19 +4912,19 @@
       </c>
       <c r="E107" s="19"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B108" s="9"/>
       <c r="C108" s="10"/>
       <c r="D108" s="22"/>
       <c r="E108" s="11"/>
     </row>
-    <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B109" s="9"/>
       <c r="C109" s="10"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
     </row>
-    <row r="110" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B110" s="28"/>
       <c r="C110" s="18" t="str">
         <f>(SUM(C111:C113)/4)&amp;" h"</f>
@@ -4853,25 +4935,25 @@
       </c>
       <c r="E110" s="19"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B111" s="9"/>
       <c r="C111" s="10"/>
       <c r="D111" s="11"/>
       <c r="E111" s="12"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B112" s="9"/>
       <c r="C112" s="10"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
     </row>
-    <row r="113" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B113" s="9"/>
       <c r="C113" s="10"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
     </row>
-    <row r="114" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B114" s="28"/>
       <c r="C114" s="18" t="str">
         <f>(SUM(C115:C128)/4)&amp;" h"</f>
@@ -4882,25 +4964,25 @@
       </c>
       <c r="E114" s="19"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B115" s="9"/>
       <c r="C115" s="10"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B116" s="9"/>
       <c r="C116" s="10"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
     </row>
-    <row r="117" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B117" s="9"/>
       <c r="C117" s="10"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
     </row>
-    <row r="118" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B118" s="28"/>
       <c r="C118" s="18"/>
       <c r="D118" s="29" t="s">
@@ -4908,25 +4990,25 @@
       </c>
       <c r="E118" s="19"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="34"/>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B119" s="33"/>
       <c r="C119" s="10"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="34"/>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B120" s="33"/>
       <c r="C120" s="10"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
     </row>
-    <row r="121" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B121" s="9"/>
       <c r="C121" s="10"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
     </row>
-    <row r="122" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B122" s="28"/>
       <c r="C122" s="18"/>
       <c r="D122" s="29" t="s">
@@ -4934,43 +5016,43 @@
       </c>
       <c r="E122" s="19"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="34"/>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B123" s="33"/>
       <c r="C123" s="10"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B124" s="9"/>
       <c r="C124" s="10"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B125" s="9"/>
       <c r="C125" s="10"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B126" s="9"/>
       <c r="C126" s="10"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B127" s="9"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
-    </row>
-    <row r="128" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="36"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="38"/>
+    </row>
+    <row r="128" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B128" s="9"/>
       <c r="C128" s="10"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38"/>
-    </row>
-    <row r="129" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+    </row>
+    <row r="129" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B129" s="14" t="s">
         <v>4</v>
       </c>
@@ -4981,7 +5063,7 @@
       <c r="D129" s="15"/>
       <c r="E129" s="16"/>
     </row>
-    <row r="130" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="1" t="s">
         <v>0</v>
       </c>
@@ -4995,7 +5077,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B131" s="4" t="s">
         <v>2</v>
       </c>
@@ -5007,7 +5089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B132" s="28"/>
       <c r="C132" s="18" t="str">
         <f>(SUM(C133:C134)/4)&amp;" h"</f>
@@ -5018,19 +5100,19 @@
       </c>
       <c r="E132" s="19"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B133" s="9"/>
       <c r="C133" s="10"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
-    <row r="134" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B134" s="9"/>
       <c r="C134" s="10"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
     </row>
-    <row r="135" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B135" s="28"/>
       <c r="C135" s="18" t="str">
         <f>(SUM(C136:C138)/4)&amp;" h"</f>
@@ -5041,25 +5123,25 @@
       </c>
       <c r="E135" s="19"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B136" s="9"/>
       <c r="C136" s="10"/>
       <c r="D136" s="22"/>
       <c r="E136" s="11"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B137" s="9"/>
       <c r="C137" s="10"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
     </row>
-    <row r="138" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B138" s="9"/>
       <c r="C138" s="10"/>
       <c r="D138" s="22"/>
       <c r="E138" s="11"/>
     </row>
-    <row r="139" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B139" s="28"/>
       <c r="C139" s="18" t="str">
         <f>(SUM(C140:C141)/4)&amp;" h"</f>
@@ -5070,19 +5152,19 @@
       </c>
       <c r="E139" s="19"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B140" s="9"/>
       <c r="C140" s="10"/>
       <c r="D140" s="22"/>
       <c r="E140" s="11"/>
     </row>
-    <row r="141" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B141" s="9"/>
       <c r="C141" s="10"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
     </row>
-    <row r="142" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B142" s="28"/>
       <c r="C142" s="18" t="str">
         <f>(SUM(C143:C145)/4)&amp;" h"</f>
@@ -5093,25 +5175,25 @@
       </c>
       <c r="E142" s="19"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B143" s="9"/>
       <c r="C143" s="10"/>
       <c r="D143" s="11"/>
       <c r="E143" s="12"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B144" s="9"/>
       <c r="C144" s="10"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
     </row>
-    <row r="145" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B145" s="9"/>
       <c r="C145" s="10"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
     </row>
-    <row r="146" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B146" s="28"/>
       <c r="C146" s="18" t="str">
         <f>(SUM(C147:C150)/4)&amp;" h"</f>
@@ -5122,31 +5204,31 @@
       </c>
       <c r="E146" s="19"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B147" s="9"/>
       <c r="C147" s="10"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B148" s="9"/>
       <c r="C148" s="10"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B149" s="9"/>
       <c r="C149" s="10"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
     </row>
-    <row r="150" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B150" s="9"/>
       <c r="C150" s="10"/>
       <c r="D150" s="13"/>
       <c r="E150" s="13"/>
     </row>
-    <row r="151" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B151" s="14" t="s">
         <v>4</v>
       </c>
@@ -5157,7 +5239,7 @@
       <c r="D151" s="15"/>
       <c r="E151" s="16"/>
     </row>
-    <row r="152" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B152" s="1" t="s">
         <v>0</v>
       </c>
@@ -5171,7 +5253,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B153" s="4" t="s">
         <v>2</v>
       </c>
@@ -5183,7 +5265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B154" s="28"/>
       <c r="C154" s="18" t="str">
         <f>(SUM(C155:C156)/4)&amp;" h"</f>
@@ -5194,19 +5276,19 @@
       </c>
       <c r="E154" s="19"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B155" s="9"/>
       <c r="C155" s="10"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
     </row>
-    <row r="156" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B156" s="9"/>
       <c r="C156" s="10"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
     </row>
-    <row r="157" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="28"/>
       <c r="C157" s="18" t="str">
         <f>(SUM(C158:C160)/4)&amp;" h"</f>
@@ -5217,25 +5299,25 @@
       </c>
       <c r="E157" s="19"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B158" s="9"/>
       <c r="C158" s="10"/>
       <c r="D158" s="22"/>
       <c r="E158" s="11"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B159" s="9"/>
       <c r="C159" s="10"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
     </row>
-    <row r="160" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B160" s="9"/>
       <c r="C160" s="10"/>
       <c r="D160" s="22"/>
       <c r="E160" s="11"/>
     </row>
-    <row r="161" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B161" s="28"/>
       <c r="C161" s="18" t="str">
         <f>(SUM(C162:C163)/4)&amp;" h"</f>
@@ -5246,19 +5328,19 @@
       </c>
       <c r="E161" s="19"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B162" s="9"/>
       <c r="C162" s="10"/>
       <c r="D162" s="22"/>
       <c r="E162" s="11"/>
     </row>
-    <row r="163" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B163" s="9"/>
       <c r="C163" s="10"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
     </row>
-    <row r="164" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B164" s="28"/>
       <c r="C164" s="18" t="str">
         <f>(SUM(C165:C167)/4)&amp;" h"</f>
@@ -5269,25 +5351,25 @@
       </c>
       <c r="E164" s="19"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B165" s="9"/>
       <c r="C165" s="10"/>
       <c r="D165" s="11"/>
       <c r="E165" s="12"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B166" s="9"/>
       <c r="C166" s="10"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
     </row>
-    <row r="167" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B167" s="9"/>
       <c r="C167" s="10"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
     </row>
-    <row r="168" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B168" s="28"/>
       <c r="C168" s="18" t="str">
         <f>(SUM(C169:C172)/4)&amp;" h"</f>
@@ -5298,31 +5380,31 @@
       </c>
       <c r="E168" s="19"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B169" s="9"/>
       <c r="C169" s="10"/>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B170" s="9"/>
       <c r="C170" s="10"/>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B171" s="9"/>
       <c r="C171" s="10"/>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
     </row>
-    <row r="172" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B172" s="9"/>
       <c r="C172" s="10"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
     </row>
-    <row r="173" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B173" s="14" t="s">
         <v>4</v>
       </c>
@@ -5333,7 +5415,7 @@
       <c r="D173" s="15"/>
       <c r="E173" s="16"/>
     </row>
-    <row r="174" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B174" s="1" t="s">
         <v>0</v>
       </c>
@@ -5347,7 +5429,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="175" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B175" s="4" t="s">
         <v>2</v>
       </c>
@@ -5359,7 +5441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B176" s="28"/>
       <c r="C176" s="18" t="str">
         <f>(SUM(C177:C178)/4)&amp;" h"</f>
@@ -5370,19 +5452,19 @@
       </c>
       <c r="E176" s="19"/>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B177" s="9"/>
       <c r="C177" s="10"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
     </row>
-    <row r="178" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="9"/>
       <c r="C178" s="10"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
     </row>
-    <row r="179" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B179" s="28"/>
       <c r="C179" s="18" t="str">
         <f>(SUM(C180:C182)/4)&amp;" h"</f>
@@ -5393,25 +5475,25 @@
       </c>
       <c r="E179" s="19"/>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B180" s="9"/>
       <c r="C180" s="10"/>
       <c r="D180" s="22"/>
       <c r="E180" s="11"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B181" s="9"/>
       <c r="C181" s="10"/>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
     </row>
-    <row r="182" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B182" s="9"/>
       <c r="C182" s="10"/>
       <c r="D182" s="22"/>
       <c r="E182" s="11"/>
     </row>
-    <row r="183" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B183" s="28"/>
       <c r="C183" s="18" t="str">
         <f>(SUM(C184:C185)/4)&amp;" h"</f>
@@ -5422,19 +5504,19 @@
       </c>
       <c r="E183" s="19"/>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B184" s="9"/>
       <c r="C184" s="10"/>
       <c r="D184" s="22"/>
       <c r="E184" s="11"/>
     </row>
-    <row r="185" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B185" s="9"/>
       <c r="C185" s="10"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
     </row>
-    <row r="186" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B186" s="28"/>
       <c r="C186" s="18" t="str">
         <f>(SUM(C187:C189)/4)&amp;" h"</f>
@@ -5445,25 +5527,25 @@
       </c>
       <c r="E186" s="19"/>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B187" s="9"/>
       <c r="C187" s="10"/>
       <c r="D187" s="11"/>
       <c r="E187" s="12"/>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B188" s="9"/>
       <c r="C188" s="10"/>
       <c r="D188" s="12"/>
       <c r="E188" s="12"/>
     </row>
-    <row r="189" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B189" s="9"/>
       <c r="C189" s="10"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
     </row>
-    <row r="190" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B190" s="28"/>
       <c r="C190" s="18" t="str">
         <f>(SUM(C191:C194)/4)&amp;" h"</f>
@@ -5474,31 +5556,31 @@
       </c>
       <c r="E190" s="19"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B191" s="9"/>
       <c r="C191" s="10"/>
       <c r="D191" s="12"/>
       <c r="E191" s="12"/>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B192" s="9"/>
       <c r="C192" s="10"/>
       <c r="D192" s="12"/>
       <c r="E192" s="12"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B193" s="9"/>
       <c r="C193" s="10"/>
       <c r="D193" s="12"/>
       <c r="E193" s="12"/>
     </row>
-    <row r="194" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B194" s="9"/>
       <c r="C194" s="10"/>
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
     </row>
-    <row r="195" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B195" s="14" t="s">
         <v>4</v>
       </c>
@@ -5509,7 +5591,7 @@
       <c r="D195" s="15"/>
       <c r="E195" s="16"/>
     </row>
-    <row r="196" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B196" s="1" t="s">
         <v>0</v>
       </c>
@@ -5523,7 +5605,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="197" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B197" s="4" t="s">
         <v>2</v>
       </c>
@@ -5535,7 +5617,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B198" s="28"/>
       <c r="C198" s="18" t="str">
         <f>(SUM(C199:C200)/4)&amp;" h"</f>
@@ -5546,19 +5628,19 @@
       </c>
       <c r="E198" s="19"/>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B199" s="9"/>
       <c r="C199" s="10"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
     </row>
-    <row r="200" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B200" s="9"/>
       <c r="C200" s="10"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
     </row>
-    <row r="201" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B201" s="28"/>
       <c r="C201" s="18" t="str">
         <f>(SUM(C202:C204)/4)&amp;" h"</f>
@@ -5569,25 +5651,25 @@
       </c>
       <c r="E201" s="19"/>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B202" s="9"/>
       <c r="C202" s="10"/>
       <c r="D202" s="22"/>
       <c r="E202" s="11"/>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B203" s="9"/>
       <c r="C203" s="10"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
     </row>
-    <row r="204" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B204" s="9"/>
       <c r="C204" s="10"/>
       <c r="D204" s="22"/>
       <c r="E204" s="11"/>
     </row>
-    <row r="205" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B205" s="28"/>
       <c r="C205" s="18" t="str">
         <f>(SUM(C206:C207)/4)&amp;" h"</f>
@@ -5598,19 +5680,19 @@
       </c>
       <c r="E205" s="19"/>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B206" s="9"/>
       <c r="C206" s="10"/>
       <c r="D206" s="22"/>
       <c r="E206" s="11"/>
     </row>
-    <row r="207" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B207" s="9"/>
       <c r="C207" s="10"/>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
     </row>
-    <row r="208" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B208" s="28"/>
       <c r="C208" s="18" t="str">
         <f>(SUM(C209:C211)/4)&amp;" h"</f>
@@ -5621,25 +5703,25 @@
       </c>
       <c r="E208" s="19"/>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B209" s="9"/>
       <c r="C209" s="10"/>
       <c r="D209" s="11"/>
       <c r="E209" s="12"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B210" s="9"/>
       <c r="C210" s="10"/>
       <c r="D210" s="12"/>
       <c r="E210" s="12"/>
     </row>
-    <row r="211" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B211" s="9"/>
       <c r="C211" s="10"/>
       <c r="D211" s="12"/>
       <c r="E211" s="12"/>
     </row>
-    <row r="212" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B212" s="28"/>
       <c r="C212" s="18" t="str">
         <f>(SUM(C213:C216)/4)&amp;" h"</f>
@@ -5650,31 +5732,31 @@
       </c>
       <c r="E212" s="19"/>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B213" s="9"/>
       <c r="C213" s="10"/>
       <c r="D213" s="12"/>
       <c r="E213" s="12"/>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B214" s="9"/>
       <c r="C214" s="10"/>
       <c r="D214" s="12"/>
       <c r="E214" s="12"/>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B215" s="9"/>
       <c r="C215" s="10"/>
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
     </row>
-    <row r="216" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B216" s="9"/>
       <c r="C216" s="10"/>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
     </row>
-    <row r="217" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B217" s="14" t="s">
         <v>4</v>
       </c>
@@ -5685,7 +5767,7 @@
       <c r="D217" s="15"/>
       <c r="E217" s="16"/>
     </row>
-    <row r="218" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B218" s="1" t="s">
         <v>0</v>
       </c>
@@ -5699,7 +5781,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="219" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B219" s="4" t="s">
         <v>2</v>
       </c>
@@ -5711,7 +5793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B220" s="28"/>
       <c r="C220" s="18" t="str">
         <f>(SUM(C221:C222)/4)&amp;" h"</f>
@@ -5722,19 +5804,19 @@
       </c>
       <c r="E220" s="19"/>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B221" s="9"/>
       <c r="C221" s="10"/>
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
     </row>
-    <row r="222" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B222" s="9"/>
       <c r="C222" s="10"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
     </row>
-    <row r="223" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B223" s="28"/>
       <c r="C223" s="18" t="str">
         <f>(SUM(C224:C226)/4)&amp;" h"</f>
@@ -5745,25 +5827,25 @@
       </c>
       <c r="E223" s="19"/>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B224" s="9"/>
       <c r="C224" s="10"/>
       <c r="D224" s="22"/>
       <c r="E224" s="11"/>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B225" s="9"/>
       <c r="C225" s="10"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11"/>
     </row>
-    <row r="226" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B226" s="9"/>
       <c r="C226" s="10"/>
       <c r="D226" s="22"/>
       <c r="E226" s="11"/>
     </row>
-    <row r="227" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B227" s="28"/>
       <c r="C227" s="18" t="str">
         <f>(SUM(C228:C229)/4)&amp;" h"</f>
@@ -5774,19 +5856,19 @@
       </c>
       <c r="E227" s="19"/>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B228" s="9"/>
       <c r="C228" s="10"/>
       <c r="D228" s="22"/>
       <c r="E228" s="11"/>
     </row>
-    <row r="229" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B229" s="9"/>
       <c r="C229" s="10"/>
       <c r="D229" s="11"/>
       <c r="E229" s="11"/>
     </row>
-    <row r="230" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B230" s="28"/>
       <c r="C230" s="18" t="str">
         <f>(SUM(C231:C233)/4)&amp;" h"</f>
@@ -5797,25 +5879,25 @@
       </c>
       <c r="E230" s="19"/>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B231" s="9"/>
       <c r="C231" s="10"/>
       <c r="D231" s="11"/>
       <c r="E231" s="12"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B232" s="9"/>
       <c r="C232" s="10"/>
       <c r="D232" s="12"/>
       <c r="E232" s="12"/>
     </row>
-    <row r="233" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B233" s="9"/>
       <c r="C233" s="10"/>
       <c r="D233" s="12"/>
       <c r="E233" s="12"/>
     </row>
-    <row r="234" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B234" s="28"/>
       <c r="C234" s="18" t="str">
         <f>(SUM(C235:C238)/4)&amp;" h"</f>
@@ -5826,31 +5908,31 @@
       </c>
       <c r="E234" s="19"/>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B235" s="9"/>
       <c r="C235" s="10"/>
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B236" s="9"/>
       <c r="C236" s="10"/>
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B237" s="9"/>
       <c r="C237" s="10"/>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
     </row>
-    <row r="238" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B238" s="9"/>
       <c r="C238" s="10"/>
       <c r="D238" s="13"/>
       <c r="E238" s="13"/>
     </row>
-    <row r="239" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B239" s="14" t="s">
         <v>4</v>
       </c>
@@ -5861,7 +5943,7 @@
       <c r="D239" s="15"/>
       <c r="E239" s="16"/>
     </row>
-    <row r="240" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B240" s="1" t="s">
         <v>0</v>
       </c>
@@ -5873,7 +5955,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="241" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B241" s="4" t="s">
         <v>2</v>
       </c>
@@ -5885,7 +5967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B242" s="28"/>
       <c r="C242" s="18" t="str">
         <f>(SUM(C243:C244)/4)&amp;" h"</f>
@@ -5896,19 +5978,19 @@
       </c>
       <c r="E242" s="19"/>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B243" s="9"/>
       <c r="C243" s="10"/>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
     </row>
-    <row r="244" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B244" s="9"/>
       <c r="C244" s="10"/>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
     </row>
-    <row r="245" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B245" s="28"/>
       <c r="C245" s="18" t="str">
         <f>(SUM(C246:C248)/4)&amp;" h"</f>
@@ -5919,25 +6001,25 @@
       </c>
       <c r="E245" s="19"/>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B246" s="9"/>
       <c r="C246" s="10"/>
       <c r="D246" s="22"/>
       <c r="E246" s="11"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B247" s="9"/>
       <c r="C247" s="10"/>
       <c r="D247" s="11"/>
       <c r="E247" s="11"/>
     </row>
-    <row r="248" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B248" s="9"/>
       <c r="C248" s="10"/>
       <c r="D248" s="22"/>
       <c r="E248" s="11"/>
     </row>
-    <row r="249" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B249" s="28"/>
       <c r="C249" s="18" t="str">
         <f>(SUM(C250:C251)/4)&amp;" h"</f>
@@ -5948,19 +6030,19 @@
       </c>
       <c r="E249" s="19"/>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B250" s="9"/>
       <c r="C250" s="10"/>
       <c r="D250" s="22"/>
       <c r="E250" s="11"/>
     </row>
-    <row r="251" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B251" s="9"/>
       <c r="C251" s="10"/>
       <c r="D251" s="11"/>
       <c r="E251" s="11"/>
     </row>
-    <row r="252" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B252" s="28"/>
       <c r="C252" s="18" t="str">
         <f>(SUM(C253:C255)/4)&amp;" h"</f>
@@ -5971,25 +6053,25 @@
       </c>
       <c r="E252" s="19"/>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B253" s="9"/>
       <c r="C253" s="10"/>
       <c r="D253" s="11"/>
       <c r="E253" s="12"/>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B254" s="9"/>
       <c r="C254" s="10"/>
       <c r="D254" s="12"/>
       <c r="E254" s="12"/>
     </row>
-    <row r="255" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B255" s="9"/>
       <c r="C255" s="10"/>
       <c r="D255" s="12"/>
       <c r="E255" s="12"/>
     </row>
-    <row r="256" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B256" s="28"/>
       <c r="C256" s="18" t="str">
         <f>(SUM(C257:C260)/4)&amp;" h"</f>
@@ -6000,31 +6082,31 @@
       </c>
       <c r="E256" s="19"/>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B257" s="9"/>
       <c r="C257" s="10"/>
       <c r="D257" s="12"/>
       <c r="E257" s="12"/>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B258" s="9"/>
       <c r="C258" s="10"/>
       <c r="D258" s="12"/>
       <c r="E258" s="12"/>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B259" s="9"/>
       <c r="C259" s="10"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
     </row>
-    <row r="260" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B260" s="9"/>
       <c r="C260" s="10"/>
       <c r="D260" s="13"/>
       <c r="E260" s="13"/>
     </row>
-    <row r="261" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B261" s="14" t="s">
         <v>4</v>
       </c>
@@ -6035,7 +6117,7 @@
       <c r="D261" s="15"/>
       <c r="E261" s="16"/>
     </row>
-    <row r="262" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B262" s="1" t="s">
         <v>0</v>
       </c>
@@ -6049,7 +6131,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="263" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B263" s="4" t="s">
         <v>2</v>
       </c>
@@ -6061,7 +6143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B264" s="28"/>
       <c r="C264" s="18" t="str">
         <f>(SUM(C265:C266)/4)&amp;" h"</f>
@@ -6072,19 +6154,19 @@
       </c>
       <c r="E264" s="19"/>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B265" s="9"/>
       <c r="C265" s="10"/>
       <c r="D265" s="8"/>
       <c r="E265" s="8"/>
     </row>
-    <row r="266" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B266" s="9"/>
       <c r="C266" s="10"/>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
     </row>
-    <row r="267" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B267" s="28"/>
       <c r="C267" s="18" t="str">
         <f>(SUM(C268:C270)/4)&amp;" h"</f>
@@ -6095,25 +6177,25 @@
       </c>
       <c r="E267" s="19"/>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B268" s="9"/>
       <c r="C268" s="10"/>
       <c r="D268" s="22"/>
       <c r="E268" s="11"/>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B269" s="9"/>
       <c r="C269" s="10"/>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
     </row>
-    <row r="270" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B270" s="9"/>
       <c r="C270" s="10"/>
       <c r="D270" s="22"/>
       <c r="E270" s="11"/>
     </row>
-    <row r="271" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B271" s="28"/>
       <c r="C271" s="18" t="str">
         <f>(SUM(C272:C273)/4)&amp;" h"</f>
@@ -6124,19 +6206,19 @@
       </c>
       <c r="E271" s="19"/>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B272" s="9"/>
       <c r="C272" s="10"/>
       <c r="D272" s="22"/>
       <c r="E272" s="11"/>
     </row>
-    <row r="273" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B273" s="9"/>
       <c r="C273" s="10"/>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
     </row>
-    <row r="274" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B274" s="28"/>
       <c r="C274" s="18" t="str">
         <f>(SUM(C275:C277)/4)&amp;" h"</f>
@@ -6147,25 +6229,25 @@
       </c>
       <c r="E274" s="19"/>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B275" s="9"/>
       <c r="C275" s="10"/>
       <c r="D275" s="11"/>
       <c r="E275" s="12"/>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B276" s="9"/>
       <c r="C276" s="10"/>
       <c r="D276" s="12"/>
       <c r="E276" s="12"/>
     </row>
-    <row r="277" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B277" s="9"/>
       <c r="C277" s="10"/>
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
     </row>
-    <row r="278" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B278" s="28"/>
       <c r="C278" s="18" t="str">
         <f>(SUM(C279:C282)/4)&amp;" h"</f>
@@ -6176,31 +6258,31 @@
       </c>
       <c r="E278" s="19"/>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B279" s="9"/>
       <c r="C279" s="10"/>
       <c r="D279" s="12"/>
       <c r="E279" s="12"/>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B280" s="9"/>
       <c r="C280" s="10"/>
       <c r="D280" s="12"/>
       <c r="E280" s="12"/>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B281" s="9"/>
       <c r="C281" s="10"/>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
     </row>
-    <row r="282" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B282" s="9"/>
       <c r="C282" s="10"/>
       <c r="D282" s="13"/>
       <c r="E282" s="13"/>
     </row>
-    <row r="283" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B283" s="14" t="s">
         <v>4</v>
       </c>
@@ -6211,7 +6293,7 @@
       <c r="D283" s="15"/>
       <c r="E283" s="16"/>
     </row>
-    <row r="284" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B284" s="1" t="s">
         <v>0</v>
       </c>
@@ -6225,7 +6307,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="285" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B285" s="4" t="s">
         <v>2</v>
       </c>
@@ -6237,7 +6319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B286" s="28"/>
       <c r="C286" s="18" t="str">
         <f>(SUM(C287:C288)/4)&amp;" h"</f>
@@ -6248,19 +6330,19 @@
       </c>
       <c r="E286" s="19"/>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B287" s="9"/>
       <c r="C287" s="10"/>
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
     </row>
-    <row r="288" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B288" s="9"/>
       <c r="C288" s="10"/>
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
     </row>
-    <row r="289" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B289" s="28"/>
       <c r="C289" s="18" t="str">
         <f>(SUM(C290:C292)/4)&amp;" h"</f>
@@ -6271,25 +6353,25 @@
       </c>
       <c r="E289" s="19"/>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B290" s="9"/>
       <c r="C290" s="10"/>
       <c r="D290" s="22"/>
       <c r="E290" s="11"/>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B291" s="9"/>
       <c r="C291" s="10"/>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
     </row>
-    <row r="292" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B292" s="9"/>
       <c r="C292" s="10"/>
       <c r="D292" s="22"/>
       <c r="E292" s="11"/>
     </row>
-    <row r="293" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B293" s="28"/>
       <c r="C293" s="18" t="str">
         <f>(SUM(C294:C295)/4)&amp;" h"</f>
@@ -6300,19 +6382,19 @@
       </c>
       <c r="E293" s="19"/>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B294" s="9"/>
       <c r="C294" s="10"/>
       <c r="D294" s="22"/>
       <c r="E294" s="11"/>
     </row>
-    <row r="295" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B295" s="9"/>
       <c r="C295" s="10"/>
       <c r="D295" s="11"/>
       <c r="E295" s="11"/>
     </row>
-    <row r="296" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B296" s="28"/>
       <c r="C296" s="18" t="str">
         <f>(SUM(C297:C299)/4)&amp;" h"</f>
@@ -6323,25 +6405,25 @@
       </c>
       <c r="E296" s="19"/>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B297" s="9"/>
       <c r="C297" s="10"/>
       <c r="D297" s="11"/>
       <c r="E297" s="12"/>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B298" s="9"/>
       <c r="C298" s="10"/>
       <c r="D298" s="12"/>
       <c r="E298" s="12"/>
     </row>
-    <row r="299" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B299" s="9"/>
       <c r="C299" s="10"/>
       <c r="D299" s="12"/>
       <c r="E299" s="12"/>
     </row>
-    <row r="300" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B300" s="28"/>
       <c r="C300" s="18" t="str">
         <f>(SUM(C301:C304)/4)&amp;" h"</f>
@@ -6352,31 +6434,31 @@
       </c>
       <c r="E300" s="19"/>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B301" s="9"/>
       <c r="C301" s="10"/>
       <c r="D301" s="12"/>
       <c r="E301" s="12"/>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B302" s="9"/>
       <c r="C302" s="10"/>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B303" s="9"/>
       <c r="C303" s="10"/>
       <c r="D303" s="12"/>
       <c r="E303" s="12"/>
     </row>
-    <row r="304" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B304" s="9"/>
       <c r="C304" s="10"/>
       <c r="D304" s="13"/>
       <c r="E304" s="13"/>
     </row>
-    <row r="305" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B305" s="14" t="s">
         <v>4</v>
       </c>
@@ -6387,7 +6469,7 @@
       <c r="D305" s="15"/>
       <c r="E305" s="16"/>
     </row>
-    <row r="306" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B306" s="1" t="s">
         <v>0</v>
       </c>
@@ -6401,7 +6483,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="307" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B307" s="4" t="s">
         <v>2</v>
       </c>
@@ -6413,7 +6495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B308" s="28"/>
       <c r="C308" s="18" t="str">
         <f>(SUM(C309:C310)/4)&amp;" h"</f>
@@ -6424,19 +6506,19 @@
       </c>
       <c r="E308" s="19"/>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B309" s="9"/>
       <c r="C309" s="10"/>
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
     </row>
-    <row r="310" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B310" s="9"/>
       <c r="C310" s="10"/>
       <c r="D310" s="11"/>
       <c r="E310" s="11"/>
     </row>
-    <row r="311" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B311" s="28"/>
       <c r="C311" s="18" t="str">
         <f>(SUM(C312:C314)/4)&amp;" h"</f>
@@ -6447,25 +6529,25 @@
       </c>
       <c r="E311" s="19"/>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B312" s="9"/>
       <c r="C312" s="10"/>
       <c r="D312" s="22"/>
       <c r="E312" s="11"/>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B313" s="9"/>
       <c r="C313" s="10"/>
       <c r="D313" s="11"/>
       <c r="E313" s="11"/>
     </row>
-    <row r="314" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B314" s="9"/>
       <c r="C314" s="10"/>
       <c r="D314" s="22"/>
       <c r="E314" s="11"/>
     </row>
-    <row r="315" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B315" s="28"/>
       <c r="C315" s="18" t="str">
         <f>(SUM(C316:C317)/4)&amp;" h"</f>
@@ -6476,19 +6558,19 @@
       </c>
       <c r="E315" s="19"/>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B316" s="9"/>
       <c r="C316" s="10"/>
       <c r="D316" s="22"/>
       <c r="E316" s="11"/>
     </row>
-    <row r="317" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B317" s="9"/>
       <c r="C317" s="10"/>
       <c r="D317" s="11"/>
       <c r="E317" s="11"/>
     </row>
-    <row r="318" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B318" s="28"/>
       <c r="C318" s="18" t="str">
         <f>(SUM(C319:C321)/4)&amp;" h"</f>
@@ -6499,25 +6581,25 @@
       </c>
       <c r="E318" s="19"/>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B319" s="9"/>
       <c r="C319" s="10"/>
       <c r="D319" s="11"/>
       <c r="E319" s="12"/>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B320" s="9"/>
       <c r="C320" s="10"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
     </row>
-    <row r="321" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B321" s="9"/>
       <c r="C321" s="10"/>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
     </row>
-    <row r="322" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B322" s="28"/>
       <c r="C322" s="18" t="str">
         <f>(SUM(C323:C326)/4)&amp;" h"</f>
@@ -6528,31 +6610,31 @@
       </c>
       <c r="E322" s="19"/>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B323" s="9"/>
       <c r="C323" s="10"/>
       <c r="D323" s="12"/>
       <c r="E323" s="12"/>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B324" s="9"/>
       <c r="C324" s="10"/>
       <c r="D324" s="12"/>
       <c r="E324" s="12"/>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B325" s="9"/>
       <c r="C325" s="10"/>
       <c r="D325" s="12"/>
       <c r="E325" s="12"/>
     </row>
-    <row r="326" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B326" s="9"/>
       <c r="C326" s="10"/>
       <c r="D326" s="13"/>
       <c r="E326" s="13"/>
     </row>
-    <row r="327" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B327" s="14" t="s">
         <v>4</v>
       </c>
@@ -6563,7 +6645,7 @@
       <c r="D327" s="15"/>
       <c r="E327" s="16"/>
     </row>
-    <row r="328" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B328" s="1" t="s">
         <v>0</v>
       </c>
@@ -6577,7 +6659,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B329" s="4" t="s">
         <v>2</v>
       </c>
@@ -6589,7 +6671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B330" s="28"/>
       <c r="C330" s="18" t="str">
         <f>(SUM(C331:C332)/4)&amp;" h"</f>
@@ -6600,19 +6682,19 @@
       </c>
       <c r="E330" s="19"/>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B331" s="9"/>
       <c r="C331" s="10"/>
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
     </row>
-    <row r="332" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B332" s="9"/>
       <c r="C332" s="10"/>
       <c r="D332" s="11"/>
       <c r="E332" s="11"/>
     </row>
-    <row r="333" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B333" s="28"/>
       <c r="C333" s="18" t="str">
         <f>(SUM(C334:C336)/4)&amp;" h"</f>
@@ -6623,25 +6705,25 @@
       </c>
       <c r="E333" s="19"/>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B334" s="9"/>
       <c r="C334" s="10"/>
       <c r="D334" s="22"/>
       <c r="E334" s="11"/>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B335" s="9"/>
       <c r="C335" s="10"/>
       <c r="D335" s="11"/>
       <c r="E335" s="11"/>
     </row>
-    <row r="336" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B336" s="9"/>
       <c r="C336" s="10"/>
       <c r="D336" s="22"/>
       <c r="E336" s="11"/>
     </row>
-    <row r="337" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B337" s="28"/>
       <c r="C337" s="18" t="str">
         <f>(SUM(C338:C339)/4)&amp;" h"</f>
@@ -6652,19 +6734,19 @@
       </c>
       <c r="E337" s="19"/>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B338" s="9"/>
       <c r="C338" s="10"/>
       <c r="D338" s="22"/>
       <c r="E338" s="11"/>
     </row>
-    <row r="339" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B339" s="9"/>
       <c r="C339" s="10"/>
       <c r="D339" s="11"/>
       <c r="E339" s="11"/>
     </row>
-    <row r="340" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B340" s="28"/>
       <c r="C340" s="18" t="str">
         <f>(SUM(C341:C343)/4)&amp;" h"</f>
@@ -6675,25 +6757,25 @@
       </c>
       <c r="E340" s="19"/>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B341" s="9"/>
       <c r="C341" s="10"/>
       <c r="D341" s="11"/>
       <c r="E341" s="12"/>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B342" s="9"/>
       <c r="C342" s="10"/>
       <c r="D342" s="12"/>
       <c r="E342" s="12"/>
     </row>
-    <row r="343" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B343" s="9"/>
       <c r="C343" s="10"/>
       <c r="D343" s="12"/>
       <c r="E343" s="12"/>
     </row>
-    <row r="344" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B344" s="28"/>
       <c r="C344" s="18" t="str">
         <f>(SUM(C345:C348)/4)&amp;" h"</f>
@@ -6704,31 +6786,31 @@
       </c>
       <c r="E344" s="19"/>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B345" s="9"/>
       <c r="C345" s="10"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B346" s="9"/>
       <c r="C346" s="10"/>
       <c r="D346" s="12"/>
       <c r="E346" s="12"/>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B347" s="9"/>
       <c r="C347" s="10"/>
       <c r="D347" s="12"/>
       <c r="E347" s="12"/>
     </row>
-    <row r="348" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B348" s="9"/>
       <c r="C348" s="10"/>
       <c r="D348" s="13"/>
       <c r="E348" s="13"/>
     </row>
-    <row r="349" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B349" s="14" t="s">
         <v>4</v>
       </c>
@@ -6739,7 +6821,7 @@
       <c r="D349" s="15"/>
       <c r="E349" s="16"/>
     </row>
-    <row r="350" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B350" s="1" t="s">
         <v>0</v>
       </c>
@@ -6753,7 +6835,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="351" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B351" s="4" t="s">
         <v>2</v>
       </c>
@@ -6765,7 +6847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B352" s="28"/>
       <c r="C352" s="18" t="str">
         <f>(SUM(C353:C354)/4)&amp;" h"</f>
@@ -6776,19 +6858,19 @@
       </c>
       <c r="E352" s="19"/>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B353" s="9"/>
       <c r="C353" s="10"/>
       <c r="D353" s="8"/>
       <c r="E353" s="8"/>
     </row>
-    <row r="354" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B354" s="9"/>
       <c r="C354" s="10"/>
       <c r="D354" s="11"/>
       <c r="E354" s="11"/>
     </row>
-    <row r="355" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B355" s="28"/>
       <c r="C355" s="18" t="str">
         <f>(SUM(C356:C358)/4)&amp;" h"</f>
@@ -6799,25 +6881,25 @@
       </c>
       <c r="E355" s="19"/>
     </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B356" s="9"/>
       <c r="C356" s="10"/>
       <c r="D356" s="22"/>
       <c r="E356" s="11"/>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B357" s="9"/>
       <c r="C357" s="10"/>
       <c r="D357" s="11"/>
       <c r="E357" s="11"/>
     </row>
-    <row r="358" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B358" s="9"/>
       <c r="C358" s="10"/>
       <c r="D358" s="22"/>
       <c r="E358" s="11"/>
     </row>
-    <row r="359" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B359" s="28"/>
       <c r="C359" s="18" t="str">
         <f>(SUM(C360:C361)/4)&amp;" h"</f>
@@ -6828,19 +6910,19 @@
       </c>
       <c r="E359" s="19"/>
     </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B360" s="9"/>
       <c r="C360" s="10"/>
       <c r="D360" s="22"/>
       <c r="E360" s="11"/>
     </row>
-    <row r="361" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B361" s="9"/>
       <c r="C361" s="10"/>
       <c r="D361" s="11"/>
       <c r="E361" s="11"/>
     </row>
-    <row r="362" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B362" s="28"/>
       <c r="C362" s="18" t="str">
         <f>(SUM(C363:C365)/4)&amp;" h"</f>
@@ -6851,25 +6933,25 @@
       </c>
       <c r="E362" s="19"/>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B363" s="9"/>
       <c r="C363" s="10"/>
       <c r="D363" s="11"/>
       <c r="E363" s="12"/>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B364" s="9"/>
       <c r="C364" s="10"/>
       <c r="D364" s="12"/>
       <c r="E364" s="12"/>
     </row>
-    <row r="365" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B365" s="9"/>
       <c r="C365" s="10"/>
       <c r="D365" s="12"/>
       <c r="E365" s="12"/>
     </row>
-    <row r="366" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B366" s="28"/>
       <c r="C366" s="18" t="str">
         <f>(SUM(C367:C370)/4)&amp;" h"</f>
@@ -6880,31 +6962,31 @@
       </c>
       <c r="E366" s="19"/>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B367" s="9"/>
       <c r="C367" s="10"/>
       <c r="D367" s="12"/>
       <c r="E367" s="12"/>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B368" s="9"/>
       <c r="C368" s="10"/>
       <c r="D368" s="12"/>
       <c r="E368" s="12"/>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B369" s="9"/>
       <c r="C369" s="10"/>
       <c r="D369" s="12"/>
       <c r="E369" s="12"/>
     </row>
-    <row r="370" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B370" s="9"/>
       <c r="C370" s="10"/>
       <c r="D370" s="13"/>
       <c r="E370" s="13"/>
     </row>
-    <row r="371" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B371" s="14" t="s">
         <v>4</v>
       </c>
@@ -6935,16 +7017,16 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.7265625" customWidth="1"/>
+    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.26953125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="30.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -6958,7 +7040,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -6969,25 +7051,25 @@
       <c r="E3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-    </row>
-    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+    </row>
+    <row r="4" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="28"/>
       <c r="C4" s="18"/>
       <c r="D4" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="19"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-    </row>
-    <row r="5" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+    </row>
+    <row r="5" spans="2:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="7">
@@ -6997,29 +7079,29 @@
         <v>11</v>
       </c>
       <c r="E5" s="8"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="33" t="s">
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="21">
         <v>1</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="31" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="20"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="33" t="s">
+      <c r="G6" s="39"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+    </row>
+    <row r="7" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B7" s="32" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="21">
@@ -7029,13 +7111,13 @@
         <v>15</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="30"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="34" t="s">
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B8" s="33" t="s">
         <v>27</v>
       </c>
       <c r="C8" s="10">
@@ -7046,8 +7128,8 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="35" t="s">
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C9" s="10">
@@ -7056,7 +7138,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B10" s="28"/>
       <c r="C10" s="18"/>
       <c r="D10" s="29" t="s">
@@ -7064,32 +7146,32 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B11" s="33" t="s">
+    <row r="11" spans="2:10" ht="26" x14ac:dyDescent="0.35">
+      <c r="B11" s="32" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="10">
         <v>1</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" s="31" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B12" s="34" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B12" s="33" t="s">
         <v>12</v>
       </c>
       <c r="C12" s="10">
         <v>0.5</v>
       </c>
-      <c r="D12" s="36" t="s">
+      <c r="D12" s="35" t="s">
         <v>18</v>
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="34" t="s">
+    <row r="13" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C13" s="10">
@@ -7100,7 +7182,7 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B14" s="28"/>
       <c r="C14" s="18"/>
       <c r="D14" s="29" t="s">
@@ -7108,31 +7190,31 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="22"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B19" s="28"/>
       <c r="C19" s="18"/>
       <c r="D19" s="29" t="s">
@@ -7140,8 +7222,8 @@
       </c>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="34" t="s">
+    <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="B20" s="33" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="10">
@@ -7152,13 +7234,13 @@
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B22" s="28"/>
       <c r="C22" s="18"/>
       <c r="D22" s="29" t="s">
@@ -7166,25 +7248,25 @@
       </c>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B26" s="28"/>
       <c r="C26" s="18"/>
       <c r="D26" s="29" t="s">
@@ -7192,8 +7274,8 @@
       </c>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B27" s="34" t="s">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="10">
@@ -7204,8 +7286,8 @@
       </c>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B28" s="34" t="s">
+    <row r="28" spans="2:5" ht="39" x14ac:dyDescent="0.35">
+      <c r="B28" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C28" s="10">
@@ -7216,13 +7298,13 @@
       </c>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B30" s="28"/>
       <c r="C30" s="18"/>
       <c r="D30" s="29" t="s">
@@ -7230,8 +7312,8 @@
       </c>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B31" s="34" t="s">
+    <row r="31" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+      <c r="B31" s="33" t="s">
         <v>24</v>
       </c>
       <c r="C31" s="10">
@@ -7242,19 +7324,19 @@
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
@@ -7265,13 +7347,13 @@
       <c r="D34" s="15"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="27"/>
       <c r="E35" s="17"/>
     </row>
-    <row r="36" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -7285,7 +7367,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
@@ -7297,7 +7379,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B38" s="28"/>
       <c r="C38" s="18" t="str">
         <f>(SUM(C39:C41)/4)&amp;" h"</f>
@@ -7308,8 +7390,8 @@
       </c>
       <c r="E38" s="19"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="34" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B39" s="33" t="s">
         <v>29</v>
       </c>
       <c r="C39" s="10">
@@ -7318,8 +7400,8 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B40" s="35" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B40" s="34" t="s">
         <v>31</v>
       </c>
       <c r="C40" s="10">
@@ -7330,13 +7412,13 @@
       </c>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B42" s="28"/>
       <c r="C42" s="18" t="str">
         <f>(SUM(C43:C45)/4)&amp;" h"</f>
@@ -7347,25 +7429,25 @@
       </c>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="22"/>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="22"/>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B46" s="28"/>
       <c r="C46" s="18" t="str">
         <f>(SUM(C47:C48)/4)&amp;" h"</f>
@@ -7376,19 +7458,19 @@
       </c>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B47" s="9"/>
       <c r="C47" s="10"/>
       <c r="D47" s="22"/>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B49" s="28"/>
       <c r="C49" s="18" t="str">
         <f>(SUM(C50:C52)/4)&amp;" h"</f>
@@ -7399,25 +7481,25 @@
       </c>
       <c r="E49" s="19"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
       <c r="D50" s="11"/>
       <c r="E50" s="12"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
     </row>
-    <row r="53" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B53" s="28"/>
       <c r="C53" s="18" t="str">
         <f>(SUM(C54:C65)/4)&amp;" h"</f>
@@ -7428,25 +7510,25 @@
       </c>
       <c r="E53" s="19"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B54" s="9"/>
       <c r="C54" s="10"/>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
     </row>
-    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B57" s="28"/>
       <c r="C57" s="18"/>
       <c r="D57" s="29" t="s">
@@ -7454,25 +7536,25 @@
       </c>
       <c r="E57" s="19"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B58" s="34"/>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B58" s="33"/>
       <c r="C58" s="10"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="34"/>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B59" s="33"/>
       <c r="C59" s="10"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
     </row>
-    <row r="61" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B61" s="28"/>
       <c r="C61" s="18"/>
       <c r="D61" s="29" t="s">
@@ -7480,31 +7562,31 @@
       </c>
       <c r="E61" s="19"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="34"/>
+    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B62" s="33"/>
       <c r="C62" s="10"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
     </row>
-    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
     </row>
-    <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B66" s="14" t="s">
         <v>4</v>
       </c>
@@ -7515,7 +7597,7 @@
       <c r="D66" s="15"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
@@ -7529,7 +7611,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
@@ -7541,7 +7623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B69" s="28"/>
       <c r="C69" s="18" t="str">
         <f>(SUM(C70:C71)/4)&amp;" h"</f>
@@ -7552,19 +7634,19 @@
       </c>
       <c r="E69" s="19"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B70" s="9"/>
       <c r="C70" s="10"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B71" s="9"/>
       <c r="C71" s="10"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B72" s="28"/>
       <c r="C72" s="18" t="str">
         <f>(SUM(C73:C75)/4)&amp;" h"</f>
@@ -7575,25 +7657,25 @@
       </c>
       <c r="E72" s="19"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B73" s="9"/>
       <c r="C73" s="10"/>
       <c r="D73" s="22"/>
       <c r="E73" s="11"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B74" s="9"/>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
       <c r="D75" s="22"/>
       <c r="E75" s="11"/>
     </row>
-    <row r="76" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B76" s="28"/>
       <c r="C76" s="18" t="str">
         <f>(SUM(C77:C78)/4)&amp;" h"</f>
@@ -7604,19 +7686,19 @@
       </c>
       <c r="E76" s="19"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B77" s="9"/>
       <c r="C77" s="10"/>
       <c r="D77" s="22"/>
       <c r="E77" s="11"/>
     </row>
-    <row r="78" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
     </row>
-    <row r="79" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B79" s="28"/>
       <c r="C79" s="18" t="str">
         <f>(SUM(C80:C82)/4)&amp;" h"</f>
@@ -7627,25 +7709,25 @@
       </c>
       <c r="E79" s="19"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B80" s="9"/>
       <c r="C80" s="10"/>
       <c r="D80" s="11"/>
       <c r="E80" s="12"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
     </row>
-    <row r="82" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
     </row>
-    <row r="83" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B83" s="28"/>
       <c r="C83" s="18" t="str">
         <f>(SUM(C84:C96)/4)&amp;" h"</f>
@@ -7656,25 +7738,25 @@
       </c>
       <c r="E83" s="19"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B84" s="9"/>
       <c r="C84" s="10"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B85" s="9"/>
       <c r="C85" s="10"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
     </row>
-    <row r="86" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B86" s="9"/>
       <c r="C86" s="10"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
     </row>
-    <row r="87" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B87" s="28"/>
       <c r="C87" s="18"/>
       <c r="D87" s="29" t="s">
@@ -7682,25 +7764,25 @@
       </c>
       <c r="E87" s="19"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B88" s="34"/>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B88" s="33"/>
       <c r="C88" s="10"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B89" s="34"/>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B89" s="33"/>
       <c r="C89" s="10"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
     </row>
-    <row r="90" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B90" s="9"/>
       <c r="C90" s="10"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B91" s="28"/>
       <c r="C91" s="18"/>
       <c r="D91" s="29" t="s">
@@ -7708,37 +7790,37 @@
       </c>
       <c r="E91" s="19"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B92" s="34"/>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B92" s="33"/>
       <c r="C92" s="10"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B93" s="9"/>
       <c r="C93" s="10"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B94" s="9"/>
       <c r="C94" s="10"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
     </row>
-    <row r="95" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B95" s="9"/>
       <c r="C95" s="10"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
     </row>
-    <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B96" s="9"/>
       <c r="C96" s="10"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
     </row>
-    <row r="97" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B97" s="14" t="s">
         <v>4</v>
       </c>
@@ -7749,7 +7831,7 @@
       <c r="D97" s="15"/>
       <c r="E97" s="16"/>
     </row>
-    <row r="98" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
@@ -7763,7 +7845,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B99" s="4" t="s">
         <v>2</v>
       </c>
@@ -7775,7 +7857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B100" s="28"/>
       <c r="C100" s="18" t="str">
         <f>(SUM(C101:C102)/4)&amp;" h"</f>
@@ -7786,19 +7868,19 @@
       </c>
       <c r="E100" s="19"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B101" s="9"/>
       <c r="C101" s="10"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B102" s="9"/>
       <c r="C102" s="10"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
     </row>
-    <row r="103" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B103" s="28"/>
       <c r="C103" s="18" t="str">
         <f>(SUM(C104:C106)/4)&amp;" h"</f>
@@ -7809,25 +7891,25 @@
       </c>
       <c r="E103" s="19"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B104" s="9"/>
       <c r="C104" s="10"/>
       <c r="D104" s="22"/>
       <c r="E104" s="11"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B105" s="9"/>
       <c r="C105" s="10"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
     </row>
-    <row r="106" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B106" s="9"/>
       <c r="C106" s="10"/>
       <c r="D106" s="22"/>
       <c r="E106" s="11"/>
     </row>
-    <row r="107" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B107" s="28"/>
       <c r="C107" s="18" t="str">
         <f>(SUM(C108:C109)/4)&amp;" h"</f>
@@ -7838,19 +7920,19 @@
       </c>
       <c r="E107" s="19"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B108" s="9"/>
       <c r="C108" s="10"/>
       <c r="D108" s="22"/>
       <c r="E108" s="11"/>
     </row>
-    <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B109" s="9"/>
       <c r="C109" s="10"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
     </row>
-    <row r="110" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B110" s="28"/>
       <c r="C110" s="18" t="str">
         <f>(SUM(C111:C113)/4)&amp;" h"</f>
@@ -7861,25 +7943,25 @@
       </c>
       <c r="E110" s="19"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B111" s="9"/>
       <c r="C111" s="10"/>
       <c r="D111" s="11"/>
       <c r="E111" s="12"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B112" s="9"/>
       <c r="C112" s="10"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
     </row>
-    <row r="113" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B113" s="9"/>
       <c r="C113" s="10"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
     </row>
-    <row r="114" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B114" s="28"/>
       <c r="C114" s="18" t="str">
         <f>(SUM(C115:C128)/4)&amp;" h"</f>
@@ -7890,25 +7972,25 @@
       </c>
       <c r="E114" s="19"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B115" s="9"/>
       <c r="C115" s="10"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B116" s="9"/>
       <c r="C116" s="10"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
     </row>
-    <row r="117" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B117" s="9"/>
       <c r="C117" s="10"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
     </row>
-    <row r="118" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B118" s="28"/>
       <c r="C118" s="18"/>
       <c r="D118" s="29" t="s">
@@ -7916,25 +7998,25 @@
       </c>
       <c r="E118" s="19"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="34"/>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B119" s="33"/>
       <c r="C119" s="10"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B120" s="34"/>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B120" s="33"/>
       <c r="C120" s="10"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
     </row>
-    <row r="121" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B121" s="9"/>
       <c r="C121" s="10"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
     </row>
-    <row r="122" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B122" s="28"/>
       <c r="C122" s="18"/>
       <c r="D122" s="29" t="s">
@@ -7942,43 +8024,43 @@
       </c>
       <c r="E122" s="19"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="34"/>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B123" s="33"/>
       <c r="C123" s="10"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B124" s="9"/>
       <c r="C124" s="10"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B125" s="9"/>
       <c r="C125" s="10"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B126" s="9"/>
       <c r="C126" s="10"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B127" s="9"/>
-      <c r="C127" s="37"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
-    </row>
-    <row r="128" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C127" s="36"/>
+      <c r="D127" s="38"/>
+      <c r="E127" s="38"/>
+    </row>
+    <row r="128" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B128" s="9"/>
       <c r="C128" s="10"/>
-      <c r="D128" s="38"/>
-      <c r="E128" s="38"/>
-    </row>
-    <row r="129" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D128" s="37"/>
+      <c r="E128" s="37"/>
+    </row>
+    <row r="129" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B129" s="14" t="s">
         <v>4</v>
       </c>
@@ -7989,7 +8071,7 @@
       <c r="D129" s="15"/>
       <c r="E129" s="16"/>
     </row>
-    <row r="130" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="1" t="s">
         <v>0</v>
       </c>
@@ -8003,7 +8085,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B131" s="4" t="s">
         <v>2</v>
       </c>
@@ -8015,7 +8097,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B132" s="28"/>
       <c r="C132" s="18" t="str">
         <f>(SUM(C133:C134)/4)&amp;" h"</f>
@@ -8026,19 +8108,19 @@
       </c>
       <c r="E132" s="19"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B133" s="9"/>
       <c r="C133" s="10"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
-    <row r="134" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B134" s="9"/>
       <c r="C134" s="10"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
     </row>
-    <row r="135" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B135" s="28"/>
       <c r="C135" s="18" t="str">
         <f>(SUM(C136:C138)/4)&amp;" h"</f>
@@ -8049,25 +8131,25 @@
       </c>
       <c r="E135" s="19"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B136" s="9"/>
       <c r="C136" s="10"/>
       <c r="D136" s="22"/>
       <c r="E136" s="11"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B137" s="9"/>
       <c r="C137" s="10"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
     </row>
-    <row r="138" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B138" s="9"/>
       <c r="C138" s="10"/>
       <c r="D138" s="22"/>
       <c r="E138" s="11"/>
     </row>
-    <row r="139" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B139" s="28"/>
       <c r="C139" s="18" t="str">
         <f>(SUM(C140:C141)/4)&amp;" h"</f>
@@ -8078,19 +8160,19 @@
       </c>
       <c r="E139" s="19"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B140" s="9"/>
       <c r="C140" s="10"/>
       <c r="D140" s="22"/>
       <c r="E140" s="11"/>
     </row>
-    <row r="141" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B141" s="9"/>
       <c r="C141" s="10"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
     </row>
-    <row r="142" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B142" s="28"/>
       <c r="C142" s="18" t="str">
         <f>(SUM(C143:C145)/4)&amp;" h"</f>
@@ -8101,25 +8183,25 @@
       </c>
       <c r="E142" s="19"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B143" s="9"/>
       <c r="C143" s="10"/>
       <c r="D143" s="11"/>
       <c r="E143" s="12"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B144" s="9"/>
       <c r="C144" s="10"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
     </row>
-    <row r="145" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B145" s="9"/>
       <c r="C145" s="10"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
     </row>
-    <row r="146" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B146" s="28"/>
       <c r="C146" s="18" t="str">
         <f>(SUM(C147:C150)/4)&amp;" h"</f>
@@ -8130,31 +8212,31 @@
       </c>
       <c r="E146" s="19"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B147" s="9"/>
       <c r="C147" s="10"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B148" s="9"/>
       <c r="C148" s="10"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B149" s="9"/>
       <c r="C149" s="10"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
     </row>
-    <row r="150" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B150" s="9"/>
       <c r="C150" s="10"/>
       <c r="D150" s="13"/>
       <c r="E150" s="13"/>
     </row>
-    <row r="151" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B151" s="14" t="s">
         <v>4</v>
       </c>
@@ -8165,7 +8247,7 @@
       <c r="D151" s="15"/>
       <c r="E151" s="16"/>
     </row>
-    <row r="152" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B152" s="1" t="s">
         <v>0</v>
       </c>
@@ -8179,7 +8261,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B153" s="4" t="s">
         <v>2</v>
       </c>
@@ -8191,7 +8273,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B154" s="28"/>
       <c r="C154" s="18" t="str">
         <f>(SUM(C155:C156)/4)&amp;" h"</f>
@@ -8202,19 +8284,19 @@
       </c>
       <c r="E154" s="19"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B155" s="9"/>
       <c r="C155" s="10"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
     </row>
-    <row r="156" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B156" s="9"/>
       <c r="C156" s="10"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
     </row>
-    <row r="157" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B157" s="28"/>
       <c r="C157" s="18" t="str">
         <f>(SUM(C158:C160)/4)&amp;" h"</f>
@@ -8225,25 +8307,25 @@
       </c>
       <c r="E157" s="19"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B158" s="9"/>
       <c r="C158" s="10"/>
       <c r="D158" s="22"/>
       <c r="E158" s="11"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B159" s="9"/>
       <c r="C159" s="10"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
     </row>
-    <row r="160" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B160" s="9"/>
       <c r="C160" s="10"/>
       <c r="D160" s="22"/>
       <c r="E160" s="11"/>
     </row>
-    <row r="161" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B161" s="28"/>
       <c r="C161" s="18" t="str">
         <f>(SUM(C162:C163)/4)&amp;" h"</f>
@@ -8254,19 +8336,19 @@
       </c>
       <c r="E161" s="19"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B162" s="9"/>
       <c r="C162" s="10"/>
       <c r="D162" s="22"/>
       <c r="E162" s="11"/>
     </row>
-    <row r="163" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B163" s="9"/>
       <c r="C163" s="10"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
     </row>
-    <row r="164" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B164" s="28"/>
       <c r="C164" s="18" t="str">
         <f>(SUM(C165:C167)/4)&amp;" h"</f>
@@ -8277,25 +8359,25 @@
       </c>
       <c r="E164" s="19"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B165" s="9"/>
       <c r="C165" s="10"/>
       <c r="D165" s="11"/>
       <c r="E165" s="12"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B166" s="9"/>
       <c r="C166" s="10"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
     </row>
-    <row r="167" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B167" s="9"/>
       <c r="C167" s="10"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
     </row>
-    <row r="168" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B168" s="28"/>
       <c r="C168" s="18" t="str">
         <f>(SUM(C169:C172)/4)&amp;" h"</f>
@@ -8306,31 +8388,31 @@
       </c>
       <c r="E168" s="19"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B169" s="9"/>
       <c r="C169" s="10"/>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B170" s="9"/>
       <c r="C170" s="10"/>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B171" s="9"/>
       <c r="C171" s="10"/>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
     </row>
-    <row r="172" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B172" s="9"/>
       <c r="C172" s="10"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
     </row>
-    <row r="173" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B173" s="14" t="s">
         <v>4</v>
       </c>
@@ -8341,7 +8423,7 @@
       <c r="D173" s="15"/>
       <c r="E173" s="16"/>
     </row>
-    <row r="174" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B174" s="1" t="s">
         <v>0</v>
       </c>
@@ -8355,7 +8437,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="175" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B175" s="4" t="s">
         <v>2</v>
       </c>
@@ -8367,7 +8449,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B176" s="28"/>
       <c r="C176" s="18" t="str">
         <f>(SUM(C177:C178)/4)&amp;" h"</f>
@@ -8378,19 +8460,19 @@
       </c>
       <c r="E176" s="19"/>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B177" s="9"/>
       <c r="C177" s="10"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
     </row>
-    <row r="178" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B178" s="9"/>
       <c r="C178" s="10"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
     </row>
-    <row r="179" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B179" s="28"/>
       <c r="C179" s="18" t="str">
         <f>(SUM(C180:C182)/4)&amp;" h"</f>
@@ -8401,25 +8483,25 @@
       </c>
       <c r="E179" s="19"/>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B180" s="9"/>
       <c r="C180" s="10"/>
       <c r="D180" s="22"/>
       <c r="E180" s="11"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B181" s="9"/>
       <c r="C181" s="10"/>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
     </row>
-    <row r="182" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B182" s="9"/>
       <c r="C182" s="10"/>
       <c r="D182" s="22"/>
       <c r="E182" s="11"/>
     </row>
-    <row r="183" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B183" s="28"/>
       <c r="C183" s="18" t="str">
         <f>(SUM(C184:C185)/4)&amp;" h"</f>
@@ -8430,19 +8512,19 @@
       </c>
       <c r="E183" s="19"/>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B184" s="9"/>
       <c r="C184" s="10"/>
       <c r="D184" s="22"/>
       <c r="E184" s="11"/>
     </row>
-    <row r="185" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B185" s="9"/>
       <c r="C185" s="10"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
     </row>
-    <row r="186" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B186" s="28"/>
       <c r="C186" s="18" t="str">
         <f>(SUM(C187:C189)/4)&amp;" h"</f>
@@ -8453,25 +8535,25 @@
       </c>
       <c r="E186" s="19"/>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B187" s="9"/>
       <c r="C187" s="10"/>
       <c r="D187" s="11"/>
       <c r="E187" s="12"/>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B188" s="9"/>
       <c r="C188" s="10"/>
       <c r="D188" s="12"/>
       <c r="E188" s="12"/>
     </row>
-    <row r="189" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B189" s="9"/>
       <c r="C189" s="10"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
     </row>
-    <row r="190" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B190" s="28"/>
       <c r="C190" s="18" t="str">
         <f>(SUM(C191:C194)/4)&amp;" h"</f>
@@ -8482,31 +8564,31 @@
       </c>
       <c r="E190" s="19"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B191" s="9"/>
       <c r="C191" s="10"/>
       <c r="D191" s="12"/>
       <c r="E191" s="12"/>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B192" s="9"/>
       <c r="C192" s="10"/>
       <c r="D192" s="12"/>
       <c r="E192" s="12"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B193" s="9"/>
       <c r="C193" s="10"/>
       <c r="D193" s="12"/>
       <c r="E193" s="12"/>
     </row>
-    <row r="194" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B194" s="9"/>
       <c r="C194" s="10"/>
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
     </row>
-    <row r="195" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B195" s="14" t="s">
         <v>4</v>
       </c>
@@ -8517,7 +8599,7 @@
       <c r="D195" s="15"/>
       <c r="E195" s="16"/>
     </row>
-    <row r="196" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B196" s="1" t="s">
         <v>0</v>
       </c>
@@ -8531,7 +8613,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="197" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B197" s="4" t="s">
         <v>2</v>
       </c>
@@ -8543,7 +8625,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B198" s="28"/>
       <c r="C198" s="18" t="str">
         <f>(SUM(C199:C200)/4)&amp;" h"</f>
@@ -8554,19 +8636,19 @@
       </c>
       <c r="E198" s="19"/>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B199" s="9"/>
       <c r="C199" s="10"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
     </row>
-    <row r="200" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B200" s="9"/>
       <c r="C200" s="10"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
     </row>
-    <row r="201" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B201" s="28"/>
       <c r="C201" s="18" t="str">
         <f>(SUM(C202:C204)/4)&amp;" h"</f>
@@ -8577,25 +8659,25 @@
       </c>
       <c r="E201" s="19"/>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B202" s="9"/>
       <c r="C202" s="10"/>
       <c r="D202" s="22"/>
       <c r="E202" s="11"/>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B203" s="9"/>
       <c r="C203" s="10"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
     </row>
-    <row r="204" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B204" s="9"/>
       <c r="C204" s="10"/>
       <c r="D204" s="22"/>
       <c r="E204" s="11"/>
     </row>
-    <row r="205" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B205" s="28"/>
       <c r="C205" s="18" t="str">
         <f>(SUM(C206:C207)/4)&amp;" h"</f>
@@ -8606,19 +8688,19 @@
       </c>
       <c r="E205" s="19"/>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B206" s="9"/>
       <c r="C206" s="10"/>
       <c r="D206" s="22"/>
       <c r="E206" s="11"/>
     </row>
-    <row r="207" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B207" s="9"/>
       <c r="C207" s="10"/>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
     </row>
-    <row r="208" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B208" s="28"/>
       <c r="C208" s="18" t="str">
         <f>(SUM(C209:C211)/4)&amp;" h"</f>
@@ -8629,25 +8711,25 @@
       </c>
       <c r="E208" s="19"/>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B209" s="9"/>
       <c r="C209" s="10"/>
       <c r="D209" s="11"/>
       <c r="E209" s="12"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B210" s="9"/>
       <c r="C210" s="10"/>
       <c r="D210" s="12"/>
       <c r="E210" s="12"/>
     </row>
-    <row r="211" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B211" s="9"/>
       <c r="C211" s="10"/>
       <c r="D211" s="12"/>
       <c r="E211" s="12"/>
     </row>
-    <row r="212" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B212" s="28"/>
       <c r="C212" s="18" t="str">
         <f>(SUM(C213:C216)/4)&amp;" h"</f>
@@ -8658,31 +8740,31 @@
       </c>
       <c r="E212" s="19"/>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B213" s="9"/>
       <c r="C213" s="10"/>
       <c r="D213" s="12"/>
       <c r="E213" s="12"/>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B214" s="9"/>
       <c r="C214" s="10"/>
       <c r="D214" s="12"/>
       <c r="E214" s="12"/>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B215" s="9"/>
       <c r="C215" s="10"/>
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
     </row>
-    <row r="216" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B216" s="9"/>
       <c r="C216" s="10"/>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
     </row>
-    <row r="217" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B217" s="14" t="s">
         <v>4</v>
       </c>
@@ -8693,7 +8775,7 @@
       <c r="D217" s="15"/>
       <c r="E217" s="16"/>
     </row>
-    <row r="218" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B218" s="1" t="s">
         <v>0</v>
       </c>
@@ -8707,7 +8789,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="219" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B219" s="4" t="s">
         <v>2</v>
       </c>
@@ -8719,7 +8801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B220" s="28"/>
       <c r="C220" s="18" t="str">
         <f>(SUM(C221:C222)/4)&amp;" h"</f>
@@ -8730,19 +8812,19 @@
       </c>
       <c r="E220" s="19"/>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B221" s="9"/>
       <c r="C221" s="10"/>
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
     </row>
-    <row r="222" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B222" s="9"/>
       <c r="C222" s="10"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
     </row>
-    <row r="223" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B223" s="28"/>
       <c r="C223" s="18" t="str">
         <f>(SUM(C224:C226)/4)&amp;" h"</f>
@@ -8753,25 +8835,25 @@
       </c>
       <c r="E223" s="19"/>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B224" s="9"/>
       <c r="C224" s="10"/>
       <c r="D224" s="22"/>
       <c r="E224" s="11"/>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B225" s="9"/>
       <c r="C225" s="10"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11"/>
     </row>
-    <row r="226" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B226" s="9"/>
       <c r="C226" s="10"/>
       <c r="D226" s="22"/>
       <c r="E226" s="11"/>
     </row>
-    <row r="227" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B227" s="28"/>
       <c r="C227" s="18" t="str">
         <f>(SUM(C228:C229)/4)&amp;" h"</f>
@@ -8782,19 +8864,19 @@
       </c>
       <c r="E227" s="19"/>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B228" s="9"/>
       <c r="C228" s="10"/>
       <c r="D228" s="22"/>
       <c r="E228" s="11"/>
     </row>
-    <row r="229" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B229" s="9"/>
       <c r="C229" s="10"/>
       <c r="D229" s="11"/>
       <c r="E229" s="11"/>
     </row>
-    <row r="230" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B230" s="28"/>
       <c r="C230" s="18" t="str">
         <f>(SUM(C231:C233)/4)&amp;" h"</f>
@@ -8805,25 +8887,25 @@
       </c>
       <c r="E230" s="19"/>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B231" s="9"/>
       <c r="C231" s="10"/>
       <c r="D231" s="11"/>
       <c r="E231" s="12"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B232" s="9"/>
       <c r="C232" s="10"/>
       <c r="D232" s="12"/>
       <c r="E232" s="12"/>
     </row>
-    <row r="233" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B233" s="9"/>
       <c r="C233" s="10"/>
       <c r="D233" s="12"/>
       <c r="E233" s="12"/>
     </row>
-    <row r="234" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B234" s="28"/>
       <c r="C234" s="18" t="str">
         <f>(SUM(C235:C238)/4)&amp;" h"</f>
@@ -8834,31 +8916,31 @@
       </c>
       <c r="E234" s="19"/>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B235" s="9"/>
       <c r="C235" s="10"/>
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B236" s="9"/>
       <c r="C236" s="10"/>
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B237" s="9"/>
       <c r="C237" s="10"/>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
     </row>
-    <row r="238" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B238" s="9"/>
       <c r="C238" s="10"/>
       <c r="D238" s="13"/>
       <c r="E238" s="13"/>
     </row>
-    <row r="239" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B239" s="14" t="s">
         <v>4</v>
       </c>
@@ -8869,7 +8951,7 @@
       <c r="D239" s="15"/>
       <c r="E239" s="16"/>
     </row>
-    <row r="240" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B240" s="1" t="s">
         <v>0</v>
       </c>
@@ -8881,7 +8963,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="241" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B241" s="4" t="s">
         <v>2</v>
       </c>
@@ -8893,7 +8975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B242" s="28"/>
       <c r="C242" s="18" t="str">
         <f>(SUM(C243:C244)/4)&amp;" h"</f>
@@ -8904,19 +8986,19 @@
       </c>
       <c r="E242" s="19"/>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B243" s="9"/>
       <c r="C243" s="10"/>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
     </row>
-    <row r="244" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B244" s="9"/>
       <c r="C244" s="10"/>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
     </row>
-    <row r="245" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B245" s="28"/>
       <c r="C245" s="18" t="str">
         <f>(SUM(C246:C248)/4)&amp;" h"</f>
@@ -8927,25 +9009,25 @@
       </c>
       <c r="E245" s="19"/>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B246" s="9"/>
       <c r="C246" s="10"/>
       <c r="D246" s="22"/>
       <c r="E246" s="11"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B247" s="9"/>
       <c r="C247" s="10"/>
       <c r="D247" s="11"/>
       <c r="E247" s="11"/>
     </row>
-    <row r="248" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B248" s="9"/>
       <c r="C248" s="10"/>
       <c r="D248" s="22"/>
       <c r="E248" s="11"/>
     </row>
-    <row r="249" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B249" s="28"/>
       <c r="C249" s="18" t="str">
         <f>(SUM(C250:C251)/4)&amp;" h"</f>
@@ -8956,19 +9038,19 @@
       </c>
       <c r="E249" s="19"/>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B250" s="9"/>
       <c r="C250" s="10"/>
       <c r="D250" s="22"/>
       <c r="E250" s="11"/>
     </row>
-    <row r="251" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B251" s="9"/>
       <c r="C251" s="10"/>
       <c r="D251" s="11"/>
       <c r="E251" s="11"/>
     </row>
-    <row r="252" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B252" s="28"/>
       <c r="C252" s="18" t="str">
         <f>(SUM(C253:C255)/4)&amp;" h"</f>
@@ -8979,25 +9061,25 @@
       </c>
       <c r="E252" s="19"/>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B253" s="9"/>
       <c r="C253" s="10"/>
       <c r="D253" s="11"/>
       <c r="E253" s="12"/>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B254" s="9"/>
       <c r="C254" s="10"/>
       <c r="D254" s="12"/>
       <c r="E254" s="12"/>
     </row>
-    <row r="255" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B255" s="9"/>
       <c r="C255" s="10"/>
       <c r="D255" s="12"/>
       <c r="E255" s="12"/>
     </row>
-    <row r="256" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B256" s="28"/>
       <c r="C256" s="18" t="str">
         <f>(SUM(C257:C260)/4)&amp;" h"</f>
@@ -9008,31 +9090,31 @@
       </c>
       <c r="E256" s="19"/>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B257" s="9"/>
       <c r="C257" s="10"/>
       <c r="D257" s="12"/>
       <c r="E257" s="12"/>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B258" s="9"/>
       <c r="C258" s="10"/>
       <c r="D258" s="12"/>
       <c r="E258" s="12"/>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B259" s="9"/>
       <c r="C259" s="10"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
     </row>
-    <row r="260" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B260" s="9"/>
       <c r="C260" s="10"/>
       <c r="D260" s="13"/>
       <c r="E260" s="13"/>
     </row>
-    <row r="261" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B261" s="14" t="s">
         <v>4</v>
       </c>
@@ -9043,7 +9125,7 @@
       <c r="D261" s="15"/>
       <c r="E261" s="16"/>
     </row>
-    <row r="262" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B262" s="1" t="s">
         <v>0</v>
       </c>
@@ -9057,7 +9139,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="263" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B263" s="4" t="s">
         <v>2</v>
       </c>
@@ -9069,7 +9151,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B264" s="28"/>
       <c r="C264" s="18" t="str">
         <f>(SUM(C265:C266)/4)&amp;" h"</f>
@@ -9080,19 +9162,19 @@
       </c>
       <c r="E264" s="19"/>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B265" s="9"/>
       <c r="C265" s="10"/>
       <c r="D265" s="8"/>
       <c r="E265" s="8"/>
     </row>
-    <row r="266" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B266" s="9"/>
       <c r="C266" s="10"/>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
     </row>
-    <row r="267" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B267" s="28"/>
       <c r="C267" s="18" t="str">
         <f>(SUM(C268:C270)/4)&amp;" h"</f>
@@ -9103,25 +9185,25 @@
       </c>
       <c r="E267" s="19"/>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B268" s="9"/>
       <c r="C268" s="10"/>
       <c r="D268" s="22"/>
       <c r="E268" s="11"/>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B269" s="9"/>
       <c r="C269" s="10"/>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
     </row>
-    <row r="270" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B270" s="9"/>
       <c r="C270" s="10"/>
       <c r="D270" s="22"/>
       <c r="E270" s="11"/>
     </row>
-    <row r="271" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B271" s="28"/>
       <c r="C271" s="18" t="str">
         <f>(SUM(C272:C273)/4)&amp;" h"</f>
@@ -9132,19 +9214,19 @@
       </c>
       <c r="E271" s="19"/>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B272" s="9"/>
       <c r="C272" s="10"/>
       <c r="D272" s="22"/>
       <c r="E272" s="11"/>
     </row>
-    <row r="273" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B273" s="9"/>
       <c r="C273" s="10"/>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
     </row>
-    <row r="274" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B274" s="28"/>
       <c r="C274" s="18" t="str">
         <f>(SUM(C275:C277)/4)&amp;" h"</f>
@@ -9155,25 +9237,25 @@
       </c>
       <c r="E274" s="19"/>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B275" s="9"/>
       <c r="C275" s="10"/>
       <c r="D275" s="11"/>
       <c r="E275" s="12"/>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B276" s="9"/>
       <c r="C276" s="10"/>
       <c r="D276" s="12"/>
       <c r="E276" s="12"/>
     </row>
-    <row r="277" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B277" s="9"/>
       <c r="C277" s="10"/>
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
     </row>
-    <row r="278" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B278" s="28"/>
       <c r="C278" s="18" t="str">
         <f>(SUM(C279:C282)/4)&amp;" h"</f>
@@ -9184,31 +9266,31 @@
       </c>
       <c r="E278" s="19"/>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B279" s="9"/>
       <c r="C279" s="10"/>
       <c r="D279" s="12"/>
       <c r="E279" s="12"/>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B280" s="9"/>
       <c r="C280" s="10"/>
       <c r="D280" s="12"/>
       <c r="E280" s="12"/>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B281" s="9"/>
       <c r="C281" s="10"/>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
     </row>
-    <row r="282" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B282" s="9"/>
       <c r="C282" s="10"/>
       <c r="D282" s="13"/>
       <c r="E282" s="13"/>
     </row>
-    <row r="283" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B283" s="14" t="s">
         <v>4</v>
       </c>
@@ -9219,7 +9301,7 @@
       <c r="D283" s="15"/>
       <c r="E283" s="16"/>
     </row>
-    <row r="284" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B284" s="1" t="s">
         <v>0</v>
       </c>
@@ -9233,7 +9315,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="285" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B285" s="4" t="s">
         <v>2</v>
       </c>
@@ -9245,7 +9327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B286" s="28"/>
       <c r="C286" s="18" t="str">
         <f>(SUM(C287:C288)/4)&amp;" h"</f>
@@ -9256,19 +9338,19 @@
       </c>
       <c r="E286" s="19"/>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B287" s="9"/>
       <c r="C287" s="10"/>
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
     </row>
-    <row r="288" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B288" s="9"/>
       <c r="C288" s="10"/>
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
     </row>
-    <row r="289" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B289" s="28"/>
       <c r="C289" s="18" t="str">
         <f>(SUM(C290:C292)/4)&amp;" h"</f>
@@ -9279,25 +9361,25 @@
       </c>
       <c r="E289" s="19"/>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B290" s="9"/>
       <c r="C290" s="10"/>
       <c r="D290" s="22"/>
       <c r="E290" s="11"/>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B291" s="9"/>
       <c r="C291" s="10"/>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
     </row>
-    <row r="292" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B292" s="9"/>
       <c r="C292" s="10"/>
       <c r="D292" s="22"/>
       <c r="E292" s="11"/>
     </row>
-    <row r="293" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B293" s="28"/>
       <c r="C293" s="18" t="str">
         <f>(SUM(C294:C295)/4)&amp;" h"</f>
@@ -9308,19 +9390,19 @@
       </c>
       <c r="E293" s="19"/>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B294" s="9"/>
       <c r="C294" s="10"/>
       <c r="D294" s="22"/>
       <c r="E294" s="11"/>
     </row>
-    <row r="295" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B295" s="9"/>
       <c r="C295" s="10"/>
       <c r="D295" s="11"/>
       <c r="E295" s="11"/>
     </row>
-    <row r="296" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B296" s="28"/>
       <c r="C296" s="18" t="str">
         <f>(SUM(C297:C299)/4)&amp;" h"</f>
@@ -9331,25 +9413,25 @@
       </c>
       <c r="E296" s="19"/>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B297" s="9"/>
       <c r="C297" s="10"/>
       <c r="D297" s="11"/>
       <c r="E297" s="12"/>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B298" s="9"/>
       <c r="C298" s="10"/>
       <c r="D298" s="12"/>
       <c r="E298" s="12"/>
     </row>
-    <row r="299" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B299" s="9"/>
       <c r="C299" s="10"/>
       <c r="D299" s="12"/>
       <c r="E299" s="12"/>
     </row>
-    <row r="300" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B300" s="28"/>
       <c r="C300" s="18" t="str">
         <f>(SUM(C301:C304)/4)&amp;" h"</f>
@@ -9360,31 +9442,31 @@
       </c>
       <c r="E300" s="19"/>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B301" s="9"/>
       <c r="C301" s="10"/>
       <c r="D301" s="12"/>
       <c r="E301" s="12"/>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B302" s="9"/>
       <c r="C302" s="10"/>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B303" s="9"/>
       <c r="C303" s="10"/>
       <c r="D303" s="12"/>
       <c r="E303" s="12"/>
     </row>
-    <row r="304" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B304" s="9"/>
       <c r="C304" s="10"/>
       <c r="D304" s="13"/>
       <c r="E304" s="13"/>
     </row>
-    <row r="305" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B305" s="14" t="s">
         <v>4</v>
       </c>
@@ -9395,7 +9477,7 @@
       <c r="D305" s="15"/>
       <c r="E305" s="16"/>
     </row>
-    <row r="306" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B306" s="1" t="s">
         <v>0</v>
       </c>
@@ -9409,7 +9491,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="307" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B307" s="4" t="s">
         <v>2</v>
       </c>
@@ -9421,7 +9503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B308" s="28"/>
       <c r="C308" s="18" t="str">
         <f>(SUM(C309:C310)/4)&amp;" h"</f>
@@ -9432,19 +9514,19 @@
       </c>
       <c r="E308" s="19"/>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B309" s="9"/>
       <c r="C309" s="10"/>
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
     </row>
-    <row r="310" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B310" s="9"/>
       <c r="C310" s="10"/>
       <c r="D310" s="11"/>
       <c r="E310" s="11"/>
     </row>
-    <row r="311" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B311" s="28"/>
       <c r="C311" s="18" t="str">
         <f>(SUM(C312:C314)/4)&amp;" h"</f>
@@ -9455,25 +9537,25 @@
       </c>
       <c r="E311" s="19"/>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B312" s="9"/>
       <c r="C312" s="10"/>
       <c r="D312" s="22"/>
       <c r="E312" s="11"/>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B313" s="9"/>
       <c r="C313" s="10"/>
       <c r="D313" s="11"/>
       <c r="E313" s="11"/>
     </row>
-    <row r="314" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B314" s="9"/>
       <c r="C314" s="10"/>
       <c r="D314" s="22"/>
       <c r="E314" s="11"/>
     </row>
-    <row r="315" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B315" s="28"/>
       <c r="C315" s="18" t="str">
         <f>(SUM(C316:C317)/4)&amp;" h"</f>
@@ -9484,19 +9566,19 @@
       </c>
       <c r="E315" s="19"/>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B316" s="9"/>
       <c r="C316" s="10"/>
       <c r="D316" s="22"/>
       <c r="E316" s="11"/>
     </row>
-    <row r="317" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B317" s="9"/>
       <c r="C317" s="10"/>
       <c r="D317" s="11"/>
       <c r="E317" s="11"/>
     </row>
-    <row r="318" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B318" s="28"/>
       <c r="C318" s="18" t="str">
         <f>(SUM(C319:C321)/4)&amp;" h"</f>
@@ -9507,25 +9589,25 @@
       </c>
       <c r="E318" s="19"/>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B319" s="9"/>
       <c r="C319" s="10"/>
       <c r="D319" s="11"/>
       <c r="E319" s="12"/>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B320" s="9"/>
       <c r="C320" s="10"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
     </row>
-    <row r="321" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B321" s="9"/>
       <c r="C321" s="10"/>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
     </row>
-    <row r="322" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B322" s="28"/>
       <c r="C322" s="18" t="str">
         <f>(SUM(C323:C326)/4)&amp;" h"</f>
@@ -9536,31 +9618,31 @@
       </c>
       <c r="E322" s="19"/>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B323" s="9"/>
       <c r="C323" s="10"/>
       <c r="D323" s="12"/>
       <c r="E323" s="12"/>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B324" s="9"/>
       <c r="C324" s="10"/>
       <c r="D324" s="12"/>
       <c r="E324" s="12"/>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B325" s="9"/>
       <c r="C325" s="10"/>
       <c r="D325" s="12"/>
       <c r="E325" s="12"/>
     </row>
-    <row r="326" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B326" s="9"/>
       <c r="C326" s="10"/>
       <c r="D326" s="13"/>
       <c r="E326" s="13"/>
     </row>
-    <row r="327" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B327" s="14" t="s">
         <v>4</v>
       </c>
@@ -9571,7 +9653,7 @@
       <c r="D327" s="15"/>
       <c r="E327" s="16"/>
     </row>
-    <row r="328" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B328" s="1" t="s">
         <v>0</v>
       </c>
@@ -9585,7 +9667,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B329" s="4" t="s">
         <v>2</v>
       </c>
@@ -9597,7 +9679,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B330" s="28"/>
       <c r="C330" s="18" t="str">
         <f>(SUM(C331:C332)/4)&amp;" h"</f>
@@ -9608,19 +9690,19 @@
       </c>
       <c r="E330" s="19"/>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B331" s="9"/>
       <c r="C331" s="10"/>
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
     </row>
-    <row r="332" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B332" s="9"/>
       <c r="C332" s="10"/>
       <c r="D332" s="11"/>
       <c r="E332" s="11"/>
     </row>
-    <row r="333" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B333" s="28"/>
       <c r="C333" s="18" t="str">
         <f>(SUM(C334:C336)/4)&amp;" h"</f>
@@ -9631,25 +9713,25 @@
       </c>
       <c r="E333" s="19"/>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B334" s="9"/>
       <c r="C334" s="10"/>
       <c r="D334" s="22"/>
       <c r="E334" s="11"/>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B335" s="9"/>
       <c r="C335" s="10"/>
       <c r="D335" s="11"/>
       <c r="E335" s="11"/>
     </row>
-    <row r="336" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B336" s="9"/>
       <c r="C336" s="10"/>
       <c r="D336" s="22"/>
       <c r="E336" s="11"/>
     </row>
-    <row r="337" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B337" s="28"/>
       <c r="C337" s="18" t="str">
         <f>(SUM(C338:C339)/4)&amp;" h"</f>
@@ -9660,19 +9742,19 @@
       </c>
       <c r="E337" s="19"/>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B338" s="9"/>
       <c r="C338" s="10"/>
       <c r="D338" s="22"/>
       <c r="E338" s="11"/>
     </row>
-    <row r="339" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B339" s="9"/>
       <c r="C339" s="10"/>
       <c r="D339" s="11"/>
       <c r="E339" s="11"/>
     </row>
-    <row r="340" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B340" s="28"/>
       <c r="C340" s="18" t="str">
         <f>(SUM(C341:C343)/4)&amp;" h"</f>
@@ -9683,25 +9765,25 @@
       </c>
       <c r="E340" s="19"/>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B341" s="9"/>
       <c r="C341" s="10"/>
       <c r="D341" s="11"/>
       <c r="E341" s="12"/>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B342" s="9"/>
       <c r="C342" s="10"/>
       <c r="D342" s="12"/>
       <c r="E342" s="12"/>
     </row>
-    <row r="343" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B343" s="9"/>
       <c r="C343" s="10"/>
       <c r="D343" s="12"/>
       <c r="E343" s="12"/>
     </row>
-    <row r="344" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B344" s="28"/>
       <c r="C344" s="18" t="str">
         <f>(SUM(C345:C348)/4)&amp;" h"</f>
@@ -9712,31 +9794,31 @@
       </c>
       <c r="E344" s="19"/>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B345" s="9"/>
       <c r="C345" s="10"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B346" s="9"/>
       <c r="C346" s="10"/>
       <c r="D346" s="12"/>
       <c r="E346" s="12"/>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B347" s="9"/>
       <c r="C347" s="10"/>
       <c r="D347" s="12"/>
       <c r="E347" s="12"/>
     </row>
-    <row r="348" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B348" s="9"/>
       <c r="C348" s="10"/>
       <c r="D348" s="13"/>
       <c r="E348" s="13"/>
     </row>
-    <row r="349" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B349" s="14" t="s">
         <v>4</v>
       </c>
@@ -9747,7 +9829,7 @@
       <c r="D349" s="15"/>
       <c r="E349" s="16"/>
     </row>
-    <row r="350" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B350" s="1" t="s">
         <v>0</v>
       </c>
@@ -9761,7 +9843,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="351" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B351" s="4" t="s">
         <v>2</v>
       </c>
@@ -9773,7 +9855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B352" s="28"/>
       <c r="C352" s="18" t="str">
         <f>(SUM(C353:C354)/4)&amp;" h"</f>
@@ -9784,19 +9866,19 @@
       </c>
       <c r="E352" s="19"/>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B353" s="9"/>
       <c r="C353" s="10"/>
       <c r="D353" s="8"/>
       <c r="E353" s="8"/>
     </row>
-    <row r="354" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B354" s="9"/>
       <c r="C354" s="10"/>
       <c r="D354" s="11"/>
       <c r="E354" s="11"/>
     </row>
-    <row r="355" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B355" s="28"/>
       <c r="C355" s="18" t="str">
         <f>(SUM(C356:C358)/4)&amp;" h"</f>
@@ -9807,25 +9889,25 @@
       </c>
       <c r="E355" s="19"/>
     </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B356" s="9"/>
       <c r="C356" s="10"/>
       <c r="D356" s="22"/>
       <c r="E356" s="11"/>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B357" s="9"/>
       <c r="C357" s="10"/>
       <c r="D357" s="11"/>
       <c r="E357" s="11"/>
     </row>
-    <row r="358" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B358" s="9"/>
       <c r="C358" s="10"/>
       <c r="D358" s="22"/>
       <c r="E358" s="11"/>
     </row>
-    <row r="359" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B359" s="28"/>
       <c r="C359" s="18" t="str">
         <f>(SUM(C360:C361)/4)&amp;" h"</f>
@@ -9836,19 +9918,19 @@
       </c>
       <c r="E359" s="19"/>
     </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B360" s="9"/>
       <c r="C360" s="10"/>
       <c r="D360" s="22"/>
       <c r="E360" s="11"/>
     </row>
-    <row r="361" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B361" s="9"/>
       <c r="C361" s="10"/>
       <c r="D361" s="11"/>
       <c r="E361" s="11"/>
     </row>
-    <row r="362" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B362" s="28"/>
       <c r="C362" s="18" t="str">
         <f>(SUM(C363:C365)/4)&amp;" h"</f>
@@ -9859,25 +9941,25 @@
       </c>
       <c r="E362" s="19"/>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B363" s="9"/>
       <c r="C363" s="10"/>
       <c r="D363" s="11"/>
       <c r="E363" s="12"/>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B364" s="9"/>
       <c r="C364" s="10"/>
       <c r="D364" s="12"/>
       <c r="E364" s="12"/>
     </row>
-    <row r="365" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B365" s="9"/>
       <c r="C365" s="10"/>
       <c r="D365" s="12"/>
       <c r="E365" s="12"/>
     </row>
-    <row r="366" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B366" s="28"/>
       <c r="C366" s="18" t="str">
         <f>(SUM(C367:C370)/4)&amp;" h"</f>
@@ -9888,31 +9970,31 @@
       </c>
       <c r="E366" s="19"/>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B367" s="9"/>
       <c r="C367" s="10"/>
       <c r="D367" s="12"/>
       <c r="E367" s="12"/>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B368" s="9"/>
       <c r="C368" s="10"/>
       <c r="D368" s="12"/>
       <c r="E368" s="12"/>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B369" s="9"/>
       <c r="C369" s="10"/>
       <c r="D369" s="12"/>
       <c r="E369" s="12"/>
     </row>
-    <row r="370" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B370" s="9"/>
       <c r="C370" s="10"/>
       <c r="D370" s="13"/>
       <c r="E370" s="13"/>
     </row>
-    <row r="371" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B371" s="14" t="s">
         <v>4</v>
       </c>

--- a/Documentation Hermès/PROJ-JournalTravail-GoupeA.xlsx
+++ b/Documentation Hermès/PROJ-JournalTravail-GoupeA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emix\Documents\GitHub\PROJ\Documentation Hermès\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916431ED-3710-4C52-94B5-B27C433F0417}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71946AE7-747E-4F7A-9736-DAAEBA8B1C5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12780" yWindow="2250" windowWidth="21600" windowHeight="11930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="47">
   <si>
     <t>Semaine</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>Use case Fitre de film et achat de film</t>
+  </si>
+  <si>
+    <t>Identity + Identity Server 4</t>
+  </si>
+  <si>
+    <t>Début de la mise en place Identity server 4 (tutoriel)</t>
   </si>
 </sst>
 </file>
@@ -3959,8 +3965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B31092-303D-4AAC-9350-B5A6115F269D}">
   <dimension ref="B1:J371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4671,7 +4677,7 @@
       <c r="B76" s="28"/>
       <c r="C76" s="18" t="str">
         <f>(SUM(C77:C78)/4)&amp;" h"</f>
-        <v>0 h</v>
+        <v>0,25 h</v>
       </c>
       <c r="D76" s="29" t="s">
         <v>7</v>
@@ -4679,9 +4685,15 @@
       <c r="E76" s="19"/>
     </row>
     <row r="77" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B77" s="9"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="22"/>
+      <c r="B77" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C77" s="10">
+        <v>1</v>
+      </c>
+      <c r="D77" s="22" t="s">
+        <v>46</v>
+      </c>
       <c r="E77" s="11"/>
     </row>
     <row r="78" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -4818,7 +4830,7 @@
       </c>
       <c r="C97" s="14">
         <f>SUM(C70:C71,C73:C75,C77:C78,C80:C82,C84:C86,C88:C90,C92:C96)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="16"/>

--- a/Documentation Hermès/PROJ-JournalTravail-GoupeA.xlsx
+++ b/Documentation Hermès/PROJ-JournalTravail-GoupeA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Temp\ETML-ES\SIG2\Gerber\ProjetAPI\GitHub\PROJ\Documentation Hermès\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\OneDrive\Documents\GitHub\PROJ\Documentation Hermès\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAACA213-E1A6-4539-870F-526A7CF1DC7F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13642D5D-3D7B-4B4F-914C-C34049837CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6555" yWindow="1380" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maxime" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="59">
   <si>
     <t>Semaine</t>
   </si>
@@ -209,6 +211,15 @@
   </si>
   <si>
     <t>Diagramme de séquence authentification</t>
+  </si>
+  <si>
+    <t>Conception de test</t>
+  </si>
+  <si>
+    <t>Use case gérer client</t>
+  </si>
+  <si>
+    <t>Use case wishlist</t>
   </si>
 </sst>
 </file>
@@ -986,20 +997,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.33203125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1013,7 +1024,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1029,7 +1040,7 @@
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="28"/>
       <c r="C4" s="18"/>
       <c r="D4" s="26" t="s">
@@ -1041,7 +1052,7 @@
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
     </row>
-    <row r="5" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
@@ -1057,7 +1068,7 @@
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
     </row>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
@@ -1073,7 +1084,7 @@
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
         <v>14</v>
       </c>
@@ -1089,7 +1100,7 @@
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>27</v>
       </c>
@@ -1101,7 +1112,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="34" t="s">
         <v>29</v>
       </c>
@@ -1111,7 +1122,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="28"/>
       <c r="C10" s="18"/>
       <c r="D10" s="26" t="s">
@@ -1119,7 +1130,7 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B11" s="32" t="s">
         <v>12</v>
       </c>
@@ -1131,7 +1142,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="33" t="s">
         <v>12</v>
       </c>
@@ -1143,7 +1154,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="33" t="s">
         <v>19</v>
       </c>
@@ -1155,7 +1166,7 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="28"/>
       <c r="C14" s="18"/>
       <c r="D14" s="26" t="s">
@@ -1163,31 +1174,31 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="22"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="28"/>
       <c r="C19" s="18"/>
       <c r="D19" s="26" t="s">
@@ -1195,7 +1206,7 @@
       </c>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B20" s="33" t="s">
         <v>19</v>
       </c>
@@ -1207,13 +1218,13 @@
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="28"/>
       <c r="C22" s="18"/>
       <c r="D22" s="26" t="s">
@@ -1221,25 +1232,25 @@
       </c>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="28"/>
       <c r="C26" s="18"/>
       <c r="D26" s="29" t="s">
@@ -1247,7 +1258,7 @@
       </c>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
         <v>24</v>
       </c>
@@ -1259,7 +1270,7 @@
       </c>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
         <v>24</v>
       </c>
@@ -1271,13 +1282,13 @@
       </c>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="28"/>
       <c r="C30" s="18"/>
       <c r="D30" s="29" t="s">
@@ -1285,7 +1296,7 @@
       </c>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B31" s="33" t="s">
         <v>24</v>
       </c>
@@ -1297,19 +1308,19 @@
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
@@ -1320,13 +1331,13 @@
       <c r="D34" s="15"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="27"/>
       <c r="E35" s="17"/>
     </row>
-    <row r="36" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1340,7 +1351,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
@@ -1352,7 +1363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="28"/>
       <c r="C38" s="18"/>
       <c r="D38" s="26" t="s">
@@ -1360,7 +1371,7 @@
       </c>
       <c r="E38" s="19"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="33" t="s">
         <v>29</v>
       </c>
@@ -1370,7 +1381,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="34" t="s">
         <v>31</v>
       </c>
@@ -1382,13 +1393,13 @@
       </c>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="28"/>
       <c r="C42" s="18"/>
       <c r="D42" s="29" t="s">
@@ -1396,7 +1407,7 @@
       </c>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="34" t="s">
         <v>33</v>
       </c>
@@ -1408,7 +1419,7 @@
       </c>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
       <c r="C44" s="10">
         <v>0.5</v>
@@ -1418,13 +1429,13 @@
       </c>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="22"/>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="28"/>
       <c r="C46" s="18"/>
       <c r="D46" s="29" t="s">
@@ -1432,7 +1443,7 @@
       </c>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="2:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B47" s="34" t="s">
         <v>31</v>
       </c>
@@ -1444,13 +1455,13 @@
       </c>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="28"/>
       <c r="C49" s="18"/>
       <c r="D49" s="29" t="s">
@@ -1458,25 +1469,25 @@
       </c>
       <c r="E49" s="19"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
       <c r="D50" s="11"/>
       <c r="E50" s="12"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
     </row>
-    <row r="53" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="28"/>
       <c r="C53" s="18"/>
       <c r="D53" s="29" t="s">
@@ -1484,7 +1495,7 @@
       </c>
       <c r="E53" s="19"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="9" t="s">
         <v>37</v>
       </c>
@@ -1496,19 +1507,19 @@
       </c>
       <c r="E54" s="12"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
     </row>
-    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="28"/>
       <c r="C57" s="18"/>
       <c r="D57" s="29" t="s">
@@ -1516,7 +1527,7 @@
       </c>
       <c r="E57" s="19"/>
     </row>
-    <row r="58" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B58" s="33" t="s">
         <v>47</v>
       </c>
@@ -1528,19 +1539,19 @@
       </c>
       <c r="E58" s="12"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="33"/>
       <c r="C59" s="10"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
     </row>
-    <row r="61" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="28"/>
       <c r="C61" s="18"/>
       <c r="D61" s="29" t="s">
@@ -1548,31 +1559,31 @@
       </c>
       <c r="E61" s="19"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="33"/>
       <c r="C62" s="10"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
     </row>
-    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
     </row>
-    <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="14" t="s">
         <v>4</v>
       </c>
@@ -1583,7 +1594,7 @@
       <c r="D66" s="15"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
@@ -1597,7 +1608,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
@@ -1609,7 +1620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="28"/>
       <c r="C69" s="18" t="str">
         <f>(SUM(C70:C72)/4)&amp;" h"</f>
@@ -1620,7 +1631,7 @@
       </c>
       <c r="E69" s="19"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="9" t="s">
         <v>41</v>
       </c>
@@ -1632,7 +1643,7 @@
       </c>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B71" s="9" t="s">
         <v>50</v>
       </c>
@@ -1642,7 +1653,7 @@
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
     </row>
-    <row r="72" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="9" t="s">
         <v>49</v>
       </c>
@@ -1654,7 +1665,7 @@
       </c>
       <c r="E72" s="11"/>
     </row>
-    <row r="73" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B73" s="28"/>
       <c r="C73" s="18" t="str">
         <f>(SUM(C74:C76)/4)&amp;" h"</f>
@@ -1665,7 +1676,7 @@
       </c>
       <c r="E73" s="19"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
         <v>52</v>
       </c>
@@ -1677,7 +1688,7 @@
       </c>
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="9" t="s">
         <v>41</v>
       </c>
@@ -1689,7 +1700,7 @@
       </c>
       <c r="E75" s="11"/>
     </row>
-    <row r="76" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="9" t="s">
         <v>54</v>
       </c>
@@ -1701,7 +1712,7 @@
       </c>
       <c r="E76" s="11"/>
     </row>
-    <row r="77" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B77" s="28"/>
       <c r="C77" s="18" t="str">
         <f>(SUM(C78:C79)/4)&amp;" h"</f>
@@ -1712,19 +1723,19 @@
       </c>
       <c r="E77" s="19"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
       <c r="D78" s="22"/>
       <c r="E78" s="11"/>
     </row>
-    <row r="79" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="9"/>
       <c r="C79" s="10"/>
       <c r="D79" s="11"/>
       <c r="E79" s="11"/>
     </row>
-    <row r="80" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B80" s="28"/>
       <c r="C80" s="18" t="str">
         <f>(SUM(C81:C83)/4)&amp;" h"</f>
@@ -1735,25 +1746,25 @@
       </c>
       <c r="E80" s="19"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
       <c r="D81" s="11"/>
       <c r="E81" s="12"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
     </row>
-    <row r="83" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="9"/>
       <c r="C83" s="10"/>
       <c r="D83" s="12"/>
       <c r="E83" s="12"/>
     </row>
-    <row r="84" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B84" s="28"/>
       <c r="C84" s="18" t="str">
         <f>(SUM(C85:C97)/4)&amp;" h"</f>
@@ -1764,25 +1775,25 @@
       </c>
       <c r="E84" s="19"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="10"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="10"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
     </row>
-    <row r="87" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B87" s="9"/>
       <c r="C87" s="10"/>
       <c r="D87" s="12"/>
       <c r="E87" s="12"/>
     </row>
-    <row r="88" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B88" s="28"/>
       <c r="C88" s="18"/>
       <c r="D88" s="29" t="s">
@@ -1790,25 +1801,25 @@
       </c>
       <c r="E88" s="19"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="33"/>
       <c r="C89" s="10"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B90" s="33"/>
       <c r="C90" s="10"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="9"/>
       <c r="C91" s="10"/>
       <c r="D91" s="12"/>
       <c r="E91" s="12"/>
     </row>
-    <row r="92" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B92" s="28"/>
       <c r="C92" s="18"/>
       <c r="D92" s="29" t="s">
@@ -1816,37 +1827,37 @@
       </c>
       <c r="E92" s="19"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="33"/>
       <c r="C93" s="10"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="10"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B95" s="9"/>
       <c r="C95" s="10"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
     </row>
-    <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B96" s="9"/>
       <c r="C96" s="10"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
     </row>
-    <row r="97" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="9"/>
       <c r="C97" s="10"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
     </row>
-    <row r="98" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="14" t="s">
         <v>4</v>
       </c>
@@ -1857,7 +1868,7 @@
       <c r="D98" s="15"/>
       <c r="E98" s="16"/>
     </row>
-    <row r="99" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="1" t="s">
         <v>0</v>
       </c>
@@ -1871,7 +1882,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="4" t="s">
         <v>2</v>
       </c>
@@ -1883,7 +1894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B101" s="28"/>
       <c r="C101" s="18" t="str">
         <f>(SUM(C102:C103)/4)&amp;" h"</f>
@@ -1894,19 +1905,19 @@
       </c>
       <c r="E101" s="19"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B102" s="9"/>
       <c r="C102" s="10"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B103" s="9"/>
       <c r="C103" s="10"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
     </row>
-    <row r="104" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B104" s="28"/>
       <c r="C104" s="18" t="str">
         <f>(SUM(C105:C107)/4)&amp;" h"</f>
@@ -1917,25 +1928,25 @@
       </c>
       <c r="E104" s="19"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="10"/>
       <c r="D105" s="22"/>
       <c r="E105" s="11"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B106" s="9"/>
       <c r="C106" s="10"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
     </row>
-    <row r="107" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="9"/>
       <c r="C107" s="10"/>
       <c r="D107" s="22"/>
       <c r="E107" s="11"/>
     </row>
-    <row r="108" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B108" s="28"/>
       <c r="C108" s="18" t="str">
         <f>(SUM(C109:C110)/4)&amp;" h"</f>
@@ -1946,19 +1957,19 @@
       </c>
       <c r="E108" s="19"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="10"/>
       <c r="D109" s="22"/>
       <c r="E109" s="11"/>
     </row>
-    <row r="110" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B110" s="9"/>
       <c r="C110" s="10"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
     </row>
-    <row r="111" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B111" s="28"/>
       <c r="C111" s="18" t="str">
         <f>(SUM(C112:C114)/4)&amp;" h"</f>
@@ -1969,25 +1980,25 @@
       </c>
       <c r="E111" s="19"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="10"/>
       <c r="D112" s="11"/>
       <c r="E112" s="12"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B113" s="9"/>
       <c r="C113" s="10"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
     </row>
-    <row r="114" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B114" s="9"/>
       <c r="C114" s="10"/>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
     </row>
-    <row r="115" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B115" s="28"/>
       <c r="C115" s="18" t="str">
         <f>(SUM(C116:C129)/4)&amp;" h"</f>
@@ -1998,25 +2009,25 @@
       </c>
       <c r="E115" s="19"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="10"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B117" s="9"/>
       <c r="C117" s="10"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
     </row>
-    <row r="118" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="9"/>
       <c r="C118" s="10"/>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
     </row>
-    <row r="119" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B119" s="28"/>
       <c r="C119" s="18"/>
       <c r="D119" s="29" t="s">
@@ -2024,25 +2035,25 @@
       </c>
       <c r="E119" s="19"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" s="33"/>
       <c r="C120" s="10"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B121" s="33"/>
       <c r="C121" s="10"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
     </row>
-    <row r="122" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B122" s="9"/>
       <c r="C122" s="10"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
     </row>
-    <row r="123" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B123" s="28"/>
       <c r="C123" s="18"/>
       <c r="D123" s="29" t="s">
@@ -2050,43 +2061,43 @@
       </c>
       <c r="E123" s="19"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" s="33"/>
       <c r="C124" s="10"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="10"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="10"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="10"/>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B128" s="9"/>
       <c r="C128" s="36"/>
       <c r="D128" s="38"/>
       <c r="E128" s="38"/>
     </row>
-    <row r="129" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B129" s="9"/>
       <c r="C129" s="10"/>
       <c r="D129" s="37"/>
       <c r="E129" s="37"/>
     </row>
-    <row r="130" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B130" s="14" t="s">
         <v>4</v>
       </c>
@@ -2097,7 +2108,7 @@
       <c r="D130" s="15"/>
       <c r="E130" s="16"/>
     </row>
-    <row r="131" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B131" s="1" t="s">
         <v>0</v>
       </c>
@@ -2111,7 +2122,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B132" s="4" t="s">
         <v>2</v>
       </c>
@@ -2123,7 +2134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B133" s="28"/>
       <c r="C133" s="18" t="str">
         <f>(SUM(C134:C135)/4)&amp;" h"</f>
@@ -2134,19 +2145,19 @@
       </c>
       <c r="E133" s="19"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B134" s="9"/>
       <c r="C134" s="10"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
     </row>
-    <row r="135" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B135" s="9"/>
       <c r="C135" s="10"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
     </row>
-    <row r="136" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B136" s="28"/>
       <c r="C136" s="18" t="str">
         <f>(SUM(C137:C139)/4)&amp;" h"</f>
@@ -2157,25 +2168,25 @@
       </c>
       <c r="E136" s="19"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="10"/>
       <c r="D137" s="22"/>
       <c r="E137" s="11"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B138" s="9"/>
       <c r="C138" s="10"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
     </row>
-    <row r="139" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B139" s="9"/>
       <c r="C139" s="10"/>
       <c r="D139" s="22"/>
       <c r="E139" s="11"/>
     </row>
-    <row r="140" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B140" s="28"/>
       <c r="C140" s="18" t="str">
         <f>(SUM(C141:C142)/4)&amp;" h"</f>
@@ -2186,19 +2197,19 @@
       </c>
       <c r="E140" s="19"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="10"/>
       <c r="D141" s="22"/>
       <c r="E141" s="11"/>
     </row>
-    <row r="142" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B142" s="9"/>
       <c r="C142" s="10"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
     </row>
-    <row r="143" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B143" s="28"/>
       <c r="C143" s="18" t="str">
         <f>(SUM(C144:C146)/4)&amp;" h"</f>
@@ -2209,25 +2220,25 @@
       </c>
       <c r="E143" s="19"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="10"/>
       <c r="D144" s="11"/>
       <c r="E144" s="12"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B145" s="9"/>
       <c r="C145" s="10"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
     </row>
-    <row r="146" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B146" s="9"/>
       <c r="C146" s="10"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
     </row>
-    <row r="147" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B147" s="28"/>
       <c r="C147" s="18" t="str">
         <f>(SUM(C148:C151)/4)&amp;" h"</f>
@@ -2238,31 +2249,31 @@
       </c>
       <c r="E147" s="19"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="10"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="10"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B150" s="9"/>
       <c r="C150" s="10"/>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
     </row>
-    <row r="151" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B151" s="9"/>
       <c r="C151" s="10"/>
       <c r="D151" s="13"/>
       <c r="E151" s="13"/>
     </row>
-    <row r="152" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B152" s="14" t="s">
         <v>4</v>
       </c>
@@ -2273,7 +2284,7 @@
       <c r="D152" s="15"/>
       <c r="E152" s="16"/>
     </row>
-    <row r="153" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B153" s="1" t="s">
         <v>0</v>
       </c>
@@ -2287,7 +2298,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B154" s="4" t="s">
         <v>2</v>
       </c>
@@ -2299,7 +2310,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B155" s="28"/>
       <c r="C155" s="18" t="str">
         <f>(SUM(C156:C157)/4)&amp;" h"</f>
@@ -2310,19 +2321,19 @@
       </c>
       <c r="E155" s="19"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B156" s="9"/>
       <c r="C156" s="10"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
     </row>
-    <row r="157" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B157" s="9"/>
       <c r="C157" s="10"/>
       <c r="D157" s="11"/>
       <c r="E157" s="11"/>
     </row>
-    <row r="158" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B158" s="28"/>
       <c r="C158" s="18" t="str">
         <f>(SUM(C159:C161)/4)&amp;" h"</f>
@@ -2333,25 +2344,25 @@
       </c>
       <c r="E158" s="19"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="10"/>
       <c r="D159" s="22"/>
       <c r="E159" s="11"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B160" s="9"/>
       <c r="C160" s="10"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
     </row>
-    <row r="161" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B161" s="9"/>
       <c r="C161" s="10"/>
       <c r="D161" s="22"/>
       <c r="E161" s="11"/>
     </row>
-    <row r="162" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B162" s="28"/>
       <c r="C162" s="18" t="str">
         <f>(SUM(C163:C164)/4)&amp;" h"</f>
@@ -2362,19 +2373,19 @@
       </c>
       <c r="E162" s="19"/>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
       <c r="C163" s="10"/>
       <c r="D163" s="22"/>
       <c r="E163" s="11"/>
     </row>
-    <row r="164" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B164" s="9"/>
       <c r="C164" s="10"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
     </row>
-    <row r="165" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B165" s="28"/>
       <c r="C165" s="18" t="str">
         <f>(SUM(C166:C168)/4)&amp;" h"</f>
@@ -2385,25 +2396,25 @@
       </c>
       <c r="E165" s="19"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
       <c r="C166" s="10"/>
       <c r="D166" s="11"/>
       <c r="E166" s="12"/>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B167" s="9"/>
       <c r="C167" s="10"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
     </row>
-    <row r="168" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B168" s="9"/>
       <c r="C168" s="10"/>
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
     </row>
-    <row r="169" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B169" s="28"/>
       <c r="C169" s="18" t="str">
         <f>(SUM(C170:C173)/4)&amp;" h"</f>
@@ -2414,31 +2425,31 @@
       </c>
       <c r="E169" s="19"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
       <c r="C170" s="10"/>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171" s="9"/>
       <c r="C171" s="10"/>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B172" s="9"/>
       <c r="C172" s="10"/>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
     </row>
-    <row r="173" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B173" s="9"/>
       <c r="C173" s="10"/>
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
     </row>
-    <row r="174" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B174" s="14" t="s">
         <v>4</v>
       </c>
@@ -2449,7 +2460,7 @@
       <c r="D174" s="15"/>
       <c r="E174" s="16"/>
     </row>
-    <row r="175" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B175" s="1" t="s">
         <v>0</v>
       </c>
@@ -2463,7 +2474,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B176" s="4" t="s">
         <v>2</v>
       </c>
@@ -2475,7 +2486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B177" s="28"/>
       <c r="C177" s="18" t="str">
         <f>(SUM(C178:C179)/4)&amp;" h"</f>
@@ -2486,19 +2497,19 @@
       </c>
       <c r="E177" s="19"/>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B178" s="9"/>
       <c r="C178" s="10"/>
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
     </row>
-    <row r="179" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B179" s="9"/>
       <c r="C179" s="10"/>
       <c r="D179" s="11"/>
       <c r="E179" s="11"/>
     </row>
-    <row r="180" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B180" s="28"/>
       <c r="C180" s="18" t="str">
         <f>(SUM(C181:C183)/4)&amp;" h"</f>
@@ -2509,25 +2520,25 @@
       </c>
       <c r="E180" s="19"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B181" s="9"/>
       <c r="C181" s="10"/>
       <c r="D181" s="22"/>
       <c r="E181" s="11"/>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B182" s="9"/>
       <c r="C182" s="10"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
     </row>
-    <row r="183" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B183" s="9"/>
       <c r="C183" s="10"/>
       <c r="D183" s="22"/>
       <c r="E183" s="11"/>
     </row>
-    <row r="184" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B184" s="28"/>
       <c r="C184" s="18" t="str">
         <f>(SUM(C185:C186)/4)&amp;" h"</f>
@@ -2538,19 +2549,19 @@
       </c>
       <c r="E184" s="19"/>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B185" s="9"/>
       <c r="C185" s="10"/>
       <c r="D185" s="22"/>
       <c r="E185" s="11"/>
     </row>
-    <row r="186" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B186" s="9"/>
       <c r="C186" s="10"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
     </row>
-    <row r="187" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B187" s="28"/>
       <c r="C187" s="18" t="str">
         <f>(SUM(C188:C190)/4)&amp;" h"</f>
@@ -2561,25 +2572,25 @@
       </c>
       <c r="E187" s="19"/>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B188" s="9"/>
       <c r="C188" s="10"/>
       <c r="D188" s="11"/>
       <c r="E188" s="12"/>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B189" s="9"/>
       <c r="C189" s="10"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
     </row>
-    <row r="190" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B190" s="9"/>
       <c r="C190" s="10"/>
       <c r="D190" s="12"/>
       <c r="E190" s="12"/>
     </row>
-    <row r="191" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B191" s="28"/>
       <c r="C191" s="18" t="str">
         <f>(SUM(C192:C195)/4)&amp;" h"</f>
@@ -2590,31 +2601,31 @@
       </c>
       <c r="E191" s="19"/>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B192" s="9"/>
       <c r="C192" s="10"/>
       <c r="D192" s="12"/>
       <c r="E192" s="12"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B193" s="9"/>
       <c r="C193" s="10"/>
       <c r="D193" s="12"/>
       <c r="E193" s="12"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B194" s="9"/>
       <c r="C194" s="10"/>
       <c r="D194" s="12"/>
       <c r="E194" s="12"/>
     </row>
-    <row r="195" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B195" s="9"/>
       <c r="C195" s="10"/>
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
     </row>
-    <row r="196" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B196" s="14" t="s">
         <v>4</v>
       </c>
@@ -2625,7 +2636,7 @@
       <c r="D196" s="15"/>
       <c r="E196" s="16"/>
     </row>
-    <row r="197" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B197" s="1" t="s">
         <v>0</v>
       </c>
@@ -2639,7 +2650,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="198" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B198" s="4" t="s">
         <v>2</v>
       </c>
@@ -2651,7 +2662,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B199" s="28"/>
       <c r="C199" s="18" t="str">
         <f>(SUM(C200:C201)/4)&amp;" h"</f>
@@ -2662,19 +2673,19 @@
       </c>
       <c r="E199" s="19"/>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B200" s="9"/>
       <c r="C200" s="10"/>
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
     </row>
-    <row r="201" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B201" s="9"/>
       <c r="C201" s="10"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11"/>
     </row>
-    <row r="202" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B202" s="28"/>
       <c r="C202" s="18" t="str">
         <f>(SUM(C203:C205)/4)&amp;" h"</f>
@@ -2685,25 +2696,25 @@
       </c>
       <c r="E202" s="19"/>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B203" s="9"/>
       <c r="C203" s="10"/>
       <c r="D203" s="22"/>
       <c r="E203" s="11"/>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B204" s="9"/>
       <c r="C204" s="10"/>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
     </row>
-    <row r="205" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B205" s="9"/>
       <c r="C205" s="10"/>
       <c r="D205" s="22"/>
       <c r="E205" s="11"/>
     </row>
-    <row r="206" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B206" s="28"/>
       <c r="C206" s="18" t="str">
         <f>(SUM(C207:C208)/4)&amp;" h"</f>
@@ -2714,19 +2725,19 @@
       </c>
       <c r="E206" s="19"/>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B207" s="9"/>
       <c r="C207" s="10"/>
       <c r="D207" s="22"/>
       <c r="E207" s="11"/>
     </row>
-    <row r="208" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B208" s="9"/>
       <c r="C208" s="10"/>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
     </row>
-    <row r="209" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B209" s="28"/>
       <c r="C209" s="18" t="str">
         <f>(SUM(C210:C212)/4)&amp;" h"</f>
@@ -2737,25 +2748,25 @@
       </c>
       <c r="E209" s="19"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B210" s="9"/>
       <c r="C210" s="10"/>
       <c r="D210" s="11"/>
       <c r="E210" s="12"/>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B211" s="9"/>
       <c r="C211" s="10"/>
       <c r="D211" s="12"/>
       <c r="E211" s="12"/>
     </row>
-    <row r="212" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B212" s="9"/>
       <c r="C212" s="10"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
     </row>
-    <row r="213" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B213" s="28"/>
       <c r="C213" s="18" t="str">
         <f>(SUM(C214:C217)/4)&amp;" h"</f>
@@ -2766,31 +2777,31 @@
       </c>
       <c r="E213" s="19"/>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B214" s="9"/>
       <c r="C214" s="10"/>
       <c r="D214" s="12"/>
       <c r="E214" s="12"/>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B215" s="9"/>
       <c r="C215" s="10"/>
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B216" s="9"/>
       <c r="C216" s="10"/>
       <c r="D216" s="12"/>
       <c r="E216" s="12"/>
     </row>
-    <row r="217" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B217" s="9"/>
       <c r="C217" s="10"/>
       <c r="D217" s="13"/>
       <c r="E217" s="13"/>
     </row>
-    <row r="218" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B218" s="14" t="s">
         <v>4</v>
       </c>
@@ -2801,7 +2812,7 @@
       <c r="D218" s="15"/>
       <c r="E218" s="16"/>
     </row>
-    <row r="219" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B219" s="1" t="s">
         <v>0</v>
       </c>
@@ -2815,7 +2826,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="220" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B220" s="4" t="s">
         <v>2</v>
       </c>
@@ -2827,7 +2838,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B221" s="28"/>
       <c r="C221" s="18" t="str">
         <f>(SUM(C222:C223)/4)&amp;" h"</f>
@@ -2838,19 +2849,19 @@
       </c>
       <c r="E221" s="19"/>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B222" s="9"/>
       <c r="C222" s="10"/>
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
     </row>
-    <row r="223" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B223" s="9"/>
       <c r="C223" s="10"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11"/>
     </row>
-    <row r="224" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B224" s="28"/>
       <c r="C224" s="18" t="str">
         <f>(SUM(C225:C227)/4)&amp;" h"</f>
@@ -2861,25 +2872,25 @@
       </c>
       <c r="E224" s="19"/>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B225" s="9"/>
       <c r="C225" s="10"/>
       <c r="D225" s="22"/>
       <c r="E225" s="11"/>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B226" s="9"/>
       <c r="C226" s="10"/>
       <c r="D226" s="11"/>
       <c r="E226" s="11"/>
     </row>
-    <row r="227" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B227" s="9"/>
       <c r="C227" s="10"/>
       <c r="D227" s="22"/>
       <c r="E227" s="11"/>
     </row>
-    <row r="228" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B228" s="28"/>
       <c r="C228" s="18" t="str">
         <f>(SUM(C229:C230)/4)&amp;" h"</f>
@@ -2890,19 +2901,19 @@
       </c>
       <c r="E228" s="19"/>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B229" s="9"/>
       <c r="C229" s="10"/>
       <c r="D229" s="22"/>
       <c r="E229" s="11"/>
     </row>
-    <row r="230" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B230" s="9"/>
       <c r="C230" s="10"/>
       <c r="D230" s="11"/>
       <c r="E230" s="11"/>
     </row>
-    <row r="231" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B231" s="28"/>
       <c r="C231" s="18" t="str">
         <f>(SUM(C232:C234)/4)&amp;" h"</f>
@@ -2913,25 +2924,25 @@
       </c>
       <c r="E231" s="19"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B232" s="9"/>
       <c r="C232" s="10"/>
       <c r="D232" s="11"/>
       <c r="E232" s="12"/>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B233" s="9"/>
       <c r="C233" s="10"/>
       <c r="D233" s="12"/>
       <c r="E233" s="12"/>
     </row>
-    <row r="234" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B234" s="9"/>
       <c r="C234" s="10"/>
       <c r="D234" s="12"/>
       <c r="E234" s="12"/>
     </row>
-    <row r="235" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B235" s="28"/>
       <c r="C235" s="18" t="str">
         <f>(SUM(C236:C239)/4)&amp;" h"</f>
@@ -2942,31 +2953,31 @@
       </c>
       <c r="E235" s="19"/>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B236" s="9"/>
       <c r="C236" s="10"/>
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B237" s="9"/>
       <c r="C237" s="10"/>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B238" s="9"/>
       <c r="C238" s="10"/>
       <c r="D238" s="12"/>
       <c r="E238" s="12"/>
     </row>
-    <row r="239" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B239" s="9"/>
       <c r="C239" s="10"/>
       <c r="D239" s="13"/>
       <c r="E239" s="13"/>
     </row>
-    <row r="240" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B240" s="14" t="s">
         <v>4</v>
       </c>
@@ -2977,7 +2988,7 @@
       <c r="D240" s="15"/>
       <c r="E240" s="16"/>
     </row>
-    <row r="241" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B241" s="1" t="s">
         <v>0</v>
       </c>
@@ -2989,7 +3000,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B242" s="4" t="s">
         <v>2</v>
       </c>
@@ -3001,7 +3012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B243" s="28"/>
       <c r="C243" s="18" t="str">
         <f>(SUM(C244:C245)/4)&amp;" h"</f>
@@ -3012,19 +3023,19 @@
       </c>
       <c r="E243" s="19"/>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B244" s="9"/>
       <c r="C244" s="10"/>
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
     </row>
-    <row r="245" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B245" s="9"/>
       <c r="C245" s="10"/>
       <c r="D245" s="11"/>
       <c r="E245" s="11"/>
     </row>
-    <row r="246" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B246" s="28"/>
       <c r="C246" s="18" t="str">
         <f>(SUM(C247:C249)/4)&amp;" h"</f>
@@ -3035,25 +3046,25 @@
       </c>
       <c r="E246" s="19"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B247" s="9"/>
       <c r="C247" s="10"/>
       <c r="D247" s="22"/>
       <c r="E247" s="11"/>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B248" s="9"/>
       <c r="C248" s="10"/>
       <c r="D248" s="11"/>
       <c r="E248" s="11"/>
     </row>
-    <row r="249" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B249" s="9"/>
       <c r="C249" s="10"/>
       <c r="D249" s="22"/>
       <c r="E249" s="11"/>
     </row>
-    <row r="250" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B250" s="28"/>
       <c r="C250" s="18" t="str">
         <f>(SUM(C251:C252)/4)&amp;" h"</f>
@@ -3064,19 +3075,19 @@
       </c>
       <c r="E250" s="19"/>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B251" s="9"/>
       <c r="C251" s="10"/>
       <c r="D251" s="22"/>
       <c r="E251" s="11"/>
     </row>
-    <row r="252" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B252" s="9"/>
       <c r="C252" s="10"/>
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
     </row>
-    <row r="253" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B253" s="28"/>
       <c r="C253" s="18" t="str">
         <f>(SUM(C254:C256)/4)&amp;" h"</f>
@@ -3087,25 +3098,25 @@
       </c>
       <c r="E253" s="19"/>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B254" s="9"/>
       <c r="C254" s="10"/>
       <c r="D254" s="11"/>
       <c r="E254" s="12"/>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B255" s="9"/>
       <c r="C255" s="10"/>
       <c r="D255" s="12"/>
       <c r="E255" s="12"/>
     </row>
-    <row r="256" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B256" s="9"/>
       <c r="C256" s="10"/>
       <c r="D256" s="12"/>
       <c r="E256" s="12"/>
     </row>
-    <row r="257" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B257" s="28"/>
       <c r="C257" s="18" t="str">
         <f>(SUM(C258:C261)/4)&amp;" h"</f>
@@ -3116,31 +3127,31 @@
       </c>
       <c r="E257" s="19"/>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B258" s="9"/>
       <c r="C258" s="10"/>
       <c r="D258" s="12"/>
       <c r="E258" s="12"/>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B259" s="9"/>
       <c r="C259" s="10"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B260" s="9"/>
       <c r="C260" s="10"/>
       <c r="D260" s="12"/>
       <c r="E260" s="12"/>
     </row>
-    <row r="261" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B261" s="9"/>
       <c r="C261" s="10"/>
       <c r="D261" s="13"/>
       <c r="E261" s="13"/>
     </row>
-    <row r="262" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B262" s="14" t="s">
         <v>4</v>
       </c>
@@ -3151,7 +3162,7 @@
       <c r="D262" s="15"/>
       <c r="E262" s="16"/>
     </row>
-    <row r="263" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B263" s="1" t="s">
         <v>0</v>
       </c>
@@ -3165,7 +3176,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="264" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B264" s="4" t="s">
         <v>2</v>
       </c>
@@ -3177,7 +3188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B265" s="28"/>
       <c r="C265" s="18" t="str">
         <f>(SUM(C266:C267)/4)&amp;" h"</f>
@@ -3188,19 +3199,19 @@
       </c>
       <c r="E265" s="19"/>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B266" s="9"/>
       <c r="C266" s="10"/>
       <c r="D266" s="8"/>
       <c r="E266" s="8"/>
     </row>
-    <row r="267" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B267" s="9"/>
       <c r="C267" s="10"/>
       <c r="D267" s="11"/>
       <c r="E267" s="11"/>
     </row>
-    <row r="268" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B268" s="28"/>
       <c r="C268" s="18" t="str">
         <f>(SUM(C269:C271)/4)&amp;" h"</f>
@@ -3211,25 +3222,25 @@
       </c>
       <c r="E268" s="19"/>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B269" s="9"/>
       <c r="C269" s="10"/>
       <c r="D269" s="22"/>
       <c r="E269" s="11"/>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B270" s="9"/>
       <c r="C270" s="10"/>
       <c r="D270" s="11"/>
       <c r="E270" s="11"/>
     </row>
-    <row r="271" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B271" s="9"/>
       <c r="C271" s="10"/>
       <c r="D271" s="22"/>
       <c r="E271" s="11"/>
     </row>
-    <row r="272" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B272" s="28"/>
       <c r="C272" s="18" t="str">
         <f>(SUM(C273:C274)/4)&amp;" h"</f>
@@ -3240,19 +3251,19 @@
       </c>
       <c r="E272" s="19"/>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B273" s="9"/>
       <c r="C273" s="10"/>
       <c r="D273" s="22"/>
       <c r="E273" s="11"/>
     </row>
-    <row r="274" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B274" s="9"/>
       <c r="C274" s="10"/>
       <c r="D274" s="11"/>
       <c r="E274" s="11"/>
     </row>
-    <row r="275" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B275" s="28"/>
       <c r="C275" s="18" t="str">
         <f>(SUM(C276:C278)/4)&amp;" h"</f>
@@ -3263,25 +3274,25 @@
       </c>
       <c r="E275" s="19"/>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B276" s="9"/>
       <c r="C276" s="10"/>
       <c r="D276" s="11"/>
       <c r="E276" s="12"/>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B277" s="9"/>
       <c r="C277" s="10"/>
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
     </row>
-    <row r="278" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B278" s="9"/>
       <c r="C278" s="10"/>
       <c r="D278" s="12"/>
       <c r="E278" s="12"/>
     </row>
-    <row r="279" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B279" s="28"/>
       <c r="C279" s="18" t="str">
         <f>(SUM(C280:C283)/4)&amp;" h"</f>
@@ -3292,31 +3303,31 @@
       </c>
       <c r="E279" s="19"/>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B280" s="9"/>
       <c r="C280" s="10"/>
       <c r="D280" s="12"/>
       <c r="E280" s="12"/>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B281" s="9"/>
       <c r="C281" s="10"/>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B282" s="9"/>
       <c r="C282" s="10"/>
       <c r="D282" s="12"/>
       <c r="E282" s="12"/>
     </row>
-    <row r="283" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B283" s="9"/>
       <c r="C283" s="10"/>
       <c r="D283" s="13"/>
       <c r="E283" s="13"/>
     </row>
-    <row r="284" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B284" s="14" t="s">
         <v>4</v>
       </c>
@@ -3327,7 +3338,7 @@
       <c r="D284" s="15"/>
       <c r="E284" s="16"/>
     </row>
-    <row r="285" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B285" s="1" t="s">
         <v>0</v>
       </c>
@@ -3341,7 +3352,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="286" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B286" s="4" t="s">
         <v>2</v>
       </c>
@@ -3353,7 +3364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B287" s="28"/>
       <c r="C287" s="18" t="str">
         <f>(SUM(C288:C289)/4)&amp;" h"</f>
@@ -3364,19 +3375,19 @@
       </c>
       <c r="E287" s="19"/>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B288" s="9"/>
       <c r="C288" s="10"/>
       <c r="D288" s="8"/>
       <c r="E288" s="8"/>
     </row>
-    <row r="289" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B289" s="9"/>
       <c r="C289" s="10"/>
       <c r="D289" s="11"/>
       <c r="E289" s="11"/>
     </row>
-    <row r="290" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B290" s="28"/>
       <c r="C290" s="18" t="str">
         <f>(SUM(C291:C293)/4)&amp;" h"</f>
@@ -3387,25 +3398,25 @@
       </c>
       <c r="E290" s="19"/>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B291" s="9"/>
       <c r="C291" s="10"/>
       <c r="D291" s="22"/>
       <c r="E291" s="11"/>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B292" s="9"/>
       <c r="C292" s="10"/>
       <c r="D292" s="11"/>
       <c r="E292" s="11"/>
     </row>
-    <row r="293" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B293" s="9"/>
       <c r="C293" s="10"/>
       <c r="D293" s="22"/>
       <c r="E293" s="11"/>
     </row>
-    <row r="294" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B294" s="28"/>
       <c r="C294" s="18" t="str">
         <f>(SUM(C295:C296)/4)&amp;" h"</f>
@@ -3416,19 +3427,19 @@
       </c>
       <c r="E294" s="19"/>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B295" s="9"/>
       <c r="C295" s="10"/>
       <c r="D295" s="22"/>
       <c r="E295" s="11"/>
     </row>
-    <row r="296" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B296" s="9"/>
       <c r="C296" s="10"/>
       <c r="D296" s="11"/>
       <c r="E296" s="11"/>
     </row>
-    <row r="297" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B297" s="28"/>
       <c r="C297" s="18" t="str">
         <f>(SUM(C298:C300)/4)&amp;" h"</f>
@@ -3439,25 +3450,25 @@
       </c>
       <c r="E297" s="19"/>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B298" s="9"/>
       <c r="C298" s="10"/>
       <c r="D298" s="11"/>
       <c r="E298" s="12"/>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B299" s="9"/>
       <c r="C299" s="10"/>
       <c r="D299" s="12"/>
       <c r="E299" s="12"/>
     </row>
-    <row r="300" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B300" s="9"/>
       <c r="C300" s="10"/>
       <c r="D300" s="12"/>
       <c r="E300" s="12"/>
     </row>
-    <row r="301" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B301" s="28"/>
       <c r="C301" s="18" t="str">
         <f>(SUM(C302:C305)/4)&amp;" h"</f>
@@ -3468,31 +3479,31 @@
       </c>
       <c r="E301" s="19"/>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B302" s="9"/>
       <c r="C302" s="10"/>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B303" s="9"/>
       <c r="C303" s="10"/>
       <c r="D303" s="12"/>
       <c r="E303" s="12"/>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B304" s="9"/>
       <c r="C304" s="10"/>
       <c r="D304" s="12"/>
       <c r="E304" s="12"/>
     </row>
-    <row r="305" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B305" s="9"/>
       <c r="C305" s="10"/>
       <c r="D305" s="13"/>
       <c r="E305" s="13"/>
     </row>
-    <row r="306" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B306" s="14" t="s">
         <v>4</v>
       </c>
@@ -3503,7 +3514,7 @@
       <c r="D306" s="15"/>
       <c r="E306" s="16"/>
     </row>
-    <row r="307" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B307" s="1" t="s">
         <v>0</v>
       </c>
@@ -3517,7 +3528,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="308" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B308" s="4" t="s">
         <v>2</v>
       </c>
@@ -3529,7 +3540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B309" s="28"/>
       <c r="C309" s="18" t="str">
         <f>(SUM(C310:C311)/4)&amp;" h"</f>
@@ -3540,19 +3551,19 @@
       </c>
       <c r="E309" s="19"/>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B310" s="9"/>
       <c r="C310" s="10"/>
       <c r="D310" s="8"/>
       <c r="E310" s="8"/>
     </row>
-    <row r="311" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B311" s="9"/>
       <c r="C311" s="10"/>
       <c r="D311" s="11"/>
       <c r="E311" s="11"/>
     </row>
-    <row r="312" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B312" s="28"/>
       <c r="C312" s="18" t="str">
         <f>(SUM(C313:C315)/4)&amp;" h"</f>
@@ -3563,25 +3574,25 @@
       </c>
       <c r="E312" s="19"/>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B313" s="9"/>
       <c r="C313" s="10"/>
       <c r="D313" s="22"/>
       <c r="E313" s="11"/>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B314" s="9"/>
       <c r="C314" s="10"/>
       <c r="D314" s="11"/>
       <c r="E314" s="11"/>
     </row>
-    <row r="315" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B315" s="9"/>
       <c r="C315" s="10"/>
       <c r="D315" s="22"/>
       <c r="E315" s="11"/>
     </row>
-    <row r="316" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B316" s="28"/>
       <c r="C316" s="18" t="str">
         <f>(SUM(C317:C318)/4)&amp;" h"</f>
@@ -3592,19 +3603,19 @@
       </c>
       <c r="E316" s="19"/>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B317" s="9"/>
       <c r="C317" s="10"/>
       <c r="D317" s="22"/>
       <c r="E317" s="11"/>
     </row>
-    <row r="318" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B318" s="9"/>
       <c r="C318" s="10"/>
       <c r="D318" s="11"/>
       <c r="E318" s="11"/>
     </row>
-    <row r="319" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B319" s="28"/>
       <c r="C319" s="18" t="str">
         <f>(SUM(C320:C322)/4)&amp;" h"</f>
@@ -3615,25 +3626,25 @@
       </c>
       <c r="E319" s="19"/>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B320" s="9"/>
       <c r="C320" s="10"/>
       <c r="D320" s="11"/>
       <c r="E320" s="12"/>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B321" s="9"/>
       <c r="C321" s="10"/>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
     </row>
-    <row r="322" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B322" s="9"/>
       <c r="C322" s="10"/>
       <c r="D322" s="12"/>
       <c r="E322" s="12"/>
     </row>
-    <row r="323" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B323" s="28"/>
       <c r="C323" s="18" t="str">
         <f>(SUM(C324:C327)/4)&amp;" h"</f>
@@ -3644,31 +3655,31 @@
       </c>
       <c r="E323" s="19"/>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B324" s="9"/>
       <c r="C324" s="10"/>
       <c r="D324" s="12"/>
       <c r="E324" s="12"/>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B325" s="9"/>
       <c r="C325" s="10"/>
       <c r="D325" s="12"/>
       <c r="E325" s="12"/>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B326" s="9"/>
       <c r="C326" s="10"/>
       <c r="D326" s="12"/>
       <c r="E326" s="12"/>
     </row>
-    <row r="327" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B327" s="9"/>
       <c r="C327" s="10"/>
       <c r="D327" s="13"/>
       <c r="E327" s="13"/>
     </row>
-    <row r="328" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B328" s="14" t="s">
         <v>4</v>
       </c>
@@ -3679,7 +3690,7 @@
       <c r="D328" s="15"/>
       <c r="E328" s="16"/>
     </row>
-    <row r="329" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B329" s="1" t="s">
         <v>0</v>
       </c>
@@ -3693,7 +3704,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B330" s="4" t="s">
         <v>2</v>
       </c>
@@ -3705,7 +3716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B331" s="28"/>
       <c r="C331" s="18" t="str">
         <f>(SUM(C332:C333)/4)&amp;" h"</f>
@@ -3716,19 +3727,19 @@
       </c>
       <c r="E331" s="19"/>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B332" s="9"/>
       <c r="C332" s="10"/>
       <c r="D332" s="8"/>
       <c r="E332" s="8"/>
     </row>
-    <row r="333" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B333" s="9"/>
       <c r="C333" s="10"/>
       <c r="D333" s="11"/>
       <c r="E333" s="11"/>
     </row>
-    <row r="334" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B334" s="28"/>
       <c r="C334" s="18" t="str">
         <f>(SUM(C335:C337)/4)&amp;" h"</f>
@@ -3739,25 +3750,25 @@
       </c>
       <c r="E334" s="19"/>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B335" s="9"/>
       <c r="C335" s="10"/>
       <c r="D335" s="22"/>
       <c r="E335" s="11"/>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B336" s="9"/>
       <c r="C336" s="10"/>
       <c r="D336" s="11"/>
       <c r="E336" s="11"/>
     </row>
-    <row r="337" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B337" s="9"/>
       <c r="C337" s="10"/>
       <c r="D337" s="22"/>
       <c r="E337" s="11"/>
     </row>
-    <row r="338" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B338" s="28"/>
       <c r="C338" s="18" t="str">
         <f>(SUM(C339:C340)/4)&amp;" h"</f>
@@ -3768,19 +3779,19 @@
       </c>
       <c r="E338" s="19"/>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B339" s="9"/>
       <c r="C339" s="10"/>
       <c r="D339" s="22"/>
       <c r="E339" s="11"/>
     </row>
-    <row r="340" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B340" s="9"/>
       <c r="C340" s="10"/>
       <c r="D340" s="11"/>
       <c r="E340" s="11"/>
     </row>
-    <row r="341" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B341" s="28"/>
       <c r="C341" s="18" t="str">
         <f>(SUM(C342:C344)/4)&amp;" h"</f>
@@ -3791,25 +3802,25 @@
       </c>
       <c r="E341" s="19"/>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B342" s="9"/>
       <c r="C342" s="10"/>
       <c r="D342" s="11"/>
       <c r="E342" s="12"/>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B343" s="9"/>
       <c r="C343" s="10"/>
       <c r="D343" s="12"/>
       <c r="E343" s="12"/>
     </row>
-    <row r="344" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B344" s="9"/>
       <c r="C344" s="10"/>
       <c r="D344" s="12"/>
       <c r="E344" s="12"/>
     </row>
-    <row r="345" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B345" s="28"/>
       <c r="C345" s="18" t="str">
         <f>(SUM(C346:C349)/4)&amp;" h"</f>
@@ -3820,31 +3831,31 @@
       </c>
       <c r="E345" s="19"/>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B346" s="9"/>
       <c r="C346" s="10"/>
       <c r="D346" s="12"/>
       <c r="E346" s="12"/>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B347" s="9"/>
       <c r="C347" s="10"/>
       <c r="D347" s="12"/>
       <c r="E347" s="12"/>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B348" s="9"/>
       <c r="C348" s="10"/>
       <c r="D348" s="12"/>
       <c r="E348" s="12"/>
     </row>
-    <row r="349" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B349" s="9"/>
       <c r="C349" s="10"/>
       <c r="D349" s="13"/>
       <c r="E349" s="13"/>
     </row>
-    <row r="350" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B350" s="14" t="s">
         <v>4</v>
       </c>
@@ -3855,7 +3866,7 @@
       <c r="D350" s="15"/>
       <c r="E350" s="16"/>
     </row>
-    <row r="351" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B351" s="1" t="s">
         <v>0</v>
       </c>
@@ -3869,7 +3880,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="352" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B352" s="4" t="s">
         <v>2</v>
       </c>
@@ -3881,7 +3892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B353" s="28"/>
       <c r="C353" s="18" t="str">
         <f>(SUM(C354:C355)/4)&amp;" h"</f>
@@ -3892,19 +3903,19 @@
       </c>
       <c r="E353" s="19"/>
     </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B354" s="9"/>
       <c r="C354" s="10"/>
       <c r="D354" s="8"/>
       <c r="E354" s="8"/>
     </row>
-    <row r="355" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B355" s="9"/>
       <c r="C355" s="10"/>
       <c r="D355" s="11"/>
       <c r="E355" s="11"/>
     </row>
-    <row r="356" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B356" s="28"/>
       <c r="C356" s="18" t="str">
         <f>(SUM(C357:C359)/4)&amp;" h"</f>
@@ -3915,25 +3926,25 @@
       </c>
       <c r="E356" s="19"/>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B357" s="9"/>
       <c r="C357" s="10"/>
       <c r="D357" s="22"/>
       <c r="E357" s="11"/>
     </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B358" s="9"/>
       <c r="C358" s="10"/>
       <c r="D358" s="11"/>
       <c r="E358" s="11"/>
     </row>
-    <row r="359" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B359" s="9"/>
       <c r="C359" s="10"/>
       <c r="D359" s="22"/>
       <c r="E359" s="11"/>
     </row>
-    <row r="360" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B360" s="28"/>
       <c r="C360" s="18" t="str">
         <f>(SUM(C361:C362)/4)&amp;" h"</f>
@@ -3944,19 +3955,19 @@
       </c>
       <c r="E360" s="19"/>
     </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B361" s="9"/>
       <c r="C361" s="10"/>
       <c r="D361" s="22"/>
       <c r="E361" s="11"/>
     </row>
-    <row r="362" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B362" s="9"/>
       <c r="C362" s="10"/>
       <c r="D362" s="11"/>
       <c r="E362" s="11"/>
     </row>
-    <row r="363" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B363" s="28"/>
       <c r="C363" s="18" t="str">
         <f>(SUM(C364:C366)/4)&amp;" h"</f>
@@ -3967,25 +3978,25 @@
       </c>
       <c r="E363" s="19"/>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B364" s="9"/>
       <c r="C364" s="10"/>
       <c r="D364" s="11"/>
       <c r="E364" s="12"/>
     </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="365" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B365" s="9"/>
       <c r="C365" s="10"/>
       <c r="D365" s="12"/>
       <c r="E365" s="12"/>
     </row>
-    <row r="366" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B366" s="9"/>
       <c r="C366" s="10"/>
       <c r="D366" s="12"/>
       <c r="E366" s="12"/>
     </row>
-    <row r="367" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B367" s="28"/>
       <c r="C367" s="18" t="str">
         <f>(SUM(C368:C371)/4)&amp;" h"</f>
@@ -3996,31 +4007,31 @@
       </c>
       <c r="E367" s="19"/>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B368" s="9"/>
       <c r="C368" s="10"/>
       <c r="D368" s="12"/>
       <c r="E368" s="12"/>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B369" s="9"/>
       <c r="C369" s="10"/>
       <c r="D369" s="12"/>
       <c r="E369" s="12"/>
     </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="370" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B370" s="9"/>
       <c r="C370" s="10"/>
       <c r="D370" s="12"/>
       <c r="E370" s="12"/>
     </row>
-    <row r="371" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B371" s="9"/>
       <c r="C371" s="10"/>
       <c r="D371" s="13"/>
       <c r="E371" s="13"/>
     </row>
-    <row r="372" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B372" s="14" t="s">
         <v>4</v>
       </c>
@@ -4048,20 +4059,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B31092-303D-4AAC-9350-B5A6115F269D}">
   <dimension ref="B1:J371"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.33203125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4075,7 +4086,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -4091,7 +4102,7 @@
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="28"/>
       <c r="C4" s="18"/>
       <c r="D4" s="29" t="s">
@@ -4103,7 +4114,7 @@
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
     </row>
-    <row r="5" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
@@ -4119,7 +4130,7 @@
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
     </row>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
@@ -4135,7 +4146,7 @@
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
         <v>14</v>
       </c>
@@ -4151,7 +4162,7 @@
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>27</v>
       </c>
@@ -4163,7 +4174,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="34" t="s">
         <v>29</v>
       </c>
@@ -4173,7 +4184,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="28"/>
       <c r="C10" s="18"/>
       <c r="D10" s="29" t="s">
@@ -4181,7 +4192,7 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B11" s="32" t="s">
         <v>12</v>
       </c>
@@ -4193,7 +4204,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="33" t="s">
         <v>12</v>
       </c>
@@ -4205,7 +4216,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="33" t="s">
         <v>19</v>
       </c>
@@ -4217,7 +4228,7 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="28"/>
       <c r="C14" s="18"/>
       <c r="D14" s="29" t="s">
@@ -4225,31 +4236,31 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="22"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="28"/>
       <c r="C19" s="18"/>
       <c r="D19" s="29" t="s">
@@ -4257,7 +4268,7 @@
       </c>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B20" s="33" t="s">
         <v>19</v>
       </c>
@@ -4269,13 +4280,13 @@
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="28"/>
       <c r="C22" s="18"/>
       <c r="D22" s="29" t="s">
@@ -4283,25 +4294,25 @@
       </c>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="28"/>
       <c r="C26" s="18"/>
       <c r="D26" s="29" t="s">
@@ -4309,7 +4320,7 @@
       </c>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
         <v>24</v>
       </c>
@@ -4321,7 +4332,7 @@
       </c>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
         <v>24</v>
       </c>
@@ -4333,13 +4344,13 @@
       </c>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="28"/>
       <c r="C30" s="18"/>
       <c r="D30" s="29" t="s">
@@ -4347,7 +4358,7 @@
       </c>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B31" s="33" t="s">
         <v>24</v>
       </c>
@@ -4359,19 +4370,19 @@
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
@@ -4382,13 +4393,13 @@
       <c r="D34" s="15"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="27"/>
       <c r="E35" s="17"/>
     </row>
-    <row r="36" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -4402,7 +4413,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
@@ -4414,18 +4425,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="28"/>
       <c r="C38" s="18" t="str">
         <f>(SUM(C39:C41)/4)&amp;" h"</f>
-        <v>0.625 h</v>
+        <v>0,625 h</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="19"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="33" t="s">
         <v>29</v>
       </c>
@@ -4435,7 +4446,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="34" t="s">
         <v>31</v>
       </c>
@@ -4447,13 +4458,13 @@
       </c>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="28"/>
       <c r="C42" s="18" t="str">
         <f>(SUM(C43:C45)/4)&amp;" h"</f>
@@ -4464,7 +4475,7 @@
       </c>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="34" t="s">
         <v>33</v>
       </c>
@@ -4476,7 +4487,7 @@
       </c>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
       <c r="C44" s="10">
         <v>0.5</v>
@@ -4486,13 +4497,13 @@
       </c>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="22"/>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="28"/>
       <c r="C46" s="18" t="str">
         <f>(SUM(C47:C48)/4)&amp;" h"</f>
@@ -4503,7 +4514,7 @@
       </c>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="2:5" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B47" s="34" t="s">
         <v>31</v>
       </c>
@@ -4515,13 +4526,13 @@
       </c>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="28"/>
       <c r="C49" s="18" t="str">
         <f>(SUM(C50:C52)/4)&amp;" h"</f>
@@ -4532,36 +4543,36 @@
       </c>
       <c r="E49" s="19"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
       <c r="D50" s="11"/>
       <c r="E50" s="12"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
     </row>
-    <row r="53" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="28"/>
       <c r="C53" s="18" t="str">
         <f>(SUM(C54:C65)/4)&amp;" h"</f>
-        <v>0.25 h</v>
+        <v>0,25 h</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="19"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B54" s="9" t="s">
         <v>37</v>
       </c>
@@ -4573,19 +4584,19 @@
       </c>
       <c r="E54" s="12"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
       <c r="D55" s="12"/>
       <c r="E55" s="12"/>
     </row>
-    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="28"/>
       <c r="C57" s="18"/>
       <c r="D57" s="29" t="s">
@@ -4593,25 +4604,25 @@
       </c>
       <c r="E57" s="19"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="33"/>
       <c r="C58" s="10"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="33"/>
       <c r="C59" s="10"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
     </row>
-    <row r="61" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="28"/>
       <c r="C61" s="18"/>
       <c r="D61" s="29" t="s">
@@ -4619,31 +4630,31 @@
       </c>
       <c r="E61" s="19"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="33"/>
       <c r="C62" s="10"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
     </row>
-    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
     </row>
-    <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="14" t="s">
         <v>4</v>
       </c>
@@ -4654,7 +4665,7 @@
       <c r="D66" s="15"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
@@ -4668,7 +4679,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
@@ -4680,7 +4691,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="28"/>
       <c r="C69" s="18" t="str">
         <f>(SUM(C70:C71)/4)&amp;" h"</f>
@@ -4691,7 +4702,7 @@
       </c>
       <c r="E69" s="19"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="9" t="s">
         <v>41</v>
       </c>
@@ -4703,7 +4714,7 @@
       </c>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="9" t="s">
         <v>40</v>
       </c>
@@ -4715,7 +4726,7 @@
       </c>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="28"/>
       <c r="C72" s="18" t="str">
         <f>(SUM(C73:C75)/4)&amp;" h"</f>
@@ -4726,7 +4737,7 @@
       </c>
       <c r="E72" s="19"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="9" t="s">
         <v>41</v>
       </c>
@@ -4738,7 +4749,7 @@
       </c>
       <c r="E73" s="11"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="9" t="s">
         <v>40</v>
       </c>
@@ -4750,24 +4761,24 @@
       </c>
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
       <c r="D75" s="22"/>
       <c r="E75" s="11"/>
     </row>
-    <row r="76" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="28"/>
       <c r="C76" s="18" t="str">
         <f>(SUM(C77:C78)/4)&amp;" h"</f>
-        <v>0.25 h</v>
+        <v>0,25 h</v>
       </c>
       <c r="D76" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E76" s="19"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B77" s="9" t="s">
         <v>45</v>
       </c>
@@ -4779,13 +4790,13 @@
       </c>
       <c r="E77" s="11"/>
     </row>
-    <row r="78" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
     </row>
-    <row r="79" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="28"/>
       <c r="C79" s="18" t="str">
         <f>(SUM(C80:C82)/4)&amp;" h"</f>
@@ -4796,25 +4807,25 @@
       </c>
       <c r="E79" s="19"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B80" s="9"/>
       <c r="C80" s="10"/>
       <c r="D80" s="11"/>
       <c r="E80" s="12"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
     </row>
-    <row r="82" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
     </row>
-    <row r="83" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="28"/>
       <c r="C83" s="18" t="str">
         <f>(SUM(C84:C96)/4)&amp;" h"</f>
@@ -4825,25 +4836,25 @@
       </c>
       <c r="E83" s="19"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="10"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="10"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
     </row>
-    <row r="86" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="9"/>
       <c r="C86" s="10"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
     </row>
-    <row r="87" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B87" s="28"/>
       <c r="C87" s="18"/>
       <c r="D87" s="29" t="s">
@@ -4851,25 +4862,25 @@
       </c>
       <c r="E87" s="19"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="33"/>
       <c r="C88" s="10"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="33"/>
       <c r="C89" s="10"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
     </row>
-    <row r="90" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="9"/>
       <c r="C90" s="10"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="28"/>
       <c r="C91" s="18"/>
       <c r="D91" s="29" t="s">
@@ -4877,37 +4888,37 @@
       </c>
       <c r="E91" s="19"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="33"/>
       <c r="C92" s="10"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="10"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="10"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
     </row>
-    <row r="95" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="9"/>
       <c r="C95" s="10"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
     </row>
-    <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B96" s="9"/>
       <c r="C96" s="10"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
     </row>
-    <row r="97" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="14" t="s">
         <v>4</v>
       </c>
@@ -4918,7 +4929,7 @@
       <c r="D97" s="15"/>
       <c r="E97" s="16"/>
     </row>
-    <row r="98" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
@@ -4932,7 +4943,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="4" t="s">
         <v>2</v>
       </c>
@@ -4944,7 +4955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="28"/>
       <c r="C100" s="18" t="str">
         <f>(SUM(C101:C102)/4)&amp;" h"</f>
@@ -4955,19 +4966,19 @@
       </c>
       <c r="E100" s="19"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="10"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B102" s="9"/>
       <c r="C102" s="10"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
     </row>
-    <row r="103" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B103" s="28"/>
       <c r="C103" s="18" t="str">
         <f>(SUM(C104:C106)/4)&amp;" h"</f>
@@ -4978,25 +4989,25 @@
       </c>
       <c r="E103" s="19"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="10"/>
       <c r="D104" s="22"/>
       <c r="E104" s="11"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="10"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
     </row>
-    <row r="106" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B106" s="9"/>
       <c r="C106" s="10"/>
       <c r="D106" s="22"/>
       <c r="E106" s="11"/>
     </row>
-    <row r="107" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="28"/>
       <c r="C107" s="18" t="str">
         <f>(SUM(C108:C109)/4)&amp;" h"</f>
@@ -5007,19 +5018,19 @@
       </c>
       <c r="E107" s="19"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="10"/>
       <c r="D108" s="22"/>
       <c r="E108" s="11"/>
     </row>
-    <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B109" s="9"/>
       <c r="C109" s="10"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
     </row>
-    <row r="110" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B110" s="28"/>
       <c r="C110" s="18" t="str">
         <f>(SUM(C111:C113)/4)&amp;" h"</f>
@@ -5030,25 +5041,25 @@
       </c>
       <c r="E110" s="19"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="10"/>
       <c r="D111" s="11"/>
       <c r="E111" s="12"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="10"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
     </row>
-    <row r="113" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B113" s="9"/>
       <c r="C113" s="10"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
     </row>
-    <row r="114" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B114" s="28"/>
       <c r="C114" s="18" t="str">
         <f>(SUM(C115:C128)/4)&amp;" h"</f>
@@ -5059,25 +5070,25 @@
       </c>
       <c r="E114" s="19"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="10"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="10"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
     </row>
-    <row r="117" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B117" s="9"/>
       <c r="C117" s="10"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
     </row>
-    <row r="118" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="28"/>
       <c r="C118" s="18"/>
       <c r="D118" s="29" t="s">
@@ -5085,25 +5096,25 @@
       </c>
       <c r="E118" s="19"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" s="33"/>
       <c r="C119" s="10"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" s="33"/>
       <c r="C120" s="10"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
     </row>
-    <row r="121" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B121" s="9"/>
       <c r="C121" s="10"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
     </row>
-    <row r="122" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B122" s="28"/>
       <c r="C122" s="18"/>
       <c r="D122" s="29" t="s">
@@ -5111,43 +5122,43 @@
       </c>
       <c r="E122" s="19"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" s="33"/>
       <c r="C123" s="10"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="10"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="10"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="10"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="36"/>
       <c r="D127" s="38"/>
       <c r="E127" s="38"/>
     </row>
-    <row r="128" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128" s="9"/>
       <c r="C128" s="10"/>
       <c r="D128" s="37"/>
       <c r="E128" s="37"/>
     </row>
-    <row r="129" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B129" s="14" t="s">
         <v>4</v>
       </c>
@@ -5158,7 +5169,7 @@
       <c r="D129" s="15"/>
       <c r="E129" s="16"/>
     </row>
-    <row r="130" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B130" s="1" t="s">
         <v>0</v>
       </c>
@@ -5172,7 +5183,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B131" s="4" t="s">
         <v>2</v>
       </c>
@@ -5184,7 +5195,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B132" s="28"/>
       <c r="C132" s="18" t="str">
         <f>(SUM(C133:C134)/4)&amp;" h"</f>
@@ -5195,19 +5206,19 @@
       </c>
       <c r="E132" s="19"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
       <c r="C133" s="10"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
-    <row r="134" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B134" s="9"/>
       <c r="C134" s="10"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
     </row>
-    <row r="135" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B135" s="28"/>
       <c r="C135" s="18" t="str">
         <f>(SUM(C136:C138)/4)&amp;" h"</f>
@@ -5218,25 +5229,25 @@
       </c>
       <c r="E135" s="19"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="10"/>
       <c r="D136" s="22"/>
       <c r="E136" s="11"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="10"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
     </row>
-    <row r="138" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B138" s="9"/>
       <c r="C138" s="10"/>
       <c r="D138" s="22"/>
       <c r="E138" s="11"/>
     </row>
-    <row r="139" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B139" s="28"/>
       <c r="C139" s="18" t="str">
         <f>(SUM(C140:C141)/4)&amp;" h"</f>
@@ -5247,19 +5258,19 @@
       </c>
       <c r="E139" s="19"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="10"/>
       <c r="D140" s="22"/>
       <c r="E140" s="11"/>
     </row>
-    <row r="141" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B141" s="9"/>
       <c r="C141" s="10"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
     </row>
-    <row r="142" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B142" s="28"/>
       <c r="C142" s="18" t="str">
         <f>(SUM(C143:C145)/4)&amp;" h"</f>
@@ -5270,25 +5281,25 @@
       </c>
       <c r="E142" s="19"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="10"/>
       <c r="D143" s="11"/>
       <c r="E143" s="12"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="10"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
     </row>
-    <row r="145" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B145" s="9"/>
       <c r="C145" s="10"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
     </row>
-    <row r="146" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B146" s="28"/>
       <c r="C146" s="18" t="str">
         <f>(SUM(C147:C150)/4)&amp;" h"</f>
@@ -5299,31 +5310,31 @@
       </c>
       <c r="E146" s="19"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="10"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="10"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="10"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
     </row>
-    <row r="150" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B150" s="9"/>
       <c r="C150" s="10"/>
       <c r="D150" s="13"/>
       <c r="E150" s="13"/>
     </row>
-    <row r="151" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B151" s="14" t="s">
         <v>4</v>
       </c>
@@ -5334,7 +5345,7 @@
       <c r="D151" s="15"/>
       <c r="E151" s="16"/>
     </row>
-    <row r="152" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B152" s="1" t="s">
         <v>0</v>
       </c>
@@ -5348,7 +5359,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B153" s="4" t="s">
         <v>2</v>
       </c>
@@ -5360,7 +5371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B154" s="28"/>
       <c r="C154" s="18" t="str">
         <f>(SUM(C155:C156)/4)&amp;" h"</f>
@@ -5371,19 +5382,19 @@
       </c>
       <c r="E154" s="19"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
       <c r="C155" s="10"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
     </row>
-    <row r="156" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B156" s="9"/>
       <c r="C156" s="10"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
     </row>
-    <row r="157" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B157" s="28"/>
       <c r="C157" s="18" t="str">
         <f>(SUM(C158:C160)/4)&amp;" h"</f>
@@ -5394,25 +5405,25 @@
       </c>
       <c r="E157" s="19"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="10"/>
       <c r="D158" s="22"/>
       <c r="E158" s="11"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="10"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
     </row>
-    <row r="160" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B160" s="9"/>
       <c r="C160" s="10"/>
       <c r="D160" s="22"/>
       <c r="E160" s="11"/>
     </row>
-    <row r="161" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B161" s="28"/>
       <c r="C161" s="18" t="str">
         <f>(SUM(C162:C163)/4)&amp;" h"</f>
@@ -5423,19 +5434,19 @@
       </c>
       <c r="E161" s="19"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
       <c r="C162" s="10"/>
       <c r="D162" s="22"/>
       <c r="E162" s="11"/>
     </row>
-    <row r="163" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B163" s="9"/>
       <c r="C163" s="10"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
     </row>
-    <row r="164" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B164" s="28"/>
       <c r="C164" s="18" t="str">
         <f>(SUM(C165:C167)/4)&amp;" h"</f>
@@ -5446,25 +5457,25 @@
       </c>
       <c r="E164" s="19"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B165" s="9"/>
       <c r="C165" s="10"/>
       <c r="D165" s="11"/>
       <c r="E165" s="12"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
       <c r="C166" s="10"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
     </row>
-    <row r="167" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B167" s="9"/>
       <c r="C167" s="10"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
     </row>
-    <row r="168" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B168" s="28"/>
       <c r="C168" s="18" t="str">
         <f>(SUM(C169:C172)/4)&amp;" h"</f>
@@ -5475,31 +5486,31 @@
       </c>
       <c r="E168" s="19"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B169" s="9"/>
       <c r="C169" s="10"/>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
       <c r="C170" s="10"/>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171" s="9"/>
       <c r="C171" s="10"/>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
     </row>
-    <row r="172" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B172" s="9"/>
       <c r="C172" s="10"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
     </row>
-    <row r="173" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B173" s="14" t="s">
         <v>4</v>
       </c>
@@ -5510,7 +5521,7 @@
       <c r="D173" s="15"/>
       <c r="E173" s="16"/>
     </row>
-    <row r="174" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B174" s="1" t="s">
         <v>0</v>
       </c>
@@ -5524,7 +5535,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="175" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B175" s="4" t="s">
         <v>2</v>
       </c>
@@ -5536,7 +5547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B176" s="28"/>
       <c r="C176" s="18" t="str">
         <f>(SUM(C177:C178)/4)&amp;" h"</f>
@@ -5547,19 +5558,19 @@
       </c>
       <c r="E176" s="19"/>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B177" s="9"/>
       <c r="C177" s="10"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
     </row>
-    <row r="178" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B178" s="9"/>
       <c r="C178" s="10"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
     </row>
-    <row r="179" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B179" s="28"/>
       <c r="C179" s="18" t="str">
         <f>(SUM(C180:C182)/4)&amp;" h"</f>
@@ -5570,25 +5581,25 @@
       </c>
       <c r="E179" s="19"/>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B180" s="9"/>
       <c r="C180" s="10"/>
       <c r="D180" s="22"/>
       <c r="E180" s="11"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B181" s="9"/>
       <c r="C181" s="10"/>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
     </row>
-    <row r="182" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B182" s="9"/>
       <c r="C182" s="10"/>
       <c r="D182" s="22"/>
       <c r="E182" s="11"/>
     </row>
-    <row r="183" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B183" s="28"/>
       <c r="C183" s="18" t="str">
         <f>(SUM(C184:C185)/4)&amp;" h"</f>
@@ -5599,19 +5610,19 @@
       </c>
       <c r="E183" s="19"/>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184" s="9"/>
       <c r="C184" s="10"/>
       <c r="D184" s="22"/>
       <c r="E184" s="11"/>
     </row>
-    <row r="185" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B185" s="9"/>
       <c r="C185" s="10"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
     </row>
-    <row r="186" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B186" s="28"/>
       <c r="C186" s="18" t="str">
         <f>(SUM(C187:C189)/4)&amp;" h"</f>
@@ -5622,25 +5633,25 @@
       </c>
       <c r="E186" s="19"/>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B187" s="9"/>
       <c r="C187" s="10"/>
       <c r="D187" s="11"/>
       <c r="E187" s="12"/>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B188" s="9"/>
       <c r="C188" s="10"/>
       <c r="D188" s="12"/>
       <c r="E188" s="12"/>
     </row>
-    <row r="189" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B189" s="9"/>
       <c r="C189" s="10"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
     </row>
-    <row r="190" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B190" s="28"/>
       <c r="C190" s="18" t="str">
         <f>(SUM(C191:C194)/4)&amp;" h"</f>
@@ -5651,31 +5662,31 @@
       </c>
       <c r="E190" s="19"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B191" s="9"/>
       <c r="C191" s="10"/>
       <c r="D191" s="12"/>
       <c r="E191" s="12"/>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B192" s="9"/>
       <c r="C192" s="10"/>
       <c r="D192" s="12"/>
       <c r="E192" s="12"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B193" s="9"/>
       <c r="C193" s="10"/>
       <c r="D193" s="12"/>
       <c r="E193" s="12"/>
     </row>
-    <row r="194" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B194" s="9"/>
       <c r="C194" s="10"/>
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
     </row>
-    <row r="195" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B195" s="14" t="s">
         <v>4</v>
       </c>
@@ -5686,7 +5697,7 @@
       <c r="D195" s="15"/>
       <c r="E195" s="16"/>
     </row>
-    <row r="196" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B196" s="1" t="s">
         <v>0</v>
       </c>
@@ -5700,7 +5711,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="197" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B197" s="4" t="s">
         <v>2</v>
       </c>
@@ -5712,7 +5723,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B198" s="28"/>
       <c r="C198" s="18" t="str">
         <f>(SUM(C199:C200)/4)&amp;" h"</f>
@@ -5723,19 +5734,19 @@
       </c>
       <c r="E198" s="19"/>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B199" s="9"/>
       <c r="C199" s="10"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
     </row>
-    <row r="200" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B200" s="9"/>
       <c r="C200" s="10"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
     </row>
-    <row r="201" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B201" s="28"/>
       <c r="C201" s="18" t="str">
         <f>(SUM(C202:C204)/4)&amp;" h"</f>
@@ -5746,25 +5757,25 @@
       </c>
       <c r="E201" s="19"/>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B202" s="9"/>
       <c r="C202" s="10"/>
       <c r="D202" s="22"/>
       <c r="E202" s="11"/>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B203" s="9"/>
       <c r="C203" s="10"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
     </row>
-    <row r="204" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B204" s="9"/>
       <c r="C204" s="10"/>
       <c r="D204" s="22"/>
       <c r="E204" s="11"/>
     </row>
-    <row r="205" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B205" s="28"/>
       <c r="C205" s="18" t="str">
         <f>(SUM(C206:C207)/4)&amp;" h"</f>
@@ -5775,19 +5786,19 @@
       </c>
       <c r="E205" s="19"/>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B206" s="9"/>
       <c r="C206" s="10"/>
       <c r="D206" s="22"/>
       <c r="E206" s="11"/>
     </row>
-    <row r="207" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B207" s="9"/>
       <c r="C207" s="10"/>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
     </row>
-    <row r="208" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B208" s="28"/>
       <c r="C208" s="18" t="str">
         <f>(SUM(C209:C211)/4)&amp;" h"</f>
@@ -5798,25 +5809,25 @@
       </c>
       <c r="E208" s="19"/>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B209" s="9"/>
       <c r="C209" s="10"/>
       <c r="D209" s="11"/>
       <c r="E209" s="12"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B210" s="9"/>
       <c r="C210" s="10"/>
       <c r="D210" s="12"/>
       <c r="E210" s="12"/>
     </row>
-    <row r="211" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B211" s="9"/>
       <c r="C211" s="10"/>
       <c r="D211" s="12"/>
       <c r="E211" s="12"/>
     </row>
-    <row r="212" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B212" s="28"/>
       <c r="C212" s="18" t="str">
         <f>(SUM(C213:C216)/4)&amp;" h"</f>
@@ -5827,31 +5838,31 @@
       </c>
       <c r="E212" s="19"/>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B213" s="9"/>
       <c r="C213" s="10"/>
       <c r="D213" s="12"/>
       <c r="E213" s="12"/>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B214" s="9"/>
       <c r="C214" s="10"/>
       <c r="D214" s="12"/>
       <c r="E214" s="12"/>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B215" s="9"/>
       <c r="C215" s="10"/>
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
     </row>
-    <row r="216" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B216" s="9"/>
       <c r="C216" s="10"/>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
     </row>
-    <row r="217" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B217" s="14" t="s">
         <v>4</v>
       </c>
@@ -5862,7 +5873,7 @@
       <c r="D217" s="15"/>
       <c r="E217" s="16"/>
     </row>
-    <row r="218" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B218" s="1" t="s">
         <v>0</v>
       </c>
@@ -5876,7 +5887,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="219" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B219" s="4" t="s">
         <v>2</v>
       </c>
@@ -5888,7 +5899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B220" s="28"/>
       <c r="C220" s="18" t="str">
         <f>(SUM(C221:C222)/4)&amp;" h"</f>
@@ -5899,19 +5910,19 @@
       </c>
       <c r="E220" s="19"/>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B221" s="9"/>
       <c r="C221" s="10"/>
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
     </row>
-    <row r="222" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B222" s="9"/>
       <c r="C222" s="10"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
     </row>
-    <row r="223" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B223" s="28"/>
       <c r="C223" s="18" t="str">
         <f>(SUM(C224:C226)/4)&amp;" h"</f>
@@ -5922,25 +5933,25 @@
       </c>
       <c r="E223" s="19"/>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B224" s="9"/>
       <c r="C224" s="10"/>
       <c r="D224" s="22"/>
       <c r="E224" s="11"/>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B225" s="9"/>
       <c r="C225" s="10"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11"/>
     </row>
-    <row r="226" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B226" s="9"/>
       <c r="C226" s="10"/>
       <c r="D226" s="22"/>
       <c r="E226" s="11"/>
     </row>
-    <row r="227" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B227" s="28"/>
       <c r="C227" s="18" t="str">
         <f>(SUM(C228:C229)/4)&amp;" h"</f>
@@ -5951,19 +5962,19 @@
       </c>
       <c r="E227" s="19"/>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B228" s="9"/>
       <c r="C228" s="10"/>
       <c r="D228" s="22"/>
       <c r="E228" s="11"/>
     </row>
-    <row r="229" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B229" s="9"/>
       <c r="C229" s="10"/>
       <c r="D229" s="11"/>
       <c r="E229" s="11"/>
     </row>
-    <row r="230" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B230" s="28"/>
       <c r="C230" s="18" t="str">
         <f>(SUM(C231:C233)/4)&amp;" h"</f>
@@ -5974,25 +5985,25 @@
       </c>
       <c r="E230" s="19"/>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B231" s="9"/>
       <c r="C231" s="10"/>
       <c r="D231" s="11"/>
       <c r="E231" s="12"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B232" s="9"/>
       <c r="C232" s="10"/>
       <c r="D232" s="12"/>
       <c r="E232" s="12"/>
     </row>
-    <row r="233" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B233" s="9"/>
       <c r="C233" s="10"/>
       <c r="D233" s="12"/>
       <c r="E233" s="12"/>
     </row>
-    <row r="234" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B234" s="28"/>
       <c r="C234" s="18" t="str">
         <f>(SUM(C235:C238)/4)&amp;" h"</f>
@@ -6003,31 +6014,31 @@
       </c>
       <c r="E234" s="19"/>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B235" s="9"/>
       <c r="C235" s="10"/>
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B236" s="9"/>
       <c r="C236" s="10"/>
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B237" s="9"/>
       <c r="C237" s="10"/>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
     </row>
-    <row r="238" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B238" s="9"/>
       <c r="C238" s="10"/>
       <c r="D238" s="13"/>
       <c r="E238" s="13"/>
     </row>
-    <row r="239" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B239" s="14" t="s">
         <v>4</v>
       </c>
@@ -6038,7 +6049,7 @@
       <c r="D239" s="15"/>
       <c r="E239" s="16"/>
     </row>
-    <row r="240" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B240" s="1" t="s">
         <v>0</v>
       </c>
@@ -6050,7 +6061,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="241" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B241" s="4" t="s">
         <v>2</v>
       </c>
@@ -6062,7 +6073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B242" s="28"/>
       <c r="C242" s="18" t="str">
         <f>(SUM(C243:C244)/4)&amp;" h"</f>
@@ -6073,19 +6084,19 @@
       </c>
       <c r="E242" s="19"/>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B243" s="9"/>
       <c r="C243" s="10"/>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
     </row>
-    <row r="244" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B244" s="9"/>
       <c r="C244" s="10"/>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
     </row>
-    <row r="245" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B245" s="28"/>
       <c r="C245" s="18" t="str">
         <f>(SUM(C246:C248)/4)&amp;" h"</f>
@@ -6096,25 +6107,25 @@
       </c>
       <c r="E245" s="19"/>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B246" s="9"/>
       <c r="C246" s="10"/>
       <c r="D246" s="22"/>
       <c r="E246" s="11"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B247" s="9"/>
       <c r="C247" s="10"/>
       <c r="D247" s="11"/>
       <c r="E247" s="11"/>
     </row>
-    <row r="248" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B248" s="9"/>
       <c r="C248" s="10"/>
       <c r="D248" s="22"/>
       <c r="E248" s="11"/>
     </row>
-    <row r="249" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B249" s="28"/>
       <c r="C249" s="18" t="str">
         <f>(SUM(C250:C251)/4)&amp;" h"</f>
@@ -6125,19 +6136,19 @@
       </c>
       <c r="E249" s="19"/>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B250" s="9"/>
       <c r="C250" s="10"/>
       <c r="D250" s="22"/>
       <c r="E250" s="11"/>
     </row>
-    <row r="251" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B251" s="9"/>
       <c r="C251" s="10"/>
       <c r="D251" s="11"/>
       <c r="E251" s="11"/>
     </row>
-    <row r="252" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B252" s="28"/>
       <c r="C252" s="18" t="str">
         <f>(SUM(C253:C255)/4)&amp;" h"</f>
@@ -6148,25 +6159,25 @@
       </c>
       <c r="E252" s="19"/>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B253" s="9"/>
       <c r="C253" s="10"/>
       <c r="D253" s="11"/>
       <c r="E253" s="12"/>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B254" s="9"/>
       <c r="C254" s="10"/>
       <c r="D254" s="12"/>
       <c r="E254" s="12"/>
     </row>
-    <row r="255" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B255" s="9"/>
       <c r="C255" s="10"/>
       <c r="D255" s="12"/>
       <c r="E255" s="12"/>
     </row>
-    <row r="256" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B256" s="28"/>
       <c r="C256" s="18" t="str">
         <f>(SUM(C257:C260)/4)&amp;" h"</f>
@@ -6177,31 +6188,31 @@
       </c>
       <c r="E256" s="19"/>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B257" s="9"/>
       <c r="C257" s="10"/>
       <c r="D257" s="12"/>
       <c r="E257" s="12"/>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B258" s="9"/>
       <c r="C258" s="10"/>
       <c r="D258" s="12"/>
       <c r="E258" s="12"/>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B259" s="9"/>
       <c r="C259" s="10"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
     </row>
-    <row r="260" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B260" s="9"/>
       <c r="C260" s="10"/>
       <c r="D260" s="13"/>
       <c r="E260" s="13"/>
     </row>
-    <row r="261" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B261" s="14" t="s">
         <v>4</v>
       </c>
@@ -6212,7 +6223,7 @@
       <c r="D261" s="15"/>
       <c r="E261" s="16"/>
     </row>
-    <row r="262" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B262" s="1" t="s">
         <v>0</v>
       </c>
@@ -6226,7 +6237,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="263" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B263" s="4" t="s">
         <v>2</v>
       </c>
@@ -6238,7 +6249,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B264" s="28"/>
       <c r="C264" s="18" t="str">
         <f>(SUM(C265:C266)/4)&amp;" h"</f>
@@ -6249,19 +6260,19 @@
       </c>
       <c r="E264" s="19"/>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B265" s="9"/>
       <c r="C265" s="10"/>
       <c r="D265" s="8"/>
       <c r="E265" s="8"/>
     </row>
-    <row r="266" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B266" s="9"/>
       <c r="C266" s="10"/>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
     </row>
-    <row r="267" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B267" s="28"/>
       <c r="C267" s="18" t="str">
         <f>(SUM(C268:C270)/4)&amp;" h"</f>
@@ -6272,25 +6283,25 @@
       </c>
       <c r="E267" s="19"/>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B268" s="9"/>
       <c r="C268" s="10"/>
       <c r="D268" s="22"/>
       <c r="E268" s="11"/>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B269" s="9"/>
       <c r="C269" s="10"/>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
     </row>
-    <row r="270" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B270" s="9"/>
       <c r="C270" s="10"/>
       <c r="D270" s="22"/>
       <c r="E270" s="11"/>
     </row>
-    <row r="271" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B271" s="28"/>
       <c r="C271" s="18" t="str">
         <f>(SUM(C272:C273)/4)&amp;" h"</f>
@@ -6301,19 +6312,19 @@
       </c>
       <c r="E271" s="19"/>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B272" s="9"/>
       <c r="C272" s="10"/>
       <c r="D272" s="22"/>
       <c r="E272" s="11"/>
     </row>
-    <row r="273" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B273" s="9"/>
       <c r="C273" s="10"/>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
     </row>
-    <row r="274" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B274" s="28"/>
       <c r="C274" s="18" t="str">
         <f>(SUM(C275:C277)/4)&amp;" h"</f>
@@ -6324,25 +6335,25 @@
       </c>
       <c r="E274" s="19"/>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B275" s="9"/>
       <c r="C275" s="10"/>
       <c r="D275" s="11"/>
       <c r="E275" s="12"/>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B276" s="9"/>
       <c r="C276" s="10"/>
       <c r="D276" s="12"/>
       <c r="E276" s="12"/>
     </row>
-    <row r="277" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B277" s="9"/>
       <c r="C277" s="10"/>
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
     </row>
-    <row r="278" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B278" s="28"/>
       <c r="C278" s="18" t="str">
         <f>(SUM(C279:C282)/4)&amp;" h"</f>
@@ -6353,31 +6364,31 @@
       </c>
       <c r="E278" s="19"/>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B279" s="9"/>
       <c r="C279" s="10"/>
       <c r="D279" s="12"/>
       <c r="E279" s="12"/>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B280" s="9"/>
       <c r="C280" s="10"/>
       <c r="D280" s="12"/>
       <c r="E280" s="12"/>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B281" s="9"/>
       <c r="C281" s="10"/>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
     </row>
-    <row r="282" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B282" s="9"/>
       <c r="C282" s="10"/>
       <c r="D282" s="13"/>
       <c r="E282" s="13"/>
     </row>
-    <row r="283" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B283" s="14" t="s">
         <v>4</v>
       </c>
@@ -6388,7 +6399,7 @@
       <c r="D283" s="15"/>
       <c r="E283" s="16"/>
     </row>
-    <row r="284" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B284" s="1" t="s">
         <v>0</v>
       </c>
@@ -6402,7 +6413,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="285" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B285" s="4" t="s">
         <v>2</v>
       </c>
@@ -6414,7 +6425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B286" s="28"/>
       <c r="C286" s="18" t="str">
         <f>(SUM(C287:C288)/4)&amp;" h"</f>
@@ -6425,19 +6436,19 @@
       </c>
       <c r="E286" s="19"/>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B287" s="9"/>
       <c r="C287" s="10"/>
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
     </row>
-    <row r="288" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B288" s="9"/>
       <c r="C288" s="10"/>
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
     </row>
-    <row r="289" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B289" s="28"/>
       <c r="C289" s="18" t="str">
         <f>(SUM(C290:C292)/4)&amp;" h"</f>
@@ -6448,25 +6459,25 @@
       </c>
       <c r="E289" s="19"/>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B290" s="9"/>
       <c r="C290" s="10"/>
       <c r="D290" s="22"/>
       <c r="E290" s="11"/>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B291" s="9"/>
       <c r="C291" s="10"/>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
     </row>
-    <row r="292" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B292" s="9"/>
       <c r="C292" s="10"/>
       <c r="D292" s="22"/>
       <c r="E292" s="11"/>
     </row>
-    <row r="293" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B293" s="28"/>
       <c r="C293" s="18" t="str">
         <f>(SUM(C294:C295)/4)&amp;" h"</f>
@@ -6477,19 +6488,19 @@
       </c>
       <c r="E293" s="19"/>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B294" s="9"/>
       <c r="C294" s="10"/>
       <c r="D294" s="22"/>
       <c r="E294" s="11"/>
     </row>
-    <row r="295" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B295" s="9"/>
       <c r="C295" s="10"/>
       <c r="D295" s="11"/>
       <c r="E295" s="11"/>
     </row>
-    <row r="296" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B296" s="28"/>
       <c r="C296" s="18" t="str">
         <f>(SUM(C297:C299)/4)&amp;" h"</f>
@@ -6500,25 +6511,25 @@
       </c>
       <c r="E296" s="19"/>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B297" s="9"/>
       <c r="C297" s="10"/>
       <c r="D297" s="11"/>
       <c r="E297" s="12"/>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B298" s="9"/>
       <c r="C298" s="10"/>
       <c r="D298" s="12"/>
       <c r="E298" s="12"/>
     </row>
-    <row r="299" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B299" s="9"/>
       <c r="C299" s="10"/>
       <c r="D299" s="12"/>
       <c r="E299" s="12"/>
     </row>
-    <row r="300" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B300" s="28"/>
       <c r="C300" s="18" t="str">
         <f>(SUM(C301:C304)/4)&amp;" h"</f>
@@ -6529,31 +6540,31 @@
       </c>
       <c r="E300" s="19"/>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B301" s="9"/>
       <c r="C301" s="10"/>
       <c r="D301" s="12"/>
       <c r="E301" s="12"/>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B302" s="9"/>
       <c r="C302" s="10"/>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B303" s="9"/>
       <c r="C303" s="10"/>
       <c r="D303" s="12"/>
       <c r="E303" s="12"/>
     </row>
-    <row r="304" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B304" s="9"/>
       <c r="C304" s="10"/>
       <c r="D304" s="13"/>
       <c r="E304" s="13"/>
     </row>
-    <row r="305" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B305" s="14" t="s">
         <v>4</v>
       </c>
@@ -6564,7 +6575,7 @@
       <c r="D305" s="15"/>
       <c r="E305" s="16"/>
     </row>
-    <row r="306" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B306" s="1" t="s">
         <v>0</v>
       </c>
@@ -6578,7 +6589,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="307" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B307" s="4" t="s">
         <v>2</v>
       </c>
@@ -6590,7 +6601,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B308" s="28"/>
       <c r="C308" s="18" t="str">
         <f>(SUM(C309:C310)/4)&amp;" h"</f>
@@ -6601,19 +6612,19 @@
       </c>
       <c r="E308" s="19"/>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B309" s="9"/>
       <c r="C309" s="10"/>
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
     </row>
-    <row r="310" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B310" s="9"/>
       <c r="C310" s="10"/>
       <c r="D310" s="11"/>
       <c r="E310" s="11"/>
     </row>
-    <row r="311" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B311" s="28"/>
       <c r="C311" s="18" t="str">
         <f>(SUM(C312:C314)/4)&amp;" h"</f>
@@ -6624,25 +6635,25 @@
       </c>
       <c r="E311" s="19"/>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B312" s="9"/>
       <c r="C312" s="10"/>
       <c r="D312" s="22"/>
       <c r="E312" s="11"/>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B313" s="9"/>
       <c r="C313" s="10"/>
       <c r="D313" s="11"/>
       <c r="E313" s="11"/>
     </row>
-    <row r="314" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B314" s="9"/>
       <c r="C314" s="10"/>
       <c r="D314" s="22"/>
       <c r="E314" s="11"/>
     </row>
-    <row r="315" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B315" s="28"/>
       <c r="C315" s="18" t="str">
         <f>(SUM(C316:C317)/4)&amp;" h"</f>
@@ -6653,19 +6664,19 @@
       </c>
       <c r="E315" s="19"/>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B316" s="9"/>
       <c r="C316" s="10"/>
       <c r="D316" s="22"/>
       <c r="E316" s="11"/>
     </row>
-    <row r="317" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B317" s="9"/>
       <c r="C317" s="10"/>
       <c r="D317" s="11"/>
       <c r="E317" s="11"/>
     </row>
-    <row r="318" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B318" s="28"/>
       <c r="C318" s="18" t="str">
         <f>(SUM(C319:C321)/4)&amp;" h"</f>
@@ -6676,25 +6687,25 @@
       </c>
       <c r="E318" s="19"/>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B319" s="9"/>
       <c r="C319" s="10"/>
       <c r="D319" s="11"/>
       <c r="E319" s="12"/>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B320" s="9"/>
       <c r="C320" s="10"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
     </row>
-    <row r="321" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B321" s="9"/>
       <c r="C321" s="10"/>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
     </row>
-    <row r="322" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B322" s="28"/>
       <c r="C322" s="18" t="str">
         <f>(SUM(C323:C326)/4)&amp;" h"</f>
@@ -6705,31 +6716,31 @@
       </c>
       <c r="E322" s="19"/>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B323" s="9"/>
       <c r="C323" s="10"/>
       <c r="D323" s="12"/>
       <c r="E323" s="12"/>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B324" s="9"/>
       <c r="C324" s="10"/>
       <c r="D324" s="12"/>
       <c r="E324" s="12"/>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B325" s="9"/>
       <c r="C325" s="10"/>
       <c r="D325" s="12"/>
       <c r="E325" s="12"/>
     </row>
-    <row r="326" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B326" s="9"/>
       <c r="C326" s="10"/>
       <c r="D326" s="13"/>
       <c r="E326" s="13"/>
     </row>
-    <row r="327" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B327" s="14" t="s">
         <v>4</v>
       </c>
@@ -6740,7 +6751,7 @@
       <c r="D327" s="15"/>
       <c r="E327" s="16"/>
     </row>
-    <row r="328" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B328" s="1" t="s">
         <v>0</v>
       </c>
@@ -6754,7 +6765,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B329" s="4" t="s">
         <v>2</v>
       </c>
@@ -6766,7 +6777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B330" s="28"/>
       <c r="C330" s="18" t="str">
         <f>(SUM(C331:C332)/4)&amp;" h"</f>
@@ -6777,19 +6788,19 @@
       </c>
       <c r="E330" s="19"/>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B331" s="9"/>
       <c r="C331" s="10"/>
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
     </row>
-    <row r="332" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B332" s="9"/>
       <c r="C332" s="10"/>
       <c r="D332" s="11"/>
       <c r="E332" s="11"/>
     </row>
-    <row r="333" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B333" s="28"/>
       <c r="C333" s="18" t="str">
         <f>(SUM(C334:C336)/4)&amp;" h"</f>
@@ -6800,25 +6811,25 @@
       </c>
       <c r="E333" s="19"/>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B334" s="9"/>
       <c r="C334" s="10"/>
       <c r="D334" s="22"/>
       <c r="E334" s="11"/>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B335" s="9"/>
       <c r="C335" s="10"/>
       <c r="D335" s="11"/>
       <c r="E335" s="11"/>
     </row>
-    <row r="336" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B336" s="9"/>
       <c r="C336" s="10"/>
       <c r="D336" s="22"/>
       <c r="E336" s="11"/>
     </row>
-    <row r="337" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B337" s="28"/>
       <c r="C337" s="18" t="str">
         <f>(SUM(C338:C339)/4)&amp;" h"</f>
@@ -6829,19 +6840,19 @@
       </c>
       <c r="E337" s="19"/>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B338" s="9"/>
       <c r="C338" s="10"/>
       <c r="D338" s="22"/>
       <c r="E338" s="11"/>
     </row>
-    <row r="339" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B339" s="9"/>
       <c r="C339" s="10"/>
       <c r="D339" s="11"/>
       <c r="E339" s="11"/>
     </row>
-    <row r="340" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B340" s="28"/>
       <c r="C340" s="18" t="str">
         <f>(SUM(C341:C343)/4)&amp;" h"</f>
@@ -6852,25 +6863,25 @@
       </c>
       <c r="E340" s="19"/>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B341" s="9"/>
       <c r="C341" s="10"/>
       <c r="D341" s="11"/>
       <c r="E341" s="12"/>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B342" s="9"/>
       <c r="C342" s="10"/>
       <c r="D342" s="12"/>
       <c r="E342" s="12"/>
     </row>
-    <row r="343" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B343" s="9"/>
       <c r="C343" s="10"/>
       <c r="D343" s="12"/>
       <c r="E343" s="12"/>
     </row>
-    <row r="344" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B344" s="28"/>
       <c r="C344" s="18" t="str">
         <f>(SUM(C345:C348)/4)&amp;" h"</f>
@@ -6881,31 +6892,31 @@
       </c>
       <c r="E344" s="19"/>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B345" s="9"/>
       <c r="C345" s="10"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B346" s="9"/>
       <c r="C346" s="10"/>
       <c r="D346" s="12"/>
       <c r="E346" s="12"/>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B347" s="9"/>
       <c r="C347" s="10"/>
       <c r="D347" s="12"/>
       <c r="E347" s="12"/>
     </row>
-    <row r="348" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B348" s="9"/>
       <c r="C348" s="10"/>
       <c r="D348" s="13"/>
       <c r="E348" s="13"/>
     </row>
-    <row r="349" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B349" s="14" t="s">
         <v>4</v>
       </c>
@@ -6916,7 +6927,7 @@
       <c r="D349" s="15"/>
       <c r="E349" s="16"/>
     </row>
-    <row r="350" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B350" s="1" t="s">
         <v>0</v>
       </c>
@@ -6930,7 +6941,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="351" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B351" s="4" t="s">
         <v>2</v>
       </c>
@@ -6942,7 +6953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B352" s="28"/>
       <c r="C352" s="18" t="str">
         <f>(SUM(C353:C354)/4)&amp;" h"</f>
@@ -6953,19 +6964,19 @@
       </c>
       <c r="E352" s="19"/>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B353" s="9"/>
       <c r="C353" s="10"/>
       <c r="D353" s="8"/>
       <c r="E353" s="8"/>
     </row>
-    <row r="354" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B354" s="9"/>
       <c r="C354" s="10"/>
       <c r="D354" s="11"/>
       <c r="E354" s="11"/>
     </row>
-    <row r="355" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B355" s="28"/>
       <c r="C355" s="18" t="str">
         <f>(SUM(C356:C358)/4)&amp;" h"</f>
@@ -6976,25 +6987,25 @@
       </c>
       <c r="E355" s="19"/>
     </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B356" s="9"/>
       <c r="C356" s="10"/>
       <c r="D356" s="22"/>
       <c r="E356" s="11"/>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B357" s="9"/>
       <c r="C357" s="10"/>
       <c r="D357" s="11"/>
       <c r="E357" s="11"/>
     </row>
-    <row r="358" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B358" s="9"/>
       <c r="C358" s="10"/>
       <c r="D358" s="22"/>
       <c r="E358" s="11"/>
     </row>
-    <row r="359" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B359" s="28"/>
       <c r="C359" s="18" t="str">
         <f>(SUM(C360:C361)/4)&amp;" h"</f>
@@ -7005,19 +7016,19 @@
       </c>
       <c r="E359" s="19"/>
     </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B360" s="9"/>
       <c r="C360" s="10"/>
       <c r="D360" s="22"/>
       <c r="E360" s="11"/>
     </row>
-    <row r="361" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B361" s="9"/>
       <c r="C361" s="10"/>
       <c r="D361" s="11"/>
       <c r="E361" s="11"/>
     </row>
-    <row r="362" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B362" s="28"/>
       <c r="C362" s="18" t="str">
         <f>(SUM(C363:C365)/4)&amp;" h"</f>
@@ -7028,25 +7039,25 @@
       </c>
       <c r="E362" s="19"/>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B363" s="9"/>
       <c r="C363" s="10"/>
       <c r="D363" s="11"/>
       <c r="E363" s="12"/>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B364" s="9"/>
       <c r="C364" s="10"/>
       <c r="D364" s="12"/>
       <c r="E364" s="12"/>
     </row>
-    <row r="365" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B365" s="9"/>
       <c r="C365" s="10"/>
       <c r="D365" s="12"/>
       <c r="E365" s="12"/>
     </row>
-    <row r="366" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B366" s="28"/>
       <c r="C366" s="18" t="str">
         <f>(SUM(C367:C370)/4)&amp;" h"</f>
@@ -7057,31 +7068,31 @@
       </c>
       <c r="E366" s="19"/>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B367" s="9"/>
       <c r="C367" s="10"/>
       <c r="D367" s="12"/>
       <c r="E367" s="12"/>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B368" s="9"/>
       <c r="C368" s="10"/>
       <c r="D368" s="12"/>
       <c r="E368" s="12"/>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B369" s="9"/>
       <c r="C369" s="10"/>
       <c r="D369" s="12"/>
       <c r="E369" s="12"/>
     </row>
-    <row r="370" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B370" s="9"/>
       <c r="C370" s="10"/>
       <c r="D370" s="13"/>
       <c r="E370" s="13"/>
     </row>
-    <row r="371" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B371" s="14" t="s">
         <v>4</v>
       </c>
@@ -7108,20 +7119,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0EDBDF-DD0E-4519-9118-352C1F413B22}">
   <dimension ref="B1:J371"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="39.7109375" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.28515625" style="23" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.33203125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="30.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7135,7 +7146,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -7151,7 +7162,7 @@
       <c r="I3" s="39"/>
       <c r="J3" s="39"/>
     </row>
-    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="28"/>
       <c r="C4" s="18"/>
       <c r="D4" s="29" t="s">
@@ -7163,7 +7174,7 @@
       <c r="I4" s="39"/>
       <c r="J4" s="39"/>
     </row>
-    <row r="5" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
@@ -7179,7 +7190,7 @@
       <c r="I5" s="39"/>
       <c r="J5" s="39"/>
     </row>
-    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
@@ -7195,7 +7206,7 @@
       <c r="I6" s="39"/>
       <c r="J6" s="39"/>
     </row>
-    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="32" t="s">
         <v>14</v>
       </c>
@@ -7211,7 +7222,7 @@
       <c r="I7" s="39"/>
       <c r="J7" s="39"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="33" t="s">
         <v>27</v>
       </c>
@@ -7223,7 +7234,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="34" t="s">
         <v>29</v>
       </c>
@@ -7233,7 +7244,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="28"/>
       <c r="C10" s="18"/>
       <c r="D10" s="29" t="s">
@@ -7241,7 +7252,7 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B11" s="32" t="s">
         <v>12</v>
       </c>
@@ -7253,7 +7264,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="33" t="s">
         <v>12</v>
       </c>
@@ -7265,7 +7276,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="33" t="s">
         <v>19</v>
       </c>
@@ -7277,7 +7288,7 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="28"/>
       <c r="C14" s="18"/>
       <c r="D14" s="29" t="s">
@@ -7285,31 +7296,31 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="22"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="28"/>
       <c r="C19" s="18"/>
       <c r="D19" s="29" t="s">
@@ -7317,7 +7328,7 @@
       </c>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B20" s="33" t="s">
         <v>19</v>
       </c>
@@ -7329,13 +7340,13 @@
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="28"/>
       <c r="C22" s="18"/>
       <c r="D22" s="29" t="s">
@@ -7343,25 +7354,25 @@
       </c>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="28"/>
       <c r="C26" s="18"/>
       <c r="D26" s="29" t="s">
@@ -7369,7 +7380,7 @@
       </c>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="33" t="s">
         <v>24</v>
       </c>
@@ -7381,7 +7392,7 @@
       </c>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="41.4" x14ac:dyDescent="0.3">
       <c r="B28" s="33" t="s">
         <v>24</v>
       </c>
@@ -7393,13 +7404,13 @@
       </c>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="28"/>
       <c r="C30" s="18"/>
       <c r="D30" s="29" t="s">
@@ -7407,7 +7418,7 @@
       </c>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B31" s="33" t="s">
         <v>24</v>
       </c>
@@ -7419,19 +7430,19 @@
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
@@ -7442,13 +7453,13 @@
       <c r="D34" s="15"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="27"/>
       <c r="E35" s="17"/>
     </row>
-    <row r="36" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -7462,7 +7473,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
@@ -7474,18 +7485,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B38" s="28"/>
       <c r="C38" s="18" t="str">
         <f>(SUM(C39:C41)/4)&amp;" h"</f>
-        <v>0.625 h</v>
+        <v>0,625 h</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="19"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="33" t="s">
         <v>29</v>
       </c>
@@ -7495,7 +7506,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="34" t="s">
         <v>31</v>
       </c>
@@ -7507,13 +7518,13 @@
       </c>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B42" s="28"/>
       <c r="C42" s="18" t="str">
         <f>(SUM(C43:C45)/4)&amp;" h"</f>
@@ -7524,25 +7535,25 @@
       </c>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="22"/>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="22"/>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B46" s="28"/>
       <c r="C46" s="18" t="str">
         <f>(SUM(C47:C48)/4)&amp;" h"</f>
@@ -7553,19 +7564,19 @@
       </c>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="9"/>
       <c r="C47" s="10"/>
       <c r="D47" s="22"/>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B49" s="28"/>
       <c r="C49" s="18" t="str">
         <f>(SUM(C50:C52)/4)&amp;" h"</f>
@@ -7576,54 +7587,59 @@
       </c>
       <c r="E49" s="19"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
       <c r="D50" s="11"/>
       <c r="E50" s="12"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
     </row>
-    <row r="53" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B53" s="28"/>
       <c r="C53" s="18" t="str">
         <f>(SUM(C54:C65)/4)&amp;" h"</f>
-        <v>0 h</v>
+        <v>0,5 h</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="19"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="9"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="12"/>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C54" s="10">
+        <v>2</v>
+      </c>
       <c r="E54" s="12"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
-      <c r="D55" s="12"/>
+      <c r="D55" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="E55" s="12"/>
     </row>
-    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B57" s="28"/>
       <c r="C57" s="18"/>
       <c r="D57" s="29" t="s">
@@ -7631,25 +7647,25 @@
       </c>
       <c r="E57" s="19"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="33"/>
       <c r="C58" s="10"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B59" s="33"/>
       <c r="C59" s="10"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
     </row>
-    <row r="61" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B61" s="28"/>
       <c r="C61" s="18"/>
       <c r="D61" s="29" t="s">
@@ -7657,42 +7673,42 @@
       </c>
       <c r="E61" s="19"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B62" s="33"/>
       <c r="C62" s="10"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
     </row>
-    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
     </row>
-    <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B66" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="14">
         <f>SUM(C39:C41,C43:C45,C47:C48,C50:C52,C54:C56,C58:C60,C62:C65)</f>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
@@ -7706,7 +7722,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
@@ -7718,7 +7734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B69" s="28"/>
       <c r="C69" s="18" t="str">
         <f>(SUM(C70:C71)/4)&amp;" h"</f>
@@ -7729,19 +7745,19 @@
       </c>
       <c r="E69" s="19"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B70" s="9"/>
       <c r="C70" s="10"/>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B71" s="9"/>
       <c r="C71" s="10"/>
       <c r="D71" s="11"/>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B72" s="28"/>
       <c r="C72" s="18" t="str">
         <f>(SUM(C73:C75)/4)&amp;" h"</f>
@@ -7752,77 +7768,89 @@
       </c>
       <c r="E72" s="19"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B73" s="9"/>
       <c r="C73" s="10"/>
       <c r="D73" s="22"/>
       <c r="E73" s="11"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B74" s="9"/>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
       <c r="D75" s="22"/>
       <c r="E75" s="11"/>
     </row>
-    <row r="76" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B76" s="28"/>
       <c r="C76" s="18" t="str">
         <f>(SUM(C77:C78)/4)&amp;" h"</f>
-        <v>0 h</v>
+        <v>0,5 h</v>
       </c>
       <c r="D76" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E76" s="19"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B77" s="9"/>
-      <c r="C77" s="10"/>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C77" s="10">
+        <v>1</v>
+      </c>
       <c r="D77" s="22"/>
       <c r="E77" s="11"/>
     </row>
-    <row r="78" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="9"/>
-      <c r="C78" s="10"/>
+    <row r="78" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78" s="10">
+        <v>1</v>
+      </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
     </row>
-    <row r="79" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B79" s="28"/>
       <c r="C79" s="18" t="str">
         <f>(SUM(C80:C82)/4)&amp;" h"</f>
-        <v>0 h</v>
+        <v>0,5 h</v>
       </c>
       <c r="D79" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E79" s="19"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B80" s="9"/>
-      <c r="C80" s="10"/>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C80" s="10">
+        <v>2</v>
+      </c>
       <c r="D80" s="11"/>
       <c r="E80" s="12"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
     </row>
-    <row r="82" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
     </row>
-    <row r="83" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B83" s="28"/>
       <c r="C83" s="18" t="str">
         <f>(SUM(C84:C96)/4)&amp;" h"</f>
@@ -7833,25 +7861,25 @@
       </c>
       <c r="E83" s="19"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B84" s="9"/>
       <c r="C84" s="10"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B85" s="9"/>
       <c r="C85" s="10"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
     </row>
-    <row r="86" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B86" s="9"/>
       <c r="C86" s="10"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
     </row>
-    <row r="87" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B87" s="28"/>
       <c r="C87" s="18"/>
       <c r="D87" s="29" t="s">
@@ -7859,25 +7887,25 @@
       </c>
       <c r="E87" s="19"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B88" s="33"/>
       <c r="C88" s="10"/>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B89" s="33"/>
       <c r="C89" s="10"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
     </row>
-    <row r="90" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B90" s="9"/>
       <c r="C90" s="10"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B91" s="28"/>
       <c r="C91" s="18"/>
       <c r="D91" s="29" t="s">
@@ -7885,48 +7913,48 @@
       </c>
       <c r="E91" s="19"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B92" s="33"/>
       <c r="C92" s="10"/>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B93" s="9"/>
       <c r="C93" s="10"/>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B94" s="9"/>
       <c r="C94" s="10"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
     </row>
-    <row r="95" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B95" s="9"/>
       <c r="C95" s="10"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
     </row>
-    <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B96" s="9"/>
       <c r="C96" s="10"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
     </row>
-    <row r="97" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B97" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C97" s="14">
         <f>SUM(C70:C71,C73:C75,C77:C78,C80:C82,C84:C86,C88:C90,C92:C96)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="16"/>
     </row>
-    <row r="98" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
@@ -7940,7 +7968,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B99" s="4" t="s">
         <v>2</v>
       </c>
@@ -7952,7 +7980,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B100" s="28"/>
       <c r="C100" s="18" t="str">
         <f>(SUM(C101:C102)/4)&amp;" h"</f>
@@ -7963,19 +7991,19 @@
       </c>
       <c r="E100" s="19"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B101" s="9"/>
       <c r="C101" s="10"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B102" s="9"/>
       <c r="C102" s="10"/>
       <c r="D102" s="11"/>
       <c r="E102" s="11"/>
     </row>
-    <row r="103" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B103" s="28"/>
       <c r="C103" s="18" t="str">
         <f>(SUM(C104:C106)/4)&amp;" h"</f>
@@ -7986,25 +8014,25 @@
       </c>
       <c r="E103" s="19"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="10"/>
       <c r="D104" s="22"/>
       <c r="E104" s="11"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B105" s="9"/>
       <c r="C105" s="10"/>
       <c r="D105" s="11"/>
       <c r="E105" s="11"/>
     </row>
-    <row r="106" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B106" s="9"/>
       <c r="C106" s="10"/>
       <c r="D106" s="22"/>
       <c r="E106" s="11"/>
     </row>
-    <row r="107" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B107" s="28"/>
       <c r="C107" s="18" t="str">
         <f>(SUM(C108:C109)/4)&amp;" h"</f>
@@ -8015,19 +8043,19 @@
       </c>
       <c r="E107" s="19"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" s="9"/>
       <c r="C108" s="10"/>
       <c r="D108" s="22"/>
       <c r="E108" s="11"/>
     </row>
-    <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B109" s="9"/>
       <c r="C109" s="10"/>
       <c r="D109" s="11"/>
       <c r="E109" s="11"/>
     </row>
-    <row r="110" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B110" s="28"/>
       <c r="C110" s="18" t="str">
         <f>(SUM(C111:C113)/4)&amp;" h"</f>
@@ -8038,25 +8066,25 @@
       </c>
       <c r="E110" s="19"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="10"/>
       <c r="D111" s="11"/>
       <c r="E111" s="12"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="10"/>
       <c r="D112" s="12"/>
       <c r="E112" s="12"/>
     </row>
-    <row r="113" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B113" s="9"/>
       <c r="C113" s="10"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
     </row>
-    <row r="114" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B114" s="28"/>
       <c r="C114" s="18" t="str">
         <f>(SUM(C115:C128)/4)&amp;" h"</f>
@@ -8067,25 +8095,25 @@
       </c>
       <c r="E114" s="19"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="10"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="10"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
     </row>
-    <row r="117" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B117" s="9"/>
       <c r="C117" s="10"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
     </row>
-    <row r="118" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B118" s="28"/>
       <c r="C118" s="18"/>
       <c r="D118" s="29" t="s">
@@ -8093,25 +8121,25 @@
       </c>
       <c r="E118" s="19"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B119" s="33"/>
       <c r="C119" s="10"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B120" s="33"/>
       <c r="C120" s="10"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
     </row>
-    <row r="121" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B121" s="9"/>
       <c r="C121" s="10"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
     </row>
-    <row r="122" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B122" s="28"/>
       <c r="C122" s="18"/>
       <c r="D122" s="29" t="s">
@@ -8119,43 +8147,43 @@
       </c>
       <c r="E122" s="19"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B123" s="33"/>
       <c r="C123" s="10"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="10"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B125" s="9"/>
       <c r="C125" s="10"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="10"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B127" s="9"/>
       <c r="C127" s="36"/>
       <c r="D127" s="38"/>
       <c r="E127" s="38"/>
     </row>
-    <row r="128" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B128" s="9"/>
       <c r="C128" s="10"/>
       <c r="D128" s="37"/>
       <c r="E128" s="37"/>
     </row>
-    <row r="129" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B129" s="14" t="s">
         <v>4</v>
       </c>
@@ -8166,7 +8194,7 @@
       <c r="D129" s="15"/>
       <c r="E129" s="16"/>
     </row>
-    <row r="130" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B130" s="1" t="s">
         <v>0</v>
       </c>
@@ -8180,7 +8208,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="131" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B131" s="4" t="s">
         <v>2</v>
       </c>
@@ -8192,7 +8220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B132" s="28"/>
       <c r="C132" s="18" t="str">
         <f>(SUM(C133:C134)/4)&amp;" h"</f>
@@ -8203,19 +8231,19 @@
       </c>
       <c r="E132" s="19"/>
     </row>
-    <row r="133" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B133" s="9"/>
       <c r="C133" s="10"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
-    <row r="134" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B134" s="9"/>
       <c r="C134" s="10"/>
       <c r="D134" s="11"/>
       <c r="E134" s="11"/>
     </row>
-    <row r="135" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B135" s="28"/>
       <c r="C135" s="18" t="str">
         <f>(SUM(C136:C138)/4)&amp;" h"</f>
@@ -8226,25 +8254,25 @@
       </c>
       <c r="E135" s="19"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="10"/>
       <c r="D136" s="22"/>
       <c r="E136" s="11"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="10"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
     </row>
-    <row r="138" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B138" s="9"/>
       <c r="C138" s="10"/>
       <c r="D138" s="22"/>
       <c r="E138" s="11"/>
     </row>
-    <row r="139" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B139" s="28"/>
       <c r="C139" s="18" t="str">
         <f>(SUM(C140:C141)/4)&amp;" h"</f>
@@ -8255,19 +8283,19 @@
       </c>
       <c r="E139" s="19"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B140" s="9"/>
       <c r="C140" s="10"/>
       <c r="D140" s="22"/>
       <c r="E140" s="11"/>
     </row>
-    <row r="141" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B141" s="9"/>
       <c r="C141" s="10"/>
       <c r="D141" s="11"/>
       <c r="E141" s="11"/>
     </row>
-    <row r="142" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B142" s="28"/>
       <c r="C142" s="18" t="str">
         <f>(SUM(C143:C145)/4)&amp;" h"</f>
@@ -8278,25 +8306,25 @@
       </c>
       <c r="E142" s="19"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="10"/>
       <c r="D143" s="11"/>
       <c r="E143" s="12"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="10"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
     </row>
-    <row r="145" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B145" s="9"/>
       <c r="C145" s="10"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
     </row>
-    <row r="146" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B146" s="28"/>
       <c r="C146" s="18" t="str">
         <f>(SUM(C147:C150)/4)&amp;" h"</f>
@@ -8307,31 +8335,31 @@
       </c>
       <c r="E146" s="19"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B147" s="9"/>
       <c r="C147" s="10"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="10"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B149" s="9"/>
       <c r="C149" s="10"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
     </row>
-    <row r="150" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B150" s="9"/>
       <c r="C150" s="10"/>
       <c r="D150" s="13"/>
       <c r="E150" s="13"/>
     </row>
-    <row r="151" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B151" s="14" t="s">
         <v>4</v>
       </c>
@@ -8342,7 +8370,7 @@
       <c r="D151" s="15"/>
       <c r="E151" s="16"/>
     </row>
-    <row r="152" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B152" s="1" t="s">
         <v>0</v>
       </c>
@@ -8356,7 +8384,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="153" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B153" s="4" t="s">
         <v>2</v>
       </c>
@@ -8368,7 +8396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B154" s="28"/>
       <c r="C154" s="18" t="str">
         <f>(SUM(C155:C156)/4)&amp;" h"</f>
@@ -8379,19 +8407,19 @@
       </c>
       <c r="E154" s="19"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B155" s="9"/>
       <c r="C155" s="10"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
     </row>
-    <row r="156" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B156" s="9"/>
       <c r="C156" s="10"/>
       <c r="D156" s="11"/>
       <c r="E156" s="11"/>
     </row>
-    <row r="157" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B157" s="28"/>
       <c r="C157" s="18" t="str">
         <f>(SUM(C158:C160)/4)&amp;" h"</f>
@@ -8402,25 +8430,25 @@
       </c>
       <c r="E157" s="19"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="10"/>
       <c r="D158" s="22"/>
       <c r="E158" s="11"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="10"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
     </row>
-    <row r="160" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B160" s="9"/>
       <c r="C160" s="10"/>
       <c r="D160" s="22"/>
       <c r="E160" s="11"/>
     </row>
-    <row r="161" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B161" s="28"/>
       <c r="C161" s="18" t="str">
         <f>(SUM(C162:C163)/4)&amp;" h"</f>
@@ -8431,19 +8459,19 @@
       </c>
       <c r="E161" s="19"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B162" s="9"/>
       <c r="C162" s="10"/>
       <c r="D162" s="22"/>
       <c r="E162" s="11"/>
     </row>
-    <row r="163" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B163" s="9"/>
       <c r="C163" s="10"/>
       <c r="D163" s="11"/>
       <c r="E163" s="11"/>
     </row>
-    <row r="164" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B164" s="28"/>
       <c r="C164" s="18" t="str">
         <f>(SUM(C165:C167)/4)&amp;" h"</f>
@@ -8454,25 +8482,25 @@
       </c>
       <c r="E164" s="19"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B165" s="9"/>
       <c r="C165" s="10"/>
       <c r="D165" s="11"/>
       <c r="E165" s="12"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
       <c r="C166" s="10"/>
       <c r="D166" s="12"/>
       <c r="E166" s="12"/>
     </row>
-    <row r="167" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B167" s="9"/>
       <c r="C167" s="10"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
     </row>
-    <row r="168" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B168" s="28"/>
       <c r="C168" s="18" t="str">
         <f>(SUM(C169:C172)/4)&amp;" h"</f>
@@ -8483,31 +8511,31 @@
       </c>
       <c r="E168" s="19"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B169" s="9"/>
       <c r="C169" s="10"/>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
       <c r="C170" s="10"/>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B171" s="9"/>
       <c r="C171" s="10"/>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
     </row>
-    <row r="172" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B172" s="9"/>
       <c r="C172" s="10"/>
       <c r="D172" s="13"/>
       <c r="E172" s="13"/>
     </row>
-    <row r="173" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B173" s="14" t="s">
         <v>4</v>
       </c>
@@ -8518,7 +8546,7 @@
       <c r="D173" s="15"/>
       <c r="E173" s="16"/>
     </row>
-    <row r="174" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B174" s="1" t="s">
         <v>0</v>
       </c>
@@ -8532,7 +8560,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="175" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B175" s="4" t="s">
         <v>2</v>
       </c>
@@ -8544,7 +8572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B176" s="28"/>
       <c r="C176" s="18" t="str">
         <f>(SUM(C177:C178)/4)&amp;" h"</f>
@@ -8555,19 +8583,19 @@
       </c>
       <c r="E176" s="19"/>
     </row>
-    <row r="177" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B177" s="9"/>
       <c r="C177" s="10"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
     </row>
-    <row r="178" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B178" s="9"/>
       <c r="C178" s="10"/>
       <c r="D178" s="11"/>
       <c r="E178" s="11"/>
     </row>
-    <row r="179" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B179" s="28"/>
       <c r="C179" s="18" t="str">
         <f>(SUM(C180:C182)/4)&amp;" h"</f>
@@ -8578,25 +8606,25 @@
       </c>
       <c r="E179" s="19"/>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B180" s="9"/>
       <c r="C180" s="10"/>
       <c r="D180" s="22"/>
       <c r="E180" s="11"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B181" s="9"/>
       <c r="C181" s="10"/>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
     </row>
-    <row r="182" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B182" s="9"/>
       <c r="C182" s="10"/>
       <c r="D182" s="22"/>
       <c r="E182" s="11"/>
     </row>
-    <row r="183" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B183" s="28"/>
       <c r="C183" s="18" t="str">
         <f>(SUM(C184:C185)/4)&amp;" h"</f>
@@ -8607,19 +8635,19 @@
       </c>
       <c r="E183" s="19"/>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B184" s="9"/>
       <c r="C184" s="10"/>
       <c r="D184" s="22"/>
       <c r="E184" s="11"/>
     </row>
-    <row r="185" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B185" s="9"/>
       <c r="C185" s="10"/>
       <c r="D185" s="11"/>
       <c r="E185" s="11"/>
     </row>
-    <row r="186" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B186" s="28"/>
       <c r="C186" s="18" t="str">
         <f>(SUM(C187:C189)/4)&amp;" h"</f>
@@ -8630,25 +8658,25 @@
       </c>
       <c r="E186" s="19"/>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B187" s="9"/>
       <c r="C187" s="10"/>
       <c r="D187" s="11"/>
       <c r="E187" s="12"/>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B188" s="9"/>
       <c r="C188" s="10"/>
       <c r="D188" s="12"/>
       <c r="E188" s="12"/>
     </row>
-    <row r="189" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B189" s="9"/>
       <c r="C189" s="10"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
     </row>
-    <row r="190" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B190" s="28"/>
       <c r="C190" s="18" t="str">
         <f>(SUM(C191:C194)/4)&amp;" h"</f>
@@ -8659,31 +8687,31 @@
       </c>
       <c r="E190" s="19"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B191" s="9"/>
       <c r="C191" s="10"/>
       <c r="D191" s="12"/>
       <c r="E191" s="12"/>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B192" s="9"/>
       <c r="C192" s="10"/>
       <c r="D192" s="12"/>
       <c r="E192" s="12"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B193" s="9"/>
       <c r="C193" s="10"/>
       <c r="D193" s="12"/>
       <c r="E193" s="12"/>
     </row>
-    <row r="194" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B194" s="9"/>
       <c r="C194" s="10"/>
       <c r="D194" s="13"/>
       <c r="E194" s="13"/>
     </row>
-    <row r="195" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B195" s="14" t="s">
         <v>4</v>
       </c>
@@ -8694,7 +8722,7 @@
       <c r="D195" s="15"/>
       <c r="E195" s="16"/>
     </row>
-    <row r="196" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B196" s="1" t="s">
         <v>0</v>
       </c>
@@ -8708,7 +8736,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="197" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B197" s="4" t="s">
         <v>2</v>
       </c>
@@ -8720,7 +8748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B198" s="28"/>
       <c r="C198" s="18" t="str">
         <f>(SUM(C199:C200)/4)&amp;" h"</f>
@@ -8731,19 +8759,19 @@
       </c>
       <c r="E198" s="19"/>
     </row>
-    <row r="199" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B199" s="9"/>
       <c r="C199" s="10"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
     </row>
-    <row r="200" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B200" s="9"/>
       <c r="C200" s="10"/>
       <c r="D200" s="11"/>
       <c r="E200" s="11"/>
     </row>
-    <row r="201" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B201" s="28"/>
       <c r="C201" s="18" t="str">
         <f>(SUM(C202:C204)/4)&amp;" h"</f>
@@ -8754,25 +8782,25 @@
       </c>
       <c r="E201" s="19"/>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B202" s="9"/>
       <c r="C202" s="10"/>
       <c r="D202" s="22"/>
       <c r="E202" s="11"/>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B203" s="9"/>
       <c r="C203" s="10"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
     </row>
-    <row r="204" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B204" s="9"/>
       <c r="C204" s="10"/>
       <c r="D204" s="22"/>
       <c r="E204" s="11"/>
     </row>
-    <row r="205" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B205" s="28"/>
       <c r="C205" s="18" t="str">
         <f>(SUM(C206:C207)/4)&amp;" h"</f>
@@ -8783,19 +8811,19 @@
       </c>
       <c r="E205" s="19"/>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B206" s="9"/>
       <c r="C206" s="10"/>
       <c r="D206" s="22"/>
       <c r="E206" s="11"/>
     </row>
-    <row r="207" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B207" s="9"/>
       <c r="C207" s="10"/>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
     </row>
-    <row r="208" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B208" s="28"/>
       <c r="C208" s="18" t="str">
         <f>(SUM(C209:C211)/4)&amp;" h"</f>
@@ -8806,25 +8834,25 @@
       </c>
       <c r="E208" s="19"/>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B209" s="9"/>
       <c r="C209" s="10"/>
       <c r="D209" s="11"/>
       <c r="E209" s="12"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B210" s="9"/>
       <c r="C210" s="10"/>
       <c r="D210" s="12"/>
       <c r="E210" s="12"/>
     </row>
-    <row r="211" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B211" s="9"/>
       <c r="C211" s="10"/>
       <c r="D211" s="12"/>
       <c r="E211" s="12"/>
     </row>
-    <row r="212" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B212" s="28"/>
       <c r="C212" s="18" t="str">
         <f>(SUM(C213:C216)/4)&amp;" h"</f>
@@ -8835,31 +8863,31 @@
       </c>
       <c r="E212" s="19"/>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B213" s="9"/>
       <c r="C213" s="10"/>
       <c r="D213" s="12"/>
       <c r="E213" s="12"/>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B214" s="9"/>
       <c r="C214" s="10"/>
       <c r="D214" s="12"/>
       <c r="E214" s="12"/>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B215" s="9"/>
       <c r="C215" s="10"/>
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
     </row>
-    <row r="216" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B216" s="9"/>
       <c r="C216" s="10"/>
       <c r="D216" s="13"/>
       <c r="E216" s="13"/>
     </row>
-    <row r="217" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B217" s="14" t="s">
         <v>4</v>
       </c>
@@ -8870,7 +8898,7 @@
       <c r="D217" s="15"/>
       <c r="E217" s="16"/>
     </row>
-    <row r="218" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B218" s="1" t="s">
         <v>0</v>
       </c>
@@ -8884,7 +8912,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="219" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B219" s="4" t="s">
         <v>2</v>
       </c>
@@ -8896,7 +8924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B220" s="28"/>
       <c r="C220" s="18" t="str">
         <f>(SUM(C221:C222)/4)&amp;" h"</f>
@@ -8907,19 +8935,19 @@
       </c>
       <c r="E220" s="19"/>
     </row>
-    <row r="221" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B221" s="9"/>
       <c r="C221" s="10"/>
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
     </row>
-    <row r="222" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B222" s="9"/>
       <c r="C222" s="10"/>
       <c r="D222" s="11"/>
       <c r="E222" s="11"/>
     </row>
-    <row r="223" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B223" s="28"/>
       <c r="C223" s="18" t="str">
         <f>(SUM(C224:C226)/4)&amp;" h"</f>
@@ -8930,25 +8958,25 @@
       </c>
       <c r="E223" s="19"/>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B224" s="9"/>
       <c r="C224" s="10"/>
       <c r="D224" s="22"/>
       <c r="E224" s="11"/>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B225" s="9"/>
       <c r="C225" s="10"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11"/>
     </row>
-    <row r="226" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B226" s="9"/>
       <c r="C226" s="10"/>
       <c r="D226" s="22"/>
       <c r="E226" s="11"/>
     </row>
-    <row r="227" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B227" s="28"/>
       <c r="C227" s="18" t="str">
         <f>(SUM(C228:C229)/4)&amp;" h"</f>
@@ -8959,19 +8987,19 @@
       </c>
       <c r="E227" s="19"/>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B228" s="9"/>
       <c r="C228" s="10"/>
       <c r="D228" s="22"/>
       <c r="E228" s="11"/>
     </row>
-    <row r="229" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B229" s="9"/>
       <c r="C229" s="10"/>
       <c r="D229" s="11"/>
       <c r="E229" s="11"/>
     </row>
-    <row r="230" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B230" s="28"/>
       <c r="C230" s="18" t="str">
         <f>(SUM(C231:C233)/4)&amp;" h"</f>
@@ -8982,25 +9010,25 @@
       </c>
       <c r="E230" s="19"/>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B231" s="9"/>
       <c r="C231" s="10"/>
       <c r="D231" s="11"/>
       <c r="E231" s="12"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B232" s="9"/>
       <c r="C232" s="10"/>
       <c r="D232" s="12"/>
       <c r="E232" s="12"/>
     </row>
-    <row r="233" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B233" s="9"/>
       <c r="C233" s="10"/>
       <c r="D233" s="12"/>
       <c r="E233" s="12"/>
     </row>
-    <row r="234" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B234" s="28"/>
       <c r="C234" s="18" t="str">
         <f>(SUM(C235:C238)/4)&amp;" h"</f>
@@ -9011,31 +9039,31 @@
       </c>
       <c r="E234" s="19"/>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B235" s="9"/>
       <c r="C235" s="10"/>
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B236" s="9"/>
       <c r="C236" s="10"/>
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B237" s="9"/>
       <c r="C237" s="10"/>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
     </row>
-    <row r="238" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B238" s="9"/>
       <c r="C238" s="10"/>
       <c r="D238" s="13"/>
       <c r="E238" s="13"/>
     </row>
-    <row r="239" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B239" s="14" t="s">
         <v>4</v>
       </c>
@@ -9046,7 +9074,7 @@
       <c r="D239" s="15"/>
       <c r="E239" s="16"/>
     </row>
-    <row r="240" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B240" s="1" t="s">
         <v>0</v>
       </c>
@@ -9058,7 +9086,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="241" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B241" s="4" t="s">
         <v>2</v>
       </c>
@@ -9070,7 +9098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B242" s="28"/>
       <c r="C242" s="18" t="str">
         <f>(SUM(C243:C244)/4)&amp;" h"</f>
@@ -9081,19 +9109,19 @@
       </c>
       <c r="E242" s="19"/>
     </row>
-    <row r="243" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B243" s="9"/>
       <c r="C243" s="10"/>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
     </row>
-    <row r="244" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B244" s="9"/>
       <c r="C244" s="10"/>
       <c r="D244" s="11"/>
       <c r="E244" s="11"/>
     </row>
-    <row r="245" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B245" s="28"/>
       <c r="C245" s="18" t="str">
         <f>(SUM(C246:C248)/4)&amp;" h"</f>
@@ -9104,25 +9132,25 @@
       </c>
       <c r="E245" s="19"/>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B246" s="9"/>
       <c r="C246" s="10"/>
       <c r="D246" s="22"/>
       <c r="E246" s="11"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B247" s="9"/>
       <c r="C247" s="10"/>
       <c r="D247" s="11"/>
       <c r="E247" s="11"/>
     </row>
-    <row r="248" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B248" s="9"/>
       <c r="C248" s="10"/>
       <c r="D248" s="22"/>
       <c r="E248" s="11"/>
     </row>
-    <row r="249" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B249" s="28"/>
       <c r="C249" s="18" t="str">
         <f>(SUM(C250:C251)/4)&amp;" h"</f>
@@ -9133,19 +9161,19 @@
       </c>
       <c r="E249" s="19"/>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B250" s="9"/>
       <c r="C250" s="10"/>
       <c r="D250" s="22"/>
       <c r="E250" s="11"/>
     </row>
-    <row r="251" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B251" s="9"/>
       <c r="C251" s="10"/>
       <c r="D251" s="11"/>
       <c r="E251" s="11"/>
     </row>
-    <row r="252" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B252" s="28"/>
       <c r="C252" s="18" t="str">
         <f>(SUM(C253:C255)/4)&amp;" h"</f>
@@ -9156,25 +9184,25 @@
       </c>
       <c r="E252" s="19"/>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B253" s="9"/>
       <c r="C253" s="10"/>
       <c r="D253" s="11"/>
       <c r="E253" s="12"/>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B254" s="9"/>
       <c r="C254" s="10"/>
       <c r="D254" s="12"/>
       <c r="E254" s="12"/>
     </row>
-    <row r="255" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B255" s="9"/>
       <c r="C255" s="10"/>
       <c r="D255" s="12"/>
       <c r="E255" s="12"/>
     </row>
-    <row r="256" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B256" s="28"/>
       <c r="C256" s="18" t="str">
         <f>(SUM(C257:C260)/4)&amp;" h"</f>
@@ -9185,31 +9213,31 @@
       </c>
       <c r="E256" s="19"/>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B257" s="9"/>
       <c r="C257" s="10"/>
       <c r="D257" s="12"/>
       <c r="E257" s="12"/>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B258" s="9"/>
       <c r="C258" s="10"/>
       <c r="D258" s="12"/>
       <c r="E258" s="12"/>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B259" s="9"/>
       <c r="C259" s="10"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
     </row>
-    <row r="260" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B260" s="9"/>
       <c r="C260" s="10"/>
       <c r="D260" s="13"/>
       <c r="E260" s="13"/>
     </row>
-    <row r="261" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B261" s="14" t="s">
         <v>4</v>
       </c>
@@ -9220,7 +9248,7 @@
       <c r="D261" s="15"/>
       <c r="E261" s="16"/>
     </row>
-    <row r="262" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B262" s="1" t="s">
         <v>0</v>
       </c>
@@ -9234,7 +9262,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="263" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B263" s="4" t="s">
         <v>2</v>
       </c>
@@ -9246,7 +9274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B264" s="28"/>
       <c r="C264" s="18" t="str">
         <f>(SUM(C265:C266)/4)&amp;" h"</f>
@@ -9257,19 +9285,19 @@
       </c>
       <c r="E264" s="19"/>
     </row>
-    <row r="265" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B265" s="9"/>
       <c r="C265" s="10"/>
       <c r="D265" s="8"/>
       <c r="E265" s="8"/>
     </row>
-    <row r="266" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B266" s="9"/>
       <c r="C266" s="10"/>
       <c r="D266" s="11"/>
       <c r="E266" s="11"/>
     </row>
-    <row r="267" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B267" s="28"/>
       <c r="C267" s="18" t="str">
         <f>(SUM(C268:C270)/4)&amp;" h"</f>
@@ -9280,25 +9308,25 @@
       </c>
       <c r="E267" s="19"/>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B268" s="9"/>
       <c r="C268" s="10"/>
       <c r="D268" s="22"/>
       <c r="E268" s="11"/>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B269" s="9"/>
       <c r="C269" s="10"/>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
     </row>
-    <row r="270" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B270" s="9"/>
       <c r="C270" s="10"/>
       <c r="D270" s="22"/>
       <c r="E270" s="11"/>
     </row>
-    <row r="271" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B271" s="28"/>
       <c r="C271" s="18" t="str">
         <f>(SUM(C272:C273)/4)&amp;" h"</f>
@@ -9309,19 +9337,19 @@
       </c>
       <c r="E271" s="19"/>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B272" s="9"/>
       <c r="C272" s="10"/>
       <c r="D272" s="22"/>
       <c r="E272" s="11"/>
     </row>
-    <row r="273" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B273" s="9"/>
       <c r="C273" s="10"/>
       <c r="D273" s="11"/>
       <c r="E273" s="11"/>
     </row>
-    <row r="274" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B274" s="28"/>
       <c r="C274" s="18" t="str">
         <f>(SUM(C275:C277)/4)&amp;" h"</f>
@@ -9332,25 +9360,25 @@
       </c>
       <c r="E274" s="19"/>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B275" s="9"/>
       <c r="C275" s="10"/>
       <c r="D275" s="11"/>
       <c r="E275" s="12"/>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B276" s="9"/>
       <c r="C276" s="10"/>
       <c r="D276" s="12"/>
       <c r="E276" s="12"/>
     </row>
-    <row r="277" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B277" s="9"/>
       <c r="C277" s="10"/>
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
     </row>
-    <row r="278" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B278" s="28"/>
       <c r="C278" s="18" t="str">
         <f>(SUM(C279:C282)/4)&amp;" h"</f>
@@ -9361,31 +9389,31 @@
       </c>
       <c r="E278" s="19"/>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B279" s="9"/>
       <c r="C279" s="10"/>
       <c r="D279" s="12"/>
       <c r="E279" s="12"/>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B280" s="9"/>
       <c r="C280" s="10"/>
       <c r="D280" s="12"/>
       <c r="E280" s="12"/>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B281" s="9"/>
       <c r="C281" s="10"/>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
     </row>
-    <row r="282" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B282" s="9"/>
       <c r="C282" s="10"/>
       <c r="D282" s="13"/>
       <c r="E282" s="13"/>
     </row>
-    <row r="283" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B283" s="14" t="s">
         <v>4</v>
       </c>
@@ -9396,7 +9424,7 @@
       <c r="D283" s="15"/>
       <c r="E283" s="16"/>
     </row>
-    <row r="284" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B284" s="1" t="s">
         <v>0</v>
       </c>
@@ -9410,7 +9438,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="285" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B285" s="4" t="s">
         <v>2</v>
       </c>
@@ -9422,7 +9450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="286" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B286" s="28"/>
       <c r="C286" s="18" t="str">
         <f>(SUM(C287:C288)/4)&amp;" h"</f>
@@ -9433,19 +9461,19 @@
       </c>
       <c r="E286" s="19"/>
     </row>
-    <row r="287" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B287" s="9"/>
       <c r="C287" s="10"/>
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
     </row>
-    <row r="288" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B288" s="9"/>
       <c r="C288" s="10"/>
       <c r="D288" s="11"/>
       <c r="E288" s="11"/>
     </row>
-    <row r="289" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B289" s="28"/>
       <c r="C289" s="18" t="str">
         <f>(SUM(C290:C292)/4)&amp;" h"</f>
@@ -9456,25 +9484,25 @@
       </c>
       <c r="E289" s="19"/>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B290" s="9"/>
       <c r="C290" s="10"/>
       <c r="D290" s="22"/>
       <c r="E290" s="11"/>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B291" s="9"/>
       <c r="C291" s="10"/>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
     </row>
-    <row r="292" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B292" s="9"/>
       <c r="C292" s="10"/>
       <c r="D292" s="22"/>
       <c r="E292" s="11"/>
     </row>
-    <row r="293" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B293" s="28"/>
       <c r="C293" s="18" t="str">
         <f>(SUM(C294:C295)/4)&amp;" h"</f>
@@ -9485,19 +9513,19 @@
       </c>
       <c r="E293" s="19"/>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B294" s="9"/>
       <c r="C294" s="10"/>
       <c r="D294" s="22"/>
       <c r="E294" s="11"/>
     </row>
-    <row r="295" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B295" s="9"/>
       <c r="C295" s="10"/>
       <c r="D295" s="11"/>
       <c r="E295" s="11"/>
     </row>
-    <row r="296" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B296" s="28"/>
       <c r="C296" s="18" t="str">
         <f>(SUM(C297:C299)/4)&amp;" h"</f>
@@ -9508,25 +9536,25 @@
       </c>
       <c r="E296" s="19"/>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B297" s="9"/>
       <c r="C297" s="10"/>
       <c r="D297" s="11"/>
       <c r="E297" s="12"/>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B298" s="9"/>
       <c r="C298" s="10"/>
       <c r="D298" s="12"/>
       <c r="E298" s="12"/>
     </row>
-    <row r="299" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B299" s="9"/>
       <c r="C299" s="10"/>
       <c r="D299" s="12"/>
       <c r="E299" s="12"/>
     </row>
-    <row r="300" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B300" s="28"/>
       <c r="C300" s="18" t="str">
         <f>(SUM(C301:C304)/4)&amp;" h"</f>
@@ -9537,31 +9565,31 @@
       </c>
       <c r="E300" s="19"/>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B301" s="9"/>
       <c r="C301" s="10"/>
       <c r="D301" s="12"/>
       <c r="E301" s="12"/>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B302" s="9"/>
       <c r="C302" s="10"/>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B303" s="9"/>
       <c r="C303" s="10"/>
       <c r="D303" s="12"/>
       <c r="E303" s="12"/>
     </row>
-    <row r="304" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B304" s="9"/>
       <c r="C304" s="10"/>
       <c r="D304" s="13"/>
       <c r="E304" s="13"/>
     </row>
-    <row r="305" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B305" s="14" t="s">
         <v>4</v>
       </c>
@@ -9572,7 +9600,7 @@
       <c r="D305" s="15"/>
       <c r="E305" s="16"/>
     </row>
-    <row r="306" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B306" s="1" t="s">
         <v>0</v>
       </c>
@@ -9586,7 +9614,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="307" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B307" s="4" t="s">
         <v>2</v>
       </c>
@@ -9598,7 +9626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="308" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B308" s="28"/>
       <c r="C308" s="18" t="str">
         <f>(SUM(C309:C310)/4)&amp;" h"</f>
@@ -9609,19 +9637,19 @@
       </c>
       <c r="E308" s="19"/>
     </row>
-    <row r="309" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B309" s="9"/>
       <c r="C309" s="10"/>
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
     </row>
-    <row r="310" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B310" s="9"/>
       <c r="C310" s="10"/>
       <c r="D310" s="11"/>
       <c r="E310" s="11"/>
     </row>
-    <row r="311" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B311" s="28"/>
       <c r="C311" s="18" t="str">
         <f>(SUM(C312:C314)/4)&amp;" h"</f>
@@ -9632,25 +9660,25 @@
       </c>
       <c r="E311" s="19"/>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B312" s="9"/>
       <c r="C312" s="10"/>
       <c r="D312" s="22"/>
       <c r="E312" s="11"/>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B313" s="9"/>
       <c r="C313" s="10"/>
       <c r="D313" s="11"/>
       <c r="E313" s="11"/>
     </row>
-    <row r="314" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B314" s="9"/>
       <c r="C314" s="10"/>
       <c r="D314" s="22"/>
       <c r="E314" s="11"/>
     </row>
-    <row r="315" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B315" s="28"/>
       <c r="C315" s="18" t="str">
         <f>(SUM(C316:C317)/4)&amp;" h"</f>
@@ -9661,19 +9689,19 @@
       </c>
       <c r="E315" s="19"/>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B316" s="9"/>
       <c r="C316" s="10"/>
       <c r="D316" s="22"/>
       <c r="E316" s="11"/>
     </row>
-    <row r="317" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B317" s="9"/>
       <c r="C317" s="10"/>
       <c r="D317" s="11"/>
       <c r="E317" s="11"/>
     </row>
-    <row r="318" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B318" s="28"/>
       <c r="C318" s="18" t="str">
         <f>(SUM(C319:C321)/4)&amp;" h"</f>
@@ -9684,25 +9712,25 @@
       </c>
       <c r="E318" s="19"/>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B319" s="9"/>
       <c r="C319" s="10"/>
       <c r="D319" s="11"/>
       <c r="E319" s="12"/>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B320" s="9"/>
       <c r="C320" s="10"/>
       <c r="D320" s="12"/>
       <c r="E320" s="12"/>
     </row>
-    <row r="321" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B321" s="9"/>
       <c r="C321" s="10"/>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
     </row>
-    <row r="322" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B322" s="28"/>
       <c r="C322" s="18" t="str">
         <f>(SUM(C323:C326)/4)&amp;" h"</f>
@@ -9713,31 +9741,31 @@
       </c>
       <c r="E322" s="19"/>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B323" s="9"/>
       <c r="C323" s="10"/>
       <c r="D323" s="12"/>
       <c r="E323" s="12"/>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B324" s="9"/>
       <c r="C324" s="10"/>
       <c r="D324" s="12"/>
       <c r="E324" s="12"/>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B325" s="9"/>
       <c r="C325" s="10"/>
       <c r="D325" s="12"/>
       <c r="E325" s="12"/>
     </row>
-    <row r="326" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B326" s="9"/>
       <c r="C326" s="10"/>
       <c r="D326" s="13"/>
       <c r="E326" s="13"/>
     </row>
-    <row r="327" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B327" s="14" t="s">
         <v>4</v>
       </c>
@@ -9748,7 +9776,7 @@
       <c r="D327" s="15"/>
       <c r="E327" s="16"/>
     </row>
-    <row r="328" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B328" s="1" t="s">
         <v>0</v>
       </c>
@@ -9762,7 +9790,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="329" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B329" s="4" t="s">
         <v>2</v>
       </c>
@@ -9774,7 +9802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B330" s="28"/>
       <c r="C330" s="18" t="str">
         <f>(SUM(C331:C332)/4)&amp;" h"</f>
@@ -9785,19 +9813,19 @@
       </c>
       <c r="E330" s="19"/>
     </row>
-    <row r="331" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B331" s="9"/>
       <c r="C331" s="10"/>
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
     </row>
-    <row r="332" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B332" s="9"/>
       <c r="C332" s="10"/>
       <c r="D332" s="11"/>
       <c r="E332" s="11"/>
     </row>
-    <row r="333" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B333" s="28"/>
       <c r="C333" s="18" t="str">
         <f>(SUM(C334:C336)/4)&amp;" h"</f>
@@ -9808,25 +9836,25 @@
       </c>
       <c r="E333" s="19"/>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B334" s="9"/>
       <c r="C334" s="10"/>
       <c r="D334" s="22"/>
       <c r="E334" s="11"/>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B335" s="9"/>
       <c r="C335" s="10"/>
       <c r="D335" s="11"/>
       <c r="E335" s="11"/>
     </row>
-    <row r="336" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B336" s="9"/>
       <c r="C336" s="10"/>
       <c r="D336" s="22"/>
       <c r="E336" s="11"/>
     </row>
-    <row r="337" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B337" s="28"/>
       <c r="C337" s="18" t="str">
         <f>(SUM(C338:C339)/4)&amp;" h"</f>
@@ -9837,19 +9865,19 @@
       </c>
       <c r="E337" s="19"/>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B338" s="9"/>
       <c r="C338" s="10"/>
       <c r="D338" s="22"/>
       <c r="E338" s="11"/>
     </row>
-    <row r="339" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B339" s="9"/>
       <c r="C339" s="10"/>
       <c r="D339" s="11"/>
       <c r="E339" s="11"/>
     </row>
-    <row r="340" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B340" s="28"/>
       <c r="C340" s="18" t="str">
         <f>(SUM(C341:C343)/4)&amp;" h"</f>
@@ -9860,25 +9888,25 @@
       </c>
       <c r="E340" s="19"/>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B341" s="9"/>
       <c r="C341" s="10"/>
       <c r="D341" s="11"/>
       <c r="E341" s="12"/>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B342" s="9"/>
       <c r="C342" s="10"/>
       <c r="D342" s="12"/>
       <c r="E342" s="12"/>
     </row>
-    <row r="343" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B343" s="9"/>
       <c r="C343" s="10"/>
       <c r="D343" s="12"/>
       <c r="E343" s="12"/>
     </row>
-    <row r="344" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B344" s="28"/>
       <c r="C344" s="18" t="str">
         <f>(SUM(C345:C348)/4)&amp;" h"</f>
@@ -9889,31 +9917,31 @@
       </c>
       <c r="E344" s="19"/>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B345" s="9"/>
       <c r="C345" s="10"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B346" s="9"/>
       <c r="C346" s="10"/>
       <c r="D346" s="12"/>
       <c r="E346" s="12"/>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B347" s="9"/>
       <c r="C347" s="10"/>
       <c r="D347" s="12"/>
       <c r="E347" s="12"/>
     </row>
-    <row r="348" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B348" s="9"/>
       <c r="C348" s="10"/>
       <c r="D348" s="13"/>
       <c r="E348" s="13"/>
     </row>
-    <row r="349" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B349" s="14" t="s">
         <v>4</v>
       </c>
@@ -9924,7 +9952,7 @@
       <c r="D349" s="15"/>
       <c r="E349" s="16"/>
     </row>
-    <row r="350" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:5" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B350" s="1" t="s">
         <v>0</v>
       </c>
@@ -9938,7 +9966,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="351" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B351" s="4" t="s">
         <v>2</v>
       </c>
@@ -9950,7 +9978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="352" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B352" s="28"/>
       <c r="C352" s="18" t="str">
         <f>(SUM(C353:C354)/4)&amp;" h"</f>
@@ -9961,19 +9989,19 @@
       </c>
       <c r="E352" s="19"/>
     </row>
-    <row r="353" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="353" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B353" s="9"/>
       <c r="C353" s="10"/>
       <c r="D353" s="8"/>
       <c r="E353" s="8"/>
     </row>
-    <row r="354" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B354" s="9"/>
       <c r="C354" s="10"/>
       <c r="D354" s="11"/>
       <c r="E354" s="11"/>
     </row>
-    <row r="355" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B355" s="28"/>
       <c r="C355" s="18" t="str">
         <f>(SUM(C356:C358)/4)&amp;" h"</f>
@@ -9984,25 +10012,25 @@
       </c>
       <c r="E355" s="19"/>
     </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B356" s="9"/>
       <c r="C356" s="10"/>
       <c r="D356" s="22"/>
       <c r="E356" s="11"/>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B357" s="9"/>
       <c r="C357" s="10"/>
       <c r="D357" s="11"/>
       <c r="E357" s="11"/>
     </row>
-    <row r="358" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B358" s="9"/>
       <c r="C358" s="10"/>
       <c r="D358" s="22"/>
       <c r="E358" s="11"/>
     </row>
-    <row r="359" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B359" s="28"/>
       <c r="C359" s="18" t="str">
         <f>(SUM(C360:C361)/4)&amp;" h"</f>
@@ -10013,19 +10041,19 @@
       </c>
       <c r="E359" s="19"/>
     </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B360" s="9"/>
       <c r="C360" s="10"/>
       <c r="D360" s="22"/>
       <c r="E360" s="11"/>
     </row>
-    <row r="361" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B361" s="9"/>
       <c r="C361" s="10"/>
       <c r="D361" s="11"/>
       <c r="E361" s="11"/>
     </row>
-    <row r="362" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B362" s="28"/>
       <c r="C362" s="18" t="str">
         <f>(SUM(C363:C365)/4)&amp;" h"</f>
@@ -10036,25 +10064,25 @@
       </c>
       <c r="E362" s="19"/>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B363" s="9"/>
       <c r="C363" s="10"/>
       <c r="D363" s="11"/>
       <c r="E363" s="12"/>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B364" s="9"/>
       <c r="C364" s="10"/>
       <c r="D364" s="12"/>
       <c r="E364" s="12"/>
     </row>
-    <row r="365" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B365" s="9"/>
       <c r="C365" s="10"/>
       <c r="D365" s="12"/>
       <c r="E365" s="12"/>
     </row>
-    <row r="366" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B366" s="28"/>
       <c r="C366" s="18" t="str">
         <f>(SUM(C367:C370)/4)&amp;" h"</f>
@@ -10065,31 +10093,31 @@
       </c>
       <c r="E366" s="19"/>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B367" s="9"/>
       <c r="C367" s="10"/>
       <c r="D367" s="12"/>
       <c r="E367" s="12"/>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B368" s="9"/>
       <c r="C368" s="10"/>
       <c r="D368" s="12"/>
       <c r="E368" s="12"/>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B369" s="9"/>
       <c r="C369" s="10"/>
       <c r="D369" s="12"/>
       <c r="E369" s="12"/>
     </row>
-    <row r="370" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B370" s="9"/>
       <c r="C370" s="10"/>
       <c r="D370" s="13"/>
       <c r="E370" s="13"/>
     </row>
-    <row r="371" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B371" s="14" t="s">
         <v>4</v>
       </c>

--- a/Documentation Hermès/PROJ-JournalTravail-GoupeA.xlsx
+++ b/Documentation Hermès/PROJ-JournalTravail-GoupeA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\OneDrive\Documents\GitHub\PROJ\Documentation Hermès\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13642D5D-3D7B-4B4F-914C-C34049837CF8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CBACAD-BD06-4A79-B1EA-DAFD2EA3AA56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="62">
   <si>
     <t>Semaine</t>
   </si>
@@ -220,6 +220,15 @@
   </si>
   <si>
     <t>Use case wishlist</t>
+  </si>
+  <si>
+    <t>API MovieToGo</t>
+  </si>
+  <si>
+    <t>APIMovieToGo</t>
+  </si>
+  <si>
+    <t>Coneption de test</t>
   </si>
 </sst>
 </file>
@@ -4060,7 +4069,7 @@
   <dimension ref="B1:J371"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7119,8 +7128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0EDBDF-DD0E-4519-9118-352C1F413B22}">
   <dimension ref="B1:J371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7528,7 +7537,7 @@
       <c r="B42" s="28"/>
       <c r="C42" s="18" t="str">
         <f>(SUM(C43:C45)/4)&amp;" h"</f>
-        <v>0 h</v>
+        <v>1 h</v>
       </c>
       <c r="D42" s="29" t="s">
         <v>6</v>
@@ -7536,15 +7545,25 @@
       <c r="E42" s="19"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="9"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="22"/>
+      <c r="B43" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="E43" s="11"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="11"/>
+      <c r="C44" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>35</v>
+      </c>
       <c r="E44" s="11"/>
     </row>
     <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7557,17 +7576,23 @@
       <c r="B46" s="28"/>
       <c r="C46" s="18" t="str">
         <f>(SUM(C47:C48)/4)&amp;" h"</f>
-        <v>0 h</v>
+        <v>1 h</v>
       </c>
       <c r="D46" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="22"/>
+    <row r="47" spans="2:5" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="B47" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" s="10">
+        <v>4</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="E47" s="11"/>
     </row>
     <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7623,14 +7648,14 @@
       <c r="C54" s="10">
         <v>2</v>
       </c>
+      <c r="D54" s="12" t="s">
+        <v>38</v>
+      </c>
       <c r="E54" s="12"/>
     </row>
     <row r="55" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
-      <c r="D55" s="12" t="s">
-        <v>38</v>
-      </c>
       <c r="E55" s="12"/>
     </row>
     <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7703,7 +7728,7 @@
       </c>
       <c r="C66" s="14">
         <f>SUM(C39:C41,C43:C45,C47:C48,C50:C52,C54:C56,C58:C60,C62:C65)</f>
-        <v>4.5</v>
+        <v>12.5</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="16"/>
@@ -7854,7 +7879,7 @@
       <c r="B83" s="28"/>
       <c r="C83" s="18" t="str">
         <f>(SUM(C84:C96)/4)&amp;" h"</f>
-        <v>0 h</v>
+        <v>1,25 h</v>
       </c>
       <c r="D83" s="29" t="s">
         <v>9</v>
@@ -7888,14 +7913,22 @@
       <c r="E87" s="19"/>
     </row>
     <row r="88" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B88" s="33"/>
-      <c r="C88" s="10"/>
+      <c r="B88" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88" s="10">
+        <v>1</v>
+      </c>
       <c r="D88" s="12"/>
       <c r="E88" s="12"/>
     </row>
     <row r="89" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B89" s="33"/>
-      <c r="C89" s="10"/>
+      <c r="B89" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C89" s="10">
+        <v>1</v>
+      </c>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
     </row>
@@ -7914,8 +7947,12 @@
       <c r="E91" s="19"/>
     </row>
     <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B92" s="33"/>
-      <c r="C92" s="10"/>
+      <c r="B92" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C92" s="10">
+        <v>3</v>
+      </c>
       <c r="D92" s="12"/>
       <c r="E92" s="12"/>
     </row>
@@ -7949,7 +7986,7 @@
       </c>
       <c r="C97" s="14">
         <f>SUM(C70:C71,C73:C75,C77:C78,C80:C82,C84:C86,C88:C90,C92:C96)</f>
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="16"/>

--- a/Documentation Hermès/PROJ-JournalTravail-GoupeA.xlsx
+++ b/Documentation Hermès/PROJ-JournalTravail-GoupeA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marco\OneDrive\Documents\GitHub\PROJ\Documentation Hermès\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55CBACAD-BD06-4A79-B1EA-DAFD2EA3AA56}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B54B29A-ADB4-42A0-A5A4-D2941E0A9E86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maxime" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="62">
   <si>
     <t>Semaine</t>
   </si>
@@ -4068,7 +4068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B31092-303D-4AAC-9350-B5A6115F269D}">
   <dimension ref="B1:J371"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
@@ -7128,8 +7128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C0EDBDF-DD0E-4519-9118-352C1F413B22}">
   <dimension ref="B1:J371"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7879,7 +7879,7 @@
       <c r="B83" s="28"/>
       <c r="C83" s="18" t="str">
         <f>(SUM(C84:C96)/4)&amp;" h"</f>
-        <v>1,25 h</v>
+        <v>2 h</v>
       </c>
       <c r="D83" s="29" t="s">
         <v>9</v>
@@ -7927,7 +7927,7 @@
         <v>61</v>
       </c>
       <c r="C89" s="10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
@@ -7957,8 +7957,12 @@
       <c r="E92" s="12"/>
     </row>
     <row r="93" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B93" s="9"/>
-      <c r="C93" s="10"/>
+      <c r="B93" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C93" s="10">
+        <v>2</v>
+      </c>
       <c r="D93" s="12"/>
       <c r="E93" s="12"/>
     </row>
@@ -7986,7 +7990,7 @@
       </c>
       <c r="C97" s="14">
         <f>SUM(C70:C71,C73:C75,C77:C78,C80:C82,C84:C86,C88:C90,C92:C96)</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D97" s="15"/>
       <c r="E97" s="16"/>

--- a/Documentation Hermès/PROJ-JournalTravail-GoupeA.xlsx
+++ b/Documentation Hermès/PROJ-JournalTravail-GoupeA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emix\Documents\GitHub\PROJ\Documentation Hermès\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Temp\ETML-ES\SIG2\Gerber\ProjetAPI\GitHub\PROJ\Documentation Hermès\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC17F9E4-9940-49B2-AA97-9FF0210B0877}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4867D701-E1B5-43D4-ADBD-C426DC17FC03}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="8680" windowWidth="21600" windowHeight="11930" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Maxime" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="NbPerWeek">[1]Donnees!$C$12</definedName>
     <definedName name="NbQuartPer">[1]Donnees!$C$13</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="119">
   <si>
     <t>Semaine</t>
   </si>
@@ -397,6 +397,9 @@
   <si>
     <t>Grosse erreur de manipulation: Prototype corrompu, impossible de le récupérer.
 Prototype recommencé et terminé avec retour après une connexion réussie</t>
+  </si>
+  <si>
+    <t>Trello</t>
   </si>
 </sst>
 </file>
@@ -1222,20 +1225,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J374"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D85" sqref="D85"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B111" sqref="B111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.6328125" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.36328125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="30.453125" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.42578125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1249,7 +1252,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -1265,7 +1268,7 @@
       <c r="I3" s="45"/>
       <c r="J3" s="45"/>
     </row>
-    <row r="4" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="18"/>
       <c r="D4" s="26" t="s">
@@ -1277,7 +1280,7 @@
       <c r="I4" s="45"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="5" spans="2:10" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
@@ -1293,7 +1296,7 @@
       <c r="I5" s="45"/>
       <c r="J5" s="45"/>
     </row>
-    <row r="6" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
@@ -1309,7 +1312,7 @@
       <c r="I6" s="45"/>
       <c r="J6" s="45"/>
     </row>
-    <row r="7" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>14</v>
       </c>
@@ -1325,7 +1328,7 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>27</v>
       </c>
@@ -1337,7 +1340,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
         <v>29</v>
       </c>
@@ -1347,7 +1350,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="28"/>
       <c r="C10" s="18"/>
       <c r="D10" s="26" t="s">
@@ -1355,7 +1358,7 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:10" ht="26" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>12</v>
       </c>
@@ -1367,7 +1370,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
         <v>12</v>
       </c>
@@ -1379,7 +1382,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
         <v>19</v>
       </c>
@@ -1391,7 +1394,7 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="28"/>
       <c r="C14" s="18"/>
       <c r="D14" s="26" t="s">
@@ -1399,31 +1402,31 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="22"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="28"/>
       <c r="C19" s="18"/>
       <c r="D19" s="26" t="s">
@@ -1431,7 +1434,7 @@
       </c>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
         <v>19</v>
       </c>
@@ -1443,13 +1446,13 @@
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="28"/>
       <c r="C22" s="18"/>
       <c r="D22" s="26" t="s">
@@ -1457,25 +1460,25 @@
       </c>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="28"/>
       <c r="C26" s="18"/>
       <c r="D26" s="29" t="s">
@@ -1483,7 +1486,7 @@
       </c>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="33" t="s">
         <v>24</v>
       </c>
@@ -1495,7 +1498,7 @@
       </c>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="2:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B28" s="33" t="s">
         <v>24</v>
       </c>
@@ -1507,13 +1510,13 @@
       </c>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="28"/>
       <c r="C30" s="18"/>
       <c r="D30" s="29" t="s">
@@ -1521,7 +1524,7 @@
       </c>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B31" s="33" t="s">
         <v>24</v>
       </c>
@@ -1533,19 +1536,19 @@
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
@@ -1556,13 +1559,13 @@
       <c r="D34" s="15"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="27"/>
       <c r="E35" s="17"/>
     </row>
-    <row r="36" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1579,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
@@ -1588,7 +1591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="28"/>
       <c r="C38" s="18"/>
       <c r="D38" s="26" t="s">
@@ -1596,7 +1599,7 @@
       </c>
       <c r="E38" s="19"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="33" t="s">
         <v>29</v>
       </c>
@@ -1606,7 +1609,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="34" t="s">
         <v>31</v>
       </c>
@@ -1618,13 +1621,13 @@
       </c>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="28"/>
       <c r="C42" s="18"/>
       <c r="D42" s="29" t="s">
@@ -1632,7 +1635,7 @@
       </c>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="34" t="s">
         <v>33</v>
       </c>
@@ -1644,7 +1647,7 @@
       </c>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
       <c r="C44" s="10">
         <v>0.5</v>
@@ -1654,13 +1657,13 @@
       </c>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="22"/>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="28"/>
       <c r="C46" s="18"/>
       <c r="D46" s="29" t="s">
@@ -1668,7 +1671,7 @@
       </c>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="2:5" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B47" s="34" t="s">
         <v>31</v>
       </c>
@@ -1680,13 +1683,13 @@
       </c>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="28"/>
       <c r="C49" s="18"/>
       <c r="D49" s="29" t="s">
@@ -1694,25 +1697,25 @@
       </c>
       <c r="E49" s="19"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
       <c r="D50" s="11"/>
       <c r="E50" s="12"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
     </row>
-    <row r="53" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="28"/>
       <c r="C53" s="18"/>
       <c r="D53" s="29" t="s">
@@ -1720,7 +1723,7 @@
       </c>
       <c r="E53" s="19"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
         <v>37</v>
       </c>
@@ -1732,7 +1735,7 @@
       </c>
       <c r="E54" s="12"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
         <v>75</v>
       </c>
@@ -1744,13 +1747,13 @@
       </c>
       <c r="E55" s="12"/>
     </row>
-    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="28"/>
       <c r="C57" s="18"/>
       <c r="D57" s="29" t="s">
@@ -1758,7 +1761,7 @@
       </c>
       <c r="E57" s="19"/>
     </row>
-    <row r="58" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
         <v>46</v>
       </c>
@@ -1770,19 +1773,19 @@
       </c>
       <c r="E58" s="12"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="33"/>
       <c r="C59" s="10"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
     </row>
-    <row r="61" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="28"/>
       <c r="C61" s="18"/>
       <c r="D61" s="29" t="s">
@@ -1790,31 +1793,31 @@
       </c>
       <c r="E61" s="19"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="33"/>
       <c r="C62" s="10"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
     </row>
-    <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
     </row>
-    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>4</v>
       </c>
@@ -1825,7 +1828,7 @@
       <c r="D66" s="15"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
@@ -1851,7 +1854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="28"/>
       <c r="C69" s="18"/>
       <c r="D69" s="29" t="s">
@@ -1859,7 +1862,7 @@
       </c>
       <c r="E69" s="19"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
         <v>41</v>
       </c>
@@ -1871,7 +1874,7 @@
       </c>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B71" s="9" t="s">
         <v>49</v>
       </c>
@@ -1881,7 +1884,7 @@
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
     </row>
-    <row r="72" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="9" t="s">
         <v>48</v>
       </c>
@@ -1893,7 +1896,7 @@
       </c>
       <c r="E72" s="11"/>
     </row>
-    <row r="73" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="28"/>
       <c r="C73" s="18"/>
       <c r="D73" s="29" t="s">
@@ -1901,7 +1904,7 @@
       </c>
       <c r="E73" s="19"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
         <v>51</v>
       </c>
@@ -1913,7 +1916,7 @@
       </c>
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B75" s="9" t="s">
         <v>41</v>
       </c>
@@ -1925,7 +1928,7 @@
       </c>
       <c r="E75" s="11"/>
     </row>
-    <row r="76" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="9" t="s">
         <v>53</v>
       </c>
@@ -1937,7 +1940,7 @@
       </c>
       <c r="E76" s="11"/>
     </row>
-    <row r="77" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B77" s="28"/>
       <c r="C77" s="18"/>
       <c r="D77" s="29" t="s">
@@ -1945,7 +1948,7 @@
       </c>
       <c r="E77" s="19"/>
     </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B78" s="9" t="s">
         <v>71</v>
       </c>
@@ -1957,7 +1960,7 @@
       </c>
       <c r="E78" s="11"/>
     </row>
-    <row r="79" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="9" t="s">
         <v>77</v>
       </c>
@@ -1969,7 +1972,7 @@
       </c>
       <c r="E79" s="11"/>
     </row>
-    <row r="80" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B80" s="28"/>
       <c r="C80" s="18"/>
       <c r="D80" s="29" t="s">
@@ -1977,7 +1980,7 @@
       </c>
       <c r="E80" s="19"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
         <v>61</v>
       </c>
@@ -1989,7 +1992,7 @@
       </c>
       <c r="E81" s="12"/>
     </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B82" s="9" t="s">
         <v>63</v>
       </c>
@@ -2001,7 +2004,7 @@
       </c>
       <c r="E82" s="12"/>
     </row>
-    <row r="83" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="9" t="s">
         <v>65</v>
       </c>
@@ -2013,7 +2016,7 @@
       </c>
       <c r="E83" s="12"/>
     </row>
-    <row r="84" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="28"/>
       <c r="C84" s="18"/>
       <c r="D84" s="29" t="s">
@@ -2021,7 +2024,7 @@
       </c>
       <c r="E84" s="19"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
         <v>65</v>
       </c>
@@ -2033,7 +2036,7 @@
       </c>
       <c r="E85" s="12"/>
     </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B86" s="9" t="s">
         <v>68</v>
       </c>
@@ -2043,7 +2046,7 @@
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
     </row>
-    <row r="87" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="9" t="s">
         <v>79</v>
       </c>
@@ -2055,7 +2058,7 @@
       </c>
       <c r="E87" s="12"/>
     </row>
-    <row r="88" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="28"/>
       <c r="C88" s="18"/>
       <c r="D88" s="29" t="s">
@@ -2063,7 +2066,7 @@
       </c>
       <c r="E88" s="19"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="9" t="s">
         <v>70</v>
       </c>
@@ -2075,7 +2078,7 @@
       </c>
       <c r="E89" s="12"/>
     </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B90" s="9" t="s">
         <v>71</v>
       </c>
@@ -2087,7 +2090,7 @@
       </c>
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="9" t="s">
         <v>70</v>
       </c>
@@ -2099,7 +2102,7 @@
       </c>
       <c r="E91" s="12"/>
     </row>
-    <row r="92" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="28"/>
       <c r="C92" s="18"/>
       <c r="D92" s="29" t="s">
@@ -2107,7 +2110,7 @@
       </c>
       <c r="E92" s="19"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="39" t="s">
         <v>53</v>
       </c>
@@ -2119,31 +2122,31 @@
       </c>
       <c r="E93" s="12"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="9"/>
       <c r="C94" s="10"/>
       <c r="D94" s="12"/>
       <c r="E94" s="12"/>
     </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B95" s="9"/>
       <c r="C95" s="10"/>
       <c r="D95" s="12"/>
       <c r="E95" s="12"/>
     </row>
-    <row r="96" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="9"/>
       <c r="C96" s="10"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
     </row>
-    <row r="97" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="9"/>
       <c r="C97" s="10"/>
       <c r="D97" s="13"/>
       <c r="E97" s="13"/>
     </row>
-    <row r="98" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="14" t="s">
         <v>4</v>
       </c>
@@ -2154,7 +2157,7 @@
       <c r="D98" s="15"/>
       <c r="E98" s="16"/>
     </row>
-    <row r="99" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
         <v>0</v>
       </c>
@@ -2168,7 +2171,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="4" t="s">
         <v>2</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="28"/>
       <c r="C101" s="18"/>
       <c r="D101" s="29" t="s">
@@ -2188,7 +2191,7 @@
       </c>
       <c r="E101" s="19"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="9" t="s">
         <v>71</v>
       </c>
@@ -2200,7 +2203,7 @@
       </c>
       <c r="E102" s="8"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="9" t="s">
         <v>82</v>
       </c>
@@ -2212,7 +2215,7 @@
       </c>
       <c r="E103" s="20"/>
     </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="9" t="s">
         <v>85</v>
       </c>
@@ -2224,7 +2227,7 @@
       </c>
       <c r="E104" s="20"/>
     </row>
-    <row r="105" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="9" t="s">
         <v>81</v>
       </c>
@@ -2236,7 +2239,7 @@
       </c>
       <c r="E105" s="11"/>
     </row>
-    <row r="106" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B106" s="28"/>
       <c r="C106" s="18"/>
       <c r="D106" s="29" t="s">
@@ -2244,25 +2247,31 @@
       </c>
       <c r="E106" s="19"/>
     </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.35">
-      <c r="B107" s="9"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="22"/>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C107" s="10">
+        <v>3</v>
+      </c>
+      <c r="D107" s="22" t="s">
+        <v>51</v>
+      </c>
       <c r="E107" s="11"/>
     </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B108" s="9"/>
       <c r="C108" s="10"/>
       <c r="D108" s="11"/>
       <c r="E108" s="11"/>
     </row>
-    <row r="109" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B109" s="9"/>
       <c r="C109" s="10"/>
       <c r="D109" s="22"/>
       <c r="E109" s="11"/>
     </row>
-    <row r="110" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="28"/>
       <c r="C110" s="18"/>
       <c r="D110" s="29" t="s">
@@ -2270,19 +2279,19 @@
       </c>
       <c r="E110" s="19"/>
     </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="9"/>
       <c r="C111" s="10"/>
       <c r="D111" s="22"/>
       <c r="E111" s="11"/>
     </row>
-    <row r="112" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="9"/>
       <c r="C112" s="10"/>
       <c r="D112" s="11"/>
       <c r="E112" s="11"/>
     </row>
-    <row r="113" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="113" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B113" s="28"/>
       <c r="C113" s="18"/>
       <c r="D113" s="29" t="s">
@@ -2290,25 +2299,25 @@
       </c>
       <c r="E113" s="19"/>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="9"/>
       <c r="C114" s="10"/>
       <c r="D114" s="11"/>
       <c r="E114" s="12"/>
     </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B115" s="9"/>
       <c r="C115" s="10"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
     </row>
-    <row r="116" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="9"/>
       <c r="C116" s="10"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
     </row>
-    <row r="117" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="117" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B117" s="28"/>
       <c r="C117" s="18"/>
       <c r="D117" s="29" t="s">
@@ -2316,25 +2325,25 @@
       </c>
       <c r="E117" s="19"/>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="9"/>
       <c r="C118" s="10"/>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
     </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="9"/>
       <c r="C119" s="10"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
     </row>
-    <row r="120" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="9"/>
       <c r="C120" s="10"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
     </row>
-    <row r="121" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="121" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B121" s="28"/>
       <c r="C121" s="18"/>
       <c r="D121" s="29" t="s">
@@ -2342,25 +2351,25 @@
       </c>
       <c r="E121" s="19"/>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="33"/>
       <c r="C122" s="10"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="33"/>
       <c r="C123" s="10"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
     </row>
-    <row r="124" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B124" s="9"/>
       <c r="C124" s="10"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
     </row>
-    <row r="125" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B125" s="28"/>
       <c r="C125" s="18"/>
       <c r="D125" s="29" t="s">
@@ -2368,54 +2377,54 @@
       </c>
       <c r="E125" s="19"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="33"/>
       <c r="C126" s="10"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="9"/>
       <c r="C127" s="10"/>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="9"/>
       <c r="C128" s="10"/>
       <c r="D128" s="12"/>
       <c r="E128" s="12"/>
     </row>
-    <row r="129" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B129" s="9"/>
       <c r="C129" s="10"/>
       <c r="D129" s="12"/>
       <c r="E129" s="12"/>
     </row>
-    <row r="130" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B130" s="9"/>
       <c r="C130" s="36"/>
       <c r="D130" s="38"/>
       <c r="E130" s="38"/>
     </row>
-    <row r="131" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="9"/>
       <c r="C131" s="10"/>
       <c r="D131" s="37"/>
       <c r="E131" s="37"/>
     </row>
-    <row r="132" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="14" t="s">
         <v>4</v>
       </c>
       <c r="C132" s="14">
         <f>SUM(C102:C105,C107:C109,C111:C112,C114:C116,C118:C120,C122:C124,C126:C131)</f>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D132" s="15"/>
       <c r="E132" s="16"/>
     </row>
-    <row r="133" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="1" t="s">
         <v>0</v>
       </c>
@@ -2429,7 +2438,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="134" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="134" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B134" s="4" t="s">
         <v>2</v>
       </c>
@@ -2441,7 +2450,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="28"/>
       <c r="C135" s="18" t="str">
         <f>(SUM(C136:C137)/4)&amp;" h"</f>
@@ -2452,19 +2461,19 @@
       </c>
       <c r="E135" s="19"/>
     </row>
-    <row r="136" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B136" s="9"/>
       <c r="C136" s="10"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
     </row>
-    <row r="137" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="9"/>
       <c r="C137" s="10"/>
       <c r="D137" s="11"/>
       <c r="E137" s="11"/>
     </row>
-    <row r="138" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="138" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B138" s="28"/>
       <c r="C138" s="18" t="str">
         <f>(SUM(C139:C141)/4)&amp;" h"</f>
@@ -2475,25 +2484,25 @@
       </c>
       <c r="E138" s="19"/>
     </row>
-    <row r="139" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B139" s="9"/>
       <c r="C139" s="10"/>
       <c r="D139" s="22"/>
       <c r="E139" s="11"/>
     </row>
-    <row r="140" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B140" s="9"/>
       <c r="C140" s="10"/>
       <c r="D140" s="11"/>
       <c r="E140" s="11"/>
     </row>
-    <row r="141" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="141" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B141" s="9"/>
       <c r="C141" s="10"/>
       <c r="D141" s="22"/>
       <c r="E141" s="11"/>
     </row>
-    <row r="142" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="28"/>
       <c r="C142" s="18" t="str">
         <f>(SUM(C143:C144)/4)&amp;" h"</f>
@@ -2504,19 +2513,19 @@
       </c>
       <c r="E142" s="19"/>
     </row>
-    <row r="143" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B143" s="9"/>
       <c r="C143" s="10"/>
       <c r="D143" s="22"/>
       <c r="E143" s="11"/>
     </row>
-    <row r="144" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="9"/>
       <c r="C144" s="10"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
     </row>
-    <row r="145" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="145" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B145" s="28"/>
       <c r="C145" s="18" t="str">
         <f>(SUM(C146:C148)/4)&amp;" h"</f>
@@ -2527,25 +2536,25 @@
       </c>
       <c r="E145" s="19"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="9"/>
       <c r="C146" s="10"/>
       <c r="D146" s="11"/>
       <c r="E146" s="12"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="9"/>
       <c r="C147" s="10"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
     </row>
-    <row r="148" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="10"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
     </row>
-    <row r="149" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="28"/>
       <c r="C149" s="18" t="str">
         <f>(SUM(C150:C153)/4)&amp;" h"</f>
@@ -2556,31 +2565,31 @@
       </c>
       <c r="E149" s="19"/>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="9"/>
       <c r="C150" s="10"/>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B151" s="9"/>
       <c r="C151" s="10"/>
       <c r="D151" s="12"/>
       <c r="E151" s="12"/>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B152" s="9"/>
       <c r="C152" s="10"/>
       <c r="D152" s="12"/>
       <c r="E152" s="12"/>
     </row>
-    <row r="153" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B153" s="9"/>
       <c r="C153" s="10"/>
       <c r="D153" s="13"/>
       <c r="E153" s="13"/>
     </row>
-    <row r="154" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154" s="14" t="s">
         <v>4</v>
       </c>
@@ -2591,7 +2600,7 @@
       <c r="D154" s="15"/>
       <c r="E154" s="16"/>
     </row>
-    <row r="155" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="1" t="s">
         <v>0</v>
       </c>
@@ -2605,7 +2614,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="156" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B156" s="4" t="s">
         <v>2</v>
       </c>
@@ -2617,7 +2626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="28"/>
       <c r="C157" s="18" t="str">
         <f>(SUM(C158:C159)/4)&amp;" h"</f>
@@ -2628,19 +2637,19 @@
       </c>
       <c r="E157" s="19"/>
     </row>
-    <row r="158" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B158" s="9"/>
       <c r="C158" s="10"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
     </row>
-    <row r="159" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B159" s="9"/>
       <c r="C159" s="10"/>
       <c r="D159" s="11"/>
       <c r="E159" s="11"/>
     </row>
-    <row r="160" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B160" s="28"/>
       <c r="C160" s="18" t="str">
         <f>(SUM(C161:C163)/4)&amp;" h"</f>
@@ -2651,25 +2660,25 @@
       </c>
       <c r="E160" s="19"/>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B161" s="9"/>
       <c r="C161" s="10"/>
       <c r="D161" s="22"/>
       <c r="E161" s="11"/>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B162" s="9"/>
       <c r="C162" s="10"/>
       <c r="D162" s="11"/>
       <c r="E162" s="11"/>
     </row>
-    <row r="163" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B163" s="9"/>
       <c r="C163" s="10"/>
       <c r="D163" s="22"/>
       <c r="E163" s="11"/>
     </row>
-    <row r="164" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B164" s="28"/>
       <c r="C164" s="18" t="str">
         <f>(SUM(C165:C166)/4)&amp;" h"</f>
@@ -2680,19 +2689,19 @@
       </c>
       <c r="E164" s="19"/>
     </row>
-    <row r="165" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B165" s="9"/>
       <c r="C165" s="10"/>
       <c r="D165" s="22"/>
       <c r="E165" s="11"/>
     </row>
-    <row r="166" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="9"/>
       <c r="C166" s="10"/>
       <c r="D166" s="11"/>
       <c r="E166" s="11"/>
     </row>
-    <row r="167" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="167" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B167" s="28"/>
       <c r="C167" s="18" t="str">
         <f>(SUM(C168:C170)/4)&amp;" h"</f>
@@ -2703,25 +2712,25 @@
       </c>
       <c r="E167" s="19"/>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="9"/>
       <c r="C168" s="10"/>
       <c r="D168" s="11"/>
       <c r="E168" s="12"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="9"/>
       <c r="C169" s="10"/>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
     </row>
-    <row r="170" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
       <c r="C170" s="10"/>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
     </row>
-    <row r="171" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B171" s="28"/>
       <c r="C171" s="18" t="str">
         <f>(SUM(C172:C175)/4)&amp;" h"</f>
@@ -2732,31 +2741,31 @@
       </c>
       <c r="E171" s="19"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="9"/>
       <c r="C172" s="10"/>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
     </row>
-    <row r="173" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B173" s="9"/>
       <c r="C173" s="10"/>
       <c r="D173" s="12"/>
       <c r="E173" s="12"/>
     </row>
-    <row r="174" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B174" s="9"/>
       <c r="C174" s="10"/>
       <c r="D174" s="12"/>
       <c r="E174" s="12"/>
     </row>
-    <row r="175" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B175" s="9"/>
       <c r="C175" s="10"/>
       <c r="D175" s="13"/>
       <c r="E175" s="13"/>
     </row>
-    <row r="176" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B176" s="14" t="s">
         <v>4</v>
       </c>
@@ -2767,7 +2776,7 @@
       <c r="D176" s="15"/>
       <c r="E176" s="16"/>
     </row>
-    <row r="177" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B177" s="1" t="s">
         <v>0</v>
       </c>
@@ -2781,7 +2790,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="178" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="178" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B178" s="4" t="s">
         <v>2</v>
       </c>
@@ -2793,7 +2802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="28"/>
       <c r="C179" s="18" t="str">
         <f>(SUM(C180:C181)/4)&amp;" h"</f>
@@ -2804,19 +2813,19 @@
       </c>
       <c r="E179" s="19"/>
     </row>
-    <row r="180" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B180" s="9"/>
       <c r="C180" s="10"/>
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
     </row>
-    <row r="181" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B181" s="9"/>
       <c r="C181" s="10"/>
       <c r="D181" s="11"/>
       <c r="E181" s="11"/>
     </row>
-    <row r="182" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="182" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B182" s="28"/>
       <c r="C182" s="18" t="str">
         <f>(SUM(C183:C185)/4)&amp;" h"</f>
@@ -2827,25 +2836,25 @@
       </c>
       <c r="E182" s="19"/>
     </row>
-    <row r="183" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B183" s="9"/>
       <c r="C183" s="10"/>
       <c r="D183" s="22"/>
       <c r="E183" s="11"/>
     </row>
-    <row r="184" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B184" s="9"/>
       <c r="C184" s="10"/>
       <c r="D184" s="11"/>
       <c r="E184" s="11"/>
     </row>
-    <row r="185" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="185" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B185" s="9"/>
       <c r="C185" s="10"/>
       <c r="D185" s="22"/>
       <c r="E185" s="11"/>
     </row>
-    <row r="186" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B186" s="28"/>
       <c r="C186" s="18" t="str">
         <f>(SUM(C187:C188)/4)&amp;" h"</f>
@@ -2856,19 +2865,19 @@
       </c>
       <c r="E186" s="19"/>
     </row>
-    <row r="187" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B187" s="9"/>
       <c r="C187" s="10"/>
       <c r="D187" s="22"/>
       <c r="E187" s="11"/>
     </row>
-    <row r="188" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B188" s="9"/>
       <c r="C188" s="10"/>
       <c r="D188" s="11"/>
       <c r="E188" s="11"/>
     </row>
-    <row r="189" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="189" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B189" s="28"/>
       <c r="C189" s="18" t="str">
         <f>(SUM(C190:C192)/4)&amp;" h"</f>
@@ -2879,25 +2888,25 @@
       </c>
       <c r="E189" s="19"/>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" s="9"/>
       <c r="C190" s="10"/>
       <c r="D190" s="11"/>
       <c r="E190" s="12"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="9"/>
       <c r="C191" s="10"/>
       <c r="D191" s="12"/>
       <c r="E191" s="12"/>
     </row>
-    <row r="192" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B192" s="9"/>
       <c r="C192" s="10"/>
       <c r="D192" s="12"/>
       <c r="E192" s="12"/>
     </row>
-    <row r="193" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B193" s="28"/>
       <c r="C193" s="18" t="str">
         <f>(SUM(C194:C197)/4)&amp;" h"</f>
@@ -2908,31 +2917,31 @@
       </c>
       <c r="E193" s="19"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="9"/>
       <c r="C194" s="10"/>
       <c r="D194" s="12"/>
       <c r="E194" s="12"/>
     </row>
-    <row r="195" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B195" s="9"/>
       <c r="C195" s="10"/>
       <c r="D195" s="12"/>
       <c r="E195" s="12"/>
     </row>
-    <row r="196" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B196" s="9"/>
       <c r="C196" s="10"/>
       <c r="D196" s="12"/>
       <c r="E196" s="12"/>
     </row>
-    <row r="197" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B197" s="9"/>
       <c r="C197" s="10"/>
       <c r="D197" s="13"/>
       <c r="E197" s="13"/>
     </row>
-    <row r="198" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B198" s="14" t="s">
         <v>4</v>
       </c>
@@ -2943,7 +2952,7 @@
       <c r="D198" s="15"/>
       <c r="E198" s="16"/>
     </row>
-    <row r="199" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B199" s="1" t="s">
         <v>0</v>
       </c>
@@ -2957,7 +2966,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="200" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="200" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B200" s="4" t="s">
         <v>2</v>
       </c>
@@ -2969,7 +2978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B201" s="28"/>
       <c r="C201" s="18" t="str">
         <f>(SUM(C202:C203)/4)&amp;" h"</f>
@@ -2980,19 +2989,19 @@
       </c>
       <c r="E201" s="19"/>
     </row>
-    <row r="202" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="202" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B202" s="9"/>
       <c r="C202" s="10"/>
       <c r="D202" s="8"/>
       <c r="E202" s="8"/>
     </row>
-    <row r="203" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B203" s="9"/>
       <c r="C203" s="10"/>
       <c r="D203" s="11"/>
       <c r="E203" s="11"/>
     </row>
-    <row r="204" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="204" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B204" s="28"/>
       <c r="C204" s="18" t="str">
         <f>(SUM(C205:C207)/4)&amp;" h"</f>
@@ -3003,25 +3012,25 @@
       </c>
       <c r="E204" s="19"/>
     </row>
-    <row r="205" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="205" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B205" s="9"/>
       <c r="C205" s="10"/>
       <c r="D205" s="22"/>
       <c r="E205" s="11"/>
     </row>
-    <row r="206" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="206" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B206" s="9"/>
       <c r="C206" s="10"/>
       <c r="D206" s="11"/>
       <c r="E206" s="11"/>
     </row>
-    <row r="207" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="207" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B207" s="9"/>
       <c r="C207" s="10"/>
       <c r="D207" s="22"/>
       <c r="E207" s="11"/>
     </row>
-    <row r="208" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B208" s="28"/>
       <c r="C208" s="18" t="str">
         <f>(SUM(C209:C210)/4)&amp;" h"</f>
@@ -3032,19 +3041,19 @@
       </c>
       <c r="E208" s="19"/>
     </row>
-    <row r="209" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="209" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B209" s="9"/>
       <c r="C209" s="10"/>
       <c r="D209" s="22"/>
       <c r="E209" s="11"/>
     </row>
-    <row r="210" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B210" s="9"/>
       <c r="C210" s="10"/>
       <c r="D210" s="11"/>
       <c r="E210" s="11"/>
     </row>
-    <row r="211" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="211" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B211" s="28"/>
       <c r="C211" s="18" t="str">
         <f>(SUM(C212:C214)/4)&amp;" h"</f>
@@ -3055,25 +3064,25 @@
       </c>
       <c r="E211" s="19"/>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B212" s="9"/>
       <c r="C212" s="10"/>
       <c r="D212" s="11"/>
       <c r="E212" s="12"/>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B213" s="9"/>
       <c r="C213" s="10"/>
       <c r="D213" s="12"/>
       <c r="E213" s="12"/>
     </row>
-    <row r="214" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="9"/>
       <c r="C214" s="10"/>
       <c r="D214" s="12"/>
       <c r="E214" s="12"/>
     </row>
-    <row r="215" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B215" s="28"/>
       <c r="C215" s="18" t="str">
         <f>(SUM(C216:C219)/4)&amp;" h"</f>
@@ -3084,31 +3093,31 @@
       </c>
       <c r="E215" s="19"/>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B216" s="9"/>
       <c r="C216" s="10"/>
       <c r="D216" s="12"/>
       <c r="E216" s="12"/>
     </row>
-    <row r="217" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="217" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B217" s="9"/>
       <c r="C217" s="10"/>
       <c r="D217" s="12"/>
       <c r="E217" s="12"/>
     </row>
-    <row r="218" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="218" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B218" s="9"/>
       <c r="C218" s="10"/>
       <c r="D218" s="12"/>
       <c r="E218" s="12"/>
     </row>
-    <row r="219" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B219" s="9"/>
       <c r="C219" s="10"/>
       <c r="D219" s="13"/>
       <c r="E219" s="13"/>
     </row>
-    <row r="220" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B220" s="14" t="s">
         <v>4</v>
       </c>
@@ -3119,7 +3128,7 @@
       <c r="D220" s="15"/>
       <c r="E220" s="16"/>
     </row>
-    <row r="221" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B221" s="1" t="s">
         <v>0</v>
       </c>
@@ -3133,7 +3142,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="222" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="222" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B222" s="4" t="s">
         <v>2</v>
       </c>
@@ -3145,7 +3154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="223" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B223" s="28"/>
       <c r="C223" s="18" t="str">
         <f>(SUM(C224:C225)/4)&amp;" h"</f>
@@ -3156,19 +3165,19 @@
       </c>
       <c r="E223" s="19"/>
     </row>
-    <row r="224" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="224" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B224" s="9"/>
       <c r="C224" s="10"/>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
     </row>
-    <row r="225" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B225" s="9"/>
       <c r="C225" s="10"/>
       <c r="D225" s="11"/>
       <c r="E225" s="11"/>
     </row>
-    <row r="226" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="226" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B226" s="28"/>
       <c r="C226" s="18" t="str">
         <f>(SUM(C227:C229)/4)&amp;" h"</f>
@@ -3179,25 +3188,25 @@
       </c>
       <c r="E226" s="19"/>
     </row>
-    <row r="227" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="227" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B227" s="9"/>
       <c r="C227" s="10"/>
       <c r="D227" s="22"/>
       <c r="E227" s="11"/>
     </row>
-    <row r="228" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="228" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B228" s="9"/>
       <c r="C228" s="10"/>
       <c r="D228" s="11"/>
       <c r="E228" s="11"/>
     </row>
-    <row r="229" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="229" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B229" s="9"/>
       <c r="C229" s="10"/>
       <c r="D229" s="22"/>
       <c r="E229" s="11"/>
     </row>
-    <row r="230" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B230" s="28"/>
       <c r="C230" s="18" t="str">
         <f>(SUM(C231:C232)/4)&amp;" h"</f>
@@ -3208,19 +3217,19 @@
       </c>
       <c r="E230" s="19"/>
     </row>
-    <row r="231" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="231" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B231" s="9"/>
       <c r="C231" s="10"/>
       <c r="D231" s="22"/>
       <c r="E231" s="11"/>
     </row>
-    <row r="232" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B232" s="9"/>
       <c r="C232" s="10"/>
       <c r="D232" s="11"/>
       <c r="E232" s="11"/>
     </row>
-    <row r="233" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="233" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B233" s="28"/>
       <c r="C233" s="18" t="str">
         <f>(SUM(C234:C236)/4)&amp;" h"</f>
@@ -3231,25 +3240,25 @@
       </c>
       <c r="E233" s="19"/>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B234" s="9"/>
       <c r="C234" s="10"/>
       <c r="D234" s="11"/>
       <c r="E234" s="12"/>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B235" s="9"/>
       <c r="C235" s="10"/>
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
     </row>
-    <row r="236" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B236" s="9"/>
       <c r="C236" s="10"/>
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
     </row>
-    <row r="237" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B237" s="28"/>
       <c r="C237" s="18" t="str">
         <f>(SUM(C238:C241)/4)&amp;" h"</f>
@@ -3260,31 +3269,31 @@
       </c>
       <c r="E237" s="19"/>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B238" s="9"/>
       <c r="C238" s="10"/>
       <c r="D238" s="12"/>
       <c r="E238" s="12"/>
     </row>
-    <row r="239" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="239" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B239" s="9"/>
       <c r="C239" s="10"/>
       <c r="D239" s="12"/>
       <c r="E239" s="12"/>
     </row>
-    <row r="240" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="240" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B240" s="9"/>
       <c r="C240" s="10"/>
       <c r="D240" s="12"/>
       <c r="E240" s="12"/>
     </row>
-    <row r="241" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B241" s="9"/>
       <c r="C241" s="10"/>
       <c r="D241" s="13"/>
       <c r="E241" s="13"/>
     </row>
-    <row r="242" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B242" s="14" t="s">
         <v>4</v>
       </c>
@@ -3295,7 +3304,7 @@
       <c r="D242" s="15"/>
       <c r="E242" s="16"/>
     </row>
-    <row r="243" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B243" s="1" t="s">
         <v>0</v>
       </c>
@@ -3307,7 +3316,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="244" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="244" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B244" s="4" t="s">
         <v>2</v>
       </c>
@@ -3319,7 +3328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B245" s="28"/>
       <c r="C245" s="18" t="str">
         <f>(SUM(C246:C247)/4)&amp;" h"</f>
@@ -3330,19 +3339,19 @@
       </c>
       <c r="E245" s="19"/>
     </row>
-    <row r="246" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="246" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B246" s="9"/>
       <c r="C246" s="10"/>
       <c r="D246" s="8"/>
       <c r="E246" s="8"/>
     </row>
-    <row r="247" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B247" s="9"/>
       <c r="C247" s="10"/>
       <c r="D247" s="11"/>
       <c r="E247" s="11"/>
     </row>
-    <row r="248" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="248" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B248" s="28"/>
       <c r="C248" s="18" t="str">
         <f>(SUM(C249:C251)/4)&amp;" h"</f>
@@ -3353,25 +3362,25 @@
       </c>
       <c r="E248" s="19"/>
     </row>
-    <row r="249" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="249" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B249" s="9"/>
       <c r="C249" s="10"/>
       <c r="D249" s="22"/>
       <c r="E249" s="11"/>
     </row>
-    <row r="250" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="250" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B250" s="9"/>
       <c r="C250" s="10"/>
       <c r="D250" s="11"/>
       <c r="E250" s="11"/>
     </row>
-    <row r="251" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="251" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B251" s="9"/>
       <c r="C251" s="10"/>
       <c r="D251" s="22"/>
       <c r="E251" s="11"/>
     </row>
-    <row r="252" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B252" s="28"/>
       <c r="C252" s="18" t="str">
         <f>(SUM(C253:C254)/4)&amp;" h"</f>
@@ -3382,19 +3391,19 @@
       </c>
       <c r="E252" s="19"/>
     </row>
-    <row r="253" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="253" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B253" s="9"/>
       <c r="C253" s="10"/>
       <c r="D253" s="22"/>
       <c r="E253" s="11"/>
     </row>
-    <row r="254" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B254" s="9"/>
       <c r="C254" s="10"/>
       <c r="D254" s="11"/>
       <c r="E254" s="11"/>
     </row>
-    <row r="255" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="255" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B255" s="28"/>
       <c r="C255" s="18" t="str">
         <f>(SUM(C256:C258)/4)&amp;" h"</f>
@@ -3405,25 +3414,25 @@
       </c>
       <c r="E255" s="19"/>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B256" s="9"/>
       <c r="C256" s="10"/>
       <c r="D256" s="11"/>
       <c r="E256" s="12"/>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B257" s="9"/>
       <c r="C257" s="10"/>
       <c r="D257" s="12"/>
       <c r="E257" s="12"/>
     </row>
-    <row r="258" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B258" s="9"/>
       <c r="C258" s="10"/>
       <c r="D258" s="12"/>
       <c r="E258" s="12"/>
     </row>
-    <row r="259" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B259" s="28"/>
       <c r="C259" s="18" t="str">
         <f>(SUM(C260:C263)/4)&amp;" h"</f>
@@ -3434,31 +3443,31 @@
       </c>
       <c r="E259" s="19"/>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B260" s="9"/>
       <c r="C260" s="10"/>
       <c r="D260" s="12"/>
       <c r="E260" s="12"/>
     </row>
-    <row r="261" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="261" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B261" s="9"/>
       <c r="C261" s="10"/>
       <c r="D261" s="12"/>
       <c r="E261" s="12"/>
     </row>
-    <row r="262" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="262" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B262" s="9"/>
       <c r="C262" s="10"/>
       <c r="D262" s="12"/>
       <c r="E262" s="12"/>
     </row>
-    <row r="263" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B263" s="9"/>
       <c r="C263" s="10"/>
       <c r="D263" s="13"/>
       <c r="E263" s="13"/>
     </row>
-    <row r="264" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B264" s="14" t="s">
         <v>4</v>
       </c>
@@ -3469,7 +3478,7 @@
       <c r="D264" s="15"/>
       <c r="E264" s="16"/>
     </row>
-    <row r="265" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B265" s="1" t="s">
         <v>0</v>
       </c>
@@ -3483,7 +3492,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="266" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B266" s="4" t="s">
         <v>2</v>
       </c>
@@ -3495,7 +3504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B267" s="28"/>
       <c r="C267" s="18" t="str">
         <f>(SUM(C268:C269)/4)&amp;" h"</f>
@@ -3506,19 +3515,19 @@
       </c>
       <c r="E267" s="19"/>
     </row>
-    <row r="268" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="268" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B268" s="9"/>
       <c r="C268" s="10"/>
       <c r="D268" s="8"/>
       <c r="E268" s="8"/>
     </row>
-    <row r="269" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B269" s="9"/>
       <c r="C269" s="10"/>
       <c r="D269" s="11"/>
       <c r="E269" s="11"/>
     </row>
-    <row r="270" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="270" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B270" s="28"/>
       <c r="C270" s="18" t="str">
         <f>(SUM(C271:C273)/4)&amp;" h"</f>
@@ -3529,25 +3538,25 @@
       </c>
       <c r="E270" s="19"/>
     </row>
-    <row r="271" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="271" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B271" s="9"/>
       <c r="C271" s="10"/>
       <c r="D271" s="22"/>
       <c r="E271" s="11"/>
     </row>
-    <row r="272" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="272" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B272" s="9"/>
       <c r="C272" s="10"/>
       <c r="D272" s="11"/>
       <c r="E272" s="11"/>
     </row>
-    <row r="273" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="273" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B273" s="9"/>
       <c r="C273" s="10"/>
       <c r="D273" s="22"/>
       <c r="E273" s="11"/>
     </row>
-    <row r="274" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B274" s="28"/>
       <c r="C274" s="18" t="str">
         <f>(SUM(C275:C276)/4)&amp;" h"</f>
@@ -3558,19 +3567,19 @@
       </c>
       <c r="E274" s="19"/>
     </row>
-    <row r="275" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B275" s="9"/>
       <c r="C275" s="10"/>
       <c r="D275" s="22"/>
       <c r="E275" s="11"/>
     </row>
-    <row r="276" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B276" s="9"/>
       <c r="C276" s="10"/>
       <c r="D276" s="11"/>
       <c r="E276" s="11"/>
     </row>
-    <row r="277" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="277" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B277" s="28"/>
       <c r="C277" s="18" t="str">
         <f>(SUM(C278:C280)/4)&amp;" h"</f>
@@ -3581,25 +3590,25 @@
       </c>
       <c r="E277" s="19"/>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" s="9"/>
       <c r="C278" s="10"/>
       <c r="D278" s="11"/>
       <c r="E278" s="12"/>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" s="9"/>
       <c r="C279" s="10"/>
       <c r="D279" s="12"/>
       <c r="E279" s="12"/>
     </row>
-    <row r="280" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B280" s="9"/>
       <c r="C280" s="10"/>
       <c r="D280" s="12"/>
       <c r="E280" s="12"/>
     </row>
-    <row r="281" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B281" s="28"/>
       <c r="C281" s="18" t="str">
         <f>(SUM(C282:C285)/4)&amp;" h"</f>
@@ -3610,31 +3619,31 @@
       </c>
       <c r="E281" s="19"/>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" s="9"/>
       <c r="C282" s="10"/>
       <c r="D282" s="12"/>
       <c r="E282" s="12"/>
     </row>
-    <row r="283" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B283" s="9"/>
       <c r="C283" s="10"/>
       <c r="D283" s="12"/>
       <c r="E283" s="12"/>
     </row>
-    <row r="284" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B284" s="9"/>
       <c r="C284" s="10"/>
       <c r="D284" s="12"/>
       <c r="E284" s="12"/>
     </row>
-    <row r="285" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B285" s="9"/>
       <c r="C285" s="10"/>
       <c r="D285" s="13"/>
       <c r="E285" s="13"/>
     </row>
-    <row r="286" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B286" s="14" t="s">
         <v>4</v>
       </c>
@@ -3645,7 +3654,7 @@
       <c r="D286" s="15"/>
       <c r="E286" s="16"/>
     </row>
-    <row r="287" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B287" s="1" t="s">
         <v>0</v>
       </c>
@@ -3659,7 +3668,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="288" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="288" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B288" s="4" t="s">
         <v>2</v>
       </c>
@@ -3671,7 +3680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="289" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B289" s="28"/>
       <c r="C289" s="18" t="str">
         <f>(SUM(C290:C291)/4)&amp;" h"</f>
@@ -3682,19 +3691,19 @@
       </c>
       <c r="E289" s="19"/>
     </row>
-    <row r="290" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B290" s="9"/>
       <c r="C290" s="10"/>
       <c r="D290" s="8"/>
       <c r="E290" s="8"/>
     </row>
-    <row r="291" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B291" s="9"/>
       <c r="C291" s="10"/>
       <c r="D291" s="11"/>
       <c r="E291" s="11"/>
     </row>
-    <row r="292" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="292" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B292" s="28"/>
       <c r="C292" s="18" t="str">
         <f>(SUM(C293:C295)/4)&amp;" h"</f>
@@ -3705,25 +3714,25 @@
       </c>
       <c r="E292" s="19"/>
     </row>
-    <row r="293" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B293" s="9"/>
       <c r="C293" s="10"/>
       <c r="D293" s="22"/>
       <c r="E293" s="11"/>
     </row>
-    <row r="294" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B294" s="9"/>
       <c r="C294" s="10"/>
       <c r="D294" s="11"/>
       <c r="E294" s="11"/>
     </row>
-    <row r="295" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="295" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B295" s="9"/>
       <c r="C295" s="10"/>
       <c r="D295" s="22"/>
       <c r="E295" s="11"/>
     </row>
-    <row r="296" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B296" s="28"/>
       <c r="C296" s="18" t="str">
         <f>(SUM(C297:C298)/4)&amp;" h"</f>
@@ -3734,19 +3743,19 @@
       </c>
       <c r="E296" s="19"/>
     </row>
-    <row r="297" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B297" s="9"/>
       <c r="C297" s="10"/>
       <c r="D297" s="22"/>
       <c r="E297" s="11"/>
     </row>
-    <row r="298" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B298" s="9"/>
       <c r="C298" s="10"/>
       <c r="D298" s="11"/>
       <c r="E298" s="11"/>
     </row>
-    <row r="299" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="299" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B299" s="28"/>
       <c r="C299" s="18" t="str">
         <f>(SUM(C300:C302)/4)&amp;" h"</f>
@@ -3757,25 +3766,25 @@
       </c>
       <c r="E299" s="19"/>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300" s="9"/>
       <c r="C300" s="10"/>
       <c r="D300" s="11"/>
       <c r="E300" s="12"/>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301" s="9"/>
       <c r="C301" s="10"/>
       <c r="D301" s="12"/>
       <c r="E301" s="12"/>
     </row>
-    <row r="302" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B302" s="9"/>
       <c r="C302" s="10"/>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
     </row>
-    <row r="303" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B303" s="28"/>
       <c r="C303" s="18" t="str">
         <f>(SUM(C304:C307)/4)&amp;" h"</f>
@@ -3786,31 +3795,31 @@
       </c>
       <c r="E303" s="19"/>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304" s="9"/>
       <c r="C304" s="10"/>
       <c r="D304" s="12"/>
       <c r="E304" s="12"/>
     </row>
-    <row r="305" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="305" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B305" s="9"/>
       <c r="C305" s="10"/>
       <c r="D305" s="12"/>
       <c r="E305" s="12"/>
     </row>
-    <row r="306" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="306" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B306" s="9"/>
       <c r="C306" s="10"/>
       <c r="D306" s="12"/>
       <c r="E306" s="12"/>
     </row>
-    <row r="307" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B307" s="9"/>
       <c r="C307" s="10"/>
       <c r="D307" s="13"/>
       <c r="E307" s="13"/>
     </row>
-    <row r="308" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B308" s="14" t="s">
         <v>4</v>
       </c>
@@ -3821,7 +3830,7 @@
       <c r="D308" s="15"/>
       <c r="E308" s="16"/>
     </row>
-    <row r="309" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B309" s="1" t="s">
         <v>0</v>
       </c>
@@ -3835,7 +3844,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="310" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="310" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B310" s="4" t="s">
         <v>2</v>
       </c>
@@ -3847,7 +3856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="311" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B311" s="28"/>
       <c r="C311" s="18" t="str">
         <f>(SUM(C312:C313)/4)&amp;" h"</f>
@@ -3858,19 +3867,19 @@
       </c>
       <c r="E311" s="19"/>
     </row>
-    <row r="312" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="312" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B312" s="9"/>
       <c r="C312" s="10"/>
       <c r="D312" s="8"/>
       <c r="E312" s="8"/>
     </row>
-    <row r="313" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B313" s="9"/>
       <c r="C313" s="10"/>
       <c r="D313" s="11"/>
       <c r="E313" s="11"/>
     </row>
-    <row r="314" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B314" s="28"/>
       <c r="C314" s="18" t="str">
         <f>(SUM(C315:C317)/4)&amp;" h"</f>
@@ -3881,25 +3890,25 @@
       </c>
       <c r="E314" s="19"/>
     </row>
-    <row r="315" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="315" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B315" s="9"/>
       <c r="C315" s="10"/>
       <c r="D315" s="22"/>
       <c r="E315" s="11"/>
     </row>
-    <row r="316" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="316" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B316" s="9"/>
       <c r="C316" s="10"/>
       <c r="D316" s="11"/>
       <c r="E316" s="11"/>
     </row>
-    <row r="317" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B317" s="9"/>
       <c r="C317" s="10"/>
       <c r="D317" s="22"/>
       <c r="E317" s="11"/>
     </row>
-    <row r="318" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B318" s="28"/>
       <c r="C318" s="18" t="str">
         <f>(SUM(C319:C320)/4)&amp;" h"</f>
@@ -3910,19 +3919,19 @@
       </c>
       <c r="E318" s="19"/>
     </row>
-    <row r="319" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="319" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B319" s="9"/>
       <c r="C319" s="10"/>
       <c r="D319" s="22"/>
       <c r="E319" s="11"/>
     </row>
-    <row r="320" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B320" s="9"/>
       <c r="C320" s="10"/>
       <c r="D320" s="11"/>
       <c r="E320" s="11"/>
     </row>
-    <row r="321" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="321" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B321" s="28"/>
       <c r="C321" s="18" t="str">
         <f>(SUM(C322:C324)/4)&amp;" h"</f>
@@ -3933,25 +3942,25 @@
       </c>
       <c r="E321" s="19"/>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B322" s="9"/>
       <c r="C322" s="10"/>
       <c r="D322" s="11"/>
       <c r="E322" s="12"/>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B323" s="9"/>
       <c r="C323" s="10"/>
       <c r="D323" s="12"/>
       <c r="E323" s="12"/>
     </row>
-    <row r="324" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B324" s="9"/>
       <c r="C324" s="10"/>
       <c r="D324" s="12"/>
       <c r="E324" s="12"/>
     </row>
-    <row r="325" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B325" s="28"/>
       <c r="C325" s="18" t="str">
         <f>(SUM(C326:C329)/4)&amp;" h"</f>
@@ -3962,31 +3971,31 @@
       </c>
       <c r="E325" s="19"/>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B326" s="9"/>
       <c r="C326" s="10"/>
       <c r="D326" s="12"/>
       <c r="E326" s="12"/>
     </row>
-    <row r="327" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="327" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B327" s="9"/>
       <c r="C327" s="10"/>
       <c r="D327" s="12"/>
       <c r="E327" s="12"/>
     </row>
-    <row r="328" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="328" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B328" s="9"/>
       <c r="C328" s="10"/>
       <c r="D328" s="12"/>
       <c r="E328" s="12"/>
     </row>
-    <row r="329" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B329" s="9"/>
       <c r="C329" s="10"/>
       <c r="D329" s="13"/>
       <c r="E329" s="13"/>
     </row>
-    <row r="330" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B330" s="14" t="s">
         <v>4</v>
       </c>
@@ -3997,7 +4006,7 @@
       <c r="D330" s="15"/>
       <c r="E330" s="16"/>
     </row>
-    <row r="331" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B331" s="1" t="s">
         <v>0</v>
       </c>
@@ -4011,7 +4020,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="332" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="332" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B332" s="4" t="s">
         <v>2</v>
       </c>
@@ -4023,7 +4032,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="333" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B333" s="28"/>
       <c r="C333" s="18" t="str">
         <f>(SUM(C334:C335)/4)&amp;" h"</f>
@@ -4034,19 +4043,19 @@
       </c>
       <c r="E333" s="19"/>
     </row>
-    <row r="334" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B334" s="9"/>
       <c r="C334" s="10"/>
       <c r="D334" s="8"/>
       <c r="E334" s="8"/>
     </row>
-    <row r="335" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B335" s="9"/>
       <c r="C335" s="10"/>
       <c r="D335" s="11"/>
       <c r="E335" s="11"/>
     </row>
-    <row r="336" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="336" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B336" s="28"/>
       <c r="C336" s="18" t="str">
         <f>(SUM(C337:C339)/4)&amp;" h"</f>
@@ -4057,25 +4066,25 @@
       </c>
       <c r="E336" s="19"/>
     </row>
-    <row r="337" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="337" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B337" s="9"/>
       <c r="C337" s="10"/>
       <c r="D337" s="22"/>
       <c r="E337" s="11"/>
     </row>
-    <row r="338" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="338" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B338" s="9"/>
       <c r="C338" s="10"/>
       <c r="D338" s="11"/>
       <c r="E338" s="11"/>
     </row>
-    <row r="339" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="339" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B339" s="9"/>
       <c r="C339" s="10"/>
       <c r="D339" s="22"/>
       <c r="E339" s="11"/>
     </row>
-    <row r="340" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B340" s="28"/>
       <c r="C340" s="18" t="str">
         <f>(SUM(C341:C342)/4)&amp;" h"</f>
@@ -4086,19 +4095,19 @@
       </c>
       <c r="E340" s="19"/>
     </row>
-    <row r="341" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="341" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B341" s="9"/>
       <c r="C341" s="10"/>
       <c r="D341" s="22"/>
       <c r="E341" s="11"/>
     </row>
-    <row r="342" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B342" s="9"/>
       <c r="C342" s="10"/>
       <c r="D342" s="11"/>
       <c r="E342" s="11"/>
     </row>
-    <row r="343" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="343" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B343" s="28"/>
       <c r="C343" s="18" t="str">
         <f>(SUM(C344:C346)/4)&amp;" h"</f>
@@ -4109,25 +4118,25 @@
       </c>
       <c r="E343" s="19"/>
     </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B344" s="9"/>
       <c r="C344" s="10"/>
       <c r="D344" s="11"/>
       <c r="E344" s="12"/>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B345" s="9"/>
       <c r="C345" s="10"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
     </row>
-    <row r="346" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B346" s="9"/>
       <c r="C346" s="10"/>
       <c r="D346" s="12"/>
       <c r="E346" s="12"/>
     </row>
-    <row r="347" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B347" s="28"/>
       <c r="C347" s="18" t="str">
         <f>(SUM(C348:C351)/4)&amp;" h"</f>
@@ -4138,31 +4147,31 @@
       </c>
       <c r="E347" s="19"/>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B348" s="9"/>
       <c r="C348" s="10"/>
       <c r="D348" s="12"/>
       <c r="E348" s="12"/>
     </row>
-    <row r="349" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="349" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B349" s="9"/>
       <c r="C349" s="10"/>
       <c r="D349" s="12"/>
       <c r="E349" s="12"/>
     </row>
-    <row r="350" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="350" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B350" s="9"/>
       <c r="C350" s="10"/>
       <c r="D350" s="12"/>
       <c r="E350" s="12"/>
     </row>
-    <row r="351" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B351" s="9"/>
       <c r="C351" s="10"/>
       <c r="D351" s="13"/>
       <c r="E351" s="13"/>
     </row>
-    <row r="352" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B352" s="14" t="s">
         <v>4</v>
       </c>
@@ -4173,7 +4182,7 @@
       <c r="D352" s="15"/>
       <c r="E352" s="16"/>
     </row>
-    <row r="353" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B353" s="1" t="s">
         <v>0</v>
       </c>
@@ -4187,7 +4196,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="354" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="354" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B354" s="4" t="s">
         <v>2</v>
       </c>
@@ -4199,7 +4208,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="355" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B355" s="28"/>
       <c r="C355" s="18" t="str">
         <f>(SUM(C356:C357)/4)&amp;" h"</f>
@@ -4210,19 +4219,19 @@
       </c>
       <c r="E355" s="19"/>
     </row>
-    <row r="356" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="356" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B356" s="9"/>
       <c r="C356" s="10"/>
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
     </row>
-    <row r="357" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B357" s="9"/>
       <c r="C357" s="10"/>
       <c r="D357" s="11"/>
       <c r="E357" s="11"/>
     </row>
-    <row r="358" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="358" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B358" s="28"/>
       <c r="C358" s="18" t="str">
         <f>(SUM(C359:C361)/4)&amp;" h"</f>
@@ -4233,25 +4242,25 @@
       </c>
       <c r="E358" s="19"/>
     </row>
-    <row r="359" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="359" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B359" s="9"/>
       <c r="C359" s="10"/>
       <c r="D359" s="22"/>
       <c r="E359" s="11"/>
     </row>
-    <row r="360" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="360" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B360" s="9"/>
       <c r="C360" s="10"/>
       <c r="D360" s="11"/>
       <c r="E360" s="11"/>
     </row>
-    <row r="361" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="361" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B361" s="9"/>
       <c r="C361" s="10"/>
       <c r="D361" s="22"/>
       <c r="E361" s="11"/>
     </row>
-    <row r="362" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B362" s="28"/>
       <c r="C362" s="18" t="str">
         <f>(SUM(C363:C364)/4)&amp;" h"</f>
@@ -4262,19 +4271,19 @@
       </c>
       <c r="E362" s="19"/>
     </row>
-    <row r="363" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="363" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B363" s="9"/>
       <c r="C363" s="10"/>
       <c r="D363" s="22"/>
       <c r="E363" s="11"/>
     </row>
-    <row r="364" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B364" s="9"/>
       <c r="C364" s="10"/>
       <c r="D364" s="11"/>
       <c r="E364" s="11"/>
     </row>
-    <row r="365" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="365" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B365" s="28"/>
       <c r="C365" s="18" t="str">
         <f>(SUM(C366:C368)/4)&amp;" h"</f>
@@ -4285,25 +4294,25 @@
       </c>
       <c r="E365" s="19"/>
     </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B366" s="9"/>
       <c r="C366" s="10"/>
       <c r="D366" s="11"/>
       <c r="E366" s="12"/>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B367" s="9"/>
       <c r="C367" s="10"/>
       <c r="D367" s="12"/>
       <c r="E367" s="12"/>
     </row>
-    <row r="368" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B368" s="9"/>
       <c r="C368" s="10"/>
       <c r="D368" s="12"/>
       <c r="E368" s="12"/>
     </row>
-    <row r="369" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B369" s="28"/>
       <c r="C369" s="18" t="str">
         <f>(SUM(C370:C373)/4)&amp;" h"</f>
@@ -4314,31 +4323,31 @@
       </c>
       <c r="E369" s="19"/>
     </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B370" s="9"/>
       <c r="C370" s="10"/>
       <c r="D370" s="12"/>
       <c r="E370" s="12"/>
     </row>
-    <row r="371" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="371" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B371" s="9"/>
       <c r="C371" s="10"/>
       <c r="D371" s="12"/>
       <c r="E371" s="12"/>
     </row>
-    <row r="372" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="372" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B372" s="9"/>
       <c r="C372" s="10"/>
       <c r="D372" s="12"/>
       <c r="E372" s="12"/>
     </row>
-    <row r="373" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="373" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B373" s="9"/>
       <c r="C373" s="10"/>
       <c r="D373" s="13"/>
       <c r="E373" s="13"/>
     </row>
-    <row r="374" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B374" s="14" t="s">
         <v>4</v>
       </c>
@@ -4366,20 +4375,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77B31092-303D-4AAC-9350-B5A6115F269D}">
   <dimension ref="B1:J369"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A87" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.6328125" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.36328125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="30.453125" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.42578125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4393,7 +4402,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -4409,7 +4418,7 @@
       <c r="I3" s="45"/>
       <c r="J3" s="45"/>
     </row>
-    <row r="4" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="18"/>
       <c r="D4" s="29" t="s">
@@ -4421,7 +4430,7 @@
       <c r="I4" s="45"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="5" spans="2:10" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
@@ -4437,7 +4446,7 @@
       <c r="I5" s="45"/>
       <c r="J5" s="45"/>
     </row>
-    <row r="6" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
@@ -4453,7 +4462,7 @@
       <c r="I6" s="45"/>
       <c r="J6" s="45"/>
     </row>
-    <row r="7" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>14</v>
       </c>
@@ -4469,7 +4478,7 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>27</v>
       </c>
@@ -4481,7 +4490,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
         <v>29</v>
       </c>
@@ -4491,7 +4500,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="28"/>
       <c r="C10" s="18"/>
       <c r="D10" s="29" t="s">
@@ -4499,7 +4508,7 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:10" ht="26" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>12</v>
       </c>
@@ -4511,7 +4520,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
         <v>12</v>
       </c>
@@ -4523,7 +4532,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
         <v>19</v>
       </c>
@@ -4535,7 +4544,7 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="28"/>
       <c r="C14" s="18"/>
       <c r="D14" s="29" t="s">
@@ -4543,31 +4552,31 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="22"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="28"/>
       <c r="C19" s="18"/>
       <c r="D19" s="29" t="s">
@@ -4575,7 +4584,7 @@
       </c>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
         <v>19</v>
       </c>
@@ -4587,13 +4596,13 @@
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="28"/>
       <c r="C22" s="18"/>
       <c r="D22" s="29" t="s">
@@ -4601,25 +4610,25 @@
       </c>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="28"/>
       <c r="C26" s="18"/>
       <c r="D26" s="29" t="s">
@@ -4627,7 +4636,7 @@
       </c>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="33" t="s">
         <v>24</v>
       </c>
@@ -4639,7 +4648,7 @@
       </c>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="2:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B28" s="33" t="s">
         <v>24</v>
       </c>
@@ -4651,13 +4660,13 @@
       </c>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="28"/>
       <c r="C30" s="18"/>
       <c r="D30" s="29" t="s">
@@ -4665,7 +4674,7 @@
       </c>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B31" s="33" t="s">
         <v>24</v>
       </c>
@@ -4677,19 +4686,19 @@
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
@@ -4700,13 +4709,13 @@
       <c r="D34" s="15"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="27"/>
       <c r="E35" s="17"/>
     </row>
-    <row r="36" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -4720,7 +4729,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
@@ -4732,18 +4741,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="28"/>
       <c r="C38" s="18" t="str">
         <f>(SUM(C39:C41)/4)&amp;" h"</f>
-        <v>0,625 h</v>
+        <v>0.625 h</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="19"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="33" t="s">
         <v>29</v>
       </c>
@@ -4753,7 +4762,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="34" t="s">
         <v>31</v>
       </c>
@@ -4765,13 +4774,13 @@
       </c>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="28"/>
       <c r="C42" s="18" t="str">
         <f>(SUM(C43:C45)/4)&amp;" h"</f>
@@ -4782,7 +4791,7 @@
       </c>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="34" t="s">
         <v>33</v>
       </c>
@@ -4794,7 +4803,7 @@
       </c>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
       <c r="C44" s="10">
         <v>0.5</v>
@@ -4804,13 +4813,13 @@
       </c>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="22"/>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="28"/>
       <c r="C46" s="18" t="str">
         <f>(SUM(C47:C48)/4)&amp;" h"</f>
@@ -4821,7 +4830,7 @@
       </c>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="2:5" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B47" s="34" t="s">
         <v>31</v>
       </c>
@@ -4833,24 +4842,24 @@
       </c>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="28"/>
       <c r="C49" s="18" t="str">
         <f>(SUM(C50:C52)/4)&amp;" h"</f>
-        <v>0,75 h</v>
+        <v>0.75 h</v>
       </c>
       <c r="D49" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="19"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="9" t="s">
         <v>75</v>
       </c>
@@ -4862,30 +4871,30 @@
       </c>
       <c r="E50" s="12"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
     </row>
-    <row r="53" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="28"/>
       <c r="C53" s="18" t="str">
         <f>(SUM(C54:C65)/4)&amp;" h"</f>
-        <v>1,25 h</v>
+        <v>1.25 h</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="19"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
         <v>37</v>
       </c>
@@ -4897,7 +4906,7 @@
       </c>
       <c r="E54" s="12"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="9" t="s">
         <v>104</v>
       </c>
@@ -4909,7 +4918,7 @@
       </c>
       <c r="E55" s="12"/>
     </row>
-    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9" t="s">
         <v>29</v>
       </c>
@@ -4919,7 +4928,7 @@
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="28"/>
       <c r="C57" s="18"/>
       <c r="D57" s="29" t="s">
@@ -4927,7 +4936,7 @@
       </c>
       <c r="E57" s="19"/>
     </row>
-    <row r="58" spans="2:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B58" s="39" t="s">
         <v>106</v>
       </c>
@@ -4939,19 +4948,19 @@
       </c>
       <c r="E58" s="12"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="33"/>
       <c r="C59" s="10"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
     </row>
-    <row r="61" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="28"/>
       <c r="C61" s="18"/>
       <c r="D61" s="29" t="s">
@@ -4959,31 +4968,31 @@
       </c>
       <c r="E61" s="19"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="33"/>
       <c r="C62" s="10"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
     </row>
-    <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
     </row>
-    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>4</v>
       </c>
@@ -4994,7 +5003,7 @@
       <c r="D66" s="15"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
@@ -5008,7 +5017,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
@@ -5020,7 +5029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="28"/>
       <c r="C69" s="18" t="str">
         <f>(SUM(C70:C71)/4)&amp;" h"</f>
@@ -5031,7 +5040,7 @@
       </c>
       <c r="E69" s="19"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
         <v>41</v>
       </c>
@@ -5043,7 +5052,7 @@
       </c>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="9" t="s">
         <v>40</v>
       </c>
@@ -5055,7 +5064,7 @@
       </c>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="28"/>
       <c r="C72" s="18" t="str">
         <f>(SUM(C73:C75)/4)&amp;" h"</f>
@@ -5066,7 +5075,7 @@
       </c>
       <c r="E72" s="19"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
         <v>41</v>
       </c>
@@ -5078,7 +5087,7 @@
       </c>
       <c r="E73" s="11"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="9" t="s">
         <v>40</v>
       </c>
@@ -5090,24 +5099,24 @@
       </c>
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
       <c r="D75" s="22"/>
       <c r="E75" s="11"/>
     </row>
-    <row r="76" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="28"/>
       <c r="C76" s="18" t="str">
         <f>(SUM(C77:C78)/4)&amp;" h"</f>
-        <v>0,5 h</v>
+        <v>0.5 h</v>
       </c>
       <c r="D76" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E76" s="19"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>45</v>
       </c>
@@ -5119,24 +5128,24 @@
       </c>
       <c r="E77" s="11"/>
     </row>
-    <row r="78" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="9"/>
       <c r="C78" s="10"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
     </row>
-    <row r="79" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="28"/>
       <c r="C79" s="18" t="str">
         <f>(SUM(C80:C82)/4)&amp;" h"</f>
-        <v>0,875 h</v>
+        <v>0.875 h</v>
       </c>
       <c r="D79" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E79" s="19"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
         <v>111</v>
       </c>
@@ -5148,7 +5157,7 @@
       </c>
       <c r="E80" s="12"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="9" t="s">
         <v>45</v>
       </c>
@@ -5160,13 +5169,13 @@
       </c>
       <c r="E81" s="12"/>
     </row>
-    <row r="82" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
     </row>
-    <row r="83" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="28"/>
       <c r="C83" s="18" t="str">
         <f>(SUM(C84:C92)/4)&amp;" h"</f>
@@ -5177,7 +5186,7 @@
       </c>
       <c r="E83" s="19"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="9" t="s">
         <v>45</v>
       </c>
@@ -5189,7 +5198,7 @@
       </c>
       <c r="E84" s="12"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="9" t="s">
         <v>108</v>
       </c>
@@ -5201,13 +5210,13 @@
       </c>
       <c r="E85" s="12"/>
     </row>
-    <row r="86" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="10"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
     </row>
-    <row r="87" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="28"/>
       <c r="C87" s="18"/>
       <c r="D87" s="29" t="s">
@@ -5215,7 +5224,7 @@
       </c>
       <c r="E87" s="19"/>
     </row>
-    <row r="88" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B88" s="9" t="s">
         <v>108</v>
       </c>
@@ -5227,19 +5236,19 @@
       </c>
       <c r="E88" s="12"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="33"/>
       <c r="C89" s="10"/>
       <c r="D89" s="12"/>
       <c r="E89" s="12"/>
     </row>
-    <row r="90" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="10"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="28"/>
       <c r="C91" s="18"/>
       <c r="D91" s="29" t="s">
@@ -5247,7 +5256,7 @@
       </c>
       <c r="E91" s="19"/>
     </row>
-    <row r="92" spans="2:5" ht="39.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B92" s="9" t="s">
         <v>108</v>
       </c>
@@ -5259,7 +5268,7 @@
       </c>
       <c r="E92" s="12"/>
     </row>
-    <row r="93" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>4</v>
       </c>
@@ -5270,7 +5279,7 @@
       <c r="D93" s="15"/>
       <c r="E93" s="16"/>
     </row>
-    <row r="94" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
         <v>0</v>
       </c>
@@ -5284,7 +5293,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="95" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="4" t="s">
         <v>2</v>
       </c>
@@ -5296,18 +5305,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="28"/>
       <c r="C96" s="18" t="str">
         <f>(SUM(C97:C99)/4)&amp;" h"</f>
-        <v>1,125 h</v>
+        <v>1.125 h</v>
       </c>
       <c r="D96" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E96" s="19"/>
     </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B97" s="9" t="s">
         <v>99</v>
       </c>
@@ -5319,7 +5328,7 @@
       </c>
       <c r="E97" s="8"/>
     </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B98" s="9" t="s">
         <v>108</v>
       </c>
@@ -5331,7 +5340,7 @@
       </c>
       <c r="E98" s="20"/>
     </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B99" s="9" t="s">
         <v>100</v>
       </c>
@@ -5343,7 +5352,7 @@
       </c>
       <c r="E99" s="11"/>
     </row>
-    <row r="100" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="41" t="s">
         <v>29</v>
       </c>
@@ -5353,7 +5362,7 @@
       <c r="D100" s="43"/>
       <c r="E100" s="44"/>
     </row>
-    <row r="101" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B101" s="28"/>
       <c r="C101" s="18" t="str">
         <f>(SUM(C102:C104)/4)&amp;" h"</f>
@@ -5364,25 +5373,25 @@
       </c>
       <c r="E101" s="19"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="9"/>
       <c r="C102" s="10"/>
       <c r="D102" s="22"/>
       <c r="E102" s="11"/>
     </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="9"/>
       <c r="C103" s="10"/>
       <c r="D103" s="11"/>
       <c r="E103" s="11"/>
     </row>
-    <row r="104" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="9"/>
       <c r="C104" s="10"/>
       <c r="D104" s="22"/>
       <c r="E104" s="11"/>
     </row>
-    <row r="105" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B105" s="28"/>
       <c r="C105" s="18" t="str">
         <f>(SUM(C106:C107)/4)&amp;" h"</f>
@@ -5393,19 +5402,19 @@
       </c>
       <c r="E105" s="19"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="9"/>
       <c r="C106" s="10"/>
       <c r="D106" s="22"/>
       <c r="E106" s="11"/>
     </row>
-    <row r="107" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="10"/>
       <c r="D107" s="11"/>
       <c r="E107" s="11"/>
     </row>
-    <row r="108" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="28"/>
       <c r="C108" s="18" t="str">
         <f>(SUM(C109:C111)/4)&amp;" h"</f>
@@ -5416,25 +5425,25 @@
       </c>
       <c r="E108" s="19"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="9"/>
       <c r="C109" s="10"/>
       <c r="D109" s="11"/>
       <c r="E109" s="12"/>
     </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B110" s="9"/>
       <c r="C110" s="10"/>
       <c r="D110" s="12"/>
       <c r="E110" s="12"/>
     </row>
-    <row r="111" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="9"/>
       <c r="C111" s="10"/>
       <c r="D111" s="12"/>
       <c r="E111" s="12"/>
     </row>
-    <row r="112" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B112" s="28"/>
       <c r="C112" s="18" t="str">
         <f>(SUM(C113:C126)/4)&amp;" h"</f>
@@ -5445,25 +5454,25 @@
       </c>
       <c r="E112" s="19"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="9"/>
       <c r="C113" s="10"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
     </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B114" s="9"/>
       <c r="C114" s="10"/>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
     </row>
-    <row r="115" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="9"/>
       <c r="C115" s="10"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
     </row>
-    <row r="116" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="116" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B116" s="28"/>
       <c r="C116" s="18"/>
       <c r="D116" s="29" t="s">
@@ -5471,25 +5480,25 @@
       </c>
       <c r="E116" s="19"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="33"/>
       <c r="C117" s="10"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
     </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B118" s="33"/>
       <c r="C118" s="10"/>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
     </row>
-    <row r="119" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="9"/>
       <c r="C119" s="10"/>
       <c r="D119" s="12"/>
       <c r="E119" s="12"/>
     </row>
-    <row r="120" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="120" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B120" s="28"/>
       <c r="C120" s="18"/>
       <c r="D120" s="29" t="s">
@@ -5497,43 +5506,43 @@
       </c>
       <c r="E120" s="19"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="33"/>
       <c r="C121" s="10"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B122" s="9"/>
       <c r="C122" s="10"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
     </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B123" s="9"/>
       <c r="C123" s="10"/>
       <c r="D123" s="12"/>
       <c r="E123" s="12"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="9"/>
       <c r="C124" s="10"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="9"/>
       <c r="C125" s="36"/>
       <c r="D125" s="38"/>
       <c r="E125" s="38"/>
     </row>
-    <row r="126" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B126" s="9"/>
       <c r="C126" s="10"/>
       <c r="D126" s="37"/>
       <c r="E126" s="37"/>
     </row>
-    <row r="127" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B127" s="14" t="s">
         <v>4</v>
       </c>
@@ -5544,7 +5553,7 @@
       <c r="D127" s="15"/>
       <c r="E127" s="16"/>
     </row>
-    <row r="128" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B128" s="1" t="s">
         <v>0</v>
       </c>
@@ -5558,7 +5567,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="129" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="4" t="s">
         <v>2</v>
       </c>
@@ -5570,7 +5579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="28"/>
       <c r="C130" s="18" t="str">
         <f>(SUM(C131:C132)/4)&amp;" h"</f>
@@ -5581,19 +5590,19 @@
       </c>
       <c r="E130" s="19"/>
     </row>
-    <row r="131" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B131" s="9"/>
       <c r="C131" s="10"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
     </row>
-    <row r="132" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="9"/>
       <c r="C132" s="10"/>
       <c r="D132" s="11"/>
       <c r="E132" s="11"/>
     </row>
-    <row r="133" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="28"/>
       <c r="C133" s="18" t="str">
         <f>(SUM(C134:C136)/4)&amp;" h"</f>
@@ -5604,25 +5613,25 @@
       </c>
       <c r="E133" s="19"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="9"/>
       <c r="C134" s="10"/>
       <c r="D134" s="22"/>
       <c r="E134" s="11"/>
     </row>
-    <row r="135" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B135" s="9"/>
       <c r="C135" s="10"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
     </row>
-    <row r="136" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="9"/>
       <c r="C136" s="10"/>
       <c r="D136" s="22"/>
       <c r="E136" s="11"/>
     </row>
-    <row r="137" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B137" s="28"/>
       <c r="C137" s="18" t="str">
         <f>(SUM(C138:C139)/4)&amp;" h"</f>
@@ -5633,19 +5642,19 @@
       </c>
       <c r="E137" s="19"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="9"/>
       <c r="C138" s="10"/>
       <c r="D138" s="22"/>
       <c r="E138" s="11"/>
     </row>
-    <row r="139" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="10"/>
       <c r="D139" s="11"/>
       <c r="E139" s="11"/>
     </row>
-    <row r="140" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="28"/>
       <c r="C140" s="18" t="str">
         <f>(SUM(C141:C143)/4)&amp;" h"</f>
@@ -5656,25 +5665,25 @@
       </c>
       <c r="E140" s="19"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="9"/>
       <c r="C141" s="10"/>
       <c r="D141" s="11"/>
       <c r="E141" s="12"/>
     </row>
-    <row r="142" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B142" s="9"/>
       <c r="C142" s="10"/>
       <c r="D142" s="12"/>
       <c r="E142" s="12"/>
     </row>
-    <row r="143" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="9"/>
       <c r="C143" s="10"/>
       <c r="D143" s="12"/>
       <c r="E143" s="12"/>
     </row>
-    <row r="144" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="144" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B144" s="28"/>
       <c r="C144" s="18" t="str">
         <f>(SUM(C145:C148)/4)&amp;" h"</f>
@@ -5685,31 +5694,31 @@
       </c>
       <c r="E144" s="19"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="9"/>
       <c r="C145" s="10"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B146" s="9"/>
       <c r="C146" s="10"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B147" s="9"/>
       <c r="C147" s="10"/>
       <c r="D147" s="12"/>
       <c r="E147" s="12"/>
     </row>
-    <row r="148" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="148" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B148" s="9"/>
       <c r="C148" s="10"/>
       <c r="D148" s="13"/>
       <c r="E148" s="13"/>
     </row>
-    <row r="149" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="149" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B149" s="14" t="s">
         <v>4</v>
       </c>
@@ -5720,7 +5729,7 @@
       <c r="D149" s="15"/>
       <c r="E149" s="16"/>
     </row>
-    <row r="150" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="150" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B150" s="1" t="s">
         <v>0</v>
       </c>
@@ -5734,7 +5743,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="151" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="4" t="s">
         <v>2</v>
       </c>
@@ -5746,7 +5755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="28"/>
       <c r="C152" s="18" t="str">
         <f>(SUM(C153:C154)/4)&amp;" h"</f>
@@ -5757,19 +5766,19 @@
       </c>
       <c r="E152" s="19"/>
     </row>
-    <row r="153" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B153" s="9"/>
       <c r="C153" s="10"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
     </row>
-    <row r="154" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154" s="9"/>
       <c r="C154" s="10"/>
       <c r="D154" s="11"/>
       <c r="E154" s="11"/>
     </row>
-    <row r="155" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="28"/>
       <c r="C155" s="18" t="str">
         <f>(SUM(C156:C158)/4)&amp;" h"</f>
@@ -5780,25 +5789,25 @@
       </c>
       <c r="E155" s="19"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="9"/>
       <c r="C156" s="10"/>
       <c r="D156" s="22"/>
       <c r="E156" s="11"/>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B157" s="9"/>
       <c r="C157" s="10"/>
       <c r="D157" s="11"/>
       <c r="E157" s="11"/>
     </row>
-    <row r="158" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="9"/>
       <c r="C158" s="10"/>
       <c r="D158" s="22"/>
       <c r="E158" s="11"/>
     </row>
-    <row r="159" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B159" s="28"/>
       <c r="C159" s="18" t="str">
         <f>(SUM(C160:C161)/4)&amp;" h"</f>
@@ -5809,19 +5818,19 @@
       </c>
       <c r="E159" s="19"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="9"/>
       <c r="C160" s="10"/>
       <c r="D160" s="22"/>
       <c r="E160" s="11"/>
     </row>
-    <row r="161" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
       <c r="C161" s="10"/>
       <c r="D161" s="11"/>
       <c r="E161" s="11"/>
     </row>
-    <row r="162" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B162" s="28"/>
       <c r="C162" s="18" t="str">
         <f>(SUM(C163:C165)/4)&amp;" h"</f>
@@ -5832,25 +5841,25 @@
       </c>
       <c r="E162" s="19"/>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="9"/>
       <c r="C163" s="10"/>
       <c r="D163" s="11"/>
       <c r="E163" s="12"/>
     </row>
-    <row r="164" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B164" s="9"/>
       <c r="C164" s="10"/>
       <c r="D164" s="12"/>
       <c r="E164" s="12"/>
     </row>
-    <row r="165" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B165" s="9"/>
       <c r="C165" s="10"/>
       <c r="D165" s="12"/>
       <c r="E165" s="12"/>
     </row>
-    <row r="166" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="166" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B166" s="28"/>
       <c r="C166" s="18" t="str">
         <f>(SUM(C167:C170)/4)&amp;" h"</f>
@@ -5861,31 +5870,31 @@
       </c>
       <c r="E166" s="19"/>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" s="9"/>
       <c r="C167" s="10"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
     </row>
-    <row r="168" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B168" s="9"/>
       <c r="C168" s="10"/>
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
     </row>
-    <row r="169" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B169" s="9"/>
       <c r="C169" s="10"/>
       <c r="D169" s="12"/>
       <c r="E169" s="12"/>
     </row>
-    <row r="170" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B170" s="9"/>
       <c r="C170" s="10"/>
       <c r="D170" s="13"/>
       <c r="E170" s="13"/>
     </row>
-    <row r="171" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="171" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B171" s="14" t="s">
         <v>4</v>
       </c>
@@ -5896,7 +5905,7 @@
       <c r="D171" s="15"/>
       <c r="E171" s="16"/>
     </row>
-    <row r="172" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B172" s="1" t="s">
         <v>0</v>
       </c>
@@ -5910,7 +5919,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="173" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B173" s="4" t="s">
         <v>2</v>
       </c>
@@ -5922,7 +5931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="28"/>
       <c r="C174" s="18" t="str">
         <f>(SUM(C175:C176)/4)&amp;" h"</f>
@@ -5933,19 +5942,19 @@
       </c>
       <c r="E174" s="19"/>
     </row>
-    <row r="175" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B175" s="9"/>
       <c r="C175" s="10"/>
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
     </row>
-    <row r="176" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B176" s="9"/>
       <c r="C176" s="10"/>
       <c r="D176" s="11"/>
       <c r="E176" s="11"/>
     </row>
-    <row r="177" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B177" s="28"/>
       <c r="C177" s="18" t="str">
         <f>(SUM(C178:C180)/4)&amp;" h"</f>
@@ -5956,25 +5965,25 @@
       </c>
       <c r="E177" s="19"/>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="9"/>
       <c r="C178" s="10"/>
       <c r="D178" s="22"/>
       <c r="E178" s="11"/>
     </row>
-    <row r="179" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B179" s="9"/>
       <c r="C179" s="10"/>
       <c r="D179" s="11"/>
       <c r="E179" s="11"/>
     </row>
-    <row r="180" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B180" s="9"/>
       <c r="C180" s="10"/>
       <c r="D180" s="22"/>
       <c r="E180" s="11"/>
     </row>
-    <row r="181" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="181" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B181" s="28"/>
       <c r="C181" s="18" t="str">
         <f>(SUM(C182:C183)/4)&amp;" h"</f>
@@ -5985,19 +5994,19 @@
       </c>
       <c r="E181" s="19"/>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="9"/>
       <c r="C182" s="10"/>
       <c r="D182" s="22"/>
       <c r="E182" s="11"/>
     </row>
-    <row r="183" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B183" s="9"/>
       <c r="C183" s="10"/>
       <c r="D183" s="11"/>
       <c r="E183" s="11"/>
     </row>
-    <row r="184" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B184" s="28"/>
       <c r="C184" s="18" t="str">
         <f>(SUM(C185:C187)/4)&amp;" h"</f>
@@ -6008,25 +6017,25 @@
       </c>
       <c r="E184" s="19"/>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="9"/>
       <c r="C185" s="10"/>
       <c r="D185" s="11"/>
       <c r="E185" s="12"/>
     </row>
-    <row r="186" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B186" s="9"/>
       <c r="C186" s="10"/>
       <c r="D186" s="12"/>
       <c r="E186" s="12"/>
     </row>
-    <row r="187" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B187" s="9"/>
       <c r="C187" s="10"/>
       <c r="D187" s="12"/>
       <c r="E187" s="12"/>
     </row>
-    <row r="188" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="188" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B188" s="28"/>
       <c r="C188" s="18" t="str">
         <f>(SUM(C189:C192)/4)&amp;" h"</f>
@@ -6037,31 +6046,31 @@
       </c>
       <c r="E188" s="19"/>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="9"/>
       <c r="C189" s="10"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
     </row>
-    <row r="190" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B190" s="9"/>
       <c r="C190" s="10"/>
       <c r="D190" s="12"/>
       <c r="E190" s="12"/>
     </row>
-    <row r="191" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B191" s="9"/>
       <c r="C191" s="10"/>
       <c r="D191" s="12"/>
       <c r="E191" s="12"/>
     </row>
-    <row r="192" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="192" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B192" s="9"/>
       <c r="C192" s="10"/>
       <c r="D192" s="13"/>
       <c r="E192" s="13"/>
     </row>
-    <row r="193" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="193" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B193" s="14" t="s">
         <v>4</v>
       </c>
@@ -6072,7 +6081,7 @@
       <c r="D193" s="15"/>
       <c r="E193" s="16"/>
     </row>
-    <row r="194" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B194" s="1" t="s">
         <v>0</v>
       </c>
@@ -6086,7 +6095,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="195" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B195" s="4" t="s">
         <v>2</v>
       </c>
@@ -6098,7 +6107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B196" s="28"/>
       <c r="C196" s="18" t="str">
         <f>(SUM(C197:C198)/4)&amp;" h"</f>
@@ -6109,19 +6118,19 @@
       </c>
       <c r="E196" s="19"/>
     </row>
-    <row r="197" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B197" s="9"/>
       <c r="C197" s="10"/>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
     </row>
-    <row r="198" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B198" s="9"/>
       <c r="C198" s="10"/>
       <c r="D198" s="11"/>
       <c r="E198" s="11"/>
     </row>
-    <row r="199" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B199" s="28"/>
       <c r="C199" s="18" t="str">
         <f>(SUM(C200:C202)/4)&amp;" h"</f>
@@ -6132,25 +6141,25 @@
       </c>
       <c r="E199" s="19"/>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" s="9"/>
       <c r="C200" s="10"/>
       <c r="D200" s="22"/>
       <c r="E200" s="11"/>
     </row>
-    <row r="201" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B201" s="9"/>
       <c r="C201" s="10"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11"/>
     </row>
-    <row r="202" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B202" s="9"/>
       <c r="C202" s="10"/>
       <c r="D202" s="22"/>
       <c r="E202" s="11"/>
     </row>
-    <row r="203" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="203" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B203" s="28"/>
       <c r="C203" s="18" t="str">
         <f>(SUM(C204:C205)/4)&amp;" h"</f>
@@ -6161,19 +6170,19 @@
       </c>
       <c r="E203" s="19"/>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="9"/>
       <c r="C204" s="10"/>
       <c r="D204" s="22"/>
       <c r="E204" s="11"/>
     </row>
-    <row r="205" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B205" s="9"/>
       <c r="C205" s="10"/>
       <c r="D205" s="11"/>
       <c r="E205" s="11"/>
     </row>
-    <row r="206" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B206" s="28"/>
       <c r="C206" s="18" t="str">
         <f>(SUM(C207:C209)/4)&amp;" h"</f>
@@ -6184,25 +6193,25 @@
       </c>
       <c r="E206" s="19"/>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B207" s="9"/>
       <c r="C207" s="10"/>
       <c r="D207" s="11"/>
       <c r="E207" s="12"/>
     </row>
-    <row r="208" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="208" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B208" s="9"/>
       <c r="C208" s="10"/>
       <c r="D208" s="12"/>
       <c r="E208" s="12"/>
     </row>
-    <row r="209" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B209" s="9"/>
       <c r="C209" s="10"/>
       <c r="D209" s="12"/>
       <c r="E209" s="12"/>
     </row>
-    <row r="210" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="210" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B210" s="28"/>
       <c r="C210" s="18" t="str">
         <f>(SUM(C211:C214)/4)&amp;" h"</f>
@@ -6213,31 +6222,31 @@
       </c>
       <c r="E210" s="19"/>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B211" s="9"/>
       <c r="C211" s="10"/>
       <c r="D211" s="12"/>
       <c r="E211" s="12"/>
     </row>
-    <row r="212" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="212" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B212" s="9"/>
       <c r="C212" s="10"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
     </row>
-    <row r="213" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="213" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B213" s="9"/>
       <c r="C213" s="10"/>
       <c r="D213" s="12"/>
       <c r="E213" s="12"/>
     </row>
-    <row r="214" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="214" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B214" s="9"/>
       <c r="C214" s="10"/>
       <c r="D214" s="13"/>
       <c r="E214" s="13"/>
     </row>
-    <row r="215" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="215" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B215" s="14" t="s">
         <v>4</v>
       </c>
@@ -6248,7 +6257,7 @@
       <c r="D215" s="15"/>
       <c r="E215" s="16"/>
     </row>
-    <row r="216" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="216" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B216" s="1" t="s">
         <v>0</v>
       </c>
@@ -6262,7 +6271,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="217" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B217" s="4" t="s">
         <v>2</v>
       </c>
@@ -6274,7 +6283,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B218" s="28"/>
       <c r="C218" s="18" t="str">
         <f>(SUM(C219:C220)/4)&amp;" h"</f>
@@ -6285,19 +6294,19 @@
       </c>
       <c r="E218" s="19"/>
     </row>
-    <row r="219" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="219" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B219" s="9"/>
       <c r="C219" s="10"/>
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
     </row>
-    <row r="220" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B220" s="9"/>
       <c r="C220" s="10"/>
       <c r="D220" s="11"/>
       <c r="E220" s="11"/>
     </row>
-    <row r="221" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B221" s="28"/>
       <c r="C221" s="18" t="str">
         <f>(SUM(C222:C224)/4)&amp;" h"</f>
@@ -6308,25 +6317,25 @@
       </c>
       <c r="E221" s="19"/>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B222" s="9"/>
       <c r="C222" s="10"/>
       <c r="D222" s="22"/>
       <c r="E222" s="11"/>
     </row>
-    <row r="223" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="223" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B223" s="9"/>
       <c r="C223" s="10"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11"/>
     </row>
-    <row r="224" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B224" s="9"/>
       <c r="C224" s="10"/>
       <c r="D224" s="22"/>
       <c r="E224" s="11"/>
     </row>
-    <row r="225" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="225" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B225" s="28"/>
       <c r="C225" s="18" t="str">
         <f>(SUM(C226:C227)/4)&amp;" h"</f>
@@ -6337,19 +6346,19 @@
       </c>
       <c r="E225" s="19"/>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" s="9"/>
       <c r="C226" s="10"/>
       <c r="D226" s="22"/>
       <c r="E226" s="11"/>
     </row>
-    <row r="227" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B227" s="9"/>
       <c r="C227" s="10"/>
       <c r="D227" s="11"/>
       <c r="E227" s="11"/>
     </row>
-    <row r="228" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B228" s="28"/>
       <c r="C228" s="18" t="str">
         <f>(SUM(C229:C231)/4)&amp;" h"</f>
@@ -6360,25 +6369,25 @@
       </c>
       <c r="E228" s="19"/>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" s="9"/>
       <c r="C229" s="10"/>
       <c r="D229" s="11"/>
       <c r="E229" s="12"/>
     </row>
-    <row r="230" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="230" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B230" s="9"/>
       <c r="C230" s="10"/>
       <c r="D230" s="12"/>
       <c r="E230" s="12"/>
     </row>
-    <row r="231" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B231" s="9"/>
       <c r="C231" s="10"/>
       <c r="D231" s="12"/>
       <c r="E231" s="12"/>
     </row>
-    <row r="232" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="232" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B232" s="28"/>
       <c r="C232" s="18" t="str">
         <f>(SUM(C233:C236)/4)&amp;" h"</f>
@@ -6389,31 +6398,31 @@
       </c>
       <c r="E232" s="19"/>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B233" s="9"/>
       <c r="C233" s="10"/>
       <c r="D233" s="12"/>
       <c r="E233" s="12"/>
     </row>
-    <row r="234" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="234" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B234" s="9"/>
       <c r="C234" s="10"/>
       <c r="D234" s="12"/>
       <c r="E234" s="12"/>
     </row>
-    <row r="235" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="235" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B235" s="9"/>
       <c r="C235" s="10"/>
       <c r="D235" s="12"/>
       <c r="E235" s="12"/>
     </row>
-    <row r="236" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="236" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B236" s="9"/>
       <c r="C236" s="10"/>
       <c r="D236" s="13"/>
       <c r="E236" s="13"/>
     </row>
-    <row r="237" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="237" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B237" s="14" t="s">
         <v>4</v>
       </c>
@@ -6424,7 +6433,7 @@
       <c r="D237" s="15"/>
       <c r="E237" s="16"/>
     </row>
-    <row r="238" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="238" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B238" s="1" t="s">
         <v>0</v>
       </c>
@@ -6436,7 +6445,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="239" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B239" s="4" t="s">
         <v>2</v>
       </c>
@@ -6448,7 +6457,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B240" s="28"/>
       <c r="C240" s="18" t="str">
         <f>(SUM(C241:C242)/4)&amp;" h"</f>
@@ -6459,19 +6468,19 @@
       </c>
       <c r="E240" s="19"/>
     </row>
-    <row r="241" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="241" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B241" s="9"/>
       <c r="C241" s="10"/>
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
     </row>
-    <row r="242" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B242" s="9"/>
       <c r="C242" s="10"/>
       <c r="D242" s="11"/>
       <c r="E242" s="11"/>
     </row>
-    <row r="243" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B243" s="28"/>
       <c r="C243" s="18" t="str">
         <f>(SUM(C244:C246)/4)&amp;" h"</f>
@@ -6482,25 +6491,25 @@
       </c>
       <c r="E243" s="19"/>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B244" s="9"/>
       <c r="C244" s="10"/>
       <c r="D244" s="22"/>
       <c r="E244" s="11"/>
     </row>
-    <row r="245" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="245" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B245" s="9"/>
       <c r="C245" s="10"/>
       <c r="D245" s="11"/>
       <c r="E245" s="11"/>
     </row>
-    <row r="246" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B246" s="9"/>
       <c r="C246" s="10"/>
       <c r="D246" s="22"/>
       <c r="E246" s="11"/>
     </row>
-    <row r="247" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="247" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B247" s="28"/>
       <c r="C247" s="18" t="str">
         <f>(SUM(C248:C249)/4)&amp;" h"</f>
@@ -6511,19 +6520,19 @@
       </c>
       <c r="E247" s="19"/>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B248" s="9"/>
       <c r="C248" s="10"/>
       <c r="D248" s="22"/>
       <c r="E248" s="11"/>
     </row>
-    <row r="249" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B249" s="9"/>
       <c r="C249" s="10"/>
       <c r="D249" s="11"/>
       <c r="E249" s="11"/>
     </row>
-    <row r="250" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B250" s="28"/>
       <c r="C250" s="18" t="str">
         <f>(SUM(C251:C253)/4)&amp;" h"</f>
@@ -6534,25 +6543,25 @@
       </c>
       <c r="E250" s="19"/>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B251" s="9"/>
       <c r="C251" s="10"/>
       <c r="D251" s="11"/>
       <c r="E251" s="12"/>
     </row>
-    <row r="252" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="252" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B252" s="9"/>
       <c r="C252" s="10"/>
       <c r="D252" s="12"/>
       <c r="E252" s="12"/>
     </row>
-    <row r="253" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B253" s="9"/>
       <c r="C253" s="10"/>
       <c r="D253" s="12"/>
       <c r="E253" s="12"/>
     </row>
-    <row r="254" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="254" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B254" s="28"/>
       <c r="C254" s="18" t="str">
         <f>(SUM(C255:C258)/4)&amp;" h"</f>
@@ -6563,31 +6572,31 @@
       </c>
       <c r="E254" s="19"/>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B255" s="9"/>
       <c r="C255" s="10"/>
       <c r="D255" s="12"/>
       <c r="E255" s="12"/>
     </row>
-    <row r="256" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="256" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B256" s="9"/>
       <c r="C256" s="10"/>
       <c r="D256" s="12"/>
       <c r="E256" s="12"/>
     </row>
-    <row r="257" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="257" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B257" s="9"/>
       <c r="C257" s="10"/>
       <c r="D257" s="12"/>
       <c r="E257" s="12"/>
     </row>
-    <row r="258" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="258" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B258" s="9"/>
       <c r="C258" s="10"/>
       <c r="D258" s="13"/>
       <c r="E258" s="13"/>
     </row>
-    <row r="259" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="259" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B259" s="14" t="s">
         <v>4</v>
       </c>
@@ -6598,7 +6607,7 @@
       <c r="D259" s="15"/>
       <c r="E259" s="16"/>
     </row>
-    <row r="260" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="260" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B260" s="1" t="s">
         <v>0</v>
       </c>
@@ -6612,7 +6621,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="261" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B261" s="4" t="s">
         <v>2</v>
       </c>
@@ -6624,7 +6633,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B262" s="28"/>
       <c r="C262" s="18" t="str">
         <f>(SUM(C263:C264)/4)&amp;" h"</f>
@@ -6635,19 +6644,19 @@
       </c>
       <c r="E262" s="19"/>
     </row>
-    <row r="263" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="263" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B263" s="9"/>
       <c r="C263" s="10"/>
       <c r="D263" s="8"/>
       <c r="E263" s="8"/>
     </row>
-    <row r="264" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B264" s="9"/>
       <c r="C264" s="10"/>
       <c r="D264" s="11"/>
       <c r="E264" s="11"/>
     </row>
-    <row r="265" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B265" s="28"/>
       <c r="C265" s="18" t="str">
         <f>(SUM(C266:C268)/4)&amp;" h"</f>
@@ -6658,25 +6667,25 @@
       </c>
       <c r="E265" s="19"/>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B266" s="9"/>
       <c r="C266" s="10"/>
       <c r="D266" s="22"/>
       <c r="E266" s="11"/>
     </row>
-    <row r="267" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="267" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B267" s="9"/>
       <c r="C267" s="10"/>
       <c r="D267" s="11"/>
       <c r="E267" s="11"/>
     </row>
-    <row r="268" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B268" s="9"/>
       <c r="C268" s="10"/>
       <c r="D268" s="22"/>
       <c r="E268" s="11"/>
     </row>
-    <row r="269" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B269" s="28"/>
       <c r="C269" s="18" t="str">
         <f>(SUM(C270:C271)/4)&amp;" h"</f>
@@ -6687,19 +6696,19 @@
       </c>
       <c r="E269" s="19"/>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B270" s="9"/>
       <c r="C270" s="10"/>
       <c r="D270" s="22"/>
       <c r="E270" s="11"/>
     </row>
-    <row r="271" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B271" s="9"/>
       <c r="C271" s="10"/>
       <c r="D271" s="11"/>
       <c r="E271" s="11"/>
     </row>
-    <row r="272" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B272" s="28"/>
       <c r="C272" s="18" t="str">
         <f>(SUM(C273:C275)/4)&amp;" h"</f>
@@ -6710,25 +6719,25 @@
       </c>
       <c r="E272" s="19"/>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" s="9"/>
       <c r="C273" s="10"/>
       <c r="D273" s="11"/>
       <c r="E273" s="12"/>
     </row>
-    <row r="274" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B274" s="9"/>
       <c r="C274" s="10"/>
       <c r="D274" s="12"/>
       <c r="E274" s="12"/>
     </row>
-    <row r="275" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B275" s="9"/>
       <c r="C275" s="10"/>
       <c r="D275" s="12"/>
       <c r="E275" s="12"/>
     </row>
-    <row r="276" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="276" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B276" s="28"/>
       <c r="C276" s="18" t="str">
         <f>(SUM(C277:C280)/4)&amp;" h"</f>
@@ -6739,31 +6748,31 @@
       </c>
       <c r="E276" s="19"/>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" s="9"/>
       <c r="C277" s="10"/>
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
     </row>
-    <row r="278" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B278" s="9"/>
       <c r="C278" s="10"/>
       <c r="D278" s="12"/>
       <c r="E278" s="12"/>
     </row>
-    <row r="279" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B279" s="9"/>
       <c r="C279" s="10"/>
       <c r="D279" s="12"/>
       <c r="E279" s="12"/>
     </row>
-    <row r="280" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B280" s="9"/>
       <c r="C280" s="10"/>
       <c r="D280" s="13"/>
       <c r="E280" s="13"/>
     </row>
-    <row r="281" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B281" s="14" t="s">
         <v>4</v>
       </c>
@@ -6774,7 +6783,7 @@
       <c r="D281" s="15"/>
       <c r="E281" s="16"/>
     </row>
-    <row r="282" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="282" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B282" s="1" t="s">
         <v>0</v>
       </c>
@@ -6788,7 +6797,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="283" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B283" s="4" t="s">
         <v>2</v>
       </c>
@@ -6800,7 +6809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="284" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B284" s="28"/>
       <c r="C284" s="18" t="str">
         <f>(SUM(C285:C286)/4)&amp;" h"</f>
@@ -6811,19 +6820,19 @@
       </c>
       <c r="E284" s="19"/>
     </row>
-    <row r="285" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B285" s="9"/>
       <c r="C285" s="10"/>
       <c r="D285" s="8"/>
       <c r="E285" s="8"/>
     </row>
-    <row r="286" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B286" s="9"/>
       <c r="C286" s="10"/>
       <c r="D286" s="11"/>
       <c r="E286" s="11"/>
     </row>
-    <row r="287" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B287" s="28"/>
       <c r="C287" s="18" t="str">
         <f>(SUM(C288:C290)/4)&amp;" h"</f>
@@ -6834,25 +6843,25 @@
       </c>
       <c r="E287" s="19"/>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" s="9"/>
       <c r="C288" s="10"/>
       <c r="D288" s="22"/>
       <c r="E288" s="11"/>
     </row>
-    <row r="289" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B289" s="9"/>
       <c r="C289" s="10"/>
       <c r="D289" s="11"/>
       <c r="E289" s="11"/>
     </row>
-    <row r="290" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B290" s="9"/>
       <c r="C290" s="10"/>
       <c r="D290" s="22"/>
       <c r="E290" s="11"/>
     </row>
-    <row r="291" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="291" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B291" s="28"/>
       <c r="C291" s="18" t="str">
         <f>(SUM(C292:C293)/4)&amp;" h"</f>
@@ -6863,19 +6872,19 @@
       </c>
       <c r="E291" s="19"/>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292" s="9"/>
       <c r="C292" s="10"/>
       <c r="D292" s="22"/>
       <c r="E292" s="11"/>
     </row>
-    <row r="293" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B293" s="9"/>
       <c r="C293" s="10"/>
       <c r="D293" s="11"/>
       <c r="E293" s="11"/>
     </row>
-    <row r="294" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B294" s="28"/>
       <c r="C294" s="18" t="str">
         <f>(SUM(C295:C297)/4)&amp;" h"</f>
@@ -6886,25 +6895,25 @@
       </c>
       <c r="E294" s="19"/>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295" s="9"/>
       <c r="C295" s="10"/>
       <c r="D295" s="11"/>
       <c r="E295" s="12"/>
     </row>
-    <row r="296" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B296" s="9"/>
       <c r="C296" s="10"/>
       <c r="D296" s="12"/>
       <c r="E296" s="12"/>
     </row>
-    <row r="297" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B297" s="9"/>
       <c r="C297" s="10"/>
       <c r="D297" s="12"/>
       <c r="E297" s="12"/>
     </row>
-    <row r="298" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="298" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B298" s="28"/>
       <c r="C298" s="18" t="str">
         <f>(SUM(C299:C302)/4)&amp;" h"</f>
@@ -6915,31 +6924,31 @@
       </c>
       <c r="E298" s="19"/>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299" s="9"/>
       <c r="C299" s="10"/>
       <c r="D299" s="12"/>
       <c r="E299" s="12"/>
     </row>
-    <row r="300" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B300" s="9"/>
       <c r="C300" s="10"/>
       <c r="D300" s="12"/>
       <c r="E300" s="12"/>
     </row>
-    <row r="301" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B301" s="9"/>
       <c r="C301" s="10"/>
       <c r="D301" s="12"/>
       <c r="E301" s="12"/>
     </row>
-    <row r="302" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B302" s="9"/>
       <c r="C302" s="10"/>
       <c r="D302" s="13"/>
       <c r="E302" s="13"/>
     </row>
-    <row r="303" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="303" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B303" s="14" t="s">
         <v>4</v>
       </c>
@@ -6950,7 +6959,7 @@
       <c r="D303" s="15"/>
       <c r="E303" s="16"/>
     </row>
-    <row r="304" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B304" s="1" t="s">
         <v>0</v>
       </c>
@@ -6964,7 +6973,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="305" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B305" s="4" t="s">
         <v>2</v>
       </c>
@@ -6976,7 +6985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="306" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B306" s="28"/>
       <c r="C306" s="18" t="str">
         <f>(SUM(C307:C308)/4)&amp;" h"</f>
@@ -6987,19 +6996,19 @@
       </c>
       <c r="E306" s="19"/>
     </row>
-    <row r="307" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="307" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B307" s="9"/>
       <c r="C307" s="10"/>
       <c r="D307" s="8"/>
       <c r="E307" s="8"/>
     </row>
-    <row r="308" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B308" s="9"/>
       <c r="C308" s="10"/>
       <c r="D308" s="11"/>
       <c r="E308" s="11"/>
     </row>
-    <row r="309" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B309" s="28"/>
       <c r="C309" s="18" t="str">
         <f>(SUM(C310:C312)/4)&amp;" h"</f>
@@ -7010,25 +7019,25 @@
       </c>
       <c r="E309" s="19"/>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B310" s="9"/>
       <c r="C310" s="10"/>
       <c r="D310" s="22"/>
       <c r="E310" s="11"/>
     </row>
-    <row r="311" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="311" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B311" s="9"/>
       <c r="C311" s="10"/>
       <c r="D311" s="11"/>
       <c r="E311" s="11"/>
     </row>
-    <row r="312" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B312" s="9"/>
       <c r="C312" s="10"/>
       <c r="D312" s="22"/>
       <c r="E312" s="11"/>
     </row>
-    <row r="313" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="313" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B313" s="28"/>
       <c r="C313" s="18" t="str">
         <f>(SUM(C314:C315)/4)&amp;" h"</f>
@@ -7039,19 +7048,19 @@
       </c>
       <c r="E313" s="19"/>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B314" s="9"/>
       <c r="C314" s="10"/>
       <c r="D314" s="22"/>
       <c r="E314" s="11"/>
     </row>
-    <row r="315" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B315" s="9"/>
       <c r="C315" s="10"/>
       <c r="D315" s="11"/>
       <c r="E315" s="11"/>
     </row>
-    <row r="316" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B316" s="28"/>
       <c r="C316" s="18" t="str">
         <f>(SUM(C317:C319)/4)&amp;" h"</f>
@@ -7062,25 +7071,25 @@
       </c>
       <c r="E316" s="19"/>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B317" s="9"/>
       <c r="C317" s="10"/>
       <c r="D317" s="11"/>
       <c r="E317" s="12"/>
     </row>
-    <row r="318" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="318" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B318" s="9"/>
       <c r="C318" s="10"/>
       <c r="D318" s="12"/>
       <c r="E318" s="12"/>
     </row>
-    <row r="319" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B319" s="9"/>
       <c r="C319" s="10"/>
       <c r="D319" s="12"/>
       <c r="E319" s="12"/>
     </row>
-    <row r="320" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="320" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B320" s="28"/>
       <c r="C320" s="18" t="str">
         <f>(SUM(C321:C324)/4)&amp;" h"</f>
@@ -7091,31 +7100,31 @@
       </c>
       <c r="E320" s="19"/>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B321" s="9"/>
       <c r="C321" s="10"/>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
     </row>
-    <row r="322" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="322" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B322" s="9"/>
       <c r="C322" s="10"/>
       <c r="D322" s="12"/>
       <c r="E322" s="12"/>
     </row>
-    <row r="323" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B323" s="9"/>
       <c r="C323" s="10"/>
       <c r="D323" s="12"/>
       <c r="E323" s="12"/>
     </row>
-    <row r="324" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="324" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B324" s="9"/>
       <c r="C324" s="10"/>
       <c r="D324" s="13"/>
       <c r="E324" s="13"/>
     </row>
-    <row r="325" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="325" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B325" s="14" t="s">
         <v>4</v>
       </c>
@@ -7126,7 +7135,7 @@
       <c r="D325" s="15"/>
       <c r="E325" s="16"/>
     </row>
-    <row r="326" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="326" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B326" s="1" t="s">
         <v>0</v>
       </c>
@@ -7140,7 +7149,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="327" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B327" s="4" t="s">
         <v>2</v>
       </c>
@@ -7152,7 +7161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="328" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B328" s="28"/>
       <c r="C328" s="18" t="str">
         <f>(SUM(C329:C330)/4)&amp;" h"</f>
@@ -7163,19 +7172,19 @@
       </c>
       <c r="E328" s="19"/>
     </row>
-    <row r="329" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="329" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B329" s="9"/>
       <c r="C329" s="10"/>
       <c r="D329" s="8"/>
       <c r="E329" s="8"/>
     </row>
-    <row r="330" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B330" s="9"/>
       <c r="C330" s="10"/>
       <c r="D330" s="11"/>
       <c r="E330" s="11"/>
     </row>
-    <row r="331" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B331" s="28"/>
       <c r="C331" s="18" t="str">
         <f>(SUM(C332:C334)/4)&amp;" h"</f>
@@ -7186,25 +7195,25 @@
       </c>
       <c r="E331" s="19"/>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B332" s="9"/>
       <c r="C332" s="10"/>
       <c r="D332" s="22"/>
       <c r="E332" s="11"/>
     </row>
-    <row r="333" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B333" s="9"/>
       <c r="C333" s="10"/>
       <c r="D333" s="11"/>
       <c r="E333" s="11"/>
     </row>
-    <row r="334" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B334" s="9"/>
       <c r="C334" s="10"/>
       <c r="D334" s="22"/>
       <c r="E334" s="11"/>
     </row>
-    <row r="335" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="335" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B335" s="28"/>
       <c r="C335" s="18" t="str">
         <f>(SUM(C336:C337)/4)&amp;" h"</f>
@@ -7215,19 +7224,19 @@
       </c>
       <c r="E335" s="19"/>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B336" s="9"/>
       <c r="C336" s="10"/>
       <c r="D336" s="22"/>
       <c r="E336" s="11"/>
     </row>
-    <row r="337" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B337" s="9"/>
       <c r="C337" s="10"/>
       <c r="D337" s="11"/>
       <c r="E337" s="11"/>
     </row>
-    <row r="338" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B338" s="28"/>
       <c r="C338" s="18" t="str">
         <f>(SUM(C339:C341)/4)&amp;" h"</f>
@@ -7238,25 +7247,25 @@
       </c>
       <c r="E338" s="19"/>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B339" s="9"/>
       <c r="C339" s="10"/>
       <c r="D339" s="11"/>
       <c r="E339" s="12"/>
     </row>
-    <row r="340" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="340" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B340" s="9"/>
       <c r="C340" s="10"/>
       <c r="D340" s="12"/>
       <c r="E340" s="12"/>
     </row>
-    <row r="341" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B341" s="9"/>
       <c r="C341" s="10"/>
       <c r="D341" s="12"/>
       <c r="E341" s="12"/>
     </row>
-    <row r="342" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="342" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B342" s="28"/>
       <c r="C342" s="18" t="str">
         <f>(SUM(C343:C346)/4)&amp;" h"</f>
@@ -7267,31 +7276,31 @@
       </c>
       <c r="E342" s="19"/>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B343" s="9"/>
       <c r="C343" s="10"/>
       <c r="D343" s="12"/>
       <c r="E343" s="12"/>
     </row>
-    <row r="344" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="344" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B344" s="9"/>
       <c r="C344" s="10"/>
       <c r="D344" s="12"/>
       <c r="E344" s="12"/>
     </row>
-    <row r="345" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="345" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B345" s="9"/>
       <c r="C345" s="10"/>
       <c r="D345" s="12"/>
       <c r="E345" s="12"/>
     </row>
-    <row r="346" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="346" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B346" s="9"/>
       <c r="C346" s="10"/>
       <c r="D346" s="13"/>
       <c r="E346" s="13"/>
     </row>
-    <row r="347" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="347" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B347" s="14" t="s">
         <v>4</v>
       </c>
@@ -7302,7 +7311,7 @@
       <c r="D347" s="15"/>
       <c r="E347" s="16"/>
     </row>
-    <row r="348" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="348" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B348" s="1" t="s">
         <v>0</v>
       </c>
@@ -7316,7 +7325,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="349" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B349" s="4" t="s">
         <v>2</v>
       </c>
@@ -7328,7 +7337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="350" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B350" s="28"/>
       <c r="C350" s="18" t="str">
         <f>(SUM(C351:C352)/4)&amp;" h"</f>
@@ -7339,19 +7348,19 @@
       </c>
       <c r="E350" s="19"/>
     </row>
-    <row r="351" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="351" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B351" s="9"/>
       <c r="C351" s="10"/>
       <c r="D351" s="8"/>
       <c r="E351" s="8"/>
     </row>
-    <row r="352" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B352" s="9"/>
       <c r="C352" s="10"/>
       <c r="D352" s="11"/>
       <c r="E352" s="11"/>
     </row>
-    <row r="353" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B353" s="28"/>
       <c r="C353" s="18" t="str">
         <f>(SUM(C354:C356)/4)&amp;" h"</f>
@@ -7362,25 +7371,25 @@
       </c>
       <c r="E353" s="19"/>
     </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B354" s="9"/>
       <c r="C354" s="10"/>
       <c r="D354" s="22"/>
       <c r="E354" s="11"/>
     </row>
-    <row r="355" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="355" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B355" s="9"/>
       <c r="C355" s="10"/>
       <c r="D355" s="11"/>
       <c r="E355" s="11"/>
     </row>
-    <row r="356" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B356" s="9"/>
       <c r="C356" s="10"/>
       <c r="D356" s="22"/>
       <c r="E356" s="11"/>
     </row>
-    <row r="357" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="357" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B357" s="28"/>
       <c r="C357" s="18" t="str">
         <f>(SUM(C358:C359)/4)&amp;" h"</f>
@@ -7391,19 +7400,19 @@
       </c>
       <c r="E357" s="19"/>
     </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B358" s="9"/>
       <c r="C358" s="10"/>
       <c r="D358" s="22"/>
       <c r="E358" s="11"/>
     </row>
-    <row r="359" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B359" s="9"/>
       <c r="C359" s="10"/>
       <c r="D359" s="11"/>
       <c r="E359" s="11"/>
     </row>
-    <row r="360" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B360" s="28"/>
       <c r="C360" s="18" t="str">
         <f>(SUM(C361:C363)/4)&amp;" h"</f>
@@ -7414,25 +7423,25 @@
       </c>
       <c r="E360" s="19"/>
     </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B361" s="9"/>
       <c r="C361" s="10"/>
       <c r="D361" s="11"/>
       <c r="E361" s="12"/>
     </row>
-    <row r="362" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="362" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B362" s="9"/>
       <c r="C362" s="10"/>
       <c r="D362" s="12"/>
       <c r="E362" s="12"/>
     </row>
-    <row r="363" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B363" s="9"/>
       <c r="C363" s="10"/>
       <c r="D363" s="12"/>
       <c r="E363" s="12"/>
     </row>
-    <row r="364" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="364" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B364" s="28"/>
       <c r="C364" s="18" t="str">
         <f>(SUM(C365:C368)/4)&amp;" h"</f>
@@ -7443,31 +7452,31 @@
       </c>
       <c r="E364" s="19"/>
     </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B365" s="9"/>
       <c r="C365" s="10"/>
       <c r="D365" s="12"/>
       <c r="E365" s="12"/>
     </row>
-    <row r="366" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="366" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B366" s="9"/>
       <c r="C366" s="10"/>
       <c r="D366" s="12"/>
       <c r="E366" s="12"/>
     </row>
-    <row r="367" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="367" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B367" s="9"/>
       <c r="C367" s="10"/>
       <c r="D367" s="12"/>
       <c r="E367" s="12"/>
     </row>
-    <row r="368" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="368" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B368" s="9"/>
       <c r="C368" s="10"/>
       <c r="D368" s="13"/>
       <c r="E368" s="13"/>
     </row>
-    <row r="369" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="369" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B369" s="14" t="s">
         <v>4</v>
       </c>
@@ -7499,16 +7508,16 @@
       <selection activeCell="D115" sqref="D115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.6328125" customWidth="1"/>
-    <col min="3" max="3" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.36328125" style="23" customWidth="1"/>
-    <col min="5" max="5" width="30.453125" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="74.42578125" style="23" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:10" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7522,7 +7531,7 @@
         <v>43906</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>2</v>
       </c>
@@ -7538,7 +7547,7 @@
       <c r="I3" s="45"/>
       <c r="J3" s="45"/>
     </row>
-    <row r="4" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="28"/>
       <c r="C4" s="18"/>
       <c r="D4" s="29" t="s">
@@ -7550,7 +7559,7 @@
       <c r="I4" s="45"/>
       <c r="J4" s="45"/>
     </row>
-    <row r="5" spans="2:10" ht="26" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B5" s="30" t="s">
         <v>13</v>
       </c>
@@ -7566,7 +7575,7 @@
       <c r="I5" s="45"/>
       <c r="J5" s="45"/>
     </row>
-    <row r="6" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="32" t="s">
         <v>12</v>
       </c>
@@ -7582,7 +7591,7 @@
       <c r="I6" s="45"/>
       <c r="J6" s="45"/>
     </row>
-    <row r="7" spans="2:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="32" t="s">
         <v>14</v>
       </c>
@@ -7598,7 +7607,7 @@
       <c r="I7" s="45"/>
       <c r="J7" s="45"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="33" t="s">
         <v>27</v>
       </c>
@@ -7610,7 +7619,7 @@
       </c>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="34" t="s">
         <v>29</v>
       </c>
@@ -7620,7 +7629,7 @@
       <c r="D9" s="22"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="28"/>
       <c r="C10" s="18"/>
       <c r="D10" s="29" t="s">
@@ -7628,7 +7637,7 @@
       </c>
       <c r="E10" s="19"/>
     </row>
-    <row r="11" spans="2:10" ht="26" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:10" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B11" s="32" t="s">
         <v>12</v>
       </c>
@@ -7640,7 +7649,7 @@
       </c>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="33" t="s">
         <v>12</v>
       </c>
@@ -7652,7 +7661,7 @@
       </c>
       <c r="E12" s="11"/>
     </row>
-    <row r="13" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="33" t="s">
         <v>19</v>
       </c>
@@ -7664,7 +7673,7 @@
       </c>
       <c r="E13" s="11"/>
     </row>
-    <row r="14" spans="2:10" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="28"/>
       <c r="C14" s="18"/>
       <c r="D14" s="29" t="s">
@@ -7672,31 +7681,31 @@
       </c>
       <c r="E14" s="19"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="9"/>
       <c r="C15" s="10"/>
       <c r="D15" s="22"/>
       <c r="E15" s="11"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" s="9"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="9"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="11"/>
     </row>
-    <row r="18" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="9"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
     </row>
-    <row r="19" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="28"/>
       <c r="C19" s="18"/>
       <c r="D19" s="29" t="s">
@@ -7704,7 +7713,7 @@
       </c>
       <c r="E19" s="19"/>
     </row>
-    <row r="20" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B20" s="33" t="s">
         <v>19</v>
       </c>
@@ -7716,13 +7725,13 @@
       </c>
       <c r="E20" s="12"/>
     </row>
-    <row r="21" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="9"/>
       <c r="C21" s="10"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
     </row>
-    <row r="22" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B22" s="28"/>
       <c r="C22" s="18"/>
       <c r="D22" s="29" t="s">
@@ -7730,25 +7739,25 @@
       </c>
       <c r="E22" s="19"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="9"/>
       <c r="C23" s="10"/>
       <c r="D23" s="12"/>
       <c r="E23" s="12"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="9"/>
       <c r="C24" s="10"/>
       <c r="D24" s="12"/>
       <c r="E24" s="12"/>
     </row>
-    <row r="25" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="9"/>
       <c r="C25" s="10"/>
       <c r="D25" s="12"/>
       <c r="E25" s="12"/>
     </row>
-    <row r="26" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="28"/>
       <c r="C26" s="18"/>
       <c r="D26" s="29" t="s">
@@ -7756,7 +7765,7 @@
       </c>
       <c r="E26" s="19"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="33" t="s">
         <v>24</v>
       </c>
@@ -7768,7 +7777,7 @@
       </c>
       <c r="E27" s="12"/>
     </row>
-    <row r="28" spans="2:5" ht="39" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:5" ht="38.25" x14ac:dyDescent="0.25">
       <c r="B28" s="33" t="s">
         <v>24</v>
       </c>
@@ -7780,13 +7789,13 @@
       </c>
       <c r="E28" s="12"/>
     </row>
-    <row r="29" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="9"/>
       <c r="C29" s="10"/>
       <c r="D29" s="12"/>
       <c r="E29" s="12"/>
     </row>
-    <row r="30" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="28"/>
       <c r="C30" s="18"/>
       <c r="D30" s="29" t="s">
@@ -7794,7 +7803,7 @@
       </c>
       <c r="E30" s="19"/>
     </row>
-    <row r="31" spans="2:5" ht="26" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:5" ht="25.5" x14ac:dyDescent="0.25">
       <c r="B31" s="33" t="s">
         <v>24</v>
       </c>
@@ -7806,19 +7815,19 @@
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32" s="9"/>
       <c r="C32" s="10"/>
       <c r="D32" s="12"/>
       <c r="E32" s="12"/>
     </row>
-    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B33" s="9"/>
       <c r="C33" s="10"/>
       <c r="D33" s="12"/>
       <c r="E33" s="12"/>
     </row>
-    <row r="34" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
         <v>4</v>
       </c>
@@ -7829,13 +7838,13 @@
       <c r="D34" s="15"/>
       <c r="E34" s="16"/>
     </row>
-    <row r="35" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
       <c r="D35" s="27"/>
       <c r="E35" s="17"/>
     </row>
-    <row r="36" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>0</v>
       </c>
@@ -7849,7 +7858,7 @@
         <v>43913</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B37" s="4" t="s">
         <v>2</v>
       </c>
@@ -7861,18 +7870,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B38" s="28"/>
       <c r="C38" s="18" t="str">
         <f>(SUM(C39:C41)/4)&amp;" h"</f>
-        <v>0,625 h</v>
+        <v>0.625 h</v>
       </c>
       <c r="D38" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E38" s="19"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="33" t="s">
         <v>29</v>
       </c>
@@ -7882,7 +7891,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="34" t="s">
         <v>31</v>
       </c>
@@ -7894,13 +7903,13 @@
       </c>
       <c r="E40" s="20"/>
     </row>
-    <row r="41" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="9"/>
       <c r="C41" s="10"/>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
     </row>
-    <row r="42" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="28"/>
       <c r="C42" s="18" t="str">
         <f>(SUM(C43:C45)/4)&amp;" h"</f>
@@ -7911,7 +7920,7 @@
       </c>
       <c r="E42" s="19"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="34" t="s">
         <v>33</v>
       </c>
@@ -7923,7 +7932,7 @@
       </c>
       <c r="E43" s="11"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="9"/>
       <c r="C44" s="10">
         <v>0.5</v>
@@ -7933,13 +7942,13 @@
       </c>
       <c r="E44" s="11"/>
     </row>
-    <row r="45" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B45" s="9"/>
       <c r="C45" s="10"/>
       <c r="D45" s="22"/>
       <c r="E45" s="11"/>
     </row>
-    <row r="46" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="28"/>
       <c r="C46" s="18" t="str">
         <f>(SUM(C47:C48)/4)&amp;" h"</f>
@@ -7950,7 +7959,7 @@
       </c>
       <c r="E46" s="19"/>
     </row>
-    <row r="47" spans="2:5" ht="26.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:5" ht="26.25" x14ac:dyDescent="0.25">
       <c r="B47" s="34" t="s">
         <v>31</v>
       </c>
@@ -7962,13 +7971,13 @@
       </c>
       <c r="E47" s="11"/>
     </row>
-    <row r="48" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B48" s="9"/>
       <c r="C48" s="10"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
     </row>
-    <row r="49" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B49" s="28"/>
       <c r="C49" s="18" t="str">
         <f>(SUM(C50:C52)/4)&amp;" h"</f>
@@ -7979,36 +7988,36 @@
       </c>
       <c r="E49" s="19"/>
     </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B50" s="9"/>
       <c r="C50" s="10"/>
       <c r="D50" s="11"/>
       <c r="E50" s="12"/>
     </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B51" s="9"/>
       <c r="C51" s="10"/>
       <c r="D51" s="12"/>
       <c r="E51" s="12"/>
     </row>
-    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:5" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="9"/>
       <c r="C52" s="10"/>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
     </row>
-    <row r="53" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="28"/>
       <c r="C53" s="18" t="str">
         <f>(SUM(C54:C65)/4)&amp;" h"</f>
-        <v>0,5 h</v>
+        <v>0.5 h</v>
       </c>
       <c r="D53" s="29" t="s">
         <v>9</v>
       </c>
       <c r="E53" s="19"/>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B54" s="9" t="s">
         <v>56</v>
       </c>
@@ -8020,18 +8029,18 @@
       </c>
       <c r="E54" s="12"/>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B55" s="9"/>
       <c r="C55" s="10"/>
       <c r="E55" s="12"/>
     </row>
-    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:5" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B56" s="9"/>
       <c r="C56" s="10"/>
       <c r="D56" s="12"/>
       <c r="E56" s="12"/>
     </row>
-    <row r="57" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B57" s="28"/>
       <c r="C57" s="18"/>
       <c r="D57" s="29" t="s">
@@ -8039,25 +8048,25 @@
       </c>
       <c r="E57" s="19"/>
     </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B58" s="33"/>
       <c r="C58" s="10"/>
       <c r="D58" s="12"/>
       <c r="E58" s="12"/>
     </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B59" s="33"/>
       <c r="C59" s="10"/>
       <c r="D59" s="12"/>
       <c r="E59" s="12"/>
     </row>
-    <row r="60" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B60" s="9"/>
       <c r="C60" s="10"/>
       <c r="D60" s="12"/>
       <c r="E60" s="12"/>
     </row>
-    <row r="61" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B61" s="28"/>
       <c r="C61" s="18"/>
       <c r="D61" s="29" t="s">
@@ -8065,31 +8074,31 @@
       </c>
       <c r="E61" s="19"/>
     </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B62" s="33"/>
       <c r="C62" s="10"/>
       <c r="D62" s="12"/>
       <c r="E62" s="12"/>
     </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B63" s="9"/>
       <c r="C63" s="10"/>
       <c r="D63" s="12"/>
       <c r="E63" s="12"/>
     </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B64" s="9"/>
       <c r="C64" s="10"/>
       <c r="D64" s="12"/>
       <c r="E64" s="12"/>
     </row>
-    <row r="65" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B65" s="9"/>
       <c r="C65" s="10"/>
       <c r="D65" s="13"/>
       <c r="E65" s="13"/>
     </row>
-    <row r="66" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>4</v>
       </c>
@@ -8100,7 +8109,7 @@
       <c r="D66" s="15"/>
       <c r="E66" s="16"/>
     </row>
-    <row r="67" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B67" s="1" t="s">
         <v>0</v>
       </c>
@@ -8114,7 +8123,7 @@
         <v>43920</v>
       </c>
     </row>
-    <row r="68" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B68" s="4" t="s">
         <v>2</v>
       </c>
@@ -8126,18 +8135,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B69" s="28"/>
       <c r="C69" s="18" t="str">
         <f>(SUM(C70:C71)/4)&amp;" h"</f>
-        <v>0,875 h</v>
+        <v>0.875 h</v>
       </c>
       <c r="D69" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="19"/>
     </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B70" s="9" t="s">
         <v>41</v>
       </c>
@@ -8149,7 +8158,7 @@
       </c>
       <c r="E70" s="8"/>
     </row>
-    <row r="71" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B71" s="9" t="s">
         <v>48</v>
       </c>
@@ -8161,18 +8170,18 @@
       </c>
       <c r="E71" s="11"/>
     </row>
-    <row r="72" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="28"/>
       <c r="C72" s="18" t="str">
         <f>(SUM(C73:C75)/4)&amp;" h"</f>
-        <v>0,125 h</v>
+        <v>0.125 h</v>
       </c>
       <c r="D72" s="29" t="s">
         <v>6</v>
       </c>
       <c r="E72" s="19"/>
     </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B73" s="9" t="s">
         <v>51</v>
       </c>
@@ -8184,30 +8193,30 @@
       </c>
       <c r="E73" s="11"/>
     </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B74" s="9"/>
       <c r="C74" s="10"/>
       <c r="D74" s="11"/>
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="9"/>
       <c r="C75" s="10"/>
       <c r="D75" s="22"/>
       <c r="E75" s="11"/>
     </row>
-    <row r="76" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B76" s="28"/>
       <c r="C76" s="18" t="str">
         <f>(SUM(C77:C78)/4)&amp;" h"</f>
-        <v>0,5 h</v>
+        <v>0.5 h</v>
       </c>
       <c r="D76" s="29" t="s">
         <v>7</v>
       </c>
       <c r="E76" s="19"/>
     </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B77" s="9" t="s">
         <v>57</v>
       </c>
@@ -8219,7 +8228,7 @@
       </c>
       <c r="E77" s="11"/>
     </row>
-    <row r="78" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B78" s="9" t="s">
         <v>55</v>
       </c>
@@ -8231,18 +8240,18 @@
       </c>
       <c r="E78" s="11"/>
     </row>
-    <row r="79" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B79" s="28"/>
       <c r="C79" s="18" t="str">
         <f>(SUM(C80:C82)/4)&amp;" h"</f>
-        <v>0,5 h</v>
+        <v>0.5 h</v>
       </c>
       <c r="D79" s="29" t="s">
         <v>8</v>
       </c>
       <c r="E79" s="19"/>
     </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B80" s="9" t="s">
         <v>55</v>
       </c>
@@ -8254,19 +8263,19 @@
       </c>
       <c r="E80" s="12"/>
     </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B81" s="9"/>
       <c r="C81" s="10"/>
       <c r="D81" s="12"/>
       <c r="E81" s="12"/>
     </row>
-    <row r="82" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B82" s="9"/>
       <c r="C82" s="10"/>
       <c r="D82" s="12"/>
       <c r="E82" s="12"/>
     </row>
-    <row r="83" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B83" s="28"/>
       <c r="C83" s="18" t="str">
         <f>(SUM(C84:C96)/4)&amp;" h"</f>
@@ -8277,25 +8286,25 @@
       </c>
       <c r="E83" s="19"/>
     </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B84" s="9"/>
       <c r="C84" s="10"/>
       <c r="D84" s="12"/>
       <c r="E84" s="12"/>
     </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B85" s="9"/>
       <c r="C85" s="10"/>
       <c r="D85" s="12"/>
       <c r="E85" s="12"/>
     </row>
-    <row r="86" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B86" s="9"/>
       <c r="C86" s="10"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
     </row>
-    <row r="87" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B87" s="28"/>
       <c r="C87" s="18"/>
       <c r="D87" s="29" t="s">
@@ -8303,7 +8312,7 @@
       </c>
       <c r="E87" s="19"/>
     </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B88" s="33" t="s">
         <v>58</v>
       </c>
@@ -8315,7 +8324,7 @@
       </c>
       <c r="E88" s="12"/>
     </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B89" s="33" t="s">
         <v>60</v>
       </c>
@@ -8327,13 +8336,13 @@
       </c>
       <c r="E89" s="12"/>
     </row>
-    <row r="90" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B90" s="9"/>
       <c r="C90" s="10"/>
       <c r="D90" s="12"/>
       <c r="E90" s="12"/>
     </row>
-    <row r="91" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B91" s="28"/>
       <c r="C91" s="18"/>
       <c r="D91" s="29" t="s">
@@ -8341,7 +8350,7 @@
       </c>
       <c r="E91" s="19"/>
     </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B92" s="33" t="s">
         <v>59</v>
       </c>
@@ -8353,7 +8362,7 @@
       </c>
       <c r="E92" s="12"/>
     </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B93" s="9" t="s">
         <v>55</v>
       </c>
@@ -8365,7 +8374,7 @@
       </c>
       <c r="E93" s="12"/>
     </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B94" s="9" t="s">
         <v>94</v>
       </c>
@@ -8377,19 +8386,19 @@
       </c>
       <c r="E94" s="12"/>
     </row>
-    <row r="95" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B95" s="9"/>
       <c r="C95" s="10"/>
       <c r="D95" s="13"/>
       <c r="E95" s="13"/>
     </row>
-    <row r="96" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B96" s="9"/>
       <c r="C96" s="10"/>
       <c r="D96" s="13"/>
       <c r="E96" s="13"/>
     </row>
-    <row r="97" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B97" s="14" t="s">
         <v>4</v>
       </c>
@@ -8400,7 +8409,7 @@
       <c r="D97" s="15"/>
       <c r="E97" s="16"/>
     </row>
-    <row r="98" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
         <v>0</v>
       </c>
@@ -8414,7 +8423,7 @@
         <v>43927</v>
       </c>
     </row>
-    <row r="99" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B99" s="4" t="s">
         <v>2</v>
       </c>
@@ -8426,18 +8435,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B100" s="28"/>
       <c r="C100" s="18" t="str">
         <f>(SUM(C101:C102)/4)&amp;" h"</f>
-        <v>1,25 h</v>
+        <v>1.25 h</v>
       </c>
       <c r="D100" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E100" s="19"/>
     </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B101" s="9" t="s">
         <v>55</v>
       </c>
@@ -8449,7 +8458,7 @@
       </c>
       <c r="E101" s="8"/>
     </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B102" s="9" t="s">
         <v>92</v>
       </c>
@@ -8461,7 +8470,7 @@
       </c>
       <c r="E102" s="11"/>
     </row>
-    <row r="103" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B103" s="41" t="s">
         <v>97</v>
       </c>
@@ -8471,7 +8480,7 @@
       <c r="D103" s="43"/>
       <c r="E103" s="44"/>
     </row>
-    <row r="104" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B104" s="28"/>
       <c r="C104" s="18" t="str">
         <f>(SUM(C105:C107)/4)&amp;" h"</f>
@@ -8482,25 +8491,25 @@
       </c>
       <c r="E104" s="19"/>
     </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="9"/>
       <c r="C105" s="10"/>
       <c r="D105" s="22"/>
       <c r="E105" s="11"/>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B106" s="9"/>
       <c r="C106" s="10"/>
       <c r="D106" s="11"/>
       <c r="E106" s="11"/>
     </row>
-    <row r="107" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B107" s="9"/>
       <c r="C107" s="10"/>
       <c r="D107" s="22"/>
       <c r="E107" s="11"/>
     </row>
-    <row r="108" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B108" s="28"/>
       <c r="C108" s="18" t="str">
         <f>(SUM(C109:C110)/4)&amp;" h"</f>
@@ -8511,19 +8520,19 @@
       </c>
       <c r="E108" s="19"/>
     </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B109" s="9"/>
       <c r="C109" s="10"/>
       <c r="D109" s="22"/>
       <c r="E109" s="11"/>
     </row>
-    <row r="110" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B110" s="9"/>
       <c r="C110" s="10"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
     </row>
-    <row r="111" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B111" s="28"/>
       <c r="C111" s="18" t="str">
         <f>(SUM(C112:C114)/4)&amp;" h"</f>
@@ -8534,25 +8543,25 @@
       </c>
       <c r="E111" s="19"/>
     </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="9"/>
       <c r="C112" s="10"/>
       <c r="D112" s="11"/>
       <c r="E112" s="12"/>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B113" s="9"/>
       <c r="C113" s="10"/>
       <c r="D113" s="12"/>
       <c r="E113" s="12"/>
     </row>
-    <row r="114" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="114" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B114" s="9"/>
       <c r="C114" s="10"/>
       <c r="D114" s="12"/>
       <c r="E114" s="12"/>
     </row>
-    <row r="115" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="115" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B115" s="28"/>
       <c r="C115" s="18" t="str">
         <f>(SUM(C116:C129)/4)&amp;" h"</f>
@@ -8563,25 +8572,25 @@
       </c>
       <c r="E115" s="19"/>
     </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B116" s="9"/>
       <c r="C116" s="10"/>
       <c r="D116" s="12"/>
       <c r="E116" s="12"/>
     </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B117" s="9"/>
       <c r="C117" s="10"/>
       <c r="D117" s="12"/>
       <c r="E117" s="12"/>
     </row>
-    <row r="118" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="118" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B118" s="9"/>
       <c r="C118" s="10"/>
       <c r="D118" s="12"/>
       <c r="E118" s="12"/>
     </row>
-    <row r="119" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="119" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B119" s="28"/>
       <c r="C119" s="18"/>
       <c r="D119" s="29" t="s">
@@ -8589,25 +8598,25 @@
       </c>
       <c r="E119" s="19"/>
     </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="33"/>
       <c r="C120" s="10"/>
       <c r="D120" s="12"/>
       <c r="E120" s="12"/>
     </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="33"/>
       <c r="C121" s="10"/>
       <c r="D121" s="12"/>
       <c r="E121" s="12"/>
     </row>
-    <row r="122" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B122" s="9"/>
       <c r="C122" s="10"/>
       <c r="D122" s="12"/>
       <c r="E122" s="12"/>
     </row>
-    <row r="123" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B123" s="28"/>
       <c r="C123" s="18"/>
       <c r="D123" s="29" t="s">
@@ -8615,43 +8624,43 @@
       </c>
       <c r="E123" s="19"/>
     </row>
-    <row r="124" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B124" s="33"/>
       <c r="C124" s="10"/>
       <c r="D124" s="12"/>
       <c r="E124" s="12"/>
     </row>
-    <row r="125" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B125" s="9"/>
       <c r="C125" s="10"/>
       <c r="D125" s="12"/>
       <c r="E125" s="12"/>
     </row>
-    <row r="126" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B126" s="9"/>
       <c r="C126" s="10"/>
       <c r="D126" s="12"/>
       <c r="E126" s="12"/>
     </row>
-    <row r="127" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B127" s="9"/>
       <c r="C127" s="10"/>
       <c r="D127" s="12"/>
       <c r="E127" s="12"/>
     </row>
-    <row r="128" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B128" s="9"/>
       <c r="C128" s="36"/>
       <c r="D128" s="38"/>
       <c r="E128" s="38"/>
     </row>
-    <row r="129" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B129" s="9"/>
       <c r="C129" s="10"/>
       <c r="D129" s="37"/>
       <c r="E129" s="37"/>
     </row>
-    <row r="130" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B130" s="14" t="s">
         <v>4</v>
       </c>
@@ -8662,7 +8671,7 @@
       <c r="D130" s="15"/>
       <c r="E130" s="16"/>
     </row>
-    <row r="131" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B131" s="1" t="s">
         <v>0</v>
       </c>
@@ -8676,7 +8685,7 @@
         <v>43934</v>
       </c>
     </row>
-    <row r="132" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B132" s="4" t="s">
         <v>2</v>
       </c>
@@ -8688,7 +8697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="133" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B133" s="28"/>
       <c r="C133" s="18" t="str">
         <f>(SUM(C134:C135)/4)&amp;" h"</f>
@@ -8699,19 +8708,19 @@
       </c>
       <c r="E133" s="19"/>
     </row>
-    <row r="134" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B134" s="9"/>
       <c r="C134" s="10"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
     </row>
-    <row r="135" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B135" s="9"/>
       <c r="C135" s="10"/>
       <c r="D135" s="11"/>
       <c r="E135" s="11"/>
     </row>
-    <row r="136" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B136" s="28"/>
       <c r="C136" s="18" t="str">
         <f>(SUM(C137:C139)/4)&amp;" h"</f>
@@ -8722,25 +8731,25 @@
       </c>
       <c r="E136" s="19"/>
     </row>
-    <row r="137" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B137" s="9"/>
       <c r="C137" s="10"/>
       <c r="D137" s="22"/>
       <c r="E137" s="11"/>
     </row>
-    <row r="138" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B138" s="9"/>
       <c r="C138" s="10"/>
       <c r="D138" s="11"/>
       <c r="E138" s="11"/>
     </row>
-    <row r="139" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="139" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B139" s="9"/>
       <c r="C139" s="10"/>
       <c r="D139" s="22"/>
       <c r="E139" s="11"/>
     </row>
-    <row r="140" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="140" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B140" s="28"/>
       <c r="C140" s="18" t="str">
         <f>(SUM(C141:C142)/4)&amp;" h"</f>
@@ -8751,19 +8760,19 @@
       </c>
       <c r="E140" s="19"/>
     </row>
-    <row r="141" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B141" s="9"/>
       <c r="C141" s="10"/>
       <c r="D141" s="22"/>
       <c r="E141" s="11"/>
     </row>
-    <row r="142" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="142" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B142" s="9"/>
       <c r="C142" s="10"/>
       <c r="D142" s="11"/>
       <c r="E142" s="11"/>
     </row>
-    <row r="143" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="143" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B143" s="28"/>
       <c r="C143" s="18" t="str">
         <f>(SUM(C144:C146)/4)&amp;" h"</f>
@@ -8774,25 +8783,25 @@
       </c>
       <c r="E143" s="19"/>
     </row>
-    <row r="144" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B144" s="9"/>
       <c r="C144" s="10"/>
       <c r="D144" s="11"/>
       <c r="E144" s="12"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B145" s="9"/>
       <c r="C145" s="10"/>
       <c r="D145" s="12"/>
       <c r="E145" s="12"/>
     </row>
-    <row r="146" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="146" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B146" s="9"/>
       <c r="C146" s="10"/>
       <c r="D146" s="12"/>
       <c r="E146" s="12"/>
     </row>
-    <row r="147" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="147" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B147" s="28"/>
       <c r="C147" s="18" t="str">
         <f>(SUM(C148:C151)/4)&amp;" h"</f>
@@ -8803,31 +8812,31 @@
       </c>
       <c r="E147" s="19"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B148" s="9"/>
       <c r="C148" s="10"/>
       <c r="D148" s="12"/>
       <c r="E148" s="12"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B149" s="9"/>
       <c r="C149" s="10"/>
       <c r="D149" s="12"/>
       <c r="E149" s="12"/>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B150" s="9"/>
       <c r="C150" s="10"/>
       <c r="D150" s="12"/>
       <c r="E150" s="12"/>
     </row>
-    <row r="151" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="151" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B151" s="9"/>
       <c r="C151" s="10"/>
       <c r="D151" s="13"/>
       <c r="E151" s="13"/>
     </row>
-    <row r="152" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="152" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B152" s="14" t="s">
         <v>4</v>
       </c>
@@ -8838,7 +8847,7 @@
       <c r="D152" s="15"/>
       <c r="E152" s="16"/>
     </row>
-    <row r="153" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="153" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B153" s="1" t="s">
         <v>0</v>
       </c>
@@ -8852,7 +8861,7 @@
         <v>43941</v>
       </c>
     </row>
-    <row r="154" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B154" s="4" t="s">
         <v>2</v>
       </c>
@@ -8864,7 +8873,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B155" s="28"/>
       <c r="C155" s="18" t="str">
         <f>(SUM(C156:C157)/4)&amp;" h"</f>
@@ -8875,19 +8884,19 @@
       </c>
       <c r="E155" s="19"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B156" s="9"/>
       <c r="C156" s="10"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
     </row>
-    <row r="157" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B157" s="9"/>
       <c r="C157" s="10"/>
       <c r="D157" s="11"/>
       <c r="E157" s="11"/>
     </row>
-    <row r="158" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B158" s="28"/>
       <c r="C158" s="18" t="str">
         <f>(SUM(C159:C161)/4)&amp;" h"</f>
@@ -8898,25 +8907,25 @@
       </c>
       <c r="E158" s="19"/>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B159" s="9"/>
       <c r="C159" s="10"/>
       <c r="D159" s="22"/>
       <c r="E159" s="11"/>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B160" s="9"/>
       <c r="C160" s="10"/>
       <c r="D160" s="11"/>
       <c r="E160" s="11"/>
     </row>
-    <row r="161" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B161" s="9"/>
       <c r="C161" s="10"/>
       <c r="D161" s="22"/>
       <c r="E161" s="11"/>
     </row>
-    <row r="162" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B162" s="28"/>
       <c r="C162" s="18" t="str">
         <f>(SUM(C163:C164)/4)&amp;" h"</f>
@@ -8927,19 +8936,19 @@
       </c>
       <c r="E162" s="19"/>
     </row>
-    <row r="163" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B163" s="9"/>
       <c r="C163" s="10"/>
       <c r="D163" s="22"/>
       <c r="E163" s="11"/>
     </row>
-    <row r="164" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="164" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B164" s="9"/>
       <c r="C164" s="10"/>
       <c r="D164" s="11"/>
       <c r="E164" s="11"/>
     </row>
-    <row r="165" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="165" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B165" s="28"/>
       <c r="C165" s="18" t="str">
         <f>(SUM(C166:C168)/4)&amp;" h"</f>
@@ -8950,25 +8959,25 @@
       </c>
       <c r="E165" s="19"/>
     </row>
-    <row r="166" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B166" s="9"/>
       <c r="C166" s="10"/>
       <c r="D166" s="11"/>
       <c r="E166" s="12"/>
     </row>
-    <row r="167" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B167" s="9"/>
       <c r="C167" s="10"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
     </row>
-    <row r="168" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="168" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B168" s="9"/>
       <c r="C168" s="10"/>
       <c r="D168" s="12"/>
       <c r="E168" s="12"/>
     </row>
-    <row r="169" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="169" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B169" s="28"/>
       <c r="C169" s="18" t="str">
         <f>(SUM(C170:C173)/4)&amp;" h"</f>
@@ -8979,31 +8988,31 @@
       </c>
       <c r="E169" s="19"/>
     </row>
-    <row r="170" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B170" s="9"/>
       <c r="C170" s="10"/>
       <c r="D170" s="12"/>
       <c r="E170" s="12"/>
     </row>
-    <row r="171" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B171" s="9"/>
       <c r="C171" s="10"/>
       <c r="D171" s="12"/>
       <c r="E171" s="12"/>
     </row>
-    <row r="172" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B172" s="9"/>
       <c r="C172" s="10"/>
       <c r="D172" s="12"/>
       <c r="E172" s="12"/>
     </row>
-    <row r="173" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B173" s="9"/>
       <c r="C173" s="10"/>
       <c r="D173" s="13"/>
       <c r="E173" s="13"/>
     </row>
-    <row r="174" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="174" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B174" s="14" t="s">
         <v>4</v>
       </c>
@@ -9014,7 +9023,7 @@
       <c r="D174" s="15"/>
       <c r="E174" s="16"/>
     </row>
-    <row r="175" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="175" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B175" s="1" t="s">
         <v>0</v>
       </c>
@@ -9028,7 +9037,7 @@
         <v>43948</v>
       </c>
     </row>
-    <row r="176" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="176" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B176" s="4" t="s">
         <v>2</v>
       </c>
@@ -9040,7 +9049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="177" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="177" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B177" s="28"/>
       <c r="C177" s="18" t="str">
         <f>(SUM(C178:C179)/4)&amp;" h"</f>
@@ -9051,19 +9060,19 @@
       </c>
       <c r="E177" s="19"/>
     </row>
-    <row r="178" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B178" s="9"/>
       <c r="C178" s="10"/>
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
     </row>
-    <row r="179" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="179" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B179" s="9"/>
       <c r="C179" s="10"/>
       <c r="D179" s="11"/>
       <c r="E179" s="11"/>
     </row>
-    <row r="180" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="180" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B180" s="28"/>
       <c r="C180" s="18" t="str">
         <f>(SUM(C181:C183)/4)&amp;" h"</f>
@@ -9074,25 +9083,25 @@
       </c>
       <c r="E180" s="19"/>
     </row>
-    <row r="181" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B181" s="9"/>
       <c r="C181" s="10"/>
       <c r="D181" s="22"/>
       <c r="E181" s="11"/>
     </row>
-    <row r="182" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B182" s="9"/>
       <c r="C182" s="10"/>
       <c r="D182" s="11"/>
       <c r="E182" s="11"/>
     </row>
-    <row r="183" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="183" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B183" s="9"/>
       <c r="C183" s="10"/>
       <c r="D183" s="22"/>
       <c r="E183" s="11"/>
     </row>
-    <row r="184" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="184" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B184" s="28"/>
       <c r="C184" s="18" t="str">
         <f>(SUM(C185:C186)/4)&amp;" h"</f>
@@ -9103,19 +9112,19 @@
       </c>
       <c r="E184" s="19"/>
     </row>
-    <row r="185" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B185" s="9"/>
       <c r="C185" s="10"/>
       <c r="D185" s="22"/>
       <c r="E185" s="11"/>
     </row>
-    <row r="186" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="186" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B186" s="9"/>
       <c r="C186" s="10"/>
       <c r="D186" s="11"/>
       <c r="E186" s="11"/>
     </row>
-    <row r="187" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="187" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B187" s="28"/>
       <c r="C187" s="18" t="str">
         <f>(SUM(C188:C190)/4)&amp;" h"</f>
@@ -9126,25 +9135,25 @@
       </c>
       <c r="E187" s="19"/>
     </row>
-    <row r="188" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B188" s="9"/>
       <c r="C188" s="10"/>
       <c r="D188" s="11"/>
       <c r="E188" s="12"/>
     </row>
-    <row r="189" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B189" s="9"/>
       <c r="C189" s="10"/>
       <c r="D189" s="12"/>
       <c r="E189" s="12"/>
     </row>
-    <row r="190" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="190" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B190" s="9"/>
       <c r="C190" s="10"/>
       <c r="D190" s="12"/>
       <c r="E190" s="12"/>
     </row>
-    <row r="191" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="191" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B191" s="28"/>
       <c r="C191" s="18" t="str">
         <f>(SUM(C192:C195)/4)&amp;" h"</f>
@@ -9155,31 +9164,31 @@
       </c>
       <c r="E191" s="19"/>
     </row>
-    <row r="192" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B192" s="9"/>
       <c r="C192" s="10"/>
       <c r="D192" s="12"/>
       <c r="E192" s="12"/>
     </row>
-    <row r="193" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B193" s="9"/>
       <c r="C193" s="10"/>
       <c r="D193" s="12"/>
       <c r="E193" s="12"/>
     </row>
-    <row r="194" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B194" s="9"/>
       <c r="C194" s="10"/>
       <c r="D194" s="12"/>
       <c r="E194" s="12"/>
     </row>
-    <row r="195" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="195" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B195" s="9"/>
       <c r="C195" s="10"/>
       <c r="D195" s="13"/>
       <c r="E195" s="13"/>
     </row>
-    <row r="196" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B196" s="14" t="s">
         <v>4</v>
       </c>
@@ -9190,7 +9199,7 @@
       <c r="D196" s="15"/>
       <c r="E196" s="16"/>
     </row>
-    <row r="197" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B197" s="1" t="s">
         <v>0</v>
       </c>
@@ -9204,7 +9213,7 @@
         <v>43955</v>
       </c>
     </row>
-    <row r="198" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="198" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B198" s="4" t="s">
         <v>2</v>
       </c>
@@ -9216,7 +9225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="199" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B199" s="28"/>
       <c r="C199" s="18" t="str">
         <f>(SUM(C200:C201)/4)&amp;" h"</f>
@@ -9227,19 +9236,19 @@
       </c>
       <c r="E199" s="19"/>
     </row>
-    <row r="200" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B200" s="9"/>
       <c r="C200" s="10"/>
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
     </row>
-    <row r="201" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="201" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B201" s="9"/>
       <c r="C201" s="10"/>
       <c r="D201" s="11"/>
       <c r="E201" s="11"/>
     </row>
-    <row r="202" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="202" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B202" s="28"/>
       <c r="C202" s="18" t="str">
         <f>(SUM(C203:C205)/4)&amp;" h"</f>
@@ -9250,25 +9259,25 @@
       </c>
       <c r="E202" s="19"/>
     </row>
-    <row r="203" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="203" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B203" s="9"/>
       <c r="C203" s="10"/>
       <c r="D203" s="22"/>
       <c r="E203" s="11"/>
     </row>
-    <row r="204" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="204" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B204" s="9"/>
       <c r="C204" s="10"/>
       <c r="D204" s="11"/>
       <c r="E204" s="11"/>
     </row>
-    <row r="205" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="205" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B205" s="9"/>
       <c r="C205" s="10"/>
       <c r="D205" s="22"/>
       <c r="E205" s="11"/>
     </row>
-    <row r="206" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B206" s="28"/>
       <c r="C206" s="18" t="str">
         <f>(SUM(C207:C208)/4)&amp;" h"</f>
@@ -9279,19 +9288,19 @@
       </c>
       <c r="E206" s="19"/>
     </row>
-    <row r="207" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="207" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B207" s="9"/>
       <c r="C207" s="10"/>
       <c r="D207" s="22"/>
       <c r="E207" s="11"/>
     </row>
-    <row r="208" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B208" s="9"/>
       <c r="C208" s="10"/>
       <c r="D208" s="11"/>
       <c r="E208" s="11"/>
     </row>
-    <row r="209" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B209" s="28"/>
       <c r="C209" s="18" t="str">
         <f>(SUM(C210:C212)/4)&amp;" h"</f>
@@ -9302,25 +9311,25 @@
       </c>
       <c r="E209" s="19"/>
     </row>
-    <row r="210" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="210" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B210" s="9"/>
       <c r="C210" s="10"/>
       <c r="D210" s="11"/>
       <c r="E210" s="12"/>
     </row>
-    <row r="211" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="211" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B211" s="9"/>
       <c r="C211" s="10"/>
       <c r="D211" s="12"/>
       <c r="E211" s="12"/>
     </row>
-    <row r="212" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="212" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B212" s="9"/>
       <c r="C212" s="10"/>
       <c r="D212" s="12"/>
       <c r="E212" s="12"/>
     </row>
-    <row r="213" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="213" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B213" s="28"/>
       <c r="C213" s="18" t="str">
         <f>(SUM(C214:C217)/4)&amp;" h"</f>
@@ -9331,31 +9340,31 @@
       </c>
       <c r="E213" s="19"/>
     </row>
-    <row r="214" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="214" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B214" s="9"/>
       <c r="C214" s="10"/>
       <c r="D214" s="12"/>
       <c r="E214" s="12"/>
     </row>
-    <row r="215" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="215" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B215" s="9"/>
       <c r="C215" s="10"/>
       <c r="D215" s="12"/>
       <c r="E215" s="12"/>
     </row>
-    <row r="216" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="216" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B216" s="9"/>
       <c r="C216" s="10"/>
       <c r="D216" s="12"/>
       <c r="E216" s="12"/>
     </row>
-    <row r="217" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="217" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B217" s="9"/>
       <c r="C217" s="10"/>
       <c r="D217" s="13"/>
       <c r="E217" s="13"/>
     </row>
-    <row r="218" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="218" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B218" s="14" t="s">
         <v>4</v>
       </c>
@@ -9366,7 +9375,7 @@
       <c r="D218" s="15"/>
       <c r="E218" s="16"/>
     </row>
-    <row r="219" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="219" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B219" s="1" t="s">
         <v>0</v>
       </c>
@@ -9380,7 +9389,7 @@
         <v>43962</v>
       </c>
     </row>
-    <row r="220" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="220" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B220" s="4" t="s">
         <v>2</v>
       </c>
@@ -9392,7 +9401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="221" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B221" s="28"/>
       <c r="C221" s="18" t="str">
         <f>(SUM(C222:C223)/4)&amp;" h"</f>
@@ -9403,19 +9412,19 @@
       </c>
       <c r="E221" s="19"/>
     </row>
-    <row r="222" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="222" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B222" s="9"/>
       <c r="C222" s="10"/>
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
     </row>
-    <row r="223" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="223" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B223" s="9"/>
       <c r="C223" s="10"/>
       <c r="D223" s="11"/>
       <c r="E223" s="11"/>
     </row>
-    <row r="224" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="224" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B224" s="28"/>
       <c r="C224" s="18" t="str">
         <f>(SUM(C225:C227)/4)&amp;" h"</f>
@@ -9426,25 +9435,25 @@
       </c>
       <c r="E224" s="19"/>
     </row>
-    <row r="225" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="225" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B225" s="9"/>
       <c r="C225" s="10"/>
       <c r="D225" s="22"/>
       <c r="E225" s="11"/>
     </row>
-    <row r="226" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="226" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B226" s="9"/>
       <c r="C226" s="10"/>
       <c r="D226" s="11"/>
       <c r="E226" s="11"/>
     </row>
-    <row r="227" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="227" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B227" s="9"/>
       <c r="C227" s="10"/>
       <c r="D227" s="22"/>
       <c r="E227" s="11"/>
     </row>
-    <row r="228" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="228" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B228" s="28"/>
       <c r="C228" s="18" t="str">
         <f>(SUM(C229:C230)/4)&amp;" h"</f>
@@ -9455,19 +9464,19 @@
       </c>
       <c r="E228" s="19"/>
     </row>
-    <row r="229" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="229" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B229" s="9"/>
       <c r="C229" s="10"/>
       <c r="D229" s="22"/>
       <c r="E229" s="11"/>
     </row>
-    <row r="230" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="230" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B230" s="9"/>
       <c r="C230" s="10"/>
       <c r="D230" s="11"/>
       <c r="E230" s="11"/>
     </row>
-    <row r="231" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="231" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B231" s="28"/>
       <c r="C231" s="18" t="str">
         <f>(SUM(C232:C234)/4)&amp;" h"</f>
@@ -9478,25 +9487,25 @@
       </c>
       <c r="E231" s="19"/>
     </row>
-    <row r="232" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="232" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B232" s="9"/>
       <c r="C232" s="10"/>
       <c r="D232" s="11"/>
       <c r="E232" s="12"/>
     </row>
-    <row r="233" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="233" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B233" s="9"/>
       <c r="C233" s="10"/>
       <c r="D233" s="12"/>
       <c r="E233" s="12"/>
     </row>
-    <row r="234" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="234" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B234" s="9"/>
       <c r="C234" s="10"/>
       <c r="D234" s="12"/>
       <c r="E234" s="12"/>
     </row>
-    <row r="235" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="235" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B235" s="28"/>
       <c r="C235" s="18" t="str">
         <f>(SUM(C236:C239)/4)&amp;" h"</f>
@@ -9507,31 +9516,31 @@
       </c>
       <c r="E235" s="19"/>
     </row>
-    <row r="236" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="236" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B236" s="9"/>
       <c r="C236" s="10"/>
       <c r="D236" s="12"/>
       <c r="E236" s="12"/>
     </row>
-    <row r="237" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="237" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B237" s="9"/>
       <c r="C237" s="10"/>
       <c r="D237" s="12"/>
       <c r="E237" s="12"/>
     </row>
-    <row r="238" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="238" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B238" s="9"/>
       <c r="C238" s="10"/>
       <c r="D238" s="12"/>
       <c r="E238" s="12"/>
     </row>
-    <row r="239" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="239" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B239" s="9"/>
       <c r="C239" s="10"/>
       <c r="D239" s="13"/>
       <c r="E239" s="13"/>
     </row>
-    <row r="240" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="240" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B240" s="14" t="s">
         <v>4</v>
       </c>
@@ -9542,7 +9551,7 @@
       <c r="D240" s="15"/>
       <c r="E240" s="16"/>
     </row>
-    <row r="241" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="241" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B241" s="1" t="s">
         <v>0</v>
       </c>
@@ -9554,7 +9563,7 @@
         <v>43969</v>
       </c>
     </row>
-    <row r="242" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="242" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B242" s="4" t="s">
         <v>2</v>
       </c>
@@ -9566,7 +9575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="243" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B243" s="28"/>
       <c r="C243" s="18" t="str">
         <f>(SUM(C244:C245)/4)&amp;" h"</f>
@@ -9577,19 +9586,19 @@
       </c>
       <c r="E243" s="19"/>
     </row>
-    <row r="244" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="244" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B244" s="9"/>
       <c r="C244" s="10"/>
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
     </row>
-    <row r="245" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="245" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B245" s="9"/>
       <c r="C245" s="10"/>
       <c r="D245" s="11"/>
       <c r="E245" s="11"/>
     </row>
-    <row r="246" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="246" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B246" s="28"/>
       <c r="C246" s="18" t="str">
         <f>(SUM(C247:C249)/4)&amp;" h"</f>
@@ -9600,25 +9609,25 @@
       </c>
       <c r="E246" s="19"/>
     </row>
-    <row r="247" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="247" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B247" s="9"/>
       <c r="C247" s="10"/>
       <c r="D247" s="22"/>
       <c r="E247" s="11"/>
     </row>
-    <row r="248" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="248" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B248" s="9"/>
       <c r="C248" s="10"/>
       <c r="D248" s="11"/>
       <c r="E248" s="11"/>
     </row>
-    <row r="249" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="249" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B249" s="9"/>
       <c r="C249" s="10"/>
       <c r="D249" s="22"/>
       <c r="E249" s="11"/>
     </row>
-    <row r="250" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="250" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B250" s="28"/>
       <c r="C250" s="18" t="str">
         <f>(SUM(C251:C252)/4)&amp;" h"</f>
@@ -9629,19 +9638,19 @@
       </c>
       <c r="E250" s="19"/>
     </row>
-    <row r="251" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="251" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B251" s="9"/>
       <c r="C251" s="10"/>
       <c r="D251" s="22"/>
       <c r="E251" s="11"/>
     </row>
-    <row r="252" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="252" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B252" s="9"/>
       <c r="C252" s="10"/>
       <c r="D252" s="11"/>
       <c r="E252" s="11"/>
     </row>
-    <row r="253" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="253" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B253" s="28"/>
       <c r="C253" s="18" t="str">
         <f>(SUM(C254:C256)/4)&amp;" h"</f>
@@ -9652,25 +9661,25 @@
       </c>
       <c r="E253" s="19"/>
     </row>
-    <row r="254" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="254" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B254" s="9"/>
       <c r="C254" s="10"/>
       <c r="D254" s="11"/>
       <c r="E254" s="12"/>
     </row>
-    <row r="255" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="255" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B255" s="9"/>
       <c r="C255" s="10"/>
       <c r="D255" s="12"/>
       <c r="E255" s="12"/>
     </row>
-    <row r="256" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="256" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B256" s="9"/>
       <c r="C256" s="10"/>
       <c r="D256" s="12"/>
       <c r="E256" s="12"/>
     </row>
-    <row r="257" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="257" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B257" s="28"/>
       <c r="C257" s="18" t="str">
         <f>(SUM(C258:C261)/4)&amp;" h"</f>
@@ -9681,31 +9690,31 @@
       </c>
       <c r="E257" s="19"/>
     </row>
-    <row r="258" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="258" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B258" s="9"/>
       <c r="C258" s="10"/>
       <c r="D258" s="12"/>
       <c r="E258" s="12"/>
     </row>
-    <row r="259" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="259" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B259" s="9"/>
       <c r="C259" s="10"/>
       <c r="D259" s="12"/>
       <c r="E259" s="12"/>
     </row>
-    <row r="260" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="260" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B260" s="9"/>
       <c r="C260" s="10"/>
       <c r="D260" s="12"/>
       <c r="E260" s="12"/>
     </row>
-    <row r="261" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="261" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B261" s="9"/>
       <c r="C261" s="10"/>
       <c r="D261" s="13"/>
       <c r="E261" s="13"/>
     </row>
-    <row r="262" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="262" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B262" s="14" t="s">
         <v>4</v>
       </c>
@@ -9716,7 +9725,7 @@
       <c r="D262" s="15"/>
       <c r="E262" s="16"/>
     </row>
-    <row r="263" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="263" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B263" s="1" t="s">
         <v>0</v>
       </c>
@@ -9730,7 +9739,7 @@
         <v>43976</v>
       </c>
     </row>
-    <row r="264" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="264" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B264" s="4" t="s">
         <v>2</v>
       </c>
@@ -9742,7 +9751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="265" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B265" s="28"/>
       <c r="C265" s="18" t="str">
         <f>(SUM(C266:C267)/4)&amp;" h"</f>
@@ -9753,19 +9762,19 @@
       </c>
       <c r="E265" s="19"/>
     </row>
-    <row r="266" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="266" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B266" s="9"/>
       <c r="C266" s="10"/>
       <c r="D266" s="8"/>
       <c r="E266" s="8"/>
     </row>
-    <row r="267" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="267" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B267" s="9"/>
       <c r="C267" s="10"/>
       <c r="D267" s="11"/>
       <c r="E267" s="11"/>
     </row>
-    <row r="268" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B268" s="28"/>
       <c r="C268" s="18" t="str">
         <f>(SUM(C269:C271)/4)&amp;" h"</f>
@@ -9776,25 +9785,25 @@
       </c>
       <c r="E268" s="19"/>
     </row>
-    <row r="269" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="269" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B269" s="9"/>
       <c r="C269" s="10"/>
       <c r="D269" s="22"/>
       <c r="E269" s="11"/>
     </row>
-    <row r="270" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="270" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B270" s="9"/>
       <c r="C270" s="10"/>
       <c r="D270" s="11"/>
       <c r="E270" s="11"/>
     </row>
-    <row r="271" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="271" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B271" s="9"/>
       <c r="C271" s="10"/>
       <c r="D271" s="22"/>
       <c r="E271" s="11"/>
     </row>
-    <row r="272" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="272" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B272" s="28"/>
       <c r="C272" s="18" t="str">
         <f>(SUM(C273:C274)/4)&amp;" h"</f>
@@ -9805,19 +9814,19 @@
       </c>
       <c r="E272" s="19"/>
     </row>
-    <row r="273" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B273" s="9"/>
       <c r="C273" s="10"/>
       <c r="D273" s="22"/>
       <c r="E273" s="11"/>
     </row>
-    <row r="274" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="274" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B274" s="9"/>
       <c r="C274" s="10"/>
       <c r="D274" s="11"/>
       <c r="E274" s="11"/>
     </row>
-    <row r="275" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B275" s="28"/>
       <c r="C275" s="18" t="str">
         <f>(SUM(C276:C278)/4)&amp;" h"</f>
@@ -9828,25 +9837,25 @@
       </c>
       <c r="E275" s="19"/>
     </row>
-    <row r="276" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B276" s="9"/>
       <c r="C276" s="10"/>
       <c r="D276" s="11"/>
       <c r="E276" s="12"/>
     </row>
-    <row r="277" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B277" s="9"/>
       <c r="C277" s="10"/>
       <c r="D277" s="12"/>
       <c r="E277" s="12"/>
     </row>
-    <row r="278" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B278" s="9"/>
       <c r="C278" s="10"/>
       <c r="D278" s="12"/>
       <c r="E278" s="12"/>
     </row>
-    <row r="279" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="279" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B279" s="28"/>
       <c r="C279" s="18" t="str">
         <f>(SUM(C280:C283)/4)&amp;" h"</f>
@@ -9857,31 +9866,31 @@
       </c>
       <c r="E279" s="19"/>
     </row>
-    <row r="280" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B280" s="9"/>
       <c r="C280" s="10"/>
       <c r="D280" s="12"/>
       <c r="E280" s="12"/>
     </row>
-    <row r="281" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B281" s="9"/>
       <c r="C281" s="10"/>
       <c r="D281" s="12"/>
       <c r="E281" s="12"/>
     </row>
-    <row r="282" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B282" s="9"/>
       <c r="C282" s="10"/>
       <c r="D282" s="12"/>
       <c r="E282" s="12"/>
     </row>
-    <row r="283" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="283" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B283" s="9"/>
       <c r="C283" s="10"/>
       <c r="D283" s="13"/>
       <c r="E283" s="13"/>
     </row>
-    <row r="284" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="284" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B284" s="14" t="s">
         <v>4</v>
       </c>
@@ -9892,7 +9901,7 @@
       <c r="D284" s="15"/>
       <c r="E284" s="16"/>
     </row>
-    <row r="285" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="285" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B285" s="1" t="s">
         <v>0</v>
       </c>
@@ -9906,7 +9915,7 @@
         <v>43983</v>
       </c>
     </row>
-    <row r="286" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="286" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B286" s="4" t="s">
         <v>2</v>
       </c>
@@ -9918,7 +9927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="287" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="287" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B287" s="28"/>
       <c r="C287" s="18" t="str">
         <f>(SUM(C288:C289)/4)&amp;" h"</f>
@@ -9929,19 +9938,19 @@
       </c>
       <c r="E287" s="19"/>
     </row>
-    <row r="288" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B288" s="9"/>
       <c r="C288" s="10"/>
       <c r="D288" s="8"/>
       <c r="E288" s="8"/>
     </row>
-    <row r="289" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="289" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B289" s="9"/>
       <c r="C289" s="10"/>
       <c r="D289" s="11"/>
       <c r="E289" s="11"/>
     </row>
-    <row r="290" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="290" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B290" s="28"/>
       <c r="C290" s="18" t="str">
         <f>(SUM(C291:C293)/4)&amp;" h"</f>
@@ -9952,25 +9961,25 @@
       </c>
       <c r="E290" s="19"/>
     </row>
-    <row r="291" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B291" s="9"/>
       <c r="C291" s="10"/>
       <c r="D291" s="22"/>
       <c r="E291" s="11"/>
     </row>
-    <row r="292" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="292" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B292" s="9"/>
       <c r="C292" s="10"/>
       <c r="D292" s="11"/>
       <c r="E292" s="11"/>
     </row>
-    <row r="293" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="293" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B293" s="9"/>
       <c r="C293" s="10"/>
       <c r="D293" s="22"/>
       <c r="E293" s="11"/>
     </row>
-    <row r="294" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="294" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B294" s="28"/>
       <c r="C294" s="18" t="str">
         <f>(SUM(C295:C296)/4)&amp;" h"</f>
@@ -9981,19 +9990,19 @@
       </c>
       <c r="E294" s="19"/>
     </row>
-    <row r="295" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="295" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B295" s="9"/>
       <c r="C295" s="10"/>
       <c r="D295" s="22"/>
       <c r="E295" s="11"/>
     </row>
-    <row r="296" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="296" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B296" s="9"/>
       <c r="C296" s="10"/>
       <c r="D296" s="11"/>
       <c r="E296" s="11"/>
     </row>
-    <row r="297" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="297" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B297" s="28"/>
       <c r="C297" s="18" t="str">
         <f>(SUM(C298:C300)/4)&amp;" h"</f>
@@ -10004,25 +10013,25 @@
       </c>
       <c r="E297" s="19"/>
     </row>
-    <row r="298" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B298" s="9"/>
       <c r="C298" s="10"/>
       <c r="D298" s="11"/>
       <c r="E298" s="12"/>
     </row>
-    <row r="299" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B299" s="9"/>
       <c r="C299" s="10"/>
       <c r="D299" s="12"/>
       <c r="E299" s="12"/>
     </row>
-    <row r="300" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="300" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B300" s="9"/>
       <c r="C300" s="10"/>
       <c r="D300" s="12"/>
       <c r="E300" s="12"/>
     </row>
-    <row r="301" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="301" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B301" s="28"/>
       <c r="C301" s="18" t="str">
         <f>(SUM(C302:C305)/4)&amp;" h"</f>
@@ -10033,31 +10042,31 @@
       </c>
       <c r="E301" s="19"/>
     </row>
-    <row r="302" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="302" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B302" s="9"/>
       <c r="C302" s="10"/>
       <c r="D302" s="12"/>
       <c r="E302" s="12"/>
     </row>
-    <row r="303" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B303" s="9"/>
       <c r="C303" s="10"/>
       <c r="D303" s="12"/>
       <c r="E303" s="12"/>
     </row>
-    <row r="304" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="304" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B304" s="9"/>
       <c r="C304" s="10"/>
       <c r="D304" s="12"/>
       <c r="E304" s="12"/>
     </row>
-    <row r="305" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B305" s="9"/>
       <c r="C305" s="10"/>
       <c r="D305" s="13"/>
       <c r="E305" s="13"/>
     </row>
-    <row r="306" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="306" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B306" s="14" t="s">
         <v>4</v>
       </c>
@@ -10068,7 +10077,7 @@
       <c r="D306" s="15"/>
       <c r="E306" s="16"/>
     </row>
-    <row r="307" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="307" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B307" s="1" t="s">
         <v>0</v>
       </c>
@@ -10082,7 +10091,7 @@
         <v>43990</v>
       </c>
     </row>
-    <row r="308" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="308" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B308" s="4" t="s">
         <v>2</v>
       </c>
@@ -10094,7 +10103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="309" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B309" s="28"/>
       <c r="C309" s="18" t="str">
         <f>(SUM(C310:C311)/4)&amp;" h"</f>
@@ -10105,19 +10114,19 @@
       </c>
       <c r="E309" s="19"/>
     </row>
-    <row r="310" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="310" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B310" s="9"/>
       <c r="C310" s="10"/>
       <c r="D310" s="8"/>
       <c r="E310" s="8"/>
     </row>
-    <row r="311" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="311" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B311" s="9"/>
       <c r="C311" s="10"/>
       <c r="D311" s="11"/>
       <c r="E311" s="11"/>
     </row>
-    <row r="312" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="312" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B312" s="28"/>
       <c r="C312" s="18" t="str">
         <f>(SUM(C313:C315)/4)&amp;" h"</f>
@@ -10128,25 +10137,25 @@
       </c>
       <c r="E312" s="19"/>
     </row>
-    <row r="313" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="313" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B313" s="9"/>
       <c r="C313" s="10"/>
       <c r="D313" s="22"/>
       <c r="E313" s="11"/>
     </row>
-    <row r="314" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="314" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B314" s="9"/>
       <c r="C314" s="10"/>
       <c r="D314" s="11"/>
       <c r="E314" s="11"/>
     </row>
-    <row r="315" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="315" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B315" s="9"/>
       <c r="C315" s="10"/>
       <c r="D315" s="22"/>
       <c r="E315" s="11"/>
     </row>
-    <row r="316" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B316" s="28"/>
       <c r="C316" s="18" t="str">
         <f>(SUM(C317:C318)/4)&amp;" h"</f>
@@ -10157,19 +10166,19 @@
       </c>
       <c r="E316" s="19"/>
     </row>
-    <row r="317" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="317" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B317" s="9"/>
       <c r="C317" s="10"/>
       <c r="D317" s="22"/>
       <c r="E317" s="11"/>
     </row>
-    <row r="318" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="318" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B318" s="9"/>
       <c r="C318" s="10"/>
       <c r="D318" s="11"/>
       <c r="E318" s="11"/>
     </row>
-    <row r="319" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="319" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B319" s="28"/>
       <c r="C319" s="18" t="str">
         <f>(SUM(C320:C322)/4)&amp;" h"</f>
@@ -10180,25 +10189,25 @@
       </c>
       <c r="E319" s="19"/>
     </row>
-    <row r="320" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="320" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B320" s="9"/>
       <c r="C320" s="10"/>
       <c r="D320" s="11"/>
       <c r="E320" s="12"/>
     </row>
-    <row r="321" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B321" s="9"/>
       <c r="C321" s="10"/>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
     </row>
-    <row r="322" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="322" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B322" s="9"/>
       <c r="C322" s="10"/>
       <c r="D322" s="12"/>
       <c r="E322" s="12"/>
     </row>
-    <row r="323" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="323" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B323" s="28"/>
       <c r="C323" s="18" t="str">
         <f>(SUM(C324:C327)/4)&amp;" h"</f>
@@ -10209,31 +10218,31 @@
       </c>
       <c r="E323" s="19"/>
     </row>
-    <row r="324" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="324" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B324" s="9"/>
       <c r="C324" s="10"/>
       <c r="D324" s="12"/>
       <c r="E324" s="12"/>
     </row>
-    <row r="325" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B325" s="9"/>
       <c r="C325" s="10"/>
       <c r="D325" s="12"/>
       <c r="E325" s="12"/>
     </row>
-    <row r="326" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B326" s="9"/>
       <c r="C326" s="10"/>
       <c r="D326" s="12"/>
       <c r="E326" s="12"/>
     </row>
-    <row r="327" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="327" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B327" s="9"/>
       <c r="C327" s="10"/>
       <c r="D327" s="13"/>
       <c r="E327" s="13"/>
     </row>
-    <row r="328" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="328" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B328" s="14" t="s">
         <v>4</v>
       </c>
@@ -10244,7 +10253,7 @@
       <c r="D328" s="15"/>
       <c r="E328" s="16"/>
     </row>
-    <row r="329" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="329" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B329" s="1" t="s">
         <v>0</v>
       </c>
@@ -10258,7 +10267,7 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="330" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="330" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B330" s="4" t="s">
         <v>2</v>
       </c>
@@ -10270,7 +10279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="331" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="331" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B331" s="28"/>
       <c r="C331" s="18" t="str">
         <f>(SUM(C332:C333)/4)&amp;" h"</f>
@@ -10281,19 +10290,19 @@
       </c>
       <c r="E331" s="19"/>
     </row>
-    <row r="332" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B332" s="9"/>
       <c r="C332" s="10"/>
       <c r="D332" s="8"/>
       <c r="E332" s="8"/>
     </row>
-    <row r="333" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="333" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B333" s="9"/>
       <c r="C333" s="10"/>
       <c r="D333" s="11"/>
       <c r="E333" s="11"/>
     </row>
-    <row r="334" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="334" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B334" s="28"/>
       <c r="C334" s="18" t="str">
         <f>(SUM(C335:C337)/4)&amp;" h"</f>
@@ -10304,25 +10313,25 @@
       </c>
       <c r="E334" s="19"/>
     </row>
-    <row r="335" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B335" s="9"/>
       <c r="C335" s="10"/>
       <c r="D335" s="22"/>
       <c r="E335" s="11"/>
     </row>
-    <row r="336" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="336" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B336" s="9"/>
       <c r="C336" s="10"/>
       <c r="D336" s="11"/>
       <c r="E336" s="11"/>
     </row>
-    <row r="337" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="337" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B337" s="9"/>
       <c r="C337" s="10"/>
       <c r="D337" s="22"/>
       <c r="E337" s="11"/>
     </row>
-    <row r="338" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="338" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B338" s="28"/>
       <c r="C338" s="18" t="str">
         <f>(SUM(C339:C340)/4)&amp;" h"</f>
@@ -10333,19 +10342,19 @@
       </c>
       <c r="E338" s="19"/>
     </row>
-    <row r="339" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="339" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B339" s="9"/>
       <c r="C339" s="10"/>
       <c r="D339" s="22"/>
       <c r="E339" s="11"/>
     </row>
-    <row r="340" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="340" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B340" s="9"/>
       <c r="C340" s="10"/>
       <c r="D340" s="11"/>
       <c r="E340" s="11"/>
     </row>
-    <row r="341" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="341" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B341" s="28"/>
       <c r="C341" s="18" t="str">
         <f>(SUM(C342:C344)/4)&amp;" h"</f>
@@ -10356,25 +10365,25 @@
       </c>
       <c r="E341" s="19"/>
     </row>
-    <row r="342" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="342" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B342" s="9"/>
       <c r="C342" s="10"/>
       <c r="D342" s="11"/>
       <c r="E342" s="12"/>
     </row>
-    <row r="343" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="343" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B343" s="9"/>
       <c r="C343" s="10"/>
       <c r="D343" s="12"/>
       <c r="E343" s="12"/>
     </row>
-    <row r="344" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="344" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B344" s="9"/>
       <c r="C344" s="10"/>
       <c r="D344" s="12"/>
       <c r="E344" s="12"/>
     </row>
-    <row r="345" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="345" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B345" s="28"/>
       <c r="C345" s="18" t="str">
         <f>(SUM(C346:C349)/4)&amp;" h"</f>
@@ -10385,31 +10394,31 @@
       </c>
       <c r="E345" s="19"/>
     </row>
-    <row r="346" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="346" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B346" s="9"/>
       <c r="C346" s="10"/>
       <c r="D346" s="12"/>
       <c r="E346" s="12"/>
     </row>
-    <row r="347" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="347" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B347" s="9"/>
       <c r="C347" s="10"/>
       <c r="D347" s="12"/>
       <c r="E347" s="12"/>
     </row>
-    <row r="348" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="348" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B348" s="9"/>
       <c r="C348" s="10"/>
       <c r="D348" s="12"/>
       <c r="E348" s="12"/>
     </row>
-    <row r="349" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="349" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B349" s="9"/>
       <c r="C349" s="10"/>
       <c r="D349" s="13"/>
       <c r="E349" s="13"/>
     </row>
-    <row r="350" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="350" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B350" s="14" t="s">
         <v>4</v>
       </c>
@@ -10420,7 +10429,7 @@
       <c r="D350" s="15"/>
       <c r="E350" s="16"/>
     </row>
-    <row r="351" spans="2:5" ht="19" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="351" spans="2:5" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B351" s="1" t="s">
         <v>0</v>
       </c>
@@ -10434,7 +10443,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="352" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="352" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B352" s="4" t="s">
         <v>2</v>
       </c>
@@ -10446,7 +10455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="353" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="353" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B353" s="28"/>
       <c r="C353" s="18" t="str">
         <f>(SUM(C354:C355)/4)&amp;" h"</f>
@@ -10457,19 +10466,19 @@
       </c>
       <c r="E353" s="19"/>
     </row>
-    <row r="354" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="354" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B354" s="9"/>
       <c r="C354" s="10"/>
       <c r="D354" s="8"/>
       <c r="E354" s="8"/>
     </row>
-    <row r="355" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="355" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B355" s="9"/>
       <c r="C355" s="10"/>
       <c r="D355" s="11"/>
       <c r="E355" s="11"/>
     </row>
-    <row r="356" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="356" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B356" s="28"/>
       <c r="C356" s="18" t="str">
         <f>(SUM(C357:C359)/4)&amp;" h"</f>
@@ -10480,25 +10489,25 @@
       </c>
       <c r="E356" s="19"/>
     </row>
-    <row r="357" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="357" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B357" s="9"/>
       <c r="C357" s="10"/>
       <c r="D357" s="22"/>
       <c r="E357" s="11"/>
     </row>
-    <row r="358" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="358" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B358" s="9"/>
       <c r="C358" s="10"/>
       <c r="D358" s="11"/>
       <c r="E358" s="11"/>
     </row>
-    <row r="359" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="359" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B359" s="9"/>
       <c r="C359" s="10"/>
       <c r="D359" s="22"/>
       <c r="E359" s="11"/>
     </row>
-    <row r="360" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="360" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B360" s="28"/>
       <c r="C360" s="18" t="str">
         <f>(SUM(C361:C362)/4)&amp;" h"</f>
@@ -10509,19 +10518,19 @@
       </c>
       <c r="E360" s="19"/>
     </row>
-    <row r="361" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="361" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B361" s="9"/>
       <c r="C361" s="10"/>
       <c r="D361" s="22"/>
       <c r="E361" s="11"/>
     </row>
-    <row r="362" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="362" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B362" s="9"/>
       <c r="C362" s="10"/>
       <c r="D362" s="11"/>
       <c r="E362" s="11"/>
     </row>
-    <row r="363" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="363" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B363" s="28"/>
       <c r="C363" s="18" t="str">
         <f>(SUM(C364:C366)/4)&amp;" h"</f>
@@ -10532,25 +10541,25 @@
       </c>
       <c r="E363" s="19"/>
     </row>
-    <row r="364" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="364" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B364" s="9"/>
       <c r="C364" s="10"/>
       <c r="D364" s="11"/>
       <c r="E364" s="12"/>
     </row>
-    <row r="365" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="365" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B365" s="9"/>
       <c r="C365" s="10"/>
       <c r="D365" s="12"/>
       <c r="E365" s="12"/>
     </row>
-    <row r="366" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="366" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B366" s="9"/>
       <c r="C366" s="10"/>
       <c r="D366" s="12"/>
       <c r="E366" s="12"/>
     </row>
-    <row r="367" spans="2:5" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="367" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B367" s="28"/>
       <c r="C367" s="18" t="str">
         <f>(SUM(C368:C371)/4)&amp;" h"</f>
@@ -10561,31 +10570,31 @@
       </c>
       <c r="E367" s="19"/>
     </row>
-    <row r="368" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="368" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B368" s="9"/>
       <c r="C368" s="10"/>
       <c r="D368" s="12"/>
       <c r="E368" s="12"/>
     </row>
-    <row r="369" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="369" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B369" s="9"/>
       <c r="C369" s="10"/>
       <c r="D369" s="12"/>
       <c r="E369" s="12"/>
     </row>
-    <row r="370" spans="2:5" x14ac:dyDescent="0.35">
+    <row r="370" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B370" s="9"/>
       <c r="C370" s="10"/>
       <c r="D370" s="12"/>
       <c r="E370" s="12"/>
     </row>
-    <row r="371" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="371" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B371" s="9"/>
       <c r="C371" s="10"/>
       <c r="D371" s="13"/>
       <c r="E371" s="13"/>
     </row>
-    <row r="372" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="372" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B372" s="14" t="s">
         <v>4</v>
       </c>
